--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8d6885615144605/Documents/Fall_2019/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2125" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDD2FF21-9AC1-429A-8589-5557E2C43E20}"/>
+  <xr:revisionPtr revIDLastSave="2410" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FBB2C62-E20B-4AE6-A946-057A79B4159C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1 (2010-2014)" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1 (2000-2014)" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="CoxPHResults" sheetId="5" r:id="rId5"/>
+    <sheet name="table1" sheetId="6" r:id="rId4"/>
+    <sheet name="table2" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="CoxPHResults" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8104" uniqueCount="3842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8172" uniqueCount="3891">
   <si>
     <t>Variable</t>
   </si>
@@ -11561,13 +11563,184 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.096 (1.093 - 1.099)</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>No CRN</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hispanic/Latino</t>
+  </si>
+  <si>
+    <t>American Indian/Alaska Native</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>High School or Less</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Some College</t>
+  </si>
+  <si>
+    <t>College Degree +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;20k</t>
+  </si>
+  <si>
+    <t>20-&lt;35k</t>
+  </si>
+  <si>
+    <t>35k-&lt;60k</t>
+  </si>
+  <si>
+    <t>60k- &lt;80k</t>
+  </si>
+  <si>
+    <t>80k -&lt;100k</t>
+  </si>
+  <si>
+    <t>100k +</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Cost-Related Nonadherence</t>
+  </si>
+  <si>
+    <t>Needed but couldn't afford medication</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Former</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>*Indicates a survey item only included in 2010-2014 waves.</t>
+  </si>
+  <si>
+    <t>N (unweighted) 2000 -2014</t>
+  </si>
+  <si>
+    <t>CRN for CVD, including hypertension</t>
+  </si>
+  <si>
+    <t>All-Cause Mortality</t>
+  </si>
+  <si>
+    <t>Disease Specific Mortality</t>
+  </si>
+  <si>
+    <t>Full Sample</t>
+  </si>
+  <si>
+    <t>Died: N (%)</t>
+  </si>
+  <si>
+    <t>Follow-Up Time, Weeks Median (IQR)</t>
+  </si>
+  <si>
+    <t>CVD</t>
+  </si>
+  <si>
+    <t>2000-2014 Waves</t>
+  </si>
+  <si>
+    <t>CRN for Diabetes</t>
+  </si>
+  <si>
+    <t>CRN for CVD, excluding hypertension</t>
+  </si>
+  <si>
+    <r>
+      <t>Model 1: HR (95% CI)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Model 2: HR (95% CI)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Crude Hazard Ratio. 2. Adjusted for age, sex, race, insurance status, region, smoking status, and body mass index.</t>
+  </si>
+  <si>
+    <t>Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range; HR, hazard ratio.</t>
+  </si>
+  <si>
+    <t>CVD, including Hypertension</t>
+  </si>
+  <si>
+    <t>Skipped medication doses*</t>
+  </si>
+  <si>
+    <t>Delayed medication doses*</t>
+  </si>
+  <si>
+    <t>Took less medicine than prescribed*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: All numbers displayed in table are survey-weighted percentages (standard error). Bold face denotes statistically significant </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> differences (p &lt; 0.05) between CRN and no CRN within each disease category, as determined by t-tests or Rao-Scott Chi-Square tests.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11618,6 +11791,39 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -11633,7 +11839,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -11650,11 +11856,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11765,6 +11980,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11774,6 +11992,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12090,8 +12353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728E2825-F7E0-40B7-81F9-2F7201DD7769}">
   <dimension ref="A1:BE138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -12155,41 +12418,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="11"/>
       <c r="G1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="11"/>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="42"/>
+      <c r="M1" s="43"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="43" t="s">
         <v>508</v>
       </c>
-      <c r="R1" s="42"/>
+      <c r="R1" s="43"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="W1" s="42"/>
+      <c r="W1" s="43"/>
       <c r="Z1" s="11"/>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="AB1" s="42"/>
+      <c r="AB1" s="43"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="43" t="s">
         <v>659</v>
       </c>
-      <c r="AG1" s="42"/>
+      <c r="AG1" s="43"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="29" t="s">
         <v>1045</v>
@@ -22007,47 +22270,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="11"/>
       <c r="H1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="29"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="42"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="29"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="43" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="42"/>
+      <c r="U1" s="43"/>
       <c r="W1" s="29"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="42"/>
+      <c r="AA1" s="43"/>
       <c r="AC1" s="29"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="42"/>
+      <c r="AG1" s="43"/>
       <c r="AI1" s="29"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="43" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="42"/>
+      <c r="AM1" s="43"/>
       <c r="AO1" s="29"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="29" t="s">
@@ -32637,8 +32900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397F58C5-EC34-48B9-9CB4-6ADC0DB616EE}">
   <dimension ref="A1:BN167"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -32713,13 +32976,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
         <v>507</v>
@@ -32728,38 +32991,38 @@
       <c r="J1" s="6"/>
       <c r="K1" s="12"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="42"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="12"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="43" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="42"/>
+      <c r="U1" s="43"/>
       <c r="V1" s="6"/>
       <c r="W1" s="12"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="42"/>
+      <c r="AA1" s="43"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="12"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="42"/>
+      <c r="AG1" s="43"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="12"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="43" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="42"/>
+      <c r="AM1" s="43"/>
       <c r="AO1" s="12"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="12" t="s">
@@ -45245,6 +45508,660 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection sqref="A1:G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54" t="s">
+        <v>3885</v>
+      </c>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>3842</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="57" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="55" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="59" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="59" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="59" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="59" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="59" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="59" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="59" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="59" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="59" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="59" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="59" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="59" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="59" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="59" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="59" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="59" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="59" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="59" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="59" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="59" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="59" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="60" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="61" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="62" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="62" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="62" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="62" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="63" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="62" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="62" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="2.86328125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="50" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="50" t="s">
+        <v>3872</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>3882</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42" t="s">
+        <v>3875</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>3876</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>3881</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="32" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A5" s="47" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A6" s="47" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="H6" s="47"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="49" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="32" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A10" s="47" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A11" s="52" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="32" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="32" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95AEECA-C32B-4507-9F23-8CF5B613F9C9}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -45261,11 +46178,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -45475,11 +46392,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DCAAE1-23D0-4F7F-BF1E-04FFE018A78C}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="96" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -45502,20 +46419,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>3662</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B2" s="32" t="s">
@@ -45700,34 +46617,34 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>3662</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45" t="s">
         <v>3681</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="N13" s="44" t="s">
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="N13" s="45" t="s">
         <v>3662</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44" t="s">
+      <c r="O13" s="45"/>
+      <c r="P13" s="45" t="s">
         <v>3681</v>
       </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44" t="s">
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="32" t="s">
@@ -46083,20 +47000,20 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>3662</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45" t="s">
         <v>3681</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="32" t="s">
@@ -46108,20 +47025,20 @@
       <c r="G26" s="32" t="s">
         <v>3699</v>
       </c>
-      <c r="N26" s="44" t="s">
+      <c r="N26" s="45" t="s">
         <v>3662</v>
       </c>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44" t="s">
+      <c r="O26" s="45"/>
+      <c r="P26" s="45" t="s">
         <v>3681</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44" t="s">
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="32" t="s">
@@ -46473,20 +47390,20 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>3662</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45" t="s">
         <v>3681</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B38" s="32" t="s">
@@ -46677,10 +47594,10 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="45" t="s">
         <v>3662</v>
       </c>
-      <c r="B48" s="44"/>
+      <c r="B48" s="45"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B49" s="32" t="s">
@@ -46775,6 +47692,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -46782,18 +47711,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -46801,18 +47718,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46962,6 +47879,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882C1FE-BC45-4FCD-A08C-67DB8BD38111}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -46973,14 +47898,6 @@
     <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2410" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FBB2C62-E20B-4AE6-A946-057A79B4159C}"/>
+  <xr:revisionPtr revIDLastSave="2413" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A9FCF5E-FCAC-4415-9E76-86DB9F7FF228}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="2408" yWindow="3877" windowWidth="16875" windowHeight="10523" activeTab="3" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -11730,10 +11730,10 @@
     <t>Took less medicine than prescribed*</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: All numbers displayed in table are survey-weighted percentages (standard error). Bold face denotes statistically significant </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> differences (p &lt; 0.05) between CRN and no CRN within each disease category, as determined by t-tests or Rao-Scott Chi-Square tests.</t>
+    <t xml:space="preserve">Note: All numbers displayed in table are survey-weighted percentages (standard error) unless otherwise indicated. Bold face denotes statistically </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> significant differences (p &lt; 0.05) between CRN and no CRN within each disease category, as determined by t-tests or Rao-Scott Chi-Square tests.</t>
   </si>
 </sst>
 </file>
@@ -11983,15 +11983,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -12000,9 +11991,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12010,9 +11998,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12037,6 +12022,21 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12418,41 +12418,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="11"/>
       <c r="G1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="11"/>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="43"/>
+      <c r="M1" s="60"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="R1" s="43"/>
+      <c r="R1" s="60"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="W1" s="43"/>
+      <c r="W1" s="60"/>
       <c r="Z1" s="11"/>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="AB1" s="43"/>
+      <c r="AB1" s="60"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="60" t="s">
         <v>659</v>
       </c>
-      <c r="AG1" s="43"/>
+      <c r="AG1" s="60"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="29" t="s">
         <v>1045</v>
@@ -22270,47 +22270,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="11"/>
       <c r="H1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="29"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="43"/>
+      <c r="O1" s="60"/>
       <c r="Q1" s="29"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="43"/>
+      <c r="U1" s="60"/>
       <c r="W1" s="29"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="43"/>
+      <c r="AA1" s="60"/>
       <c r="AC1" s="29"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="43"/>
+      <c r="AG1" s="60"/>
       <c r="AI1" s="29"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="43" t="s">
+      <c r="AL1" s="60" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="43"/>
+      <c r="AM1" s="60"/>
       <c r="AO1" s="29"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="29" t="s">
@@ -32976,13 +32976,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
         <v>507</v>
@@ -32991,38 +32991,38 @@
       <c r="J1" s="6"/>
       <c r="K1" s="12"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="43"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="12"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="43"/>
+      <c r="U1" s="60"/>
       <c r="V1" s="6"/>
       <c r="W1" s="12"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="43"/>
+      <c r="AA1" s="60"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="12"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="43"/>
+      <c r="AG1" s="60"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="12"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="43" t="s">
+      <c r="AL1" s="60" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="43"/>
+      <c r="AM1" s="60"/>
       <c r="AO1" s="12"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="12" t="s">
@@ -45511,8 +45511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection sqref="A1:G41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45522,478 +45522,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="61" t="s">
         <v>3662</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>3877</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61" t="s">
         <v>3885</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51" t="s">
         <v>3842</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="51" t="s">
         <v>3843</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="51" t="s">
         <v>3842</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="51" t="s">
         <v>3843</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="51" t="s">
         <v>3842</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="51" t="s">
         <v>3843</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="52" t="s">
         <v>3870</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="50" t="s">
         <v>3844</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="54" t="s">
         <v>3863</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="54" t="s">
         <v>3845</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="54" t="s">
         <v>3846</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="54" t="s">
         <v>3847</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="54" t="s">
         <v>3848</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="54" t="s">
         <v>3849</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="54" t="s">
         <v>3850</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="54" t="s">
         <v>3851</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="54" t="s">
         <v>3852</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="54" t="s">
         <v>3854</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="54" t="s">
         <v>3853</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="54" t="s">
         <v>3855</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="54" t="s">
         <v>3856</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="54" t="s">
         <v>3857</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="54" t="s">
         <v>3858</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="54" t="s">
         <v>3859</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="54" t="s">
         <v>3860</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="54" t="s">
         <v>3861</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="54" t="s">
         <v>3862</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="54" t="s">
         <v>3866</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="54" t="s">
         <v>3867</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="55" t="s">
         <v>3868</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="56" t="s">
         <v>3864</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="57" t="s">
         <v>3865</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="57" t="s">
         <v>3886</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="57" t="s">
         <v>3887</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="57" t="s">
         <v>3888</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="58" t="s">
         <v>3889</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="57" t="s">
         <v>3890</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="57" t="s">
         <v>3869</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -46010,7 +46010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -46020,7 +46020,7 @@
     <col min="2" max="2" width="10.265625" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.796875" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.53125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" style="44" customWidth="1"/>
     <col min="6" max="6" width="2.86328125" style="32" customWidth="1"/>
     <col min="7" max="7" width="10.265625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.796875" style="32" bestFit="1" customWidth="1"/>
@@ -46030,60 +46030,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="62" t="s">
         <v>3873</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="50" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="62" t="s">
         <v>3872</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="B2" s="42" t="s">
         <v>3875</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>3876</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>3881</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="45" t="s">
         <v>3882</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
         <v>3875</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="45" t="s">
         <v>3876</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="45" t="s">
         <v>3881</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="45" t="s">
         <v>3882</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="46" t="s">
         <v>3874</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
@@ -46091,31 +46091,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>3880</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>3871</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="46" t="s">
         <v>3878</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
@@ -46123,23 +46123,23 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>3880</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="48" t="s">
         <v>3871</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="32" t="s">
@@ -46178,11 +46178,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -46419,20 +46419,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="64" t="s">
         <v>3662</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B2" s="32" t="s">
@@ -46617,34 +46617,34 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="64" t="s">
         <v>3662</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64" t="s">
         <v>3681</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45" t="s">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="N13" s="45" t="s">
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="N13" s="64" t="s">
         <v>3662</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45" t="s">
+      <c r="O13" s="64"/>
+      <c r="P13" s="64" t="s">
         <v>3681</v>
       </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45" t="s">
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="32" t="s">
@@ -47000,20 +47000,20 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="64" t="s">
         <v>3662</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64" t="s">
         <v>3681</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45" t="s">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="32" t="s">
@@ -47025,20 +47025,20 @@
       <c r="G26" s="32" t="s">
         <v>3699</v>
       </c>
-      <c r="N26" s="45" t="s">
+      <c r="N26" s="64" t="s">
         <v>3662</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45" t="s">
+      <c r="O26" s="64"/>
+      <c r="P26" s="64" t="s">
         <v>3681</v>
       </c>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45" t="s">
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="32" t="s">
@@ -47390,20 +47390,20 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="64" t="s">
         <v>3662</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64" t="s">
         <v>3681</v>
       </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45" t="s">
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B38" s="32" t="s">
@@ -47594,10 +47594,10 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="64" t="s">
         <v>3662</v>
       </c>
-      <c r="B48" s="45"/>
+      <c r="B48" s="64"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B49" s="32" t="s">
@@ -47692,18 +47692,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -47711,6 +47699,18 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47718,21 +47718,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -47878,10 +47863,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47903,19 +47913,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2413" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A9FCF5E-FCAC-4415-9E76-86DB9F7FF228}"/>
+  <xr:revisionPtr revIDLastSave="2453" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B7BD021-ED06-47A8-8130-C5BE66E34CC1}"/>
   <bookViews>
     <workbookView xWindow="2408" yWindow="3877" windowWidth="16875" windowHeight="10523" activeTab="3" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8172" uniqueCount="3891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8190" uniqueCount="3900">
   <si>
     <t>Variable</t>
   </si>
@@ -11647,9 +11647,6 @@
   </si>
   <si>
     <t>*Indicates a survey item only included in 2010-2014 waves.</t>
-  </si>
-  <si>
-    <t>N (unweighted) 2000 -2014</t>
   </si>
   <si>
     <t>CRN for CVD, including hypertension</t>
@@ -11730,17 +11727,47 @@
     <t>Took less medicine than prescribed*</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: All numbers displayed in table are survey-weighted percentages (standard error) unless otherwise indicated. Bold face denotes statistically </t>
-  </si>
-  <si>
     <t xml:space="preserve"> significant differences (p &lt; 0.05) between CRN and no CRN within each disease category, as determined by t-tests or Rao-Scott Chi-Square tests.</t>
+  </si>
+  <si>
+    <t>N (weighted) 2000 -2014</t>
+  </si>
+  <si>
+    <t>1874447.0 (56.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2347292.6 (70.3) </t>
+  </si>
+  <si>
+    <t>1932055.2 (57.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: All numbers displayed in table are survey-weighted N (%) unless otherwise indicated. Bold face denotes statistically </t>
+  </si>
+  <si>
+    <t>2222249.2 (52.9)</t>
+  </si>
+  <si>
+    <t>2875838.6 (68.4)</t>
+  </si>
+  <si>
+    <t>2339466.4 (55.7)</t>
+  </si>
+  <si>
+    <t>5371382.6 (53.6)</t>
+  </si>
+  <si>
+    <t>6854083.4 (68.4)</t>
+  </si>
+  <si>
+    <t>5652058.2 (56.4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11824,6 +11851,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -11869,7 +11902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12036,6 +12069,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -45511,14 +45550,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="7" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -45528,11 +45572,11 @@
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="61" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="E1" s="61"/>
       <c r="F1" s="61" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="G1" s="61"/>
     </row>
@@ -45559,7 +45603,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="52" t="s">
-        <v>3870</v>
+        <v>3889</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -45572,7 +45616,6 @@
       <c r="A4" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
@@ -45583,7 +45626,6 @@
       <c r="A5" s="50" t="s">
         <v>3844</v>
       </c>
-      <c r="B5" s="50"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -45594,7 +45636,6 @@
       <c r="A6" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="50"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
@@ -45639,7 +45680,7 @@
         <v>3846</v>
       </c>
       <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
@@ -45650,7 +45691,7 @@
         <v>3847</v>
       </c>
       <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
@@ -45661,7 +45702,7 @@
         <v>163</v>
       </c>
       <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
@@ -45672,7 +45713,7 @@
         <v>3848</v>
       </c>
       <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -45683,7 +45724,7 @@
         <v>3849</v>
       </c>
       <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
@@ -45922,40 +45963,76 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="57" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+        <v>3885</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>3894</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>3897</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>3392</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="57" t="s">
-        <v>3887</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+        <v>3886</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>3898</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>3392</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="57" t="s">
-        <v>3888</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
+        <v>3887</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>3392</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="58" t="s">
-        <v>3889</v>
+        <v>3893</v>
       </c>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -45966,7 +46043,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="57" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
@@ -46031,14 +46108,14 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="62" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="47"/>
       <c r="G1" s="62" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
@@ -46046,34 +46123,34 @@
     </row>
     <row r="2" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="B2" s="42" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>3875</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>3876</v>
-      </c>
       <c r="D2" s="45" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>3881</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>3882</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
+        <v>3874</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>3875</v>
       </c>
-      <c r="H2" s="45" t="s">
-        <v>3876</v>
-      </c>
       <c r="I2" s="45" t="s">
+        <v>3880</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>3881</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>3882</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -46087,17 +46164,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -46105,7 +46182,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="46" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -46119,17 +46196,17 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -46143,12 +46220,12 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="32" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="32" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
     </row>
   </sheetData>
@@ -47692,6 +47769,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -47699,18 +47788,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47718,6 +47795,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -47863,35 +47955,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47913,9 +47980,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2453" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B7BD021-ED06-47A8-8130-C5BE66E34CC1}"/>
+  <xr:revisionPtr revIDLastSave="2585" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{959B8193-F442-461C-9AD5-DFAA453CB2D5}"/>
   <bookViews>
     <workbookView xWindow="2408" yWindow="3877" windowWidth="16875" windowHeight="10523" activeTab="3" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8190" uniqueCount="3900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8395" uniqueCount="4101">
   <si>
     <t>Variable</t>
   </si>
@@ -11569,9 +11569,6 @@
   </si>
   <si>
     <t>No CRN</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
   <si>
     <t>Midwest</t>
@@ -11762,12 +11759,618 @@
   <si>
     <t>5652058.2 (56.4)</t>
   </si>
+  <si>
+    <t>2400453.7 (86.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2267261.1 (52.4) </t>
+  </si>
+  <si>
+    <t>1248483.9 (45.3)</t>
+  </si>
+  <si>
+    <t>786087.3 (28.5)</t>
+  </si>
+  <si>
+    <t>485042.3 (34.3)</t>
+  </si>
+  <si>
+    <t>723574.5 (26.2)</t>
+  </si>
+  <si>
+    <t>571186.9 (13.2)</t>
+  </si>
+  <si>
+    <t>3412747.5 (88.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1449656.9 (37.6) </t>
+  </si>
+  <si>
+    <t>1049201.6 (27.2)</t>
+  </si>
+  <si>
+    <t>910527.1 (15.0)</t>
+  </si>
+  <si>
+    <t>1355225.9 (35.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (0.0)  </t>
+  </si>
+  <si>
+    <t>0.0 (0.0)</t>
+  </si>
+  <si>
+    <t>7708209.7 (87.3)</t>
+  </si>
+  <si>
+    <t>2424061.0 (14.6)</t>
+  </si>
+  <si>
+    <t>2920187.5 (33.1)</t>
+  </si>
+  <si>
+    <t>2127650.7 (24.2)</t>
+  </si>
+  <si>
+    <t>3761504.8 (42.7)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Public Insurance (Medicaid/CHIP)</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>63.75 (13.68)</t>
+  </si>
+  <si>
+    <t>54.58 (13.26)</t>
+  </si>
+  <si>
+    <t>1071740.3 (52.2)</t>
+  </si>
+  <si>
+    <t>779793.6 (61.2)</t>
+  </si>
+  <si>
+    <t>30.39 (5.72)</t>
+  </si>
+  <si>
+    <t>31.62 (6.17)</t>
+  </si>
+  <si>
+    <t>362749.5 (17.7)</t>
+  </si>
+  <si>
+    <t>153906.2 (12.1)</t>
+  </si>
+  <si>
+    <t>485259.3 (23.6)</t>
+  </si>
+  <si>
+    <t>299530.7 (23.5)</t>
+  </si>
+  <si>
+    <t>819511.7 (39.9)</t>
+  </si>
+  <si>
+    <t>588225.5 (46.2)</t>
+  </si>
+  <si>
+    <t>385883.1 (18.8)</t>
+  </si>
+  <si>
+    <t>232115.0 (18.2)</t>
+  </si>
+  <si>
+    <t>1368077.9 (66.6)</t>
+  </si>
+  <si>
+    <t>762645.3 (59.9)</t>
+  </si>
+  <si>
+    <t>319727.9 (15.6)</t>
+  </si>
+  <si>
+    <t>274570.6 (21.6)</t>
+  </si>
+  <si>
+    <t>257571.8 (12.5)</t>
+  </si>
+  <si>
+    <t>196393.1 (15.4)</t>
+  </si>
+  <si>
+    <t>321969.8 (25.3)</t>
+  </si>
+  <si>
+    <t>397405.6 (19.4)</t>
+  </si>
+  <si>
+    <t>243829.1 (19.2)</t>
+  </si>
+  <si>
+    <t>1041669.2 (50.8)</t>
+  </si>
+  <si>
+    <t>466939.6 (36.7)</t>
+  </si>
+  <si>
+    <t>384122.1 (18.7)</t>
+  </si>
+  <si>
+    <t>216756.3 (17.1)</t>
+  </si>
+  <si>
+    <t>1065573.4 (52.2)</t>
+  </si>
+  <si>
+    <t>734748.8 (58.0)</t>
+  </si>
+  <si>
+    <t>566380.7 (27.7)</t>
+  </si>
+  <si>
+    <t>386110.5 (30.5)</t>
+  </si>
+  <si>
+    <t>410085.9 (20.1)</t>
+  </si>
+  <si>
+    <t>145874.7 (11.5)</t>
+  </si>
+  <si>
+    <t>576371.3 (28.1)</t>
+  </si>
+  <si>
+    <t>574066.5 (45.1)</t>
+  </si>
+  <si>
+    <t>416123.4 (20.3)</t>
+  </si>
+  <si>
+    <t>323401.4 (25.4)</t>
+  </si>
+  <si>
+    <t>467633.0 (22.8)</t>
+  </si>
+  <si>
+    <t>243470.7 (19.1)</t>
+  </si>
+  <si>
+    <t>224663.7 (10.9)</t>
+  </si>
+  <si>
+    <t>248419.7 (12.1)</t>
+  </si>
+  <si>
+    <t>65.69 (15.53)</t>
+  </si>
+  <si>
+    <t>54.60 (15.04)</t>
+  </si>
+  <si>
+    <t>1535387.7 (50.7)</t>
+  </si>
+  <si>
+    <t>1178873.2 (62.2)</t>
+  </si>
+  <si>
+    <t>28.13 (5.42)</t>
+  </si>
+  <si>
+    <t>29.02 (6.13)</t>
+  </si>
+  <si>
+    <t>546129.7 (18.0)</t>
+  </si>
+  <si>
+    <t>233900.1 (12.3)</t>
+  </si>
+  <si>
+    <t>743503.1 (24.5)</t>
+  </si>
+  <si>
+    <t>471369.1 (24.9)</t>
+  </si>
+  <si>
+    <t>1165676.9 (38.5)</t>
+  </si>
+  <si>
+    <t>846689.4 (44.7)</t>
+  </si>
+  <si>
+    <t>574697.3 (19.0)</t>
+  </si>
+  <si>
+    <t>343579.6 (18.1)</t>
+  </si>
+  <si>
+    <t>2414174.9 (79.7)</t>
+  </si>
+  <si>
+    <t>1354773.1 (71.5)</t>
+  </si>
+  <si>
+    <t>314723.7 (10.4)</t>
+  </si>
+  <si>
+    <t>319393.8 (16.8)</t>
+  </si>
+  <si>
+    <t>475956.7 (25.2)</t>
+  </si>
+  <si>
+    <t>498622.5 (16.5)</t>
+  </si>
+  <si>
+    <t>382161.9 (20.2)</t>
+  </si>
+  <si>
+    <t>1590471.4 (52.6)</t>
+  </si>
+  <si>
+    <t>618065.9 (32.7)</t>
+  </si>
+  <si>
+    <t>616005.1 (20.4)</t>
+  </si>
+  <si>
+    <t>372219.3 (19.7)</t>
+  </si>
+  <si>
+    <t>1429955.7 (47.4)</t>
+  </si>
+  <si>
+    <t>1051034.3 (55.8)</t>
+  </si>
+  <si>
+    <t>854274.1 (28.3)</t>
+  </si>
+  <si>
+    <t>608890.9 (32.4)</t>
+  </si>
+  <si>
+    <t>730832.0 (24.2)</t>
+  </si>
+  <si>
+    <t>222088.2 (11.8)</t>
+  </si>
+  <si>
+    <t>823869.0 (27.2)</t>
+  </si>
+  <si>
+    <t>949730.5 (50.1)</t>
+  </si>
+  <si>
+    <t>640813.9 (21.1)</t>
+  </si>
+  <si>
+    <t>459014.3 (24.2)</t>
+  </si>
+  <si>
+    <t>643604.9 (21.2)</t>
+  </si>
+  <si>
+    <t>314766.9 (16.6)</t>
+  </si>
+  <si>
+    <t>314559.3 (10.4)</t>
+  </si>
+  <si>
+    <t>413940.1 (13.7)</t>
+  </si>
+  <si>
+    <t>61.97 (15.69)</t>
+  </si>
+  <si>
+    <t>52.02 (14.68)</t>
+  </si>
+  <si>
+    <t>4260646.5 (53.5)</t>
+  </si>
+  <si>
+    <t>2653920.1 (62.9)</t>
+  </si>
+  <si>
+    <t>28.71 (5.45)</t>
+  </si>
+  <si>
+    <t>29.66 (6.11)</t>
+  </si>
+  <si>
+    <t>1421081.4 (17.8)</t>
+  </si>
+  <si>
+    <t>515853.1 (12.2)</t>
+  </si>
+  <si>
+    <t>1935019.0 (24.3)</t>
+  </si>
+  <si>
+    <t>990868.0 (23.5)</t>
+  </si>
+  <si>
+    <t>3073716.8 (38.6)</t>
+  </si>
+  <si>
+    <t>1948269.3 (46.2)</t>
+  </si>
+  <si>
+    <t>1532803.4 (19.2)</t>
+  </si>
+  <si>
+    <t>764312.7 (18.1)</t>
+  </si>
+  <si>
+    <t>5961428.7 (74.9)</t>
+  </si>
+  <si>
+    <t>2794604.7 (66.2)</t>
+  </si>
+  <si>
+    <t>1046326.7 (13.1)</t>
+  </si>
+  <si>
+    <t>844987.7 (20.0)</t>
+  </si>
+  <si>
+    <t>463015.7 (11.0)</t>
+  </si>
+  <si>
+    <t>1285644.8 (30.6)</t>
+  </si>
+  <si>
+    <t>1138810.5 (14.3)</t>
+  </si>
+  <si>
+    <t>728162.3 (17.3)</t>
+  </si>
+  <si>
+    <t>4573969.1 (57.5)</t>
+  </si>
+  <si>
+    <t>1492673.9 (35.5)</t>
+  </si>
+  <si>
+    <t>1364089.1 (17.2)</t>
+  </si>
+  <si>
+    <t>627517.9 (14.9)</t>
+  </si>
+  <si>
+    <t>3571093.8 (45.0)</t>
+  </si>
+  <si>
+    <t>2310737.6 (55.1)</t>
+  </si>
+  <si>
+    <t>2294780.0 (28.9)</t>
+  </si>
+  <si>
+    <t>1368270.2 (32.7)</t>
+  </si>
+  <si>
+    <t>2063992.3 (26.0)</t>
+  </si>
+  <si>
+    <t>511632.9 (12.2)</t>
+  </si>
+  <si>
+    <t>1830836.8 (23.0)</t>
+  </si>
+  <si>
+    <t>1939293.9 (46.0)</t>
+  </si>
+  <si>
+    <t>1537042.2 (19.3)</t>
+  </si>
+  <si>
+    <t>1046478.0 (24.8)</t>
+  </si>
+  <si>
+    <t>1761969.1 (22.1)</t>
+  </si>
+  <si>
+    <t>776030.1 (18.4)</t>
+  </si>
+  <si>
+    <t>939823.6 (11.8)</t>
+  </si>
+  <si>
+    <t>1287779.9 (16.2)</t>
+  </si>
+  <si>
+    <t>2376857.2 (39.1)</t>
+  </si>
+  <si>
+    <t>2796679.1 (46.0)</t>
+  </si>
+  <si>
+    <t>8691956.3 (52.3)</t>
+  </si>
+  <si>
+    <t>5495561.7 (33.1)</t>
+  </si>
+  <si>
+    <t>2765641.4 (39.0)</t>
+  </si>
+  <si>
+    <t>4329870.3 (61.0)</t>
+  </si>
+  <si>
+    <t>3861770.7 (38.8)</t>
+  </si>
+  <si>
+    <t>6092283.1 (61.2)</t>
+  </si>
+  <si>
+    <t>8827390.3 (34.7)</t>
+  </si>
+  <si>
+    <t>16628904.6 (65.3)</t>
+  </si>
+  <si>
+    <t>96992.3 (4.7)</t>
+  </si>
+  <si>
+    <t>3378.5 (0.1)</t>
+  </si>
+  <si>
+    <t>171492.5 9.0)</t>
+  </si>
+  <si>
+    <t>199751.8 6.6)</t>
+  </si>
+  <si>
+    <t>639574.3 8.0)</t>
+  </si>
+  <si>
+    <t>15385.5 1.2)</t>
+  </si>
+  <si>
+    <t>22876.9 1.1)</t>
+  </si>
+  <si>
+    <t>25105.5 1.3)</t>
+  </si>
+  <si>
+    <t>23328.1 0.8)</t>
+  </si>
+  <si>
+    <t>44338.7 1.1)</t>
+  </si>
+  <si>
+    <t>53119.3 0.7)</t>
+  </si>
+  <si>
+    <t>21015.1 1.6)</t>
+  </si>
+  <si>
+    <t>79854.6 3.9)</t>
+  </si>
+  <si>
+    <t>20068.9 1.1)</t>
+  </si>
+  <si>
+    <t>70387.3 2.3)</t>
+  </si>
+  <si>
+    <t>60015.6 1.4)</t>
+  </si>
+  <si>
+    <t>244833.0 3.1)</t>
+  </si>
+  <si>
+    <t>3767.9 0.3)</t>
+  </si>
+  <si>
+    <t>5294.7 0.3)</t>
+  </si>
+  <si>
+    <t>4704.3 0.2)</t>
+  </si>
+  <si>
+    <t>7641.1 0.3)</t>
+  </si>
+  <si>
+    <t>12340.8 0.3)</t>
+  </si>
+  <si>
+    <t>17338.6 0.2)</t>
+  </si>
+  <si>
+    <t>111246.1 3.7)</t>
+  </si>
+  <si>
+    <t>410375.3 5.2)</t>
+  </si>
+  <si>
+    <t>18252.2 1.4)</t>
+  </si>
+  <si>
+    <t>125139.6 6.1)</t>
+  </si>
+  <si>
+    <t>35798.0 1.9)</t>
+  </si>
+  <si>
+    <t>206855.3 6.8)</t>
+  </si>
+  <si>
+    <t>61814.6 1.5)</t>
+  </si>
+  <si>
+    <t>451068.5 5.7)</t>
+  </si>
+  <si>
+    <t>2921.4 0.2)</t>
+  </si>
+  <si>
+    <t>5098.1 0.2)</t>
+  </si>
+  <si>
+    <t>5174.3 0.3)</t>
+  </si>
+  <si>
+    <t>10847.1 0.3)</t>
+  </si>
+  <si>
+    <t>12089.2 0.2)</t>
+  </si>
+  <si>
+    <t>79488.3 6.2)</t>
+  </si>
+  <si>
+    <t>100902.7 5.3)</t>
+  </si>
+  <si>
+    <t>269453.2 6.4)</t>
+  </si>
+  <si>
+    <t>24359.3 1.9)</t>
+  </si>
+  <si>
+    <t>120192.7 5.9)</t>
+  </si>
+  <si>
+    <t>34169.3 1.8)</t>
+  </si>
+  <si>
+    <t>193219.8 6.4)</t>
+  </si>
+  <si>
+    <t>87039.1 2.1)</t>
+  </si>
+  <si>
+    <t>605169.0 7.6)</t>
+  </si>
+  <si>
+    <t>28991.3 2.3)</t>
+  </si>
+  <si>
+    <t>36954.3 1.9)</t>
+  </si>
+  <si>
+    <t>101008.8 2.4)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11835,13 +12438,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -11852,10 +12448,26 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="5"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -11902,7 +12514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12031,34 +12643,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12070,11 +12680,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12457,41 +13089,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="11"/>
       <c r="G1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="11"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="60"/>
+      <c r="M1" s="58"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="R1" s="60"/>
+      <c r="R1" s="58"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="58" t="s">
         <v>649</v>
       </c>
-      <c r="W1" s="60"/>
+      <c r="W1" s="58"/>
       <c r="Z1" s="11"/>
-      <c r="AA1" s="60" t="s">
+      <c r="AA1" s="58" t="s">
         <v>650</v>
       </c>
-      <c r="AB1" s="60"/>
+      <c r="AB1" s="58"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="60" t="s">
+      <c r="AF1" s="58" t="s">
         <v>659</v>
       </c>
-      <c r="AG1" s="60"/>
+      <c r="AG1" s="58"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="29" t="s">
         <v>1045</v>
@@ -22309,47 +22941,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="11"/>
       <c r="H1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="29"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="60"/>
+      <c r="O1" s="58"/>
       <c r="Q1" s="29"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="60"/>
+      <c r="U1" s="58"/>
       <c r="W1" s="29"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="60" t="s">
+      <c r="Z1" s="58" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="60"/>
+      <c r="AA1" s="58"/>
       <c r="AC1" s="29"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="60" t="s">
+      <c r="AF1" s="58" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="60"/>
+      <c r="AG1" s="58"/>
       <c r="AI1" s="29"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="60" t="s">
+      <c r="AL1" s="58" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="60"/>
+      <c r="AM1" s="58"/>
       <c r="AO1" s="29"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="29" t="s">
@@ -32939,8 +33571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397F58C5-EC34-48B9-9CB4-6ADC0DB616EE}">
   <dimension ref="A1:BN167"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M91" sqref="M91"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -33015,13 +33647,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
         <v>507</v>
@@ -33030,38 +33662,38 @@
       <c r="J1" s="6"/>
       <c r="K1" s="12"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="60"/>
+      <c r="O1" s="58"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="12"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="60"/>
+      <c r="U1" s="58"/>
       <c r="V1" s="6"/>
       <c r="W1" s="12"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="60" t="s">
+      <c r="Z1" s="58" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="60"/>
+      <c r="AA1" s="58"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="12"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="60" t="s">
+      <c r="AF1" s="58" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="60"/>
+      <c r="AG1" s="58"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="12"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="60" t="s">
+      <c r="AL1" s="58" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="60"/>
+      <c r="AM1" s="58"/>
       <c r="AO1" s="12"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="12" t="s">
@@ -45548,529 +46180,1006 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="12" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="57" customWidth="1"/>
+    <col min="6" max="6" width="12" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" style="57" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="49"/>
-      <c r="B1" s="61" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="59" t="s">
         <v>3662</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
-        <v>3876</v>
-      </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59" t="s">
+        <v>3875</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59" t="s">
+        <v>3883</v>
+      </c>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="57" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>3842</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>4050</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>4051</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>3965</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>3964</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>4004</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>4003</v>
+      </c>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>3967</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>3966</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>4006</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>4005</v>
+      </c>
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>3928</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>4008</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>4007</v>
+      </c>
+      <c r="I6" s="65"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="I7" s="65"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="52" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>3970</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>4010</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>4009</v>
+      </c>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>3973</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>3972</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>4012</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>4011</v>
+      </c>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="52" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>3933</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>3974</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>4013</v>
+      </c>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>3976</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>4016</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>4015</v>
+      </c>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="I12" s="65"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="52" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>3979</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>3978</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>4018</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>4017</v>
+      </c>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="52" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>3939</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>3981</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>3980</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>4020</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>4019</v>
+      </c>
+      <c r="I14" s="65"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="52" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>4055</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>4021</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>4057</v>
+      </c>
+      <c r="I15" s="65"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>4060</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>4061</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>4062</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>4063</v>
+      </c>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>4065</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>4067</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>4068</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>4069</v>
+      </c>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="52" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>4072</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>4073</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>4075</v>
+      </c>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="52" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>3982</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>4076</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>4022</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>4077</v>
+      </c>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="52" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>3944</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>3983</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>4024</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>4023</v>
+      </c>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="52" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>3946</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>3986</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>3985</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>4026</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>4025</v>
+      </c>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="52" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>4081</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>4082</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>4083</v>
+      </c>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="52" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>3988</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>3987</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>4028</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>4027</v>
+      </c>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="52" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>4086</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>4054</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>4087</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>4088</v>
+      </c>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="52" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>3990</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>3989</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>4029</v>
+      </c>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="52" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>3992</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>4032</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>4031</v>
+      </c>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="52" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>3993</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>4034</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>4033</v>
+      </c>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="52" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>3995</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>4036</v>
+      </c>
+      <c r="G31" s="69" t="s">
+        <v>4035</v>
+      </c>
+      <c r="I31" s="65"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="52" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>3998</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>3997</v>
+      </c>
+      <c r="F32" s="69" t="s">
+        <v>4038</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>4037</v>
+      </c>
+      <c r="I32" s="65"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="52" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C33" s="69" t="s">
+        <v>3960</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>3999</v>
+      </c>
+      <c r="F33" s="69" t="s">
+        <v>4040</v>
+      </c>
+      <c r="G33" s="69" t="s">
+        <v>4039</v>
+      </c>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>4090</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>4001</v>
+      </c>
+      <c r="F34" s="69" t="s">
+        <v>4091</v>
+      </c>
+      <c r="G34" s="69" t="s">
+        <v>4041</v>
+      </c>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="52" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>4094</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>4095</v>
+      </c>
+      <c r="F35" s="69" t="s">
+        <v>4096</v>
+      </c>
+      <c r="G35" s="69" t="s">
+        <v>4097</v>
+      </c>
+      <c r="I35" s="65"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="52" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>4099</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>4002</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>4100</v>
+      </c>
+      <c r="G36" s="69" t="s">
+        <v>4042</v>
+      </c>
+      <c r="I36" s="63"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="52" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>4044</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>3917</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="52" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>3908</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>4043</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>3916</v>
+      </c>
+      <c r="G39" s="71" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="53" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>3910</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>3909</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>3915</v>
+      </c>
+      <c r="G40" s="72" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="54" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="55" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>3906</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>3913</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="55" t="s">
         <v>3884</v>
       </c>
-      <c r="G1" s="61"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51" t="s">
-        <v>3842</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>3843</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>3842</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>3843</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>3842</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>3843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="52" t="s">
+      <c r="B43" s="70" t="s">
         <v>3889</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="50" t="s">
-        <v>3844</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="54" t="s">
-        <v>3863</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="54" t="s">
-        <v>3845</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="54" t="s">
-        <v>3846</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="54" t="s">
-        <v>3847</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="54" t="s">
-        <v>3848</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="54" t="s">
-        <v>3849</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="54" t="s">
-        <v>3850</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="54" t="s">
-        <v>3851</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="54" t="s">
-        <v>3852</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="54" t="s">
-        <v>3854</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="54" t="s">
-        <v>3853</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="54" t="s">
-        <v>3855</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="54" t="s">
-        <v>3856</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="54" t="s">
-        <v>3857</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="54" t="s">
-        <v>3858</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="54" t="s">
-        <v>3859</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="54" t="s">
-        <v>3860</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="54" t="s">
-        <v>3861</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="54" t="s">
-        <v>3862</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="54" t="s">
-        <v>3866</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="54" t="s">
-        <v>3867</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="55" t="s">
+      <c r="C43" s="57" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>3893</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>3896</v>
+      </c>
+      <c r="G43" s="57" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="55" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>3894</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>3897</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="55" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B45" s="70" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F45" s="70" t="s">
+        <v>3898</v>
+      </c>
+      <c r="G45" s="57" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="56" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="55" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="55" t="s">
         <v>3868</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="56" t="s">
-        <v>3864</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="57" t="s">
-        <v>3865</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="57" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>3890</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>3392</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>3894</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>3392</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>3897</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="57" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>3891</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>3392</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>3895</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>3392</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>3898</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="57" t="s">
-        <v>3887</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>3892</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>3392</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>3392</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="58" t="s">
-        <v>3893</v>
-      </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="57" t="s">
-        <v>3888</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="57" t="s">
-        <v>3869</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -46107,50 +47216,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="62" t="s">
-        <v>3872</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="60" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="47"/>
-      <c r="G1" s="62" t="s">
-        <v>3871</v>
-      </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="G1" s="60" t="s">
+        <v>3870</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="B2" s="42" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>3874</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>3875</v>
-      </c>
       <c r="D2" s="45" t="s">
+        <v>3879</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>3880</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>3881</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
+        <v>3873</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>3874</v>
       </c>
-      <c r="H2" s="45" t="s">
-        <v>3875</v>
-      </c>
       <c r="I2" s="45" t="s">
+        <v>3879</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>3880</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>3881</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -46164,17 +47273,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -46182,7 +47291,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="46" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -46196,17 +47305,17 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -46220,12 +47329,12 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="32" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="32" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
   </sheetData>
@@ -46255,11 +47364,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -46496,20 +47605,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>3662</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B2" s="32" t="s">
@@ -46694,34 +47803,34 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>3662</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62" t="s">
         <v>3681</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="N13" s="64" t="s">
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="N13" s="62" t="s">
         <v>3662</v>
       </c>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64" t="s">
+      <c r="O13" s="62"/>
+      <c r="P13" s="62" t="s">
         <v>3681</v>
       </c>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64" t="s">
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="32" t="s">
@@ -47077,20 +48186,20 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="62" t="s">
         <v>3662</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62" t="s">
         <v>3681</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64" t="s">
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="32" t="s">
@@ -47102,20 +48211,20 @@
       <c r="G26" s="32" t="s">
         <v>3699</v>
       </c>
-      <c r="N26" s="64" t="s">
+      <c r="N26" s="62" t="s">
         <v>3662</v>
       </c>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64" t="s">
+      <c r="O26" s="62"/>
+      <c r="P26" s="62" t="s">
         <v>3681</v>
       </c>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64" t="s">
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="32" t="s">
@@ -47467,20 +48576,20 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="62" t="s">
         <v>3662</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64" t="s">
+      <c r="B37" s="62"/>
+      <c r="C37" s="62" t="s">
         <v>3681</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64" t="s">
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B38" s="32" t="s">
@@ -47671,10 +48780,10 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="62" t="s">
         <v>3662</v>
       </c>
-      <c r="B48" s="64"/>
+      <c r="B48" s="62"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B49" s="32" t="s">
@@ -47769,18 +48878,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -47788,6 +48885,18 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47795,21 +48904,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -47955,10 +49049,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47980,19 +49099,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2585" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{959B8193-F442-461C-9AD5-DFAA453CB2D5}"/>
+  <xr:revisionPtr revIDLastSave="2618" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9E6127F-5532-4A6D-8652-9D757DFA4B50}"/>
   <bookViews>
-    <workbookView xWindow="2408" yWindow="3877" windowWidth="16875" windowHeight="10523" activeTab="3" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="6998" yWindow="5078" windowWidth="16875" windowHeight="10522" activeTab="3" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8395" uniqueCount="4101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8395" uniqueCount="4102">
   <si>
     <t>Variable</t>
   </si>
@@ -11832,24 +11832,12 @@
     <t>Medicare</t>
   </si>
   <si>
-    <t>63.75 (13.68)</t>
-  </si>
-  <si>
-    <t>54.58 (13.26)</t>
-  </si>
-  <si>
     <t>1071740.3 (52.2)</t>
   </si>
   <si>
     <t>779793.6 (61.2)</t>
   </si>
   <si>
-    <t>30.39 (5.72)</t>
-  </si>
-  <si>
-    <t>31.62 (6.17)</t>
-  </si>
-  <si>
     <t>362749.5 (17.7)</t>
   </si>
   <si>
@@ -11955,24 +11943,12 @@
     <t>248419.7 (12.1)</t>
   </si>
   <si>
-    <t>65.69 (15.53)</t>
-  </si>
-  <si>
-    <t>54.60 (15.04)</t>
-  </si>
-  <si>
     <t>1535387.7 (50.7)</t>
   </si>
   <si>
     <t>1178873.2 (62.2)</t>
   </si>
   <si>
-    <t>28.13 (5.42)</t>
-  </si>
-  <si>
-    <t>29.02 (6.13)</t>
-  </si>
-  <si>
     <t>546129.7 (18.0)</t>
   </si>
   <si>
@@ -12072,24 +12048,12 @@
     <t>413940.1 (13.7)</t>
   </si>
   <si>
-    <t>61.97 (15.69)</t>
-  </si>
-  <si>
-    <t>52.02 (14.68)</t>
-  </si>
-  <si>
     <t>4260646.5 (53.5)</t>
   </si>
   <si>
     <t>2653920.1 (62.9)</t>
   </si>
   <si>
-    <t>28.71 (5.45)</t>
-  </si>
-  <si>
-    <t>29.66 (6.11)</t>
-  </si>
-  <si>
     <t>1421081.4 (17.8)</t>
   </si>
   <si>
@@ -12364,13 +12328,52 @@
   </si>
   <si>
     <t>101008.8 2.4)</t>
+  </si>
+  <si>
+    <t>Age Median (IQR)</t>
+  </si>
+  <si>
+    <t>BMI Median (IQR)</t>
+  </si>
+  <si>
+    <t>65.00 [18.00, 85.00]</t>
+  </si>
+  <si>
+    <t>55.00 [18.00, 85.00]</t>
+  </si>
+  <si>
+    <t>29.80 [16.10, 53.90]</t>
+  </si>
+  <si>
+    <t>31.10 [17.30, 54.50]</t>
+  </si>
+  <si>
+    <t>68.00 [18.00, 85.00]</t>
+  </si>
+  <si>
+    <t>27.40 [14.80, 55.30]</t>
+  </si>
+  <si>
+    <t>28.20 [15.70, 54.50]</t>
+  </si>
+  <si>
+    <t>53.00 [18.00, 85.00]</t>
+  </si>
+  <si>
+    <t>64.00 [18.00, 85.00]</t>
+  </si>
+  <si>
+    <t>28.10 [14.80, 55.30]</t>
+  </si>
+  <si>
+    <t>29.00 [15.70, 54.50]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12453,14 +12456,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -12665,22 +12660,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12702,12 +12681,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13089,41 +13084,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="11"/>
       <c r="G1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="11"/>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="58"/>
+      <c r="M1" s="67"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="R1" s="58"/>
+      <c r="R1" s="67"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="67" t="s">
         <v>649</v>
       </c>
-      <c r="W1" s="58"/>
+      <c r="W1" s="67"/>
       <c r="Z1" s="11"/>
-      <c r="AA1" s="58" t="s">
+      <c r="AA1" s="67" t="s">
         <v>650</v>
       </c>
-      <c r="AB1" s="58"/>
+      <c r="AB1" s="67"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AF1" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="AG1" s="58"/>
+      <c r="AG1" s="67"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="29" t="s">
         <v>1045</v>
@@ -22941,47 +22936,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
       <c r="G1" s="11"/>
       <c r="H1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="29"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="58"/>
+      <c r="O1" s="67"/>
       <c r="Q1" s="29"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="58"/>
+      <c r="U1" s="67"/>
       <c r="W1" s="29"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="58" t="s">
+      <c r="Z1" s="67" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="58"/>
+      <c r="AA1" s="67"/>
       <c r="AC1" s="29"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AF1" s="67" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="58"/>
+      <c r="AG1" s="67"/>
       <c r="AI1" s="29"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="58" t="s">
+      <c r="AL1" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="58"/>
+      <c r="AM1" s="67"/>
       <c r="AO1" s="29"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="29" t="s">
@@ -33647,13 +33642,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
         <v>507</v>
@@ -33662,38 +33657,38 @@
       <c r="J1" s="6"/>
       <c r="K1" s="12"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="58"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="12"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="58"/>
+      <c r="U1" s="67"/>
       <c r="V1" s="6"/>
       <c r="W1" s="12"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="58" t="s">
+      <c r="Z1" s="67" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="58"/>
+      <c r="AA1" s="67"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="12"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AF1" s="67" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="58"/>
+      <c r="AG1" s="67"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="12"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="58" t="s">
+      <c r="AL1" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="58"/>
+      <c r="AM1" s="67"/>
       <c r="AO1" s="12"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="12" t="s">
@@ -46182,35 +46177,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.1328125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="12" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="57" customWidth="1"/>
-    <col min="6" max="6" width="12" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="14.1328125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="57" customWidth="1"/>
     <col min="8" max="16384" width="9.06640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="68" t="s">
         <v>3662</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68" t="s">
         <v>3875</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68" t="s">
         <v>3883</v>
       </c>
-      <c r="G1" s="59"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="57" t="s">
@@ -46222,7 +46217,7 @@
       <c r="D2" s="57" t="s">
         <v>3842</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>3843</v>
       </c>
       <c r="F2" s="57" t="s">
@@ -46236,830 +46231,830 @@
       <c r="A3" s="50" t="s">
         <v>3888</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>4047</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>4048</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>4049</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>4050</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>4051</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>4052</v>
+      <c r="B3" s="60" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>4036</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>4037</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>4038</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>4039</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>4040</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>3924</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>3923</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>3965</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>3964</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>4004</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>4003</v>
-      </c>
-      <c r="I4" s="65"/>
+        <v>4089</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>4092</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>4095</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>4098</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>4099</v>
+      </c>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>3926</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>3925</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>3967</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>3966</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>4006</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>4005</v>
-      </c>
-      <c r="I5" s="65"/>
+      <c r="B5" s="63" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>3961</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>3960</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>3996</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>3995</v>
+      </c>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>3928</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>3927</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>3969</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>3968</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>4008</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>4007</v>
-      </c>
-      <c r="I6" s="65"/>
+        <v>4090</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>4097</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>4096</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>4101</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>4100</v>
+      </c>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="I7" s="65"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="52" t="s">
         <v>3862</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>3930</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>3929</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>3971</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>3970</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>4010</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>4009</v>
-      </c>
-      <c r="I8" s="65"/>
+      <c r="B8" s="63" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>3962</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>3998</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>3997</v>
+      </c>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="52" t="s">
         <v>3844</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>3932</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>3931</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>3973</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>3972</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>4012</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>4011</v>
-      </c>
-      <c r="I9" s="65"/>
+      <c r="B9" s="63" t="s">
+        <v>3928</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>3965</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>3964</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>3999</v>
+      </c>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>3845</v>
       </c>
-      <c r="B10" s="69" t="s">
-        <v>3934</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>3933</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>3975</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>3974</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>4014</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>4013</v>
-      </c>
-      <c r="I10" s="65"/>
+      <c r="B10" s="63" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>3967</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>3966</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>4002</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>4001</v>
+      </c>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
         <v>3846</v>
       </c>
-      <c r="B11" s="69" t="s">
-        <v>3936</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>3935</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>3977</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>3976</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>4016</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>4015</v>
-      </c>
-      <c r="I11" s="65"/>
+      <c r="B11" s="63" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>4004</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>4003</v>
+      </c>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="I12" s="65"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
         <v>3847</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>3938</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>3937</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>3979</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>3978</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>4018</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>4017</v>
-      </c>
-      <c r="I13" s="65"/>
+      <c r="B13" s="63" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>3933</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>3970</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>4006</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>4005</v>
+      </c>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>3848</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>3940</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>3939</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>3981</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>3980</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>4020</v>
-      </c>
-      <c r="G14" s="69" t="s">
-        <v>4019</v>
-      </c>
-      <c r="I14" s="65"/>
+      <c r="B14" s="63" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>3973</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>3972</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>4008</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>4007</v>
+      </c>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
         <v>3849</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>3942</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>3941</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>4055</v>
-      </c>
-      <c r="E15" s="69" t="s">
-        <v>4056</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>4021</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>4057</v>
-      </c>
-      <c r="I15" s="65"/>
+      <c r="B15" s="63" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>4043</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>4044</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>4009</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>4045</v>
+      </c>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="52" t="s">
         <v>3850</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>4059</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>4060</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>4061</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>4062</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>4063</v>
-      </c>
-      <c r="I16" s="65"/>
+      <c r="B16" s="63" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>4047</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>4049</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>4050</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>4051</v>
+      </c>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="52" t="s">
         <v>3851</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>4064</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>4065</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>4066</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>4067</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G17" s="69" t="s">
-        <v>4069</v>
-      </c>
-      <c r="I17" s="65"/>
+      <c r="B17" s="63" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>4055</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>4056</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>4057</v>
+      </c>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="52" t="s">
         <v>3853</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>4070</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>4071</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>4072</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>4073</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>4074</v>
-      </c>
-      <c r="G18" s="69" t="s">
-        <v>4075</v>
-      </c>
-      <c r="I18" s="65"/>
+      <c r="B18" s="63" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>4060</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>4061</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>4062</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>4063</v>
+      </c>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="I19" s="65"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="52" t="s">
         <v>3918</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>3943</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>4053</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>3982</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>4076</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>4022</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>4077</v>
-      </c>
-      <c r="I20" s="65"/>
+      <c r="B20" s="63" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>4041</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>4064</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>4010</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>4065</v>
+      </c>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
         <v>3919</v>
       </c>
-      <c r="B21" s="69" t="s">
-        <v>3945</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>3944</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>3984</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>3983</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>4024</v>
-      </c>
-      <c r="G21" s="69" t="s">
-        <v>4023</v>
-      </c>
-      <c r="I21" s="65"/>
+      <c r="B21" s="63" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>3940</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>3976</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>3975</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>4012</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>4011</v>
+      </c>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
         <v>3920</v>
       </c>
-      <c r="B22" s="69" t="s">
-        <v>3947</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>3946</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>3986</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>3985</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>4026</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>4025</v>
-      </c>
-      <c r="I22" s="65"/>
+      <c r="B22" s="63" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>3942</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>3978</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>4013</v>
+      </c>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="52" t="s">
         <v>3921</v>
       </c>
-      <c r="B23" s="69" t="s">
-        <v>4078</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>4079</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>4080</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>4081</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>4082</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>4083</v>
-      </c>
-      <c r="I23" s="65"/>
+      <c r="B23" s="63" t="s">
+        <v>4066</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>4068</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>4070</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>4071</v>
+      </c>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="52" t="s">
         <v>3922</v>
       </c>
-      <c r="B24" s="69" t="s">
-        <v>3949</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>3948</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>3988</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>3987</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>4028</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>4027</v>
-      </c>
-      <c r="I24" s="65"/>
+      <c r="B24" s="63" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>3944</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>3980</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>3979</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>4016</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>4015</v>
+      </c>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="52" t="s">
         <v>3853</v>
       </c>
-      <c r="B25" s="69" t="s">
-        <v>4084</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>4085</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>4086</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>4054</v>
-      </c>
-      <c r="F25" s="69" t="s">
-        <v>4087</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>4088</v>
-      </c>
-      <c r="I25" s="65"/>
+      <c r="B25" s="63" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>4074</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>4042</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>4075</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>4076</v>
+      </c>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="I26" s="65"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="52" t="s">
         <v>3852</v>
       </c>
-      <c r="B27" s="69" t="s">
-        <v>3951</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>3950</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>3990</v>
-      </c>
-      <c r="E27" s="69" t="s">
-        <v>3989</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>4030</v>
-      </c>
-      <c r="G27" s="69" t="s">
-        <v>4029</v>
-      </c>
-      <c r="I27" s="65"/>
+      <c r="B27" s="63" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>3946</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>3982</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>3981</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>4018</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>4017</v>
+      </c>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="52" t="s">
         <v>3854</v>
       </c>
-      <c r="B28" s="69" t="s">
-        <v>3953</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>3952</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>3992</v>
-      </c>
-      <c r="E28" s="69" t="s">
-        <v>3991</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>4032</v>
-      </c>
-      <c r="G28" s="69" t="s">
-        <v>4031</v>
-      </c>
-      <c r="I28" s="65"/>
+      <c r="B28" s="63" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>3983</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>4020</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>4019</v>
+      </c>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="52" t="s">
         <v>3855</v>
       </c>
-      <c r="B29" s="69" t="s">
-        <v>3955</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>3954</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>3994</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>3993</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>4034</v>
-      </c>
-      <c r="G29" s="69" t="s">
-        <v>4033</v>
-      </c>
-      <c r="I29" s="65"/>
+      <c r="B29" s="63" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>3986</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>3985</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>4022</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>4021</v>
+      </c>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="I30" s="65"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="52" t="s">
         <v>3856</v>
       </c>
-      <c r="B31" s="69" t="s">
-        <v>3957</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>3956</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>3996</v>
-      </c>
-      <c r="E31" s="69" t="s">
-        <v>3995</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>4036</v>
-      </c>
-      <c r="G31" s="69" t="s">
-        <v>4035</v>
-      </c>
-      <c r="I31" s="65"/>
+      <c r="B31" s="63" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>3988</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>3987</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>4024</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>4023</v>
+      </c>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="52" t="s">
         <v>3857</v>
       </c>
-      <c r="B32" s="69" t="s">
-        <v>3959</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>3958</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>3998</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>3997</v>
-      </c>
-      <c r="F32" s="69" t="s">
-        <v>4038</v>
-      </c>
-      <c r="G32" s="69" t="s">
-        <v>4037</v>
-      </c>
-      <c r="I32" s="65"/>
+      <c r="B32" s="63" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>3990</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>3989</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>4026</v>
+      </c>
+      <c r="G32" s="63" t="s">
+        <v>4025</v>
+      </c>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="52" t="s">
         <v>3858</v>
       </c>
-      <c r="B33" s="69" t="s">
-        <v>3961</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>3960</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>4000</v>
-      </c>
-      <c r="E33" s="69" t="s">
-        <v>3999</v>
-      </c>
-      <c r="F33" s="69" t="s">
-        <v>4040</v>
-      </c>
-      <c r="G33" s="69" t="s">
-        <v>4039</v>
-      </c>
-      <c r="I33" s="65"/>
+      <c r="B33" s="63" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>3992</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>4028</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>4027</v>
+      </c>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="52" t="s">
         <v>3859</v>
       </c>
-      <c r="B34" s="69" t="s">
-        <v>4089</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>3962</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>4090</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>4001</v>
-      </c>
-      <c r="F34" s="69" t="s">
-        <v>4091</v>
-      </c>
-      <c r="G34" s="69" t="s">
-        <v>4041</v>
-      </c>
-      <c r="I34" s="65"/>
+      <c r="B34" s="63" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>4078</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>3993</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>4079</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>4029</v>
+      </c>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="52" t="s">
         <v>3860</v>
       </c>
-      <c r="B35" s="69" t="s">
-        <v>4092</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>4093</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>4094</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F35" s="69" t="s">
-        <v>4096</v>
-      </c>
-      <c r="G35" s="69" t="s">
-        <v>4097</v>
-      </c>
-      <c r="I35" s="65"/>
+      <c r="B35" s="63" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>4082</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>4083</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>4084</v>
+      </c>
+      <c r="G35" s="63" t="s">
+        <v>4085</v>
+      </c>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="52" t="s">
         <v>3861</v>
       </c>
-      <c r="B36" s="69" t="s">
-        <v>4098</v>
-      </c>
-      <c r="C36" s="69" t="s">
-        <v>3963</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>4099</v>
-      </c>
-      <c r="E36" s="69" t="s">
-        <v>4002</v>
-      </c>
-      <c r="F36" s="69" t="s">
-        <v>4100</v>
-      </c>
-      <c r="G36" s="69" t="s">
-        <v>4042</v>
-      </c>
-      <c r="I36" s="63"/>
+      <c r="B36" s="63" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>4087</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>3994</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>4088</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>4030</v>
+      </c>
+      <c r="I36" s="72"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="52" t="s">
         <v>3865</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="64" t="s">
         <v>3901</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="64" t="s">
         <v>3900</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="64" t="s">
         <v>3907</v>
       </c>
-      <c r="E38" s="71" t="s">
-        <v>4044</v>
-      </c>
-      <c r="F38" s="70" t="s">
+      <c r="E38" s="65" t="s">
+        <v>4032</v>
+      </c>
+      <c r="F38" s="64" t="s">
         <v>3917</v>
       </c>
-      <c r="G38" s="71" t="s">
-        <v>4045</v>
+      <c r="G38" s="65" t="s">
+        <v>4033</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="52" t="s">
         <v>3866</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="64" t="s">
         <v>3902</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="64" t="s">
         <v>3903</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="64" t="s">
         <v>3908</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>4043</v>
-      </c>
-      <c r="F39" s="70" t="s">
+      <c r="E39" s="65" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F39" s="64" t="s">
         <v>3916</v>
       </c>
-      <c r="G39" s="71" t="s">
-        <v>4046</v>
+      <c r="G39" s="65" t="s">
+        <v>4034</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
         <v>3867</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="64" t="s">
         <v>3904</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="64" t="s">
         <v>3905</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="64" t="s">
         <v>3910</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="66" t="s">
         <v>3909</v>
       </c>
-      <c r="F40" s="70" t="s">
+      <c r="F40" s="64" t="s">
         <v>3915</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="66" t="s">
         <v>3914</v>
       </c>
     </row>
@@ -47072,22 +47067,22 @@
       <c r="A42" s="55" t="s">
         <v>3864</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="57" t="s">
         <v>3899</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>3392</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="57" t="s">
         <v>3906</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="61" t="s">
         <v>3911</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="57" t="s">
         <v>3913</v>
       </c>
-      <c r="G42" s="67" t="s">
+      <c r="G42" s="61" t="s">
         <v>3912</v>
       </c>
     </row>
@@ -47095,19 +47090,19 @@
       <c r="A43" s="55" t="s">
         <v>3884</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="57" t="s">
         <v>3889</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>3392</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="57" t="s">
         <v>3893</v>
       </c>
       <c r="E43" s="57" t="s">
         <v>3392</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="57" t="s">
         <v>3896</v>
       </c>
       <c r="G43" s="57" t="s">
@@ -47118,19 +47113,19 @@
       <c r="A44" s="55" t="s">
         <v>3885</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="57" t="s">
         <v>3890</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>3392</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="57" t="s">
         <v>3894</v>
       </c>
       <c r="E44" s="57" t="s">
         <v>3392</v>
       </c>
-      <c r="F44" s="70" t="s">
+      <c r="F44" s="57" t="s">
         <v>3897</v>
       </c>
       <c r="G44" s="57" t="s">
@@ -47141,19 +47136,19 @@
       <c r="A45" s="55" t="s">
         <v>3886</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="57" t="s">
         <v>3891</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>3392</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="57" t="s">
         <v>3895</v>
       </c>
       <c r="E45" s="57" t="s">
         <v>3392</v>
       </c>
-      <c r="F45" s="70" t="s">
+      <c r="F45" s="57" t="s">
         <v>3898</v>
       </c>
       <c r="G45" s="57" t="s">
@@ -47164,12 +47159,12 @@
       <c r="A46" s="56" t="s">
         <v>3892</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
@@ -47216,19 +47211,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="69" t="s">
         <v>3871</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="47"/>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="69" t="s">
         <v>3870</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="B2" s="42" t="s">
@@ -47364,11 +47359,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -47605,20 +47600,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>3662</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B2" s="32" t="s">
@@ -47803,34 +47798,34 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="71" t="s">
         <v>3662</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71" t="s">
         <v>3681</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="N13" s="62" t="s">
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="N13" s="71" t="s">
         <v>3662</v>
       </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62" t="s">
+      <c r="O13" s="71"/>
+      <c r="P13" s="71" t="s">
         <v>3681</v>
       </c>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62" t="s">
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="32" t="s">
@@ -48186,20 +48181,20 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="71" t="s">
         <v>3662</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71" t="s">
         <v>3681</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="32" t="s">
@@ -48211,20 +48206,20 @@
       <c r="G26" s="32" t="s">
         <v>3699</v>
       </c>
-      <c r="N26" s="62" t="s">
+      <c r="N26" s="71" t="s">
         <v>3662</v>
       </c>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62" t="s">
+      <c r="O26" s="71"/>
+      <c r="P26" s="71" t="s">
         <v>3681</v>
       </c>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62" t="s">
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="32" t="s">
@@ -48576,20 +48571,20 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="71" t="s">
         <v>3662</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62" t="s">
+      <c r="B37" s="71"/>
+      <c r="C37" s="71" t="s">
         <v>3681</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B38" s="32" t="s">
@@ -48780,10 +48775,10 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="71" t="s">
         <v>3662</v>
       </c>
-      <c r="B48" s="62"/>
+      <c r="B48" s="71"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B49" s="32" t="s">
@@ -48878,6 +48873,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -48885,18 +48892,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48904,6 +48899,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -49049,35 +49059,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49099,9 +49084,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2618" documentId="8_{CEE25B56-0F43-46A5-82E3-B4208A1B7A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9E6127F-5532-4A6D-8652-9D757DFA4B50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D5B31-42A0-4DA4-AECA-20E419D46315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6998" yWindow="5078" windowWidth="16875" windowHeight="10522" activeTab="3" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="7703" yWindow="1927" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8395" uniqueCount="4102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8407" uniqueCount="4114">
   <si>
     <t>Variable</t>
   </si>
@@ -11706,9 +11706,6 @@
     </r>
   </si>
   <si>
-    <t>1. Crude Hazard Ratio. 2. Adjusted for age, sex, race, insurance status, region, smoking status, and body mass index.</t>
-  </si>
-  <si>
     <t>Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range; HR, hazard ratio.</t>
   </si>
   <si>
@@ -12367,6 +12364,45 @@
   </si>
   <si>
     <t>29.00 [15.70, 54.50]</t>
+  </si>
+  <si>
+    <t>0.8018 (0.7004 - 0.9179)</t>
+  </si>
+  <si>
+    <t>0.7677 (0.6333 - 0.9307)</t>
+  </si>
+  <si>
+    <t>0.7792 (0.6393 - 0.9497)</t>
+  </si>
+  <si>
+    <t>1745 (3.11%)</t>
+  </si>
+  <si>
+    <t>804 (3.75%)</t>
+  </si>
+  <si>
+    <t>684 (4.31%)</t>
+  </si>
+  <si>
+    <t>1.2833 (1.0297 - 1.600)</t>
+  </si>
+  <si>
+    <t>1. Crude Hazard Ratio. 2. Adjusted for age, sex, insurance status, education, and income category.</t>
+  </si>
+  <si>
+    <t>1.5983 (1.29224 - 1.9769)</t>
+  </si>
+  <si>
+    <t>1.5593 (1.3499 - 1.8011)</t>
+  </si>
+  <si>
+    <t>308 (165 - 500)</t>
+  </si>
+  <si>
+    <t>326 (169 - 530)</t>
+  </si>
+  <si>
+    <t>348 (187 - 548)</t>
   </si>
 </sst>
 </file>
@@ -12687,6 +12723,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12702,7 +12739,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13084,41 +13120,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="11"/>
       <c r="G1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="11"/>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="68" t="s">
         <v>508</v>
       </c>
-      <c r="R1" s="67"/>
+      <c r="R1" s="68"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="67" t="s">
+      <c r="V1" s="68" t="s">
         <v>649</v>
       </c>
-      <c r="W1" s="67"/>
+      <c r="W1" s="68"/>
       <c r="Z1" s="11"/>
-      <c r="AA1" s="67" t="s">
+      <c r="AA1" s="68" t="s">
         <v>650</v>
       </c>
-      <c r="AB1" s="67"/>
+      <c r="AB1" s="68"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="67" t="s">
+      <c r="AF1" s="68" t="s">
         <v>659</v>
       </c>
-      <c r="AG1" s="67"/>
+      <c r="AG1" s="68"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="29" t="s">
         <v>1045</v>
@@ -22936,47 +22972,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="11"/>
       <c r="H1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="29"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="67"/>
+      <c r="O1" s="68"/>
       <c r="Q1" s="29"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="68" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="67"/>
+      <c r="U1" s="68"/>
       <c r="W1" s="29"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="67" t="s">
+      <c r="Z1" s="68" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="67"/>
+      <c r="AA1" s="68"/>
       <c r="AC1" s="29"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="67" t="s">
+      <c r="AF1" s="68" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="67"/>
+      <c r="AG1" s="68"/>
       <c r="AI1" s="29"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="67" t="s">
+      <c r="AL1" s="68" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="67"/>
+      <c r="AM1" s="68"/>
       <c r="AO1" s="29"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="29" t="s">
@@ -33642,13 +33678,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
         <v>507</v>
@@ -33657,38 +33693,38 @@
       <c r="J1" s="6"/>
       <c r="K1" s="12"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="67"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="12"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="68" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="67"/>
+      <c r="U1" s="68"/>
       <c r="V1" s="6"/>
       <c r="W1" s="12"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="67" t="s">
+      <c r="Z1" s="68" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="67"/>
+      <c r="AA1" s="68"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="12"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="67" t="s">
+      <c r="AF1" s="68" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="67"/>
+      <c r="AG1" s="68"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="12"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="67" t="s">
+      <c r="AL1" s="68" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="67"/>
+      <c r="AM1" s="68"/>
       <c r="AO1" s="12"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="12" t="s">
@@ -46177,8 +46213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -46194,18 +46230,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>3662</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69" t="s">
         <v>3875</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68" t="s">
-        <v>3883</v>
-      </c>
-      <c r="G1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69" t="s">
+        <v>3882</v>
+      </c>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="57" t="s">
@@ -46229,48 +46265,48 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="B3" s="60" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>4035</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="D3" s="60" t="s">
         <v>4036</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>4037</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="F3" s="60" t="s">
         <v>4038</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="62" t="s">
         <v>4039</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>4040</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="C4" s="65" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>4091</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>4092</v>
-      </c>
       <c r="E4" s="65" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="F4" s="65" t="s">
+        <v>4097</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>4098</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>4099</v>
       </c>
       <c r="I4" s="59"/>
     </row>
@@ -46279,46 +46315,46 @@
         <v>128</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="I6" s="59"/>
     </row>
@@ -46339,22 +46375,22 @@
         <v>3862</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="I8" s="59"/>
     </row>
@@ -46363,22 +46399,22 @@
         <v>3844</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="I9" s="59"/>
     </row>
@@ -46387,22 +46423,22 @@
         <v>3845</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="I10" s="59"/>
     </row>
@@ -46411,22 +46447,22 @@
         <v>3846</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="I11" s="59"/>
     </row>
@@ -46447,22 +46483,22 @@
         <v>3847</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="I13" s="59"/>
     </row>
@@ -46471,22 +46507,22 @@
         <v>3848</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="I14" s="59"/>
     </row>
@@ -46495,22 +46531,22 @@
         <v>3849</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="D15" s="63" t="s">
+        <v>4042</v>
+      </c>
+      <c r="E15" s="63" t="s">
         <v>4043</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="F15" s="63" t="s">
+        <v>4008</v>
+      </c>
+      <c r="G15" s="63" t="s">
         <v>4044</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>4009</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>4045</v>
       </c>
       <c r="I15" s="59"/>
     </row>
@@ -46519,22 +46555,22 @@
         <v>3850</v>
       </c>
       <c r="B16" s="63" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C16" s="63" t="s">
         <v>4046</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="D16" s="63" t="s">
         <v>4047</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="E16" s="63" t="s">
         <v>4048</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="F16" s="63" t="s">
         <v>4049</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="G16" s="63" t="s">
         <v>4050</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>4051</v>
       </c>
       <c r="I16" s="59"/>
     </row>
@@ -46543,22 +46579,22 @@
         <v>3851</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>4051</v>
+      </c>
+      <c r="C17" s="63" t="s">
         <v>4052</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="D17" s="63" t="s">
         <v>4053</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="E17" s="63" t="s">
         <v>4054</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="F17" s="63" t="s">
         <v>4055</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="G17" s="63" t="s">
         <v>4056</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>4057</v>
       </c>
       <c r="I17" s="59"/>
     </row>
@@ -46567,22 +46603,22 @@
         <v>3853</v>
       </c>
       <c r="B18" s="63" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C18" s="63" t="s">
         <v>4058</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="D18" s="63" t="s">
         <v>4059</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="E18" s="63" t="s">
         <v>4060</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="F18" s="63" t="s">
         <v>4061</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="G18" s="63" t="s">
         <v>4062</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>4063</v>
       </c>
       <c r="I18" s="59"/>
     </row>
@@ -46600,121 +46636,121 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="52" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="E20" s="63" t="s">
+        <v>4063</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>4009</v>
+      </c>
+      <c r="G20" s="63" t="s">
         <v>4064</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>4010</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>4065</v>
       </c>
       <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="52" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="B23" s="63" t="s">
+        <v>4065</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>4066</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="D23" s="63" t="s">
         <v>4067</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="E23" s="63" t="s">
         <v>4068</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="F23" s="63" t="s">
         <v>4069</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="G23" s="63" t="s">
         <v>4070</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>4071</v>
       </c>
       <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="52" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="F24" s="63" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I24" s="59"/>
     </row>
@@ -46723,22 +46759,22 @@
         <v>3853</v>
       </c>
       <c r="B25" s="63" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>4072</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="D25" s="63" t="s">
         <v>4073</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="E25" s="63" t="s">
+        <v>4041</v>
+      </c>
+      <c r="F25" s="63" t="s">
         <v>4074</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>4042</v>
-      </c>
-      <c r="F25" s="63" t="s">
+      <c r="G25" s="63" t="s">
         <v>4075</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>4076</v>
       </c>
       <c r="I25" s="59"/>
     </row>
@@ -46759,22 +46795,22 @@
         <v>3852</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="F27" s="63" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="I27" s="59"/>
     </row>
@@ -46783,22 +46819,22 @@
         <v>3854</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="I28" s="59"/>
     </row>
@@ -46807,22 +46843,22 @@
         <v>3855</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="I29" s="59"/>
     </row>
@@ -46843,22 +46879,22 @@
         <v>3856</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="F31" s="63" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="I31" s="59"/>
     </row>
@@ -46867,22 +46903,22 @@
         <v>3857</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="I32" s="59"/>
     </row>
@@ -46891,22 +46927,22 @@
         <v>3858</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="D33" s="63" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="I33" s="59"/>
     </row>
@@ -46915,22 +46951,22 @@
         <v>3859</v>
       </c>
       <c r="B34" s="63" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D34" s="63" t="s">
         <v>4077</v>
       </c>
-      <c r="C34" s="63" t="s">
-        <v>3958</v>
-      </c>
-      <c r="D34" s="63" t="s">
+      <c r="E34" s="63" t="s">
+        <v>3992</v>
+      </c>
+      <c r="F34" s="63" t="s">
         <v>4078</v>
       </c>
-      <c r="E34" s="63" t="s">
-        <v>3993</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>4079</v>
-      </c>
       <c r="G34" s="63" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="I34" s="59"/>
     </row>
@@ -46939,22 +46975,22 @@
         <v>3860</v>
       </c>
       <c r="B35" s="63" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C35" s="63" t="s">
         <v>4080</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="D35" s="63" t="s">
         <v>4081</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="E35" s="63" t="s">
         <v>4082</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="F35" s="63" t="s">
         <v>4083</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="G35" s="63" t="s">
         <v>4084</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>4085</v>
       </c>
       <c r="I35" s="59"/>
     </row>
@@ -46963,24 +46999,24 @@
         <v>3861</v>
       </c>
       <c r="B36" s="63" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D36" s="63" t="s">
         <v>4086</v>
       </c>
-      <c r="C36" s="63" t="s">
-        <v>3959</v>
-      </c>
-      <c r="D36" s="63" t="s">
+      <c r="E36" s="63" t="s">
+        <v>3993</v>
+      </c>
+      <c r="F36" s="63" t="s">
         <v>4087</v>
       </c>
-      <c r="E36" s="63" t="s">
-        <v>3994</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>4088</v>
-      </c>
       <c r="G36" s="63" t="s">
-        <v>4030</v>
-      </c>
-      <c r="I36" s="72"/>
+        <v>4029</v>
+      </c>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="51" t="s">
@@ -46994,22 +47030,22 @@
         <v>3865</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="E38" s="65" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>3916</v>
+      </c>
+      <c r="G38" s="65" t="s">
         <v>4032</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>3917</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>4033</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -47017,22 +47053,22 @@
         <v>3866</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>3902</v>
       </c>
-      <c r="C39" s="64" t="s">
-        <v>3903</v>
-      </c>
       <c r="D39" s="64" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -47040,22 +47076,22 @@
         <v>3867</v>
       </c>
       <c r="B40" s="64" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C40" s="64" t="s">
         <v>3904</v>
       </c>
-      <c r="C40" s="64" t="s">
-        <v>3905</v>
-      </c>
       <c r="D40" s="64" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="G40" s="66" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -47068,42 +47104,42 @@
         <v>3864</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="E42" s="61" t="s">
+        <v>3910</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>3912</v>
+      </c>
+      <c r="G42" s="61" t="s">
         <v>3911</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>3913</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>3912</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="55" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="E43" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="F43" s="57" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="G43" s="57" t="s">
         <v>3392</v>
@@ -47111,22 +47147,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="55" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="E44" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="G44" s="57" t="s">
         <v>3392</v>
@@ -47134,22 +47170,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="55" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="E45" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="G45" s="57" t="s">
         <v>3392</v>
@@ -47157,7 +47193,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="56" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -47168,7 +47204,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -47191,17 +47227,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.53125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="16.06640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="44" customWidth="1"/>
     <col min="6" max="6" width="2.86328125" style="32" customWidth="1"/>
     <col min="7" max="7" width="10.265625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.796875" style="32" bestFit="1" customWidth="1"/>
@@ -47211,21 +47247,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>3871</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="47"/>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="70" t="s">
         <v>3870</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+    </row>
+    <row r="2" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="42" t="s">
         <v>3873</v>
       </c>
@@ -47266,22 +47302,56 @@
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
         <v>3877</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>4103</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>4107</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
         <v>3878</v>
       </c>
+      <c r="B5" s="32" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>4112</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>4102</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>4109</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
         <v>3869</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="44" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>4101</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>4110</v>
+      </c>
       <c r="H6" s="44"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -47324,12 +47394,12 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="32" t="s">
-        <v>3881</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="32" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
     </row>
   </sheetData>
@@ -47359,11 +47429,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -47600,20 +47670,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>3662</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B2" s="32" t="s">
@@ -47798,34 +47868,34 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="72" t="s">
         <v>3662</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="72" t="s">
         <v>3681</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="N13" s="71" t="s">
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="N13" s="72" t="s">
         <v>3662</v>
       </c>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71" t="s">
+      <c r="O13" s="72"/>
+      <c r="P13" s="72" t="s">
         <v>3681</v>
       </c>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71" t="s">
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="32" t="s">
@@ -48181,20 +48251,20 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="72" t="s">
         <v>3662</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71" t="s">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72" t="s">
         <v>3681</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71" t="s">
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="32" t="s">
@@ -48206,20 +48276,20 @@
       <c r="G26" s="32" t="s">
         <v>3699</v>
       </c>
-      <c r="N26" s="71" t="s">
+      <c r="N26" s="72" t="s">
         <v>3662</v>
       </c>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71" t="s">
+      <c r="O26" s="72"/>
+      <c r="P26" s="72" t="s">
         <v>3681</v>
       </c>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71" t="s">
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="32" t="s">
@@ -48571,20 +48641,20 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="72" t="s">
         <v>3662</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71" t="s">
+      <c r="B37" s="72"/>
+      <c r="C37" s="72" t="s">
         <v>3681</v>
       </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71" t="s">
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B38" s="32" t="s">
@@ -48775,10 +48845,10 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="72" t="s">
         <v>3662</v>
       </c>
-      <c r="B48" s="71"/>
+      <c r="B48" s="72"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B49" s="32" t="s">
@@ -48873,18 +48943,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -48892,6 +48950,18 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48899,21 +48969,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -49059,10 +49114,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49084,19 +49164,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D5B31-42A0-4DA4-AECA-20E419D46315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A58809-3326-4064-9FAC-2D71F3017563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7703" yWindow="1927" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8407" uniqueCount="4114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8416" uniqueCount="4123">
   <si>
     <t>Variable</t>
   </si>
@@ -12375,21 +12375,9 @@
     <t>0.7792 (0.6393 - 0.9497)</t>
   </si>
   <si>
-    <t>1745 (3.11%)</t>
-  </si>
-  <si>
-    <t>804 (3.75%)</t>
-  </si>
-  <si>
-    <t>684 (4.31%)</t>
-  </si>
-  <si>
     <t>1.2833 (1.0297 - 1.600)</t>
   </si>
   <si>
-    <t>1. Crude Hazard Ratio. 2. Adjusted for age, sex, insurance status, education, and income category.</t>
-  </si>
-  <si>
     <t>1.5983 (1.29224 - 1.9769)</t>
   </si>
   <si>
@@ -12403,6 +12391,45 @@
   </si>
   <si>
     <t>348 (187 - 548)</t>
+  </si>
+  <si>
+    <t>0.6813 (0.6053 - 0.7667)</t>
+  </si>
+  <si>
+    <t>2031 (12.04)</t>
+  </si>
+  <si>
+    <t>684 (4.31)</t>
+  </si>
+  <si>
+    <t>804 (3.75)</t>
+  </si>
+  <si>
+    <t>1745 (3.11)</t>
+  </si>
+  <si>
+    <t>0.6199 (0.5621 - 0.6836)</t>
+  </si>
+  <si>
+    <t>3287 (14.06)</t>
+  </si>
+  <si>
+    <t>1. Unadjusted Hazard Ratio. 2. Adjusted for age, sex, insurance status, education, and income category.</t>
+  </si>
+  <si>
+    <t>0.6952 (0.6426 - 0.7520)</t>
+  </si>
+  <si>
+    <t>5448 (9.25)</t>
+  </si>
+  <si>
+    <t>1.0999 (0.9664 - 1.2519)</t>
+  </si>
+  <si>
+    <t>1.1111 (1.00154 - 1.2327)</t>
+  </si>
+  <si>
+    <t>1.2060 (1.1119 - 1.3081)</t>
   </si>
 </sst>
 </file>
@@ -47227,8 +47254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -47241,8 +47268,8 @@
     <col min="6" max="6" width="2.86328125" style="32" customWidth="1"/>
     <col min="7" max="7" width="10.265625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.53125" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.06640625" style="32"/>
   </cols>
   <sheetData>
@@ -47307,16 +47334,25 @@
         <v>3877</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>4106</v>
+        <v>4112</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>4103</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>4107</v>
+        <v>4104</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>4111</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>4110</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>4120</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -47324,16 +47360,25 @@
         <v>3878</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>4105</v>
+        <v>4113</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>4112</v>
+        <v>4108</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>4102</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>4109</v>
+        <v>4105</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>4116</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>4115</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>4121</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -47341,18 +47386,27 @@
         <v>3869</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>4104</v>
+        <v>4114</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>4113</v>
+        <v>4109</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>4101</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>4110</v>
+        <v>4106</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>4119</v>
       </c>
       <c r="H6" s="44"/>
+      <c r="I6" s="32" t="s">
+        <v>4118</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>4122</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="46" t="s">
@@ -47394,7 +47448,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="32" t="s">
-        <v>4108</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A58809-3326-4064-9FAC-2D71F3017563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA26D2-B19F-485A-BAA1-C2B8C76F769F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7703" yWindow="1927" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="7335" yWindow="4822" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="CoxPHResults" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8416" uniqueCount="4123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8458" uniqueCount="4165">
   <si>
     <t>Variable</t>
   </si>
@@ -11665,9 +11666,6 @@
   </si>
   <si>
     <t>CVD</t>
-  </si>
-  <si>
-    <t>2000-2014 Waves</t>
   </si>
   <si>
     <t>CRN for Diabetes</t>
@@ -12430,6 +12428,135 @@
   </si>
   <si>
     <t>1.2060 (1.1119 - 1.3081)</t>
+  </si>
+  <si>
+    <t>3045 (8.74)</t>
+  </si>
+  <si>
+    <t>0.7661 (0.6742 - 0.8704)</t>
+  </si>
+  <si>
+    <t>0.6178 (0.5482 - 0.6963)</t>
+  </si>
+  <si>
+    <t>4845 (9.14)</t>
+  </si>
+  <si>
+    <t>0.7281 (0.6690 - 0.7923)</t>
+  </si>
+  <si>
+    <t>10321 (7.44)</t>
+  </si>
+  <si>
+    <t>1.2269 (1.0761 - 1.3989)</t>
+  </si>
+  <si>
+    <t>1.1378 (1.0064 - 1.2864)</t>
+  </si>
+  <si>
+    <t>1.3097 (1.1964 - 1.4337)</t>
+  </si>
+  <si>
+    <t>308 (169 - 500)</t>
+  </si>
+  <si>
+    <t>330 (174 - 530)</t>
+  </si>
+  <si>
+    <t>343 (187 - 544)</t>
+  </si>
+  <si>
+    <t>8909 (23.6)</t>
+  </si>
+  <si>
+    <t>0.7524 (0.6944 - 0.8152)</t>
+  </si>
+  <si>
+    <t>16345 (27.8)</t>
+  </si>
+  <si>
+    <t>0.7022 (0.6578 - 0.7497)</t>
+  </si>
+  <si>
+    <t>0.7714 (0.7319 - 0.8130)</t>
+  </si>
+  <si>
+    <t>28755 (19.5)</t>
+  </si>
+  <si>
+    <t>1.1919 (1.0963 - 1.2958)</t>
+  </si>
+  <si>
+    <t>1.1947 (1.1182 - 1.2766)</t>
+  </si>
+  <si>
+    <t>1.2785 (1.2102 - 1.3505)</t>
+  </si>
+  <si>
+    <t>2563 (13.0)</t>
+  </si>
+  <si>
+    <t>0.80873 (0.7004 - 0.9338)</t>
+  </si>
+  <si>
+    <t>0.6592 (0.5817 - 0.7469)</t>
+  </si>
+  <si>
+    <t>4282 (12.9)</t>
+  </si>
+  <si>
+    <t>9023 (10.7)</t>
+  </si>
+  <si>
+    <t>2000-2010 Waves</t>
+  </si>
+  <si>
+    <t>1.2872 (1.1107 - 1.4918)</t>
+  </si>
+  <si>
+    <t>0.7582 (0.6905 - 0.8327)</t>
+  </si>
+  <si>
+    <t>1.1900 (1.0448 - 1.3554)</t>
+  </si>
+  <si>
+    <t>1.3357 (1.2082 - 1.4768)</t>
+  </si>
+  <si>
+    <t>456 (343 - 600)</t>
+  </si>
+  <si>
+    <t>461 (340 - 617)</t>
+  </si>
+  <si>
+    <t>491 (369 - 639)</t>
+  </si>
+  <si>
+    <t>7379 (34.1)</t>
+  </si>
+  <si>
+    <t>0.7994 (0.7308 - 0.8746)</t>
+  </si>
+  <si>
+    <t>13771 (37.4)</t>
+  </si>
+  <si>
+    <t>0.8046 (0.7601 - 0.8517)</t>
+  </si>
+  <si>
+    <t>24440 (27.1)</t>
+  </si>
+  <si>
+    <t>1.2556 (1.1433 - 1.3789)</t>
+  </si>
+  <si>
+    <t>1.2240 (1.1390 - 1.3153)</t>
+  </si>
+  <si>
+    <t>1.3148 (1.2379 - 1.3965)</t>
+  </si>
+  <si>
+    <t>0.7338 (0.6847 - 0.7864)</t>
   </si>
 </sst>
 </file>
@@ -46241,7 +46368,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -46266,7 +46393,7 @@
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="G1" s="69"/>
     </row>
@@ -46292,48 +46419,48 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="B3" s="60" t="s">
+        <v>4033</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>4034</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="D3" s="60" t="s">
         <v>4035</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>4036</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="F3" s="60" t="s">
         <v>4037</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="62" t="s">
         <v>4038</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>4039</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="C4" s="65" t="s">
+        <v>4089</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>4090</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>4091</v>
-      </c>
       <c r="E4" s="65" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="F4" s="65" t="s">
+        <v>4096</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>4097</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>4098</v>
       </c>
       <c r="I4" s="59"/>
     </row>
@@ -46342,46 +46469,46 @@
         <v>128</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="I6" s="59"/>
     </row>
@@ -46402,22 +46529,22 @@
         <v>3862</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="I8" s="59"/>
     </row>
@@ -46426,22 +46553,22 @@
         <v>3844</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="I9" s="59"/>
     </row>
@@ -46450,22 +46577,22 @@
         <v>3845</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="I10" s="59"/>
     </row>
@@ -46474,22 +46601,22 @@
         <v>3846</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="I11" s="59"/>
     </row>
@@ -46510,22 +46637,22 @@
         <v>3847</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="I13" s="59"/>
     </row>
@@ -46534,22 +46661,22 @@
         <v>3848</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="I14" s="59"/>
     </row>
@@ -46558,22 +46685,22 @@
         <v>3849</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="D15" s="63" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E15" s="63" t="s">
         <v>4042</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="F15" s="63" t="s">
+        <v>4007</v>
+      </c>
+      <c r="G15" s="63" t="s">
         <v>4043</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>4008</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>4044</v>
       </c>
       <c r="I15" s="59"/>
     </row>
@@ -46582,22 +46709,22 @@
         <v>3850</v>
       </c>
       <c r="B16" s="63" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C16" s="63" t="s">
         <v>4045</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="D16" s="63" t="s">
         <v>4046</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="E16" s="63" t="s">
         <v>4047</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="F16" s="63" t="s">
         <v>4048</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="G16" s="63" t="s">
         <v>4049</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>4050</v>
       </c>
       <c r="I16" s="59"/>
     </row>
@@ -46606,22 +46733,22 @@
         <v>3851</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C17" s="63" t="s">
         <v>4051</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="D17" s="63" t="s">
         <v>4052</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="E17" s="63" t="s">
         <v>4053</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="F17" s="63" t="s">
         <v>4054</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="G17" s="63" t="s">
         <v>4055</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>4056</v>
       </c>
       <c r="I17" s="59"/>
     </row>
@@ -46630,22 +46757,22 @@
         <v>3853</v>
       </c>
       <c r="B18" s="63" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C18" s="63" t="s">
         <v>4057</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="D18" s="63" t="s">
         <v>4058</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="E18" s="63" t="s">
         <v>4059</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="F18" s="63" t="s">
         <v>4060</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="G18" s="63" t="s">
         <v>4061</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>4062</v>
       </c>
       <c r="I18" s="59"/>
     </row>
@@ -46663,121 +46790,121 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="52" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="E20" s="63" t="s">
+        <v>4062</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>4008</v>
+      </c>
+      <c r="G20" s="63" t="s">
         <v>4063</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>4009</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>4064</v>
       </c>
       <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="52" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="B23" s="63" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>4065</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="D23" s="63" t="s">
         <v>4066</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="E23" s="63" t="s">
         <v>4067</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="F23" s="63" t="s">
         <v>4068</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="G23" s="63" t="s">
         <v>4069</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>4070</v>
       </c>
       <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="52" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="F24" s="63" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="I24" s="59"/>
     </row>
@@ -46786,22 +46913,22 @@
         <v>3853</v>
       </c>
       <c r="B25" s="63" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>4071</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="D25" s="63" t="s">
         <v>4072</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="E25" s="63" t="s">
+        <v>4040</v>
+      </c>
+      <c r="F25" s="63" t="s">
         <v>4073</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>4041</v>
-      </c>
-      <c r="F25" s="63" t="s">
+      <c r="G25" s="63" t="s">
         <v>4074</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>4075</v>
       </c>
       <c r="I25" s="59"/>
     </row>
@@ -46822,22 +46949,22 @@
         <v>3852</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="F27" s="63" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I27" s="59"/>
     </row>
@@ -46846,22 +46973,22 @@
         <v>3854</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="I28" s="59"/>
     </row>
@@ -46870,22 +46997,22 @@
         <v>3855</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="I29" s="59"/>
     </row>
@@ -46906,22 +47033,22 @@
         <v>3856</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="F31" s="63" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="I31" s="59"/>
     </row>
@@ -46930,22 +47057,22 @@
         <v>3857</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="I32" s="59"/>
     </row>
@@ -46954,22 +47081,22 @@
         <v>3858</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D33" s="63" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="I33" s="59"/>
     </row>
@@ -46978,22 +47105,22 @@
         <v>3859</v>
       </c>
       <c r="B34" s="63" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D34" s="63" t="s">
         <v>4076</v>
       </c>
-      <c r="C34" s="63" t="s">
-        <v>3957</v>
-      </c>
-      <c r="D34" s="63" t="s">
+      <c r="E34" s="63" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F34" s="63" t="s">
         <v>4077</v>
       </c>
-      <c r="E34" s="63" t="s">
-        <v>3992</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>4078</v>
-      </c>
       <c r="G34" s="63" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="I34" s="59"/>
     </row>
@@ -47002,22 +47129,22 @@
         <v>3860</v>
       </c>
       <c r="B35" s="63" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C35" s="63" t="s">
         <v>4079</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="D35" s="63" t="s">
         <v>4080</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="E35" s="63" t="s">
         <v>4081</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="F35" s="63" t="s">
         <v>4082</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="G35" s="63" t="s">
         <v>4083</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>4084</v>
       </c>
       <c r="I35" s="59"/>
     </row>
@@ -47026,22 +47153,22 @@
         <v>3861</v>
       </c>
       <c r="B36" s="63" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D36" s="63" t="s">
         <v>4085</v>
       </c>
-      <c r="C36" s="63" t="s">
-        <v>3958</v>
-      </c>
-      <c r="D36" s="63" t="s">
+      <c r="E36" s="63" t="s">
+        <v>3992</v>
+      </c>
+      <c r="F36" s="63" t="s">
         <v>4086</v>
       </c>
-      <c r="E36" s="63" t="s">
-        <v>3993</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>4087</v>
-      </c>
       <c r="G36" s="63" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="I36" s="67"/>
     </row>
@@ -47057,22 +47184,22 @@
         <v>3865</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="E38" s="65" t="s">
+        <v>4030</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>3915</v>
+      </c>
+      <c r="G38" s="65" t="s">
         <v>4031</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>3916</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>4032</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -47080,22 +47207,22 @@
         <v>3866</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>3901</v>
       </c>
-      <c r="C39" s="64" t="s">
-        <v>3902</v>
-      </c>
       <c r="D39" s="64" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -47103,22 +47230,22 @@
         <v>3867</v>
       </c>
       <c r="B40" s="64" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C40" s="64" t="s">
         <v>3903</v>
       </c>
-      <c r="C40" s="64" t="s">
-        <v>3904</v>
-      </c>
       <c r="D40" s="64" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="G40" s="66" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -47131,42 +47258,42 @@
         <v>3864</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="E42" s="61" t="s">
+        <v>3909</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>3911</v>
+      </c>
+      <c r="G42" s="61" t="s">
         <v>3910</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>3912</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>3911</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="55" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="E43" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="F43" s="57" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="G43" s="57" t="s">
         <v>3392</v>
@@ -47174,22 +47301,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="55" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="E44" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="G44" s="57" t="s">
         <v>3392</v>
@@ -47197,22 +47324,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="55" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="E45" s="57" t="s">
         <v>3392</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="G45" s="57" t="s">
         <v>3392</v>
@@ -47220,7 +47347,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="56" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -47231,7 +47358,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -47252,10 +47379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -47266,7 +47393,7 @@
     <col min="4" max="4" width="21.3984375" style="32" customWidth="1"/>
     <col min="5" max="5" width="22.1328125" style="44" customWidth="1"/>
     <col min="6" max="6" width="2.86328125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="32" customWidth="1"/>
     <col min="8" max="8" width="19.796875" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.59765625" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.53125" style="32" bestFit="1" customWidth="1"/>
@@ -47296,10 +47423,10 @@
         <v>3874</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>3879</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>3880</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
@@ -47309,10 +47436,10 @@
         <v>3874</v>
       </c>
       <c r="I2" s="45" t="s">
+        <v>3878</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>3879</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>3880</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -47329,88 +47456,87 @@
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
     </row>
-    <row r="4" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>4112</v>
+        <v>4122</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>4107</v>
+        <v>4131</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>4103</v>
+        <v>4123</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>4104</v>
+        <v>4128</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>4111</v>
+        <v>4134</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>4110</v>
+        <v>4135</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>4120</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>4113</v>
+        <v>4125</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>4108</v>
+        <v>4132</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>4102</v>
+        <v>4124</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>4105</v>
+        <v>4129</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>4116</v>
+        <v>4136</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>4115</v>
+        <v>4137</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>4121</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
         <v>3869</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>4114</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>4109</v>
+      <c r="B6" s="32" t="s">
+        <v>4127</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>4133</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>4101</v>
+        <v>4126</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>4106</v>
+        <v>4130</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>4119</v>
-      </c>
-      <c r="H6" s="44"/>
+        <v>4139</v>
+      </c>
       <c r="I6" s="32" t="s">
-        <v>4118</v>
+        <v>4138</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>4122</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="46" t="s">
-        <v>3876</v>
+        <v>4148</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -47424,36 +47550,162 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
-        <v>3877</v>
+        <v>3876</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>4144</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>4149</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>4156</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>4157</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>4161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
-        <v>3878</v>
+        <v>3877</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>4146</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>4154</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>4145</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>4151</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>4158</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>4164</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>4162</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
         <v>3869</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="43" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>4150</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>4152</v>
+      </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>4160</v>
+      </c>
       <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="I11" s="43" t="s">
+        <v>4159</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>4163</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="32" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="32" t="s">
-        <v>3881</v>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="32" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>4102</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>4103</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>4110</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>4109</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="32" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>4107</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>4101</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>4104</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>4114</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="44" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>4108</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>4100</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>4105</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>4118</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="32" t="s">
+        <v>4117</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>4121</v>
       </c>
     </row>
   </sheetData>
@@ -48997,6 +49249,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -49004,18 +49268,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -49169,18 +49421,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49202,6 +49454,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882C1FE-BC45-4FCD-A08C-67DB8BD38111}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -49215,12 +49475,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA26D2-B19F-485A-BAA1-C2B8C76F769F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7B876-5A3B-48F4-8FB4-997B814C33BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="4822" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="5625" yWindow="3877" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -47381,8 +47381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7B876-5A3B-48F4-8FB4-997B814C33BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E7F60-52AA-4E23-B0DC-5A7C92EC5EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="3877" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="2003" yWindow="3593" windowWidth="16875" windowHeight="10522" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="CoxPHResults" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8458" uniqueCount="4165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8460" uniqueCount="4166">
   <si>
     <t>Variable</t>
   </si>
@@ -11791,12 +11790,6 @@
     <t>1355225.9 (35.2)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0 (0.0)  </t>
-  </si>
-  <si>
-    <t>0.0 (0.0)</t>
-  </si>
-  <si>
     <t>7708209.7 (87.3)</t>
   </si>
   <si>
@@ -12557,6 +12550,15 @@
   </si>
   <si>
     <t>0.7338 (0.6847 - 0.7864)</t>
+  </si>
+  <si>
+    <t>2011 - 2014 waves</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 (0.0)  </t>
+  </si>
+  <si>
+    <t>Additionally adjusting for chronic conditions in all cause models</t>
   </si>
 </sst>
 </file>
@@ -46368,7 +46370,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -46422,45 +46424,45 @@
         <v>3886</v>
       </c>
       <c r="B3" s="60" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>4032</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>4033</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>4034</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>4035</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>4036</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>4037</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>4038</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>4087</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>4090</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>4089</v>
-      </c>
       <c r="D4" s="65" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="I4" s="59"/>
     </row>
@@ -46469,46 +46471,46 @@
         <v>128</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="B6" s="65" t="s">
+        <v>4090</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>4089</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>4093</v>
+      </c>
+      <c r="E6" s="65" t="s">
         <v>4092</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>4091</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>4095</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>4094</v>
-      </c>
       <c r="F6" s="65" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="I6" s="59"/>
     </row>
@@ -46529,22 +46531,22 @@
         <v>3862</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="I8" s="59"/>
     </row>
@@ -46553,22 +46555,22 @@
         <v>3844</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="I9" s="59"/>
     </row>
@@ -46577,22 +46579,22 @@
         <v>3845</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="I10" s="59"/>
     </row>
@@ -46601,22 +46603,22 @@
         <v>3846</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="I11" s="59"/>
     </row>
@@ -46637,22 +46639,22 @@
         <v>3847</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="I13" s="59"/>
     </row>
@@ -46661,22 +46663,22 @@
         <v>3848</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="I14" s="59"/>
     </row>
@@ -46685,22 +46687,22 @@
         <v>3849</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="D15" s="63" t="s">
+        <v>4039</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>4040</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>4005</v>
+      </c>
+      <c r="G15" s="63" t="s">
         <v>4041</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>4042</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>4007</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>4043</v>
       </c>
       <c r="I15" s="59"/>
     </row>
@@ -46709,22 +46711,22 @@
         <v>3850</v>
       </c>
       <c r="B16" s="63" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>4043</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>4044</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="E16" s="63" t="s">
         <v>4045</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="F16" s="63" t="s">
         <v>4046</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="G16" s="63" t="s">
         <v>4047</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>4048</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>4049</v>
       </c>
       <c r="I16" s="59"/>
     </row>
@@ -46733,22 +46735,22 @@
         <v>3851</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D17" s="63" t="s">
         <v>4050</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="E17" s="63" t="s">
         <v>4051</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="F17" s="63" t="s">
         <v>4052</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="G17" s="63" t="s">
         <v>4053</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>4054</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>4055</v>
       </c>
       <c r="I17" s="59"/>
     </row>
@@ -46757,22 +46759,22 @@
         <v>3853</v>
       </c>
       <c r="B18" s="63" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D18" s="63" t="s">
         <v>4056</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="E18" s="63" t="s">
         <v>4057</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="F18" s="63" t="s">
         <v>4058</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="G18" s="63" t="s">
         <v>4059</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>4060</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>4061</v>
       </c>
       <c r="I18" s="59"/>
     </row>
@@ -46790,121 +46792,121 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="52" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="52" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="B23" s="63" t="s">
+        <v>4062</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D23" s="63" t="s">
         <v>4064</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="E23" s="63" t="s">
         <v>4065</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="F23" s="63" t="s">
         <v>4066</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="G23" s="63" t="s">
         <v>4067</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>4069</v>
       </c>
       <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="52" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="F24" s="63" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="I24" s="59"/>
     </row>
@@ -46913,22 +46915,22 @@
         <v>3853</v>
       </c>
       <c r="B25" s="63" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>4069</v>
+      </c>
+      <c r="D25" s="63" t="s">
         <v>4070</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="E25" s="63" t="s">
+        <v>4038</v>
+      </c>
+      <c r="F25" s="63" t="s">
         <v>4071</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="G25" s="63" t="s">
         <v>4072</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>4040</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>4074</v>
       </c>
       <c r="I25" s="59"/>
     </row>
@@ -46949,22 +46951,22 @@
         <v>3852</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="F27" s="63" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="I27" s="59"/>
     </row>
@@ -46973,22 +46975,22 @@
         <v>3854</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="I28" s="59"/>
     </row>
@@ -46997,22 +46999,22 @@
         <v>3855</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="I29" s="59"/>
     </row>
@@ -47033,22 +47035,22 @@
         <v>3856</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="F31" s="63" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="I31" s="59"/>
     </row>
@@ -47057,22 +47059,22 @@
         <v>3857</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="I32" s="59"/>
     </row>
@@ -47081,22 +47083,22 @@
         <v>3858</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="D33" s="63" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="I33" s="59"/>
     </row>
@@ -47105,22 +47107,22 @@
         <v>3859</v>
       </c>
       <c r="B34" s="63" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>4074</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>3989</v>
+      </c>
+      <c r="F34" s="63" t="s">
         <v>4075</v>
       </c>
-      <c r="C34" s="63" t="s">
-        <v>3956</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>4076</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>3991</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>4077</v>
-      </c>
       <c r="G34" s="63" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="I34" s="59"/>
     </row>
@@ -47129,22 +47131,22 @@
         <v>3860</v>
       </c>
       <c r="B35" s="63" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D35" s="63" t="s">
         <v>4078</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="E35" s="63" t="s">
         <v>4079</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="F35" s="63" t="s">
         <v>4080</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="G35" s="63" t="s">
         <v>4081</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>4082</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>4083</v>
       </c>
       <c r="I35" s="59"/>
     </row>
@@ -47153,22 +47155,22 @@
         <v>3861</v>
       </c>
       <c r="B36" s="63" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>4083</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F36" s="63" t="s">
         <v>4084</v>
       </c>
-      <c r="C36" s="63" t="s">
-        <v>3957</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>4085</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>3992</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>4086</v>
-      </c>
       <c r="G36" s="63" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="I36" s="67"/>
     </row>
@@ -47193,13 +47195,13 @@
         <v>3905</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -47216,13 +47218,13 @@
         <v>3906</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -47242,10 +47244,10 @@
         <v>3907</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="G40" s="66" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -47267,13 +47269,13 @@
         <v>3904</v>
       </c>
       <c r="E42" s="61" t="s">
+        <v>4164</v>
+      </c>
+      <c r="F42" s="57" t="s">
         <v>3909</v>
       </c>
-      <c r="F42" s="57" t="s">
-        <v>3911</v>
-      </c>
       <c r="G42" s="61" t="s">
-        <v>3910</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -47379,10 +47381,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -47461,25 +47463,25 @@
         <v>3876</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -47487,25 +47489,25 @@
         <v>3877</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -47513,30 +47515,30 @@
         <v>3869</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="46" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -47553,25 +47555,25 @@
         <v>3876</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -47579,25 +47581,25 @@
         <v>3877</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -47605,32 +47607,32 @@
         <v>3869</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="D11" s="43" t="s">
+        <v>4148</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>4150</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>4152</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="43" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="32" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -47638,74 +47640,84 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="32" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B19" s="32" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>4104</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>4100</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>4101</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>4108</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>4107</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="32" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>4099</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>4102</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>4113</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>4112</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="44" t="s">
         <v>4111</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C21" s="44" t="s">
         <v>4106</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>4102</v>
-      </c>
-      <c r="E19" s="44" t="s">
+      <c r="D21" s="32" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E21" s="44" t="s">
         <v>4103</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>4110</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>4109</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>4119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="32" t="s">
-        <v>4112</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>4107</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>4101</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>4104</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>4115</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>4114</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>4120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="44" t="s">
-        <v>4113</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>4108</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>4100</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>4105</v>
-      </c>
       <c r="G21" s="32" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="32" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>4121</v>
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="32" t="s">
+        <v>4165</v>
       </c>
     </row>
   </sheetData>
@@ -49249,18 +49261,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -49268,6 +49268,18 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -49275,6 +49287,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -49420,22 +49447,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882C1FE-BC45-4FCD-A08C-67DB8BD38111}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49451,28 +49487,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882C1FE-BC45-4FCD-A08C-67DB8BD38111}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E7F60-52AA-4E23-B0DC-5A7C92EC5EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FEF0B-C4A2-45CE-8541-2D62D442DD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2003" yWindow="3593" windowWidth="16875" windowHeight="10522" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="3825" yWindow="1230" windowWidth="16875" windowHeight="8633" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8460" uniqueCount="4166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8486" uniqueCount="4187">
   <si>
     <t>Variable</t>
   </si>
@@ -12552,13 +12552,76 @@
     <t>0.7338 (0.6847 - 0.7864)</t>
   </si>
   <si>
-    <t>2011 - 2014 waves</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0 (0.0)  </t>
   </si>
   <si>
-    <t>Additionally adjusting for chronic conditions in all cause models</t>
+    <t>1.1794 (1.0893 - 1.2769)</t>
+  </si>
+  <si>
+    <t>1.1507 (1.0758 - 1.2307)</t>
+  </si>
+  <si>
+    <t>plus smoking and BMI</t>
+  </si>
+  <si>
+    <t>1.1154 (1.0354 - 1.2016)</t>
+  </si>
+  <si>
+    <t>1.1596 (1.0645 - 1.2631)</t>
+  </si>
+  <si>
+    <t>1.2304 (1.1639 - 1.3006)</t>
+  </si>
+  <si>
+    <t>1.1854 (1.1157 - 1.2594)</t>
+  </si>
+  <si>
+    <t>(without the chronic conditions in dz specific)</t>
+  </si>
+  <si>
+    <t>Additionally adjusting for chronic conditions in all cause models (2000 - 2014)</t>
+  </si>
+  <si>
+    <t>Additionally adjusting for chronic conditions in all cause models (2000 - 2010)</t>
+  </si>
+  <si>
+    <t>1.2188 (1.1083 - 1.3402)</t>
+  </si>
+  <si>
+    <t>1.1859 (1.0712 - 1.3128)</t>
+  </si>
+  <si>
+    <t>1.2663 (1.1911 - 1.3461)</t>
+  </si>
+  <si>
+    <t>1.2072 (1.1297 - 1.2899)</t>
+  </si>
+  <si>
+    <t>1.1439 (1.0539 - 1.2416)</t>
+  </si>
+  <si>
+    <t>1.1835 (1.0995 - 1.2739)</t>
+  </si>
+  <si>
+    <t>1.2402 (1.0726 - 1.4341)</t>
+  </si>
+  <si>
+    <t>1.1176 (0.9794 - 1.2754)</t>
+  </si>
+  <si>
+    <t>1.2558 (1.1384 - 1.3853)</t>
+  </si>
+  <si>
+    <t>1.1647 (1.0112 - 1.3415)</t>
+  </si>
+  <si>
+    <t>1.2915 (1.0989 - 1.5177)</t>
+  </si>
+  <si>
+    <t>1.2778 (1.1460 - 1.4248)</t>
+  </si>
+  <si>
+    <t>2011 - 2014 Waves</t>
   </si>
 </sst>
 </file>
@@ -12701,7 +12764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12895,6 +12958,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -47269,7 +47340,7 @@
         <v>3904</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="F42" s="57" t="s">
         <v>3909</v>
@@ -47381,10 +47452,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -47397,7 +47468,7 @@
     <col min="6" max="6" width="2.86328125" style="32" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="32" customWidth="1"/>
     <col min="8" max="8" width="19.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.46484375" style="32" customWidth="1"/>
     <col min="10" max="10" width="20.53125" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.06640625" style="32"/>
   </cols>
@@ -47603,121 +47674,271 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="75" t="s">
         <v>3869</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="76" t="s">
         <v>4145</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="76" t="s">
         <v>4153</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="76" t="s">
         <v>4148</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="75" t="s">
         <v>4150</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43" t="s">
+      <c r="F11" s="76"/>
+      <c r="G11" s="76" t="s">
         <v>4158</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43" t="s">
+      <c r="H11" s="76"/>
+      <c r="I11" s="76" t="s">
         <v>4157</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="76" t="s">
         <v>4161</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="46" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="32" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>4104</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>4100</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>4101</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>4108</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>4107</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A15" s="44" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>4099</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>4102</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>4113</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>4112</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>4103</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43" t="s">
+        <v>4116</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="43" t="s">
+        <v>4115</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
         <v>4114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
-        <v>3880</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="32" t="s">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="32" t="s">
-        <v>4109</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>4104</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>4100</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>4101</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>4108</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>4107</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>4117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="32" t="s">
-        <v>4110</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>4105</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>4099</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>4102</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>4113</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>4112</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>4118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="44" t="s">
-        <v>4111</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>4106</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>4098</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>4103</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>4116</v>
-      </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="32" t="s">
-        <v>4115</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>4119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="32" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="73" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J27" s="32" t="s">
         <v>4165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J28" s="32" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="32" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>4180</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="32" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>4181</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="48" t="s">
+        <v>4182</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="32" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J34" s="32" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J35" s="32" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J36" s="32" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="32" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="32" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>4184</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E39" s="44" t="s">
+        <v>4183</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="48" t="s">
+        <v>4185</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43" t="s">
+        <v>4177</v>
       </c>
     </row>
   </sheetData>

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FEF0B-C4A2-45CE-8541-2D62D442DD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB65D6A-4C41-48C6-89EE-72AE15560ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1230" windowWidth="16875" windowHeight="8633" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="3450" yWindow="2168" windowWidth="16875" windowHeight="11535" firstSheet="2" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1 (2010-2014)" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1 (2000-2014)" sheetId="1" r:id="rId3"/>
     <sheet name="table1" sheetId="6" r:id="rId4"/>
-    <sheet name="table2" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
-    <sheet name="CoxPHResults" sheetId="5" r:id="rId7"/>
+    <sheet name="table2_round" sheetId="8" r:id="rId5"/>
+    <sheet name="table2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="CoxPHResults" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8486" uniqueCount="4187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="4246">
   <si>
     <t>Variable</t>
   </si>
@@ -12622,6 +12623,183 @@
   </si>
   <si>
     <t>2011 - 2014 Waves</t>
+  </si>
+  <si>
+    <t>FULL Model: Adjusted for age, sex, insurance status, edu, income, race, region, smoking status, and BMI</t>
+  </si>
+  <si>
+    <t>(2000 - 2014)</t>
+  </si>
+  <si>
+    <t>1.1004 (0.9641 - 1.2561)</t>
+  </si>
+  <si>
+    <t>1.2437 (1.1273 - 1.3722)</t>
+  </si>
+  <si>
+    <t>1.2427 (1.0737 - 1.4383)</t>
+  </si>
+  <si>
+    <t>FULL (2000 -2010)</t>
+  </si>
+  <si>
+    <t>1.1441 (0.9932 - 1.3181)</t>
+  </si>
+  <si>
+    <t>1.2656 (1.1349 - 1.4113)</t>
+  </si>
+  <si>
+    <t>1.2992 (1.1039 - 1.5289)</t>
+  </si>
+  <si>
+    <t>FULL (2011 - 2014)</t>
+  </si>
+  <si>
+    <t>1.0920 (0.7707 - 1.5470)</t>
+  </si>
+  <si>
+    <t>1.0200 (0.7161 - 1.4527)</t>
+  </si>
+  <si>
+    <t>1.2624 (0.9863 - 1.6156)</t>
+  </si>
+  <si>
+    <t>Additionally adjusting for chronic conditions in all cause models (2010 - 2014)</t>
+  </si>
+  <si>
+    <t>1.1060 (0.7804  - 1.5670)</t>
+  </si>
+  <si>
+    <t>1.0241 (0.7216 - 1.4535)</t>
+  </si>
+  <si>
+    <t>1.2733 (0.9952 - 1.6289)</t>
+  </si>
+  <si>
+    <t>0.9856 (0.8273 - 1.1742)</t>
+  </si>
+  <si>
+    <t>1.0884 (0.9338 - 1.2685)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9965 (0.8121 - 1.2228)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0844 (0.9417 - 1.2488)</t>
+  </si>
+  <si>
+    <t>1.0204 (0.87000 - 1.1968)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9676 (0.7986 - 1.1724)</t>
+  </si>
+  <si>
+    <t>0.766 (0.674 - 0.870)</t>
+  </si>
+  <si>
+    <t>0.618 (0.548 - 0.696)</t>
+  </si>
+  <si>
+    <t>0.728 (0.669 - 0.792)</t>
+  </si>
+  <si>
+    <t>0.809 (0.700 - 0.934)</t>
+  </si>
+  <si>
+    <t>0.659 (0.582 - 0.747)</t>
+  </si>
+  <si>
+    <t>0.758 (0.691 - 0.833)</t>
+  </si>
+  <si>
+    <t>0.779 (0.639 - 0.950)</t>
+  </si>
+  <si>
+    <t>0.768 (0.633 - 0.931)</t>
+  </si>
+  <si>
+    <t>0.802 (0.700 - 0.918)</t>
+  </si>
+  <si>
+    <t>1.227(1.076 - 1.399)</t>
+  </si>
+  <si>
+    <t>1.138 (1.006 - 1.286)</t>
+  </si>
+  <si>
+    <t>1.310 (1.196 - 1.434)</t>
+  </si>
+  <si>
+    <t>1.287 (1.111 - 1.492)</t>
+  </si>
+  <si>
+    <t>1.190 (1.045 - 1.355)</t>
+  </si>
+  <si>
+    <t>1.336 (1.208 - 1.477)</t>
+  </si>
+  <si>
+    <t>1.283 (1.030 - 1.600)</t>
+  </si>
+  <si>
+    <t>1.598 (1.292 - 1.977)</t>
+  </si>
+  <si>
+    <t>1.559 (1.350 - 1.801)</t>
+  </si>
+  <si>
+    <t>0.752 (0.694 - 0.815)</t>
+  </si>
+  <si>
+    <t>0.702 (0.658 - 0.750)</t>
+  </si>
+  <si>
+    <t>0.771 (0.732 - 0.813)</t>
+  </si>
+  <si>
+    <t>0.799 (0.731 - 0.875)</t>
+  </si>
+  <si>
+    <t>0.734 (0.685 - 0.786)</t>
+  </si>
+  <si>
+    <t>0.805 (0.760 - 0.852)</t>
+  </si>
+  <si>
+    <t>0.681 (0.605 - 0.767)</t>
+  </si>
+  <si>
+    <t>0.620 (0.562 - 0.684)</t>
+  </si>
+  <si>
+    <t>0.695 (0.643 - 0.752)</t>
+  </si>
+  <si>
+    <t>1.192 (1.096 - 1.296)</t>
+  </si>
+  <si>
+    <t>1.195 (1.118 - 1.277)</t>
+  </si>
+  <si>
+    <t>1.279 (1.210 - 1.351)</t>
+  </si>
+  <si>
+    <t>1.256 (1.143 - 1.379)</t>
+  </si>
+  <si>
+    <t>1.224 (1.139 - 1.315)</t>
+  </si>
+  <si>
+    <t>1.315 (1.238 - 1.397)</t>
+  </si>
+  <si>
+    <t>1.100 (0.966 - 1.252)</t>
+  </si>
+  <si>
+    <t>1.111 (1.002 - 1.233)</t>
+  </si>
+  <si>
+    <t>1.206 (1.112 - 1.308)</t>
   </si>
 </sst>
 </file>
@@ -12764,7 +12942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12943,6 +13121,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12958,14 +13150,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13347,41 +13546,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="11"/>
       <c r="G1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="11"/>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="68"/>
+      <c r="M1" s="74"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="R1" s="68"/>
+      <c r="R1" s="74"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="68" t="s">
+      <c r="V1" s="74" t="s">
         <v>649</v>
       </c>
-      <c r="W1" s="68"/>
+      <c r="W1" s="74"/>
       <c r="Z1" s="11"/>
-      <c r="AA1" s="68" t="s">
+      <c r="AA1" s="74" t="s">
         <v>650</v>
       </c>
-      <c r="AB1" s="68"/>
+      <c r="AB1" s="74"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="68" t="s">
+      <c r="AF1" s="74" t="s">
         <v>659</v>
       </c>
-      <c r="AG1" s="68"/>
+      <c r="AG1" s="74"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="29" t="s">
         <v>1045</v>
@@ -23199,47 +23398,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="11"/>
       <c r="H1" s="29" t="s">
         <v>507</v>
       </c>
       <c r="K1" s="29"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="68"/>
+      <c r="O1" s="74"/>
       <c r="Q1" s="29"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="68"/>
+      <c r="U1" s="74"/>
       <c r="W1" s="29"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="68" t="s">
+      <c r="Z1" s="74" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="68"/>
+      <c r="AA1" s="74"/>
       <c r="AC1" s="29"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="68" t="s">
+      <c r="AF1" s="74" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="68"/>
+      <c r="AG1" s="74"/>
       <c r="AI1" s="29"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="68" t="s">
+      <c r="AL1" s="74" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="68"/>
+      <c r="AM1" s="74"/>
       <c r="AO1" s="29"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="29" t="s">
@@ -33830,7 +34029,7 @@
   <dimension ref="A1:BN167"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73:G79"/>
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -33905,13 +34104,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
         <v>507</v>
@@ -33920,38 +34119,38 @@
       <c r="J1" s="6"/>
       <c r="K1" s="12"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="68"/>
+      <c r="O1" s="74"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="12"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="U1" s="68"/>
+      <c r="U1" s="74"/>
       <c r="V1" s="6"/>
       <c r="W1" s="12"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="68" t="s">
+      <c r="Z1" s="74" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" s="68"/>
+      <c r="AA1" s="74"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="12"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="68" t="s">
+      <c r="AF1" s="74" t="s">
         <v>650</v>
       </c>
-      <c r="AG1" s="68"/>
+      <c r="AG1" s="74"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="12"/>
       <c r="AK1" s="11"/>
-      <c r="AL1" s="68" t="s">
+      <c r="AL1" s="74" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="68"/>
+      <c r="AM1" s="74"/>
       <c r="AO1" s="12"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="12" t="s">
@@ -46440,7 +46639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="87" workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -46457,18 +46656,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="75" t="s">
         <v>3662</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75" t="s">
         <v>3875</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>3881</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="57" t="s">
@@ -47451,49 +47650,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4313555-EC6E-4D2C-90A6-517B882FC83C}">
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="16.06640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="32" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" style="32" customWidth="1"/>
     <col min="5" max="5" width="22.1328125" style="44" customWidth="1"/>
     <col min="6" max="6" width="2.86328125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="19.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.46484375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="20.53125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="32"/>
+    <col min="7" max="7" width="11.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="20.46484375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="20.53125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="76" t="s">
         <v>3871</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="47"/>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="76" t="s">
         <v>3870</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-    </row>
-    <row r="2" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+    </row>
+    <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B2" s="45" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C2" s="73" t="s">
         <v>3873</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>3874</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>3878</v>
@@ -47501,21 +47697,18 @@
       <c r="E2" s="45" t="s">
         <v>3879</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>3873</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>3874</v>
+        <v>3878</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>3878</v>
-      </c>
-      <c r="J2" s="45" t="s">
         <v>3879</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>3872</v>
       </c>
@@ -47527,17 +47720,722 @@
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
         <v>3876</v>
       </c>
+      <c r="B4" s="73" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>4120</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>4210</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>4219</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73" t="s">
+        <v>4132</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>4228</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>4123</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>4211</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>4220</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73" t="s">
+        <v>4134</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>4229</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A6" s="44" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>4125</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>4212</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>4221</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73" t="s">
+        <v>4137</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>4230</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="46" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="32" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>4151</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>4213</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>4222</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>4231</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A10" s="44" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>4144</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>4223</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73" t="s">
+        <v>4156</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>4232</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A11" s="70" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>4153</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>4145</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>4215</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>4224</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47" t="s">
+        <v>4158</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>4233</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="70"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="46" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="32" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>4216</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>4225</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73" t="s">
+        <v>4108</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>4234</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A15" s="44" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>4110</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>4217</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>4226</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73" t="s">
+        <v>4113</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>4235</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E16" s="82" t="s">
+        <v>4227</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72" t="s">
+        <v>4116</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>4236</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="32" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="68" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I27" s="32" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I28" s="32" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="32" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>4180</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="32" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>4181</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="48" t="s">
+        <v>4182</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="32" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I34" s="32" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I35" s="32" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I36" s="32" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="32" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="32" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>4184</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E39" s="44" t="s">
+        <v>4183</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="48" t="s">
+        <v>4185</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="32" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I42" s="40" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I43" s="40" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I44" s="40" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="32" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="32" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>4202</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E47" s="40" t="s">
+        <v>4203</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="81" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="32" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="32" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E55" s="40" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E56" s="40" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E57" s="40" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="68" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="80" t="s">
+        <v>4195</v>
+      </c>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E63" s="40" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E64" s="40" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E65" s="40"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="68" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D67" s="71"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E68" s="40"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D69" s="71"/>
+      <c r="E69" s="70"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D70" s="71"/>
+      <c r="E70" s="70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E71" s="40" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E72" s="40" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E73" s="40" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="83" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="2.86328125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="20.46484375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="20.53125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="76" t="s">
+        <v>3871</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="76" t="s">
+        <v>3870</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+    </row>
+    <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B2" s="45" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>3873</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42" t="s">
+        <v>3873</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>3878</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="46" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="32" t="s">
+        <v>3876</v>
+      </c>
       <c r="B4" s="32" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>4120</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>4129</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>4121</v>
@@ -47548,22 +48446,22 @@
       <c r="G4" s="32" t="s">
         <v>4132</v>
       </c>
+      <c r="H4" s="32" t="s">
+        <v>4133</v>
+      </c>
       <c r="I4" s="32" t="s">
-        <v>4133</v>
-      </c>
-      <c r="J4" s="32" t="s">
         <v>4138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
         <v>3877</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>4123</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>4130</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>4122</v>
@@ -47574,22 +48472,22 @@
       <c r="G5" s="32" t="s">
         <v>4134</v>
       </c>
+      <c r="H5" s="32" t="s">
+        <v>4135</v>
+      </c>
       <c r="I5" s="32" t="s">
-        <v>4135</v>
-      </c>
-      <c r="J5" s="32" t="s">
         <v>4139</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
         <v>3869</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>4125</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>4131</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>4124</v>
@@ -47600,14 +48498,14 @@
       <c r="G6" s="32" t="s">
         <v>4137</v>
       </c>
+      <c r="H6" s="32" t="s">
+        <v>4136</v>
+      </c>
       <c r="I6" s="32" t="s">
-        <v>4136</v>
-      </c>
-      <c r="J6" s="32" t="s">
         <v>4140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="46" t="s">
         <v>4146</v>
       </c>
@@ -47619,17 +48517,16 @@
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
         <v>3876</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>4151</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>4141</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>4151</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>4142</v>
@@ -47640,22 +48537,22 @@
       <c r="G9" s="32" t="s">
         <v>4154</v>
       </c>
+      <c r="H9" s="32" t="s">
+        <v>4155</v>
+      </c>
       <c r="I9" s="32" t="s">
-        <v>4155</v>
-      </c>
-      <c r="J9" s="32" t="s">
         <v>4159</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
         <v>3877</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>4144</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>4152</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>4143</v>
@@ -47666,54 +48563,52 @@
       <c r="G10" s="32" t="s">
         <v>4156</v>
       </c>
+      <c r="H10" s="32" t="s">
+        <v>4162</v>
+      </c>
       <c r="I10" s="32" t="s">
-        <v>4162</v>
-      </c>
-      <c r="J10" s="32" t="s">
         <v>4160</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A11" s="70" t="s">
         <v>3869</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="71" t="s">
+        <v>4153</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>4145</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>4153</v>
-      </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="71" t="s">
         <v>4148</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="70" t="s">
         <v>4150</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76" t="s">
+      <c r="F11" s="71"/>
+      <c r="G11" s="71" t="s">
         <v>4158</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76" t="s">
+      <c r="H11" s="71" t="s">
         <v>4157</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="I11" s="71" t="s">
         <v>4161</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="46" t="s">
         <v>4186</v>
       </c>
@@ -47725,17 +48620,16 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="32" t="s">
         <v>3876</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>4109</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>4104</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>4100</v>
@@ -47746,22 +48640,22 @@
       <c r="G14" s="32" t="s">
         <v>4108</v>
       </c>
+      <c r="H14" s="32" t="s">
+        <v>4107</v>
+      </c>
       <c r="I14" s="32" t="s">
-        <v>4107</v>
-      </c>
-      <c r="J14" s="32" t="s">
         <v>4117</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
         <v>3877</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>4110</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>4105</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>4099</v>
@@ -47772,22 +48666,22 @@
       <c r="G15" s="32" t="s">
         <v>4113</v>
       </c>
+      <c r="H15" s="32" t="s">
+        <v>4112</v>
+      </c>
       <c r="I15" s="32" t="s">
-        <v>4112</v>
-      </c>
-      <c r="J15" s="32" t="s">
         <v>4118</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A16" s="48" t="s">
         <v>3869</v>
       </c>
       <c r="B16" s="48" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>4111</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>4106</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>4098</v>
@@ -47799,73 +48693,71 @@
       <c r="G16" s="43" t="s">
         <v>4116</v>
       </c>
-      <c r="H16" s="48"/>
+      <c r="H16" s="43" t="s">
+        <v>4115</v>
+      </c>
       <c r="I16" s="43" t="s">
-        <v>4115</v>
-      </c>
-      <c r="J16" s="43" t="s">
         <v>4119</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="32" t="s">
         <v>4114</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="32" t="s">
         <v>3880</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="73" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="68" t="s">
         <v>4172</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68" t="s">
         <v>4164</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J27" s="32" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I27" s="32" t="s">
         <v>4165</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J28" s="32" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I28" s="32" t="s">
         <v>4169</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="32" t="s">
         <v>4166</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>4180</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="I30" s="32" t="s">
         <v>4168</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="32" t="s">
         <v>4171</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>4181</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="I31" s="32" t="s">
         <v>4167</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -47876,56 +48768,55 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43" t="s">
+      <c r="I32" s="43" t="s">
         <v>4170</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="32" t="s">
         <v>4173</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J34" s="32" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I34" s="32" t="s">
         <v>4174</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J35" s="32" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I35" s="32" t="s">
         <v>4179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J36" s="32" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I36" s="32" t="s">
         <v>4176</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="32" t="s">
         <v>4166</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="32" t="s">
         <v>4171</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>4184</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="I38" s="32" t="s">
         <v>4175</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E39" s="44" t="s">
         <v>4183</v>
       </c>
-      <c r="J39" s="32" t="s">
+      <c r="I39" s="32" t="s">
         <v>4178</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -47936,22 +48827,224 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43" t="s">
+      <c r="I40" s="43" t="s">
         <v>4177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="32" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I42" s="40" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I43" s="40" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I44" s="40" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="32" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="32" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>4202</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E47" s="40" t="s">
+        <v>4203</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="81" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="32" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="32" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E55" s="40" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E56" s="40" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E57" s="40" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="68" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="80" t="s">
+        <v>4195</v>
+      </c>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E63" s="40" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E64" s="40" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E65" s="40"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="68" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D67" s="71"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E68" s="40"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D69" s="71"/>
+      <c r="E69" s="70"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D70" s="71"/>
+      <c r="E70" s="70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E71" s="40" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E72" s="40" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E73" s="40" t="s">
+        <v>4199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95AEECA-C32B-4507-9F23-8CF5B613F9C9}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -47968,11 +49061,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -48182,11 +49275,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DCAAE1-23D0-4F7F-BF1E-04FFE018A78C}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="96" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="96" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -48209,20 +49302,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="78" t="s">
         <v>3662</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B2" s="32" t="s">
@@ -48407,34 +49500,34 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="78" t="s">
         <v>3662</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="78" t="s">
         <v>3681</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="N13" s="72" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="N13" s="78" t="s">
         <v>3662</v>
       </c>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72" t="s">
+      <c r="O13" s="78"/>
+      <c r="P13" s="78" t="s">
         <v>3681</v>
       </c>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72" t="s">
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="32" t="s">
@@ -48790,20 +49883,20 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="78" t="s">
         <v>3662</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78" t="s">
         <v>3681</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72" t="s">
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="32" t="s">
@@ -48815,20 +49908,20 @@
       <c r="G26" s="32" t="s">
         <v>3699</v>
       </c>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="78" t="s">
         <v>3662</v>
       </c>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72" t="s">
+      <c r="O26" s="78"/>
+      <c r="P26" s="78" t="s">
         <v>3681</v>
       </c>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72" t="s">
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="32" t="s">
@@ -49180,20 +50273,20 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="78" t="s">
         <v>3662</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72" t="s">
+      <c r="B37" s="78"/>
+      <c r="C37" s="78" t="s">
         <v>3681</v>
       </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72" t="s">
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B38" s="32" t="s">
@@ -49384,10 +50477,10 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="78" t="s">
         <v>3662</v>
       </c>
-      <c r="B48" s="72"/>
+      <c r="B48" s="78"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B49" s="32" t="s">

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB65D6A-4C41-48C6-89EE-72AE15560ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFB8788-3B46-4595-BF41-5D1166B96DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3450" yWindow="2168" windowWidth="16875" windowHeight="11535" firstSheet="2" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
@@ -47653,7 +47653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4313555-EC6E-4D2C-90A6-517B882FC83C}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="83" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCAEFC-CE14-4E73-B9BF-795AF79C2F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B89EE5-A2E0-4233-84AE-B2D17276FB1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3450" yWindow="2168" windowWidth="16875" windowHeight="11535" firstSheet="2" activeTab="6" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8354" uniqueCount="4067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8373" uniqueCount="4093">
   <si>
     <t>Variable</t>
   </si>
@@ -12274,6 +12274,108 @@
   </si>
   <si>
     <t xml:space="preserve"> and chronic conditions. Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range; HR, hazard ratio.</t>
+  </si>
+  <si>
+    <t>1.2259 (1.0743 - 1.3989)</t>
+  </si>
+  <si>
+    <t>1.1231 (0.9925 - 1.2709)</t>
+  </si>
+  <si>
+    <t>1.1825 (1.0919 - 1.2805)</t>
+  </si>
+  <si>
+    <t>1.1480 (1.0731 - 1.2281)</t>
+  </si>
+  <si>
+    <t>1.2295 (1.1627 - 1.3001)</t>
+  </si>
+  <si>
+    <t>1.1800 (1.0957 - 1.2707)</t>
+  </si>
+  <si>
+    <t>1.2227 (1.1117 - 1.3447)</t>
+  </si>
+  <si>
+    <t>1.2652 (1.1897 - 1.3455)</t>
+  </si>
+  <si>
+    <t>1.2891 (1.1112 - 1.4956)</t>
+  </si>
+  <si>
+    <t>1.1724 (1.0279 - 1.3373)</t>
+  </si>
+  <si>
+    <t>1.3255 (1.1980 - 1.4667)</t>
+  </si>
+  <si>
+    <t>1.0553 (0.7790 - 1.4297)</t>
+  </si>
+  <si>
+    <t>1.0542 (0.7571 - 1.4680)</t>
+  </si>
+  <si>
+    <t>1.3105 (1.0511 - 1.6340)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9671 (0.7973 - 1.1730)</t>
+  </si>
+  <si>
+    <t>1.0187 (0.8683 - 1.1952)</t>
+  </si>
+  <si>
+    <t>1.0830 (0.9398 - 1.2482)</t>
+  </si>
+  <si>
+    <r>
+      <t>CRN for CVD, narrow definition</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CRN for CVD, expanded definition</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <t>*Any heart condition or stroke, excluding hypertension. **Any heart condition or stroke, including hypertension.</t>
+  </si>
+  <si>
+    <t>482 (3.20)</t>
+  </si>
+  <si>
+    <t>563 (2.84)</t>
+  </si>
+  <si>
+    <t>1298 (2.39)</t>
+  </si>
+  <si>
+    <t>4315 (7.53)</t>
+  </si>
+  <si>
+    <t>2574 (11.77)</t>
+  </si>
+  <si>
+    <t>1530 (9.50)</t>
   </si>
 </sst>
 </file>
@@ -12409,7 +12511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -12589,6 +12691,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12614,6 +12719,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12997,41 +13153,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="6"/>
       <c r="G1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="6"/>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="73"/>
+      <c r="M1" s="74"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="74" t="s">
         <v>505</v>
       </c>
-      <c r="R1" s="73"/>
+      <c r="R1" s="74"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="73" t="s">
+      <c r="V1" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="W1" s="73"/>
+      <c r="W1" s="74"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="73" t="s">
+      <c r="AA1" s="74" t="s">
         <v>647</v>
       </c>
-      <c r="AB1" s="73"/>
+      <c r="AB1" s="74"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="74" t="s">
         <v>656</v>
       </c>
-      <c r="AG1" s="73"/>
+      <c r="AG1" s="74"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="24" t="s">
         <v>1042</v>
@@ -22849,47 +23005,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="6"/>
       <c r="H1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="24"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="73"/>
+      <c r="O1" s="74"/>
       <c r="Q1" s="24"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="74" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="73"/>
+      <c r="U1" s="74"/>
       <c r="W1" s="24"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="73" t="s">
+      <c r="Z1" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="73"/>
+      <c r="AA1" s="74"/>
       <c r="AC1" s="24"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="74" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="73"/>
+      <c r="AG1" s="74"/>
       <c r="AI1" s="24"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="74" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="73"/>
+      <c r="AM1" s="74"/>
       <c r="AO1" s="24"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="24" t="s">
@@ -33555,13 +33711,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>504</v>
@@ -33570,38 +33726,38 @@
       <c r="J1" s="1"/>
       <c r="K1" s="7"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="73"/>
+      <c r="O1" s="74"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="7"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="74" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="73"/>
+      <c r="U1" s="74"/>
       <c r="V1" s="1"/>
       <c r="W1" s="7"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="73" t="s">
+      <c r="Z1" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="73"/>
+      <c r="AA1" s="74"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="7"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="74" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="73"/>
+      <c r="AG1" s="74"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="7"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="74" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="73"/>
+      <c r="AM1" s="74"/>
       <c r="AO1" s="7"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="7" t="s">
@@ -46107,18 +46263,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>3659</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75" t="s">
         <v>3693</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>3699</v>
       </c>
-      <c r="G1" s="74"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="50" t="s">
@@ -47123,17 +47279,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>3689</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>3688</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
@@ -47270,7 +47426,7 @@
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
-      <c r="E8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
@@ -47343,7 +47499,7 @@
       <c r="D11" s="40" t="s">
         <v>4033</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="73" t="s">
         <v>4042</v>
       </c>
       <c r="F11" s="40"/>
@@ -47362,7 +47518,7 @@
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="72"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -47375,7 +47531,7 @@
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="65"/>
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
@@ -47439,16 +47595,16 @@
       <c r="A16" s="41" t="s">
         <v>3687</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="72" t="s">
         <v>3924</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="72" t="s">
         <v>3929</v>
       </c>
       <c r="D16" s="65" t="s">
         <v>4036</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="72" t="s">
         <v>4045</v>
       </c>
       <c r="F16" s="65"/>
@@ -47649,7 +47805,7 @@
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="71" t="s">
         <v>4023</v>
       </c>
     </row>
@@ -47685,7 +47841,7 @@
       <c r="B58" s="61"/>
       <c r="C58" s="61"/>
       <c r="D58" s="61"/>
-      <c r="E58" s="68"/>
+      <c r="E58" s="69"/>
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
@@ -47702,7 +47858,7 @@
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
-      <c r="E60" s="69"/>
+      <c r="E60" s="70"/>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
@@ -47713,7 +47869,7 @@
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
       <c r="D61" s="64"/>
-      <c r="E61" s="69"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="64"/>
       <c r="G61" s="64"/>
       <c r="H61" s="64"/>
@@ -47724,7 +47880,7 @@
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
-      <c r="E62" s="69" t="s">
+      <c r="E62" s="70" t="s">
         <v>4013</v>
       </c>
       <c r="F62" s="64"/>
@@ -47756,7 +47912,7 @@
       <c r="B66" s="61"/>
       <c r="C66" s="61"/>
       <c r="D66" s="61"/>
-      <c r="E66" s="68"/>
+      <c r="E66" s="69"/>
       <c r="F66" s="61"/>
       <c r="G66" s="61"/>
       <c r="H66" s="61"/>
@@ -47764,7 +47920,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D67" s="64"/>
-      <c r="E67" s="69"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="64"/>
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
@@ -47829,17 +47985,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>3689</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>3688</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
@@ -48338,7 +48494,7 @@
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="71" t="s">
         <v>4023</v>
       </c>
     </row>
@@ -48374,7 +48530,7 @@
       <c r="B58" s="61"/>
       <c r="C58" s="61"/>
       <c r="D58" s="61"/>
-      <c r="E58" s="68"/>
+      <c r="E58" s="69"/>
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
@@ -48391,7 +48547,7 @@
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
-      <c r="E60" s="69"/>
+      <c r="E60" s="70"/>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
@@ -48402,7 +48558,7 @@
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
       <c r="D61" s="64"/>
-      <c r="E61" s="69"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="64"/>
       <c r="G61" s="64"/>
       <c r="H61" s="64"/>
@@ -48413,7 +48569,7 @@
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
-      <c r="E62" s="69" t="s">
+      <c r="E62" s="70" t="s">
         <v>4013</v>
       </c>
       <c r="F62" s="64"/>
@@ -48445,7 +48601,7 @@
       <c r="B66" s="61"/>
       <c r="C66" s="61"/>
       <c r="D66" s="61"/>
-      <c r="E66" s="68"/>
+      <c r="E66" s="69"/>
       <c r="F66" s="61"/>
       <c r="G66" s="61"/>
       <c r="H66" s="61"/>
@@ -48453,7 +48609,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D67" s="64"/>
-      <c r="E67" s="69"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="64"/>
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
@@ -48499,17 +48655,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD714-F6F6-44CE-A098-1B3ADD4DBD70}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="68" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="80" customWidth="1"/>
     <col min="6" max="6" width="2.86328125" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="27" customWidth="1"/>
     <col min="8" max="8" width="20.46484375" style="27" customWidth="1"/>
@@ -48518,33 +48674,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>3689</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>3688</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>3692</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>3691</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>3696</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="77" t="s">
         <v>3697</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>3691</v>
       </c>
       <c r="H2" s="38" t="s">
@@ -48559,9 +48715,9 @@
         <v>3690</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="36"/>
-      <c r="E3" s="41"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
@@ -48574,71 +48730,100 @@
       <c r="B4" s="27" t="s">
         <v>3947</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="68" t="s">
         <v>3938</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="89" t="s">
         <v>3939</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="E4" s="90" t="s">
+        <v>4067</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68" t="s">
         <v>3950</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="89" t="s">
         <v>3951</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="I4" s="90" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
-        <v>3695</v>
+        <v>4084</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="68" t="s">
         <v>3941</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="89" t="s">
         <v>3940</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="E5" s="84" t="s">
+        <v>4068</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68" t="s">
         <v>3952</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="89" t="s">
         <v>3953</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="I5" s="90" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A6" s="37" t="s">
-        <v>3687</v>
+        <v>4085</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="68" t="s">
         <v>3943</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="89" t="s">
         <v>3942</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="90" t="s">
+        <v>3946</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
         <v>3955</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="89" t="s">
         <v>3954</v>
       </c>
+      <c r="I6" s="90" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="68"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
         <v>3964</v>
       </c>
       <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
@@ -48647,85 +48832,103 @@
       <c r="B9" s="27" t="s">
         <v>3969</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="68" t="s">
         <v>3959</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="89" t="s">
         <v>3960</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="E9" s="90" t="s">
+        <v>4075</v>
+      </c>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68" t="s">
         <v>3972</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="89" t="s">
         <v>3973</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="I9" s="90" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
-        <v>3695</v>
+        <v>4084</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>3970</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="68" t="s">
         <v>3962</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="89" t="s">
         <v>3961</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="90" t="s">
+        <v>4076</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68" t="s">
         <v>3974</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="89" t="s">
         <v>3980</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A11" s="63" t="s">
-        <v>3687</v>
+      <c r="I10" s="90" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>4085</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>3971</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="40" t="s">
         <v>3963</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="91" t="s">
         <v>3966</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64" t="s">
+      <c r="E11" s="90" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40" t="s">
         <v>3976</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="91" t="s">
         <v>3975</v>
       </c>
-      <c r="I11" s="64"/>
+      <c r="I11" s="90" t="s">
+        <v>4074</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="63"/>
       <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="39" t="s">
         <v>4004</v>
       </c>
       <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="27" t="s">
@@ -48734,61 +48937,79 @@
       <c r="B14" s="27" t="s">
         <v>3922</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>3927</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="68" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D14" s="89" t="s">
         <v>3918</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>3926</v>
-      </c>
-      <c r="H14" s="27" t="s">
+      <c r="E14" s="84" t="s">
+        <v>4078</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68" t="s">
+        <v>4092</v>
+      </c>
+      <c r="H14" s="89" t="s">
         <v>3925</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="I14" s="84" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
-        <v>3695</v>
+        <v>4084</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>3923</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>3928</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="68" t="s">
+        <v>4088</v>
+      </c>
+      <c r="D15" s="89" t="s">
         <v>3917</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>3931</v>
-      </c>
-      <c r="H15" s="27" t="s">
+      <c r="E15" s="84" t="s">
+        <v>4079</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68" t="s">
+        <v>4091</v>
+      </c>
+      <c r="H15" s="89" t="s">
         <v>3930</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A16" s="41" t="s">
-        <v>3687</v>
+      <c r="I15" s="84" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>4085</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>3924</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>3929</v>
-      </c>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="72" t="s">
+        <v>4089</v>
+      </c>
+      <c r="D16" s="92" t="s">
         <v>3916</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
-        <v>3934</v>
-      </c>
-      <c r="H16" s="36" t="s">
+      <c r="E16" s="93" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67" t="s">
+        <v>4090</v>
+      </c>
+      <c r="H16" s="92" t="s">
         <v>3933</v>
       </c>
-      <c r="I16" s="36"/>
+      <c r="I16" s="87" t="s">
+        <v>4083</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
@@ -48800,14 +49021,19 @@
         <v>4066</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
+        <v>4086</v>
+      </c>
+    </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="61" t="s">
         <v>3990</v>
       </c>
       <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
       <c r="H26" s="61"/>
@@ -48829,7 +49055,7 @@
       <c r="A30" s="27" t="s">
         <v>3984</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="80" t="s">
         <v>3998</v>
       </c>
       <c r="I30" s="27" t="s">
@@ -48840,7 +49066,7 @@
       <c r="A31" s="27" t="s">
         <v>3989</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="80" t="s">
         <v>3999</v>
       </c>
       <c r="I31" s="27" t="s">
@@ -48850,9 +49076,9 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="78" t="s">
         <v>4000</v>
       </c>
       <c r="F32" s="36"/>
@@ -48891,7 +49117,7 @@
       <c r="A38" s="27" t="s">
         <v>3989</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="80" t="s">
         <v>4002</v>
       </c>
       <c r="I38" s="27" t="s">
@@ -48899,7 +49125,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="80" t="s">
         <v>4001</v>
       </c>
       <c r="I39" s="27" t="s">
@@ -48909,9 +49135,9 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="78" t="s">
         <v>4003</v>
       </c>
       <c r="F40" s="36"/>
@@ -48945,7 +49171,7 @@
       <c r="A45" s="27" t="s">
         <v>3984</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="79" t="s">
         <v>4019</v>
       </c>
     </row>
@@ -48953,7 +49179,7 @@
       <c r="A46" s="27" t="s">
         <v>3989</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="79" t="s">
         <v>4020</v>
       </c>
       <c r="I46" s="34" t="s">
@@ -48961,7 +49187,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="79" t="s">
         <v>4021</v>
       </c>
       <c r="I47" s="34" t="s">
@@ -48971,13 +49197,13 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="78"/>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="71" t="s">
         <v>4023</v>
       </c>
     </row>
@@ -48992,17 +49218,17 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="79" t="s">
         <v>4009</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="79" t="s">
         <v>4007</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="79" t="s">
         <v>4008</v>
       </c>
     </row>
@@ -49011,9 +49237,9 @@
         <v>4010</v>
       </c>
       <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="61"/>
-      <c r="E58" s="68"/>
+      <c r="E58" s="83"/>
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
@@ -49022,15 +49248,15 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="64"/>
       <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="E59" s="34"/>
+      <c r="C59" s="40"/>
+      <c r="E59" s="79"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="64"/>
       <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="64"/>
-      <c r="E60" s="69"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
@@ -49039,9 +49265,9 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="64"/>
       <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="64"/>
-      <c r="E61" s="69"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="64"/>
       <c r="G61" s="64"/>
       <c r="H61" s="64"/>
@@ -49050,9 +49276,9 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="64"/>
       <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="64"/>
-      <c r="E62" s="69" t="s">
+      <c r="E62" s="10" t="s">
         <v>4013</v>
       </c>
       <c r="F62" s="64"/>
@@ -49061,17 +49287,17 @@
       <c r="I62" s="64"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="79" t="s">
         <v>4011</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="79" t="s">
         <v>4012</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E65" s="34"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
       <c r="H65" s="64"/>
@@ -49082,9 +49308,9 @@
         <v>4014</v>
       </c>
       <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="61"/>
-      <c r="E66" s="68"/>
+      <c r="E66" s="83"/>
       <c r="F66" s="61"/>
       <c r="G66" s="61"/>
       <c r="H66" s="61"/>
@@ -49092,35 +49318,35 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D67" s="64"/>
-      <c r="E67" s="69"/>
+      <c r="E67" s="10"/>
       <c r="F67" s="64"/>
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
       <c r="I67" s="64"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E68" s="34"/>
+      <c r="E68" s="79"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D69" s="64"/>
-      <c r="E69" s="63"/>
+      <c r="E69" s="81"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D70" s="64"/>
-      <c r="E70" s="63"/>
+      <c r="E70" s="81"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="79" t="s">
         <v>4015</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E72" s="34" t="s">
+      <c r="E72" s="79" t="s">
         <v>4016</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="79" t="s">
         <v>4017</v>
       </c>
     </row>

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B89EE5-A2E0-4233-84AE-B2D17276FB1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7093855-F776-42F6-974D-F803C002ADE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2168" windowWidth="16875" windowHeight="11535" firstSheet="2" activeTab="6" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="16874" windowHeight="11535" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1 (2010-2014)" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1 (2000-2014)" sheetId="1" r:id="rId3"/>
     <sheet name="table1" sheetId="6" r:id="rId4"/>
-    <sheet name="OLDtable2_round" sheetId="8" r:id="rId5"/>
-    <sheet name="OLDtable2" sheetId="7" r:id="rId6"/>
-    <sheet name="NEWtable2" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="OLDtable2_round" sheetId="8" r:id="rId6"/>
+    <sheet name="OLDtable2" sheetId="7" r:id="rId7"/>
+    <sheet name="NEWtable2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8373" uniqueCount="4093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8571" uniqueCount="4289">
   <si>
     <t>Variable</t>
   </si>
@@ -12270,12 +12273,6 @@
     </r>
   </si>
   <si>
-    <t>1. Unadjusted Hazard Ratio. 2. Adjusted for age, sex, insurance status, education, race, and income category. 3. Adjusted for age, sex, insurance status, education, race, income,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and chronic conditions. Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range; HR, hazard ratio.</t>
-  </si>
-  <si>
     <t>1.2259 (1.0743 - 1.3989)</t>
   </si>
   <si>
@@ -12377,12 +12374,606 @@
   <si>
     <t>1530 (9.50)</t>
   </si>
+  <si>
+    <t>1. Unadjusted Hazard Ratio. 2. Hazard Ratio adjusted for age, sex, insurance status, education, race, and income category. 3. Adjusted for age, sex, insurance status, education, race, income,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and chronic conditions. Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "factor(CRN)1 1.226(1.074-1.399)"     "factor(EduR)2 0.956(0.856-1.069)"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3 0.819(0.702-0.956)"    "AGE 1.068(1.063-1.073)"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1 0.91(0.81-1.022)"   "factor(IncomeR)2 0.765(0.671-0.872)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3 0.685(0.576-0.815)" "factor(IncomeR)4 0.423(0.25-0.714)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5 0.473(0.322-0.696)" "factor(SEX)2 0.689(0.631-0.752)"    </t>
+  </si>
+  <si>
+    <t>[11] "factor(InsType)1 1.671(1.318-2.119)" "factor(InsType)2 1.098(0.882-1.367)"</t>
+  </si>
+  <si>
+    <t>[13] "factor(InsType)3 1.417(1.052-1.907)" "factor(InsType)4 1.243(0.982-1.572)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5 1.895(1.059-3.392)" "factor(RaceR)2 0.975(0.865-1.099)"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3 0.662(0.577-0.76)"    "factor(RaceR)4 0.84(0.539-1.307)"   </t>
+  </si>
+  <si>
+    <t>[19] "factor(RaceR)5 0.523(0.377-0.724)"   "factor(RaceR)6 0.315(0.099-1.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "factor(CRN)1 1.123(0.993-1.271)"     "factor(EduR)2 0.866(0.797-0.94)"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3 0.649(0.58-0.726)"     "AGE 1.094(1.09-1.098)"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1 0.888(0.813-0.971)" "factor(IncomeR)2 0.806(0.728-0.892)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3 0.7(0.61-0.803)"    "factor(IncomeR)4 0.56(0.392-0.802)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5 0.432(0.31-0.601)"  "factor(SEX)2 0.625(0.582-0.67)"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1 1.058(0.849-1.318)" "factor(InsType)2 0.799(0.644-0.99)" </t>
+  </si>
+  <si>
+    <t>[13] "factor(InsType)3 0.805(0.61-1.063)"  "factor(InsType)4 0.834(0.668-1.042)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5 1.205(0.603-2.408)" "factor(RaceR)2 1.225(1.095-1.371)"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3 0.789(0.677-0.919)"   "factor(RaceR)4 1.386(0.799-2.402)"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5 0.667(0.505-0.88)"    "factor(RaceR)6 0.962(0.372-2.491)" </t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] "factor(CRN)1   1.31 ( 1.196 - 1.434 )"      "factor(EduR)2   0.914 ( 0.863 - 0.968 )"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.737 ( 0.682 - 0.796 )"    "AGE   1.097 ( 1.094 - 1.1 )"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.845 ( 0.794 - 0.9 )"   "factor(IncomeR)2   0.782 ( 0.728 - 0.839 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.603 ( 0.546 - 0.667 )" "factor(IncomeR)4   0.461 ( 0.353 - 0.603 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.428 ( 0.347 - 0.527 )" "factor(SEX)2   0.603 ( 0.574 - 0.633 )"    </t>
+  </si>
+  <si>
+    <t>[11] "factor(InsType)1   1.19 ( 1.029 - 1.376 )"  "factor(InsType)2   0.816 ( 0.711 - 0.936 )"</t>
+  </si>
+  <si>
+    <t>[13] "factor(InsType)3   0.998 ( 0.831 - 1.198 )" "factor(InsType)4   0.868 ( 0.752 - 1.003 )"</t>
+  </si>
+  <si>
+    <t>[15] "factor(InsType)5   0.845 ( 0.524 - 1.361 )"</t>
+  </si>
+  <si>
+    <t>CVDHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "factor(CRN)1   1.182 ( 1.092 - 1.28 )"        "factor(EduR)2   0.955 ( 0.902 - 1.011 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.806 ( 0.745 - 0.872 )"      "AGE   1.061 ( 1.059 - 1.064 )"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.904 ( 0.848 - 0.962 )"   "factor(IncomeR)2   0.763 ( 0.71 - 0.82 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.646 ( 0.585 - 0.713 )"   "factor(IncomeR)4   0.446 ( 0.336 - 0.591 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.611 ( 0.505 - 0.739 )"   "factor(SEX)2   0.696 ( 0.663 - 0.729 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.434 ( 1.257 - 1.634 )"   "factor(InsType)2   1.014 ( 0.897 - 1.147 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   1.212 ( 1.031 - 1.425 )"   "factor(InsType)4   1.156 ( 1.014 - 1.317 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   1.048 ( 0.74 - 1.485 )"    "factor(RaceR)2   0.906 ( 0.851 - 0.965 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.673 ( 0.621 - 0.729 )"     "factor(RaceR)4   1.017 ( 0.807 - 1.282 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.537 ( 0.458 - 0.63 )"      "factor(RaceR)6   0.822 ( 0.478 - 1.411 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] "factor(CancerEvBin)1   1.276 ( 1.2 - 1.357 )" "factor(AnyCVDHT)1   1.406 ( 1.318 - 1.5 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "factor(CRN)1   1.148 ( 1.073 - 1.228 )"         "factor(EduR)2   0.87 ( 0.831 - 0.911 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.718 ( 0.677 - 0.762 )"        "AGE   1.074 ( 1.072 - 1.077 )"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.927 ( 0.882 - 0.975 )"     "factor(IncomeR)2   0.82 ( 0.773 - 0.87 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.719 ( 0.664 - 0.779 )"     "factor(IncomeR)4   0.613 ( 0.504 - 0.745 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.663 ( 0.573 - 0.766 )"     "factor(SEX)2   0.718 ( 0.692 - 0.746 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.369 ( 1.205 - 1.555 )"     "factor(InsType)2   0.936 ( 0.828 - 1.059 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   1.065 ( 0.91 - 1.246 )"      "factor(InsType)4   1.055 ( 0.929 - 1.199 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.653 ( 0.395 - 1.079 )"     "factor(RaceR)2   1.015 ( 0.954 - 1.079 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.718 ( 0.656 - 0.787 )"       "factor(RaceR)4   1.081 ( 0.833 - 1.403 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.644 ( 0.549 - 0.756 )"       "factor(RaceR)6   0.71 ( 0.418 - 1.207 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] "factor(DiabetesRec)1   1.466 ( 1.407 - 1.527 )" "factor(HyperTen)1   1.12 ( 1.076 - 1.165 )"    </t>
+  </si>
+  <si>
+    <t>[23] "factor(CancerEvBin)1   1.221 ( 1.167 - 1.278 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"factor(CRN)1   1.23 ( 1.163 - 1.3 )"            "factor(EduR)2   0.887 ( 0.856 - 0.918 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.752 ( 0.718 - 0.787 )"        "AGE   1.077 ( 1.076 - 1.079 )"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.886 ( 0.854 - 0.919 )"     "factor(IncomeR)2   0.795 ( 0.76 - 0.832 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.662 ( 0.623 - 0.702 )"     "factor(IncomeR)4   0.588 ( 0.509 - 0.678 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.621 ( 0.562 - 0.687 )"     "factor(SEX)2   0.663 ( 0.644 - 0.682 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.299 ( 1.197 - 1.411 )"     "factor(InsType)2   0.852 ( 0.788 - 0.92 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   1.036 ( 0.935 - 1.149 )"     "factor(InsType)4   0.956 ( 0.882 - 1.036 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.821 ( 0.603 - 1.118 )"     "factor(RaceR)2   0.971 ( 0.93 - 1.014 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.705 ( 0.662 - 0.751 )"       "factor(RaceR)4   1.189 ( 0.975 - 1.45 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.659 ( 0.582 - 0.747 )"       "factor(RaceR)6   0.766 ( 0.503 - 1.166 )"      </t>
+  </si>
+  <si>
+    <t>[21] "factor(DiabetesRec)1   1.482 ( 1.434 - 1.531 )" "factor(CancerEvBin)1   1.306 ( 1.261 - 1.351 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"factor(CRN)1   1.289 ( 1.111 - 1.496 )"     "factor(EduR)2   0.972 ( 0.86 - 1.1 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.835 ( 0.707 - 0.987 )"    "AGE   1.07 ( 1.064 - 1.075 )"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.902 ( 0.794 - 1.025 )" "factor(IncomeR)2   0.746 ( 0.644 - 0.865 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.639 ( 0.531 - 0.77 )"  "factor(IncomeR)4   0.339 ( 0.149 - 0.773 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.465 ( 0.26 - 0.832 )"  "factor(SEX)2   0.687 ( 0.623 - 0.756 )"    </t>
+  </si>
+  <si>
+    <t>[11] "factor(InsType)1   1.625 ( 1.256 - 2.102 )" "factor(InsType)2   1.043 ( 0.823 - 1.321 )"</t>
+  </si>
+  <si>
+    <t>[13] "factor(InsType)3   1.38 ( 1.003 - 1.899 )"  "factor(InsType)4   1.171 ( 0.909 - 1.508 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   1.904 ( 1.059 - 3.423 )" "factor(RaceR)2   0.972 ( 0.856 - 1.104 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.621 ( 0.531 - 0.727 )"   "factor(RaceR)4   0.802 ( 0.495 - 1.299 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.494 ( 0.343 - 0.712 )"   "factor(RaceR)6   0.375 ( 0.115 - 1.223 )"  </t>
+  </si>
+  <si>
+    <t>et(mort10sa.Svy, AnyCVD == 1 &amp; finprobsa10 == TRUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] "factor(CRN)1   1.172 ( 1.028 - 1.337 )"     "factor(EduR)2   0.87 ( 0.796 - 0.95 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.645 ( 0.57 - 0.729 )"     "AGE   1.095 ( 1.091 - 1.1 )"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.876 ( 0.798 - 0.963 )" "factor(IncomeR)2   0.818 ( 0.734 - 0.913 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.71 ( 0.613 - 0.823 )"  "factor(IncomeR)4   0.54 ( 0.339 - 0.862 )" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.356 ( 0.219 - 0.578 )" "factor(SEX)2   0.631 ( 0.586 - 0.681 )"    </t>
+  </si>
+  <si>
+    <t>[11] "factor(InsType)1   1.04 ( 0.82 - 1.318 )"   "factor(InsType)2   0.791 ( 0.631 - 0.992 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   0.858 ( 0.643 - 1.145 )" "factor(InsType)4   0.837 ( 0.66 - 1.06 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   1.173 ( 0.574 - 2.397 )" "factor(RaceR)2   1.253 ( 1.109 - 1.416 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.788 ( 0.666 - 0.931 )"   "factor(RaceR)4   1.477 ( 0.824 - 2.646 )"  </t>
+  </si>
+  <si>
+    <t>[19] "factor(RaceR)5   0.734 ( 0.545 - 0.989 )"   "factor(RaceR)6   0.61 ( 0.229 - 1.622 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"factor(CRN)1   1.326 ( 1.198 - 1.467 )"     "factor(EduR)2   0.926 ( 0.87 - 0.985 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.758 ( 0.696 - 0.826 )"    "AGE   1.098 ( 1.094 - 1.101 )"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.84 ( 0.786 - 0.898 )"  "factor(IncomeR)2   0.783 ( 0.726 - 0.845 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.61 ( 0.548 - 0.679 )"  "factor(IncomeR)4   0.426 ( 0.304 - 0.598 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.383 ( 0.287 - 0.511 )" "factor(SEX)2   0.606 ( 0.575 - 0.639 )"    </t>
+  </si>
+  <si>
+    <t>[11] "factor(InsType)1   1.165 ( 0.995 - 1.364 )" "factor(InsType)2   0.769 ( 0.661 - 0.893 )"</t>
+  </si>
+  <si>
+    <t>[13] "factor(InsType)3   0.96 ( 0.79 - 1.168 )"   "factor(InsType)4   0.832 ( 0.712 - 0.973 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.751 ( 0.46 - 1.226 )"  "factor(RaceR)2   1.164 ( 1.083 - 1.252 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.754 ( 0.679 - 0.836 )"   "factor(RaceR)4   1.417 ( 0.967 - 2.076 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.742 ( 0.609 - 0.903 )"   "factor(RaceR)6   0.416 ( 0.203 - 0.851 )" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "factor(CRN)1   1.223 ( 1.112 - 1.345 )"         "factor(EduR)2   0.94 ( 0.876 - 1.009 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.785 ( 0.712 - 0.866 )"        "AGE   1.062 ( 1.059 - 1.065 )"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.919 ( 0.854 - 0.989 )"     "factor(IncomeR)2   0.792 ( 0.725 - 0.865 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.662 ( 0.589 - 0.743 )"     "factor(IncomeR)4   0.446 ( 0.28 - 0.71 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.549 ( 0.406 - 0.743 )"     "factor(SEX)2   0.705 ( 0.665 - 0.747 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.512 ( 1.298 - 1.76 )"      "factor(InsType)2   1.019 ( 0.883 - 1.175 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   1.258 ( 1.034 - 1.53 )"      "factor(InsType)4   1.181 ( 1.016 - 1.372 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   1.257 ( 0.883 - 1.79 )"      "factor(RaceR)2   0.911 ( 0.845 - 0.981 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.673 ( 0.615 - 0.736 )"       "factor(RaceR)4   0.873 ( 0.659 - 1.157 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.522 ( 0.429 - 0.636 )"       "factor(RaceR)6   0.721 ( 0.396 - 1.314 )"      </t>
+  </si>
+  <si>
+    <t>[21] "factor(AnyCVDHT)1   1.471 ( 1.361 - 1.589 )"    "factor(CancerEvBin)1   1.266 ( 1.177 - 1.361 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.759 ( 0.722 - 0.798 )"        "AGE   1.078 ( 1.076 - 1.08 )"                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.874 ( 0.841 - 0.907 )"     "factor(IncomeR)2   0.782 ( 0.745 - 0.82 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.656 ( 0.616 - 0.698 )"     "factor(IncomeR)4   0.558 ( 0.456 - 0.682 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.6 ( 0.516 - 0.697 )"       "factor(SEX)2   0.663 ( 0.642 - 0.684 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.303 ( 1.192 - 1.423 )"     "factor(InsType)2   0.871 ( 0.803 - 0.946 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   1.047 ( 0.936 - 1.17 )"      "factor(InsType)4   0.96 ( 0.88 - 1.046 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.839 ( 0.61 - 1.154 )"      "factor(RaceR)2   0.981 ( 0.936 - 1.029 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.7 ( 0.654 - 0.749 )"         "factor(RaceR)4   1.23 ( 1.006 - 1.505 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.666 ( 0.578 - 0.768 )"       "factor(RaceR)6   0.743 ( 0.463 - 1.192 )"      </t>
+  </si>
+  <si>
+    <t>[21] "factor(DiabetesRec)1   1.514 ( 1.461 - 1.568 )" "factor(CancerEvBin)1   1.299 ( 1.251 - 1.349 )"</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>et(mort5sa.Svy, DiabetesRec == 1 &amp; finprobsa5 == TRUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] "factor(CRN)1   1.055 ( 0.779 - 1.43 )"      "factor(EduR)2   0.911 ( 0.691 - 1.201 )"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.78 ( 0.525 - 1.158 )"     "AGE   1.061 ( 1.048 - 1.075 )"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   1.066 ( 0.795 - 1.429 )" "factor(IncomeR)2   1.003 ( 0.719 - 1.4 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   1.186 ( 0.728 - 1.932 )" "factor(IncomeR)4   0.697 ( 0.346 - 1.402 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.627 ( 0.349 - 1.128 )" "factor(SEX)2   0.69 ( 0.565 - 0.843 )"     </t>
+  </si>
+  <si>
+    <t>[11] "factor(InsType)1   2.245 ( 1.254 - 4.022 )" "factor(InsType)2   1.491 ( 0.829 - 2.684 )"</t>
+  </si>
+  <si>
+    <t>[13] "factor(InsType)3   1.856 ( 0.923 - 3.734 )" "factor(InsType)4   1.817 ( 0.981 - 3.364 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.24 ( 0.026 - 2.221 )"  "factor(RaceR)2   0.972 ( 0.712 - 1.328 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.891 ( 0.649 - 1.224 )"   "factor(RaceR)4   1.125 ( 0.456 - 2.778 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.669 ( 0.34 - 1.316 )"    "factor(RaceR)6   0 ( 0 - 0 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] "factor(CRN)1   1.265 ( 1.19 - 1.346 )"          "factor(EduR)2   0.897 ( 0.864 - 0.932 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] "factor(CRN)1   1.18 ( 1.096 - 1.271 )"          "factor(EduR)2   0.87 ( 0.828 - 0.914 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.713 ( 0.668 - 0.761 )"        "AGE   1.075 ( 1.072 - 1.077 )"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.911 ( 0.865 - 0.96 )"      "factor(IncomeR)2   0.813 ( 0.761 - 0.867 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.72 ( 0.663 - 0.782 )"      "factor(IncomeR)4   0.584 ( 0.445 - 0.767 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.586 ( 0.462 - 0.742 )"     "factor(SEX)2   0.719 ( 0.69 - 0.75 )"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.352 ( 1.181 - 1.548 )"     "factor(InsType)2   0.955 ( 0.837 - 1.088 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   1.084 ( 0.916 - 1.283 )"     "factor(InsType)4   1.05 ( 0.916 - 1.203 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.672 ( 0.402 - 1.121 )"     "factor(RaceR)2   1.023 ( 0.957 - 1.095 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.711 ( 0.642 - 0.786 )"       "factor(RaceR)4   1.128 ( 0.854 - 1.489 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.645 ( 0.539 - 0.773 )"       "factor(RaceR)6   0.612 ( 0.326 - 1.149 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] "factor(DiabetesRec)1   1.51 ( 1.443 - 1.58 )"   "factor(HyperTen)1   1.114 ( 1.068 - 1.163 )"   </t>
+  </si>
+  <si>
+    <t>[23] "factor(CancerEvBin)1   1.221 ( 1.162 - 1.284 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"factor(CRN)1   1.054 ( 0.757 - 1.468 )"      "factor(EduR)2   0.91 ( 0.72 - 1.15 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.699 ( 0.509 - 0.961 )"     "AGE   1.09 ( 1.078 - 1.102 )"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   1.217 ( 0.943 - 1.57 )"   "factor(IncomeR)2   1.003 ( 0.749 - 1.345 )" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.725 ( 0.472 - 1.113 )"  "factor(IncomeR)4   0.943 ( 0.526 - 1.691 )" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.829 ( 0.524 - 1.311 )"  "factor(SEX)2   0.583 ( 0.476 - 0.715 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.145 ( 0.614 - 2.135 )"  "factor(InsType)2   0.675 ( 0.354 - 1.289 )" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   0.571 ( 0.246 - 1.326 )"  "factor(InsType)4   0.77 ( 0.4 - 1.481 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   1.443 ( 0.173 - 12.037 )" "factor(RaceR)2   1.093 ( 0.794 - 1.505 )"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.814 ( 0.571 - 1.159 )"    "factor(RaceR)4   0.817 ( 0.18 - 3.711 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.443 ( 0.181 - 1.083 )"    "factor(RaceR)6   3.306 ( 0.703 - 15.545 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "factor(CRN)1   1.311 ( 1.051 - 1.634 )"     "factor(EduR)2   0.852 ( 0.717 - 1.011 )"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.643 ( 0.521 - 0.794 )"    "AGE   1.096 ( 1.088 - 1.105 )"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   1.039 ( 0.883 - 1.224 )" "factor(IncomeR)2   0.998 ( 0.824 - 1.209 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.7 ( 0.52 - 0.942 )"    "factor(IncomeR)4   0.753 ( 0.49 - 1.158 )" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.732 ( 0.523 - 1.024 )" "factor(SEX)2   0.567 ( 0.494 - 0.65 )"     </t>
+  </si>
+  <si>
+    <t>[11] "factor(InsType)1   1.358 ( 0.948 - 1.947 )" "factor(InsType)2   0.809 ( 0.572 - 1.143 )"</t>
+  </si>
+  <si>
+    <t>[13] "factor(InsType)3   0.984 ( 0.624 - 1.554 )" "factor(InsType)4   0.882 ( 0.602 - 1.294 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.911 ( 0.201 - 4.124 )" "factor(RaceR)2   1.108 ( 0.916 - 1.341 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.955 ( 0.768 - 1.188 )"   "factor(RaceR)4   0.737 ( 0.281 - 1.934 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.676 ( 0.456 - 1 )"       "factor(RaceR)6   2.593 ( 0.996 - 6.751 )" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] "factor(CRN)1   0.967 ( 0.797 - 1.173 )"        "factor(EduR)2   0.884 ( 0.754 - 1.035 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.699 ( 0.559 - 0.874 )"       "AGE   1.064 ( 1.056 - 1.073 )"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   1.106 ( 0.937 - 1.306 )"    "factor(IncomeR)2   1.005 ( 0.841 - 1.202 )"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.987 ( 0.754 - 1.292 )"    "factor(IncomeR)4   0.633 ( 0.428 - 0.935 )"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.859 ( 0.627 - 1.176 )"    "factor(SEX)2   0.729 ( 0.645 - 0.825 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.529 ( 1.1 - 2.125 )"      "factor(InsType)2   0.949 ( 0.683 - 1.32 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   1.161 ( 0.774 - 1.743 )"    "factor(InsType)4   1.247 ( 0.881 - 1.766 )"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.931 ( 0.116 - 7.456 )"    "factor(RaceR)2   0.906 ( 0.777 - 1.055 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.708 ( 0.583 - 0.859 )"      "factor(RaceR)4   1.009 ( 0.565 - 1.801 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.585 ( 0.41 - 0.835 )"       "factor(RaceR)6   0.467 ( 0.131 - 1.67 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] "factor(CancerEvBin)1   1.348 ( 1.164 - 1.56 )" "factor(AnyCVDHT)1   1.164 ( 0.959 - 1.413 )"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] "factor(CRN)1   1.019 ( 0.868 - 1.195 )"         "factor(EduR)2   0.887 ( 0.784 - 1.003 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.751 ( 0.646 - 0.873 )"        "AGE   1.071 ( 1.064 - 1.078 )"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   1.049 ( 0.919 - 1.198 )"     "factor(IncomeR)2   0.895 ( 0.773 - 1.036 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.722 ( 0.571 - 0.912 )"     "factor(IncomeR)4   0.7 ( 0.509 - 0.964 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.797 ( 0.635 - 1.001 )"     "factor(SEX)2   0.714 ( 0.649 - 0.786 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.465 ( 1.069 - 2.008 )"     "factor(InsType)2   0.836 ( 0.607 - 1.152 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   0.985 ( 0.682 - 1.422 )"     "factor(InsType)4   1.089 ( 0.79 - 1.5 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.416 ( 0.056 - 3.068 )"     "factor(RaceR)2   0.982 ( 0.848 - 1.138 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.762 ( 0.63 - 0.922 )"        "factor(RaceR)4   0.793 ( 0.401 - 1.568 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.637 ( 0.439 - 0.924 )"       "factor(RaceR)6   1.218 ( 0.437 - 3.394 )"      </t>
+  </si>
+  <si>
+    <t>[21] "factor(DiabetesRec)1   1.273 ( 1.149 - 1.41 )"  "factor(CancerEvBin)1   1.222 ( 1.095 - 1.364 )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] "factor(HyperTen)1   1.163 ( 1.036 - 1.305 )"   </t>
+  </si>
+  <si>
+    <t>ubset(mort5sa.Svy, AnyCVDHT == 1 &amp; finprobsa5 == TRUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] "factor(CRN)1   1.083 ( 0.94 - 1.248 )"          "factor(EduR)2   0.834 ( 0.756 - 0.919 )"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "factor(EduR)3   0.718 ( 0.634 - 0.813 )"        "AGE   1.075 ( 1.069 - 1.08 )"                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "factor(IncomeR)1   0.989 ( 0.893 - 1.095 )"     "factor(IncomeR)2   0.904 ( 0.802 - 1.017 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "factor(IncomeR)3   0.706 ( 0.592 - 0.841 )"     "factor(IncomeR)4   0.686 ( 0.541 - 0.87 )"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "factor(IncomeR)5   0.707 ( 0.586 - 0.851 )"     "factor(SEX)2   0.661 ( 0.614 - 0.711 )"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "factor(InsType)1   1.297 ( 1.056 - 1.594 )"     "factor(InsType)2   0.745 ( 0.607 - 0.913 )"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "factor(InsType)3   0.975 ( 0.762 - 1.248 )"     "factor(InsType)4   0.939 ( 0.76 - 1.16 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "factor(InsType)5   0.595 ( 0.154 - 2.304 )"     "factor(RaceR)2   0.914 ( 0.816 - 1.024 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "factor(RaceR)3   0.737 ( 0.637 - 0.853 )"       "factor(RaceR)4   0.955 ( 0.584 - 1.562 )"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "factor(RaceR)5   0.639 ( 0.506 - 0.808 )"       "factor(RaceR)6   0.937 ( 0.398 - 2.206 )"      </t>
+  </si>
+  <si>
+    <t>[21] "factor(DiabetesRec)1   1.328 ( 1.225 - 1.439 )" "factor(CancerEvBin)1   1.346 ( 1.233 - 1.469 )"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12466,6 +13057,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -12511,7 +13120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -12712,15 +13321,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -12770,6 +13370,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13153,41 +13777,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
       <c r="F1" s="6"/>
       <c r="G1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="6"/>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="74"/>
+      <c r="M1" s="96"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="R1" s="74"/>
+      <c r="R1" s="96"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="74" t="s">
+      <c r="V1" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="W1" s="74"/>
+      <c r="W1" s="96"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="74" t="s">
+      <c r="AA1" s="96" t="s">
         <v>647</v>
       </c>
-      <c r="AB1" s="74"/>
+      <c r="AB1" s="96"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="74" t="s">
+      <c r="AF1" s="96" t="s">
         <v>656</v>
       </c>
-      <c r="AG1" s="74"/>
+      <c r="AG1" s="96"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="24" t="s">
         <v>1042</v>
@@ -23005,47 +23629,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
       <c r="G1" s="6"/>
       <c r="H1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="24"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="74"/>
+      <c r="O1" s="96"/>
       <c r="Q1" s="24"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="74"/>
+      <c r="U1" s="96"/>
       <c r="W1" s="24"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="74" t="s">
+      <c r="Z1" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="74"/>
+      <c r="AA1" s="96"/>
       <c r="AC1" s="24"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="74" t="s">
+      <c r="AF1" s="96" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="74"/>
+      <c r="AG1" s="96"/>
       <c r="AI1" s="24"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="74" t="s">
+      <c r="AL1" s="96" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="74"/>
+      <c r="AM1" s="96"/>
       <c r="AO1" s="24"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="24" t="s">
@@ -33711,13 +34335,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>504</v>
@@ -33726,38 +34350,38 @@
       <c r="J1" s="1"/>
       <c r="K1" s="7"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="74"/>
+      <c r="O1" s="96"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="7"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="74"/>
+      <c r="U1" s="96"/>
       <c r="V1" s="1"/>
       <c r="W1" s="7"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="74" t="s">
+      <c r="Z1" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="74"/>
+      <c r="AA1" s="96"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="7"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="74" t="s">
+      <c r="AF1" s="96" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="74"/>
+      <c r="AG1" s="96"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="7"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="74" t="s">
+      <c r="AL1" s="96" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="74"/>
+      <c r="AM1" s="96"/>
       <c r="AO1" s="7"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="7" t="s">
@@ -46246,8 +46870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -46263,18 +46887,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="97" t="s">
         <v>3659</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>3693</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75" t="s">
+      <c r="E1" s="97"/>
+      <c r="F1" s="97" t="s">
         <v>3699</v>
       </c>
-      <c r="G1" s="75"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="50" t="s">
@@ -47257,6 +47881,697 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED4C5A6-F533-4C13-ACF9-63B92CA7B247}">
+  <dimension ref="A1:AP42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C1" s="91" t="s">
+        <v>4093</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>4123</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>4157</v>
+      </c>
+      <c r="W1" s="91" t="s">
+        <v>4188</v>
+      </c>
+      <c r="AD1" s="91" t="s">
+        <v>4210</v>
+      </c>
+      <c r="AP1" s="91" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C2" s="91" t="s">
+        <v>4094</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>4124</v>
+      </c>
+      <c r="P2" s="91" t="s">
+        <v>4158</v>
+      </c>
+      <c r="W2" s="91" t="s">
+        <v>4189</v>
+      </c>
+      <c r="AD2" s="91" t="s">
+        <v>4211</v>
+      </c>
+      <c r="AP2" s="91" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>4095</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>4125</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>4159</v>
+      </c>
+      <c r="W3" s="91" t="s">
+        <v>4190</v>
+      </c>
+      <c r="AD3" s="91" t="s">
+        <v>4212</v>
+      </c>
+      <c r="AP3" s="91" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C4" s="91" t="s">
+        <v>4096</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>4126</v>
+      </c>
+      <c r="P4" s="91" t="s">
+        <v>4160</v>
+      </c>
+      <c r="W4" s="91" t="s">
+        <v>4191</v>
+      </c>
+      <c r="AD4" s="91" t="s">
+        <v>4213</v>
+      </c>
+      <c r="AP4" s="91" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C5" s="91" t="s">
+        <v>4097</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>4127</v>
+      </c>
+      <c r="P5" s="91" t="s">
+        <v>4161</v>
+      </c>
+      <c r="W5" s="91" t="s">
+        <v>4192</v>
+      </c>
+      <c r="AD5" s="91" t="s">
+        <v>4214</v>
+      </c>
+      <c r="AP5" s="91" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C6" s="91" t="s">
+        <v>4098</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>4128</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>4162</v>
+      </c>
+      <c r="W6" s="91" t="s">
+        <v>4193</v>
+      </c>
+      <c r="AD6" s="91" t="s">
+        <v>4215</v>
+      </c>
+      <c r="AP6" s="91" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C7" s="91" t="s">
+        <v>4099</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>4129</v>
+      </c>
+      <c r="P7" s="91" t="s">
+        <v>4163</v>
+      </c>
+      <c r="W7" s="91" t="s">
+        <v>4194</v>
+      </c>
+      <c r="AD7" s="91" t="s">
+        <v>4216</v>
+      </c>
+      <c r="AP7" s="91" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C8" s="91" t="s">
+        <v>4100</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>4130</v>
+      </c>
+      <c r="P8" s="91" t="s">
+        <v>4164</v>
+      </c>
+      <c r="W8" s="91" t="s">
+        <v>4195</v>
+      </c>
+      <c r="AD8" s="91" t="s">
+        <v>4217</v>
+      </c>
+      <c r="AP8" s="91" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C9" s="91" t="s">
+        <v>4101</v>
+      </c>
+      <c r="I9" s="91" t="s">
+        <v>4131</v>
+      </c>
+      <c r="P9" s="91" t="s">
+        <v>4165</v>
+      </c>
+      <c r="W9" s="91" t="s">
+        <v>4196</v>
+      </c>
+      <c r="AD9" s="91" t="s">
+        <v>4218</v>
+      </c>
+      <c r="AP9" s="91" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C10" s="92" t="s">
+        <v>4102</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>4132</v>
+      </c>
+      <c r="P10" s="92" t="s">
+        <v>4166</v>
+      </c>
+      <c r="W10" s="91" t="s">
+        <v>4197</v>
+      </c>
+      <c r="AD10" s="91" t="s">
+        <v>4219</v>
+      </c>
+      <c r="AP10" s="91" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="I11" s="92" t="s">
+        <v>4133</v>
+      </c>
+      <c r="W11" s="92" t="s">
+        <v>4198</v>
+      </c>
+      <c r="AD11" s="92" t="s">
+        <v>4220</v>
+      </c>
+      <c r="AP11" s="92" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C14" s="91" t="s">
+        <v>4103</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>4134</v>
+      </c>
+      <c r="P14" s="91" t="s">
+        <v>4167</v>
+      </c>
+      <c r="W14" s="91" t="s">
+        <v>4222</v>
+      </c>
+      <c r="AD14" s="93" t="s">
+        <v>4234</v>
+      </c>
+      <c r="AP14" s="91" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C15" s="91" t="s">
+        <v>4104</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>4135</v>
+      </c>
+      <c r="P15" s="91" t="s">
+        <v>4168</v>
+      </c>
+      <c r="W15" s="91" t="s">
+        <v>4223</v>
+      </c>
+      <c r="AD15" s="93" t="s">
+        <v>4235</v>
+      </c>
+      <c r="AP15" s="91" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>4105</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>4136</v>
+      </c>
+      <c r="P16" s="91" t="s">
+        <v>4169</v>
+      </c>
+      <c r="W16" s="91" t="s">
+        <v>4224</v>
+      </c>
+      <c r="AD16" s="93" t="s">
+        <v>4236</v>
+      </c>
+      <c r="AP16" s="91" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C17" s="91" t="s">
+        <v>4106</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>4137</v>
+      </c>
+      <c r="P17" s="91" t="s">
+        <v>4170</v>
+      </c>
+      <c r="W17" s="91" t="s">
+        <v>4225</v>
+      </c>
+      <c r="AD17" s="93" t="s">
+        <v>4237</v>
+      </c>
+      <c r="AP17" s="91" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C18" s="91" t="s">
+        <v>4107</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>4138</v>
+      </c>
+      <c r="P18" s="91" t="s">
+        <v>4171</v>
+      </c>
+      <c r="W18" s="91" t="s">
+        <v>4226</v>
+      </c>
+      <c r="AD18" s="93" t="s">
+        <v>4238</v>
+      </c>
+      <c r="AP18" s="91" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C19" s="91" t="s">
+        <v>4108</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>4139</v>
+      </c>
+      <c r="P19" s="91" t="s">
+        <v>4172</v>
+      </c>
+      <c r="W19" s="91" t="s">
+        <v>4227</v>
+      </c>
+      <c r="AD19" s="93" t="s">
+        <v>4239</v>
+      </c>
+      <c r="AP19" s="91" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C20" s="91" t="s">
+        <v>4109</v>
+      </c>
+      <c r="I20" s="91" t="s">
+        <v>4140</v>
+      </c>
+      <c r="P20" s="91" t="s">
+        <v>4173</v>
+      </c>
+      <c r="W20" s="91" t="s">
+        <v>4228</v>
+      </c>
+      <c r="AD20" s="93" t="s">
+        <v>4240</v>
+      </c>
+      <c r="AP20" s="91" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C21" s="91" t="s">
+        <v>4110</v>
+      </c>
+      <c r="I21" s="91" t="s">
+        <v>4141</v>
+      </c>
+      <c r="P21" s="91" t="s">
+        <v>4174</v>
+      </c>
+      <c r="W21" s="91" t="s">
+        <v>4229</v>
+      </c>
+      <c r="AD21" s="93" t="s">
+        <v>4241</v>
+      </c>
+      <c r="AP21" s="91" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C22" s="91" t="s">
+        <v>4111</v>
+      </c>
+      <c r="I22" s="91" t="s">
+        <v>4142</v>
+      </c>
+      <c r="P22" s="91" t="s">
+        <v>4175</v>
+      </c>
+      <c r="W22" s="91" t="s">
+        <v>4230</v>
+      </c>
+      <c r="AD22" s="93" t="s">
+        <v>4242</v>
+      </c>
+      <c r="AP22" s="91" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C23" s="92" t="s">
+        <v>4112</v>
+      </c>
+      <c r="I23" s="91" t="s">
+        <v>4143</v>
+      </c>
+      <c r="P23" s="91" t="s">
+        <v>4176</v>
+      </c>
+      <c r="W23" s="91" t="s">
+        <v>4231</v>
+      </c>
+      <c r="AD23" s="93" t="s">
+        <v>4243</v>
+      </c>
+      <c r="AP23" s="91" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C24" s="92"/>
+      <c r="I24" s="91" t="s">
+        <v>4144</v>
+      </c>
+      <c r="P24" s="92" t="s">
+        <v>4177</v>
+      </c>
+      <c r="W24" s="91" t="s">
+        <v>4232</v>
+      </c>
+      <c r="AD24" s="94"/>
+      <c r="AP24" s="91" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="I25" s="92" t="s">
+        <v>4145</v>
+      </c>
+      <c r="W25" s="92" t="s">
+        <v>4233</v>
+      </c>
+      <c r="AD25" s="95" t="s">
+        <v>4209</v>
+      </c>
+      <c r="AP25" s="92" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C27" s="91" t="s">
+        <v>4114</v>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>4146</v>
+      </c>
+      <c r="P27" s="91" t="s">
+        <v>4178</v>
+      </c>
+      <c r="W27" s="91" t="s">
+        <v>4221</v>
+      </c>
+      <c r="AD27" s="91" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C28" s="91" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I28" s="91" t="s">
+        <v>4147</v>
+      </c>
+      <c r="P28" s="91" t="s">
+        <v>4179</v>
+      </c>
+      <c r="W28" s="91" t="s">
+        <v>4199</v>
+      </c>
+      <c r="AD28" s="91" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>4122</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>4116</v>
+      </c>
+      <c r="I29" s="91" t="s">
+        <v>4148</v>
+      </c>
+      <c r="P29" s="91" t="s">
+        <v>4180</v>
+      </c>
+      <c r="W29" s="91" t="s">
+        <v>4200</v>
+      </c>
+      <c r="AD29" s="91" t="s">
+        <v>4246</v>
+      </c>
+      <c r="AP29" s="93" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C30" s="91" t="s">
+        <v>4117</v>
+      </c>
+      <c r="I30" s="91" t="s">
+        <v>4149</v>
+      </c>
+      <c r="P30" s="91" t="s">
+        <v>4181</v>
+      </c>
+      <c r="W30" s="91" t="s">
+        <v>4201</v>
+      </c>
+      <c r="AD30" s="91" t="s">
+        <v>4247</v>
+      </c>
+      <c r="AP30" s="93" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C31" s="91" t="s">
+        <v>4118</v>
+      </c>
+      <c r="I31" s="91" t="s">
+        <v>4150</v>
+      </c>
+      <c r="P31" s="91" t="s">
+        <v>4182</v>
+      </c>
+      <c r="W31" s="91" t="s">
+        <v>4202</v>
+      </c>
+      <c r="AD31" s="91" t="s">
+        <v>4248</v>
+      </c>
+      <c r="AP31" s="93" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="C32" s="91" t="s">
+        <v>4119</v>
+      </c>
+      <c r="I32" s="91" t="s">
+        <v>4151</v>
+      </c>
+      <c r="P32" s="91" t="s">
+        <v>4183</v>
+      </c>
+      <c r="W32" s="91" t="s">
+        <v>4203</v>
+      </c>
+      <c r="AD32" s="91" t="s">
+        <v>4249</v>
+      </c>
+      <c r="AP32" s="93" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="33" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="C33" s="91" t="s">
+        <v>4120</v>
+      </c>
+      <c r="I33" s="91" t="s">
+        <v>4152</v>
+      </c>
+      <c r="P33" s="91" t="s">
+        <v>4184</v>
+      </c>
+      <c r="W33" s="91" t="s">
+        <v>4204</v>
+      </c>
+      <c r="AD33" s="91" t="s">
+        <v>4250</v>
+      </c>
+      <c r="AP33" s="93" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="34" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="C34" s="92" t="s">
+        <v>4121</v>
+      </c>
+      <c r="I34" s="91" t="s">
+        <v>4153</v>
+      </c>
+      <c r="P34" s="91" t="s">
+        <v>4185</v>
+      </c>
+      <c r="W34" s="91" t="s">
+        <v>4205</v>
+      </c>
+      <c r="AD34" s="91" t="s">
+        <v>4251</v>
+      </c>
+      <c r="AP34" s="93" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="35" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="I35" s="91" t="s">
+        <v>4154</v>
+      </c>
+      <c r="P35" s="91" t="s">
+        <v>4186</v>
+      </c>
+      <c r="W35" s="91" t="s">
+        <v>4206</v>
+      </c>
+      <c r="AD35" s="91" t="s">
+        <v>4252</v>
+      </c>
+      <c r="AP35" s="93" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="36" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="I36" s="91" t="s">
+        <v>4155</v>
+      </c>
+      <c r="P36" s="92" t="s">
+        <v>4187</v>
+      </c>
+      <c r="W36" s="91" t="s">
+        <v>4207</v>
+      </c>
+      <c r="AD36" s="92" t="s">
+        <v>4253</v>
+      </c>
+      <c r="AP36" s="93" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="37" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="I37" s="92" t="s">
+        <v>4156</v>
+      </c>
+      <c r="W37" s="92" t="s">
+        <v>4208</v>
+      </c>
+      <c r="AP37" s="93" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="38" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AP38" s="93" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="39" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AP39" s="93" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="40" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AP40" s="93" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="41" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AP41" s="94"/>
+    </row>
+    <row r="42" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AP42" s="95" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4313555-EC6E-4D2C-90A6-517B882FC83C}">
   <dimension ref="A1:I73"/>
   <sheetViews>
@@ -47279,17 +48594,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="98" t="s">
         <v>3689</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="98" t="s">
         <v>3688</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
@@ -47962,7 +49277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
   <dimension ref="A1:I73"/>
   <sheetViews>
@@ -47985,17 +49300,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="98" t="s">
         <v>3689</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="98" t="s">
         <v>3688</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
@@ -48651,12 +49966,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD714-F6F6-44CE-A098-1B3ADD4DBD70}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -48665,7 +49980,7 @@
     <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
     <col min="3" max="3" width="11.73046875" style="68" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="77" customWidth="1"/>
     <col min="6" max="6" width="2.86328125" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="27" customWidth="1"/>
     <col min="8" max="8" width="20.46484375" style="27" customWidth="1"/>
@@ -48674,17 +49989,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="98" t="s">
         <v>3689</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="98" t="s">
         <v>3688</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
@@ -48696,7 +50011,7 @@
       <c r="D2" s="38" t="s">
         <v>3696</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="74" t="s">
         <v>3697</v>
       </c>
       <c r="F2" s="68"/>
@@ -48717,7 +50032,7 @@
       <c r="B3" s="36"/>
       <c r="C3" s="67"/>
       <c r="D3" s="36"/>
-      <c r="E3" s="78"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
@@ -48733,26 +50048,26 @@
       <c r="C4" s="68" t="s">
         <v>3938</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="86" t="s">
         <v>3939</v>
       </c>
-      <c r="E4" s="90" t="s">
-        <v>4067</v>
+      <c r="E4" s="87" t="s">
+        <v>4065</v>
       </c>
       <c r="F4" s="68"/>
       <c r="G4" s="68" t="s">
         <v>3950</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="86" t="s">
         <v>3951</v>
       </c>
-      <c r="I4" s="90" t="s">
-        <v>4069</v>
+      <c r="I4" s="87" t="s">
+        <v>4067</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>3948</v>
@@ -48760,26 +50075,26 @@
       <c r="C5" s="68" t="s">
         <v>3941</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="86" t="s">
         <v>3940</v>
       </c>
-      <c r="E5" s="84" t="s">
-        <v>4068</v>
+      <c r="E5" s="81" t="s">
+        <v>4066</v>
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="68" t="s">
         <v>3952</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="86" t="s">
         <v>3953</v>
       </c>
-      <c r="I5" s="90" t="s">
-        <v>4070</v>
+      <c r="I5" s="87" t="s">
+        <v>4068</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A6" s="37" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>3949</v>
@@ -48787,26 +50102,26 @@
       <c r="C6" s="68" t="s">
         <v>3943</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="86" t="s">
         <v>3942</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="87" t="s">
         <v>3946</v>
       </c>
       <c r="F6" s="68"/>
       <c r="G6" s="68" t="s">
         <v>3955</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="86" t="s">
         <v>3954</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>4071</v>
+      <c r="I6" s="87" t="s">
+        <v>4069</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D7" s="68"/>
-      <c r="E7" s="77"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
@@ -48819,7 +50134,7 @@
       <c r="B8" s="36"/>
       <c r="C8" s="67"/>
       <c r="D8" s="67"/>
-      <c r="E8" s="85"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
@@ -48835,26 +50150,26 @@
       <c r="C9" s="68" t="s">
         <v>3959</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="86" t="s">
         <v>3960</v>
       </c>
-      <c r="E9" s="90" t="s">
-        <v>4075</v>
+      <c r="E9" s="87" t="s">
+        <v>4073</v>
       </c>
       <c r="F9" s="68"/>
       <c r="G9" s="68" t="s">
         <v>3972</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="86" t="s">
         <v>3973</v>
       </c>
-      <c r="I9" s="90" t="s">
-        <v>4073</v>
+      <c r="I9" s="87" t="s">
+        <v>4071</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>3970</v>
@@ -48862,26 +50177,26 @@
       <c r="C10" s="68" t="s">
         <v>3962</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="86" t="s">
         <v>3961</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>4076</v>
+      <c r="E10" s="87" t="s">
+        <v>4074</v>
       </c>
       <c r="F10" s="68"/>
       <c r="G10" s="68" t="s">
         <v>3974</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="86" t="s">
         <v>3980</v>
       </c>
-      <c r="I10" s="90" t="s">
-        <v>4072</v>
+      <c r="I10" s="87" t="s">
+        <v>4070</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>3971</v>
@@ -48889,21 +50204,21 @@
       <c r="C11" s="40" t="s">
         <v>3963</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="88" t="s">
         <v>3966</v>
       </c>
-      <c r="E11" s="90" t="s">
-        <v>4077</v>
+      <c r="E11" s="87" t="s">
+        <v>4075</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40" t="s">
         <v>3976</v>
       </c>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="88" t="s">
         <v>3975</v>
       </c>
-      <c r="I11" s="90" t="s">
-        <v>4074</v>
+      <c r="I11" s="87" t="s">
+        <v>4072</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -48911,7 +50226,7 @@
       <c r="B12" s="64"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="86"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -48924,7 +50239,7 @@
       <c r="B13" s="36"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
-      <c r="E13" s="85"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
@@ -48938,92 +50253,92 @@
         <v>3922</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>4087</v>
-      </c>
-      <c r="D14" s="89" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D14" s="86" t="s">
         <v>3918</v>
       </c>
-      <c r="E14" s="84" t="s">
-        <v>4078</v>
+      <c r="E14" s="81" t="s">
+        <v>4076</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68" t="s">
-        <v>4092</v>
-      </c>
-      <c r="H14" s="89" t="s">
+        <v>4090</v>
+      </c>
+      <c r="H14" s="86" t="s">
         <v>3925</v>
       </c>
-      <c r="I14" s="84" t="s">
-        <v>4081</v>
+      <c r="I14" s="81" t="s">
+        <v>4079</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>3923</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>4088</v>
-      </c>
-      <c r="D15" s="89" t="s">
+        <v>4086</v>
+      </c>
+      <c r="D15" s="86" t="s">
         <v>3917</v>
       </c>
-      <c r="E15" s="84" t="s">
-        <v>4079</v>
+      <c r="E15" s="81" t="s">
+        <v>4077</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="68" t="s">
-        <v>4091</v>
-      </c>
-      <c r="H15" s="89" t="s">
+        <v>4089</v>
+      </c>
+      <c r="H15" s="86" t="s">
         <v>3930</v>
       </c>
-      <c r="I15" s="84" t="s">
-        <v>4082</v>
+      <c r="I15" s="81" t="s">
+        <v>4080</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A16" s="37" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>3924</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>4089</v>
-      </c>
-      <c r="D16" s="92" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D16" s="89" t="s">
         <v>3916</v>
       </c>
-      <c r="E16" s="93" t="s">
-        <v>4080</v>
+      <c r="E16" s="90" t="s">
+        <v>4078</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="67" t="s">
-        <v>4090</v>
-      </c>
-      <c r="H16" s="92" t="s">
+        <v>4088</v>
+      </c>
+      <c r="H16" s="89" t="s">
         <v>3933</v>
       </c>
-      <c r="I16" s="87" t="s">
-        <v>4083</v>
+      <c r="I16" s="84" t="s">
+        <v>4081</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
-        <v>4065</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
-        <v>4066</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -49031,9 +50346,9 @@
         <v>3990</v>
       </c>
       <c r="B26" s="61"/>
-      <c r="C26" s="88"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="61"/>
-      <c r="E26" s="82"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
       <c r="H26" s="61"/>
@@ -49055,7 +50370,7 @@
       <c r="A30" s="27" t="s">
         <v>3984</v>
       </c>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="77" t="s">
         <v>3998</v>
       </c>
       <c r="I30" s="27" t="s">
@@ -49066,7 +50381,7 @@
       <c r="A31" s="27" t="s">
         <v>3989</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="77" t="s">
         <v>3999</v>
       </c>
       <c r="I31" s="27" t="s">
@@ -49078,7 +50393,7 @@
       <c r="B32" s="36"/>
       <c r="C32" s="67"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="75" t="s">
         <v>4000</v>
       </c>
       <c r="F32" s="36"/>
@@ -49117,7 +50432,7 @@
       <c r="A38" s="27" t="s">
         <v>3989</v>
       </c>
-      <c r="E38" s="80" t="s">
+      <c r="E38" s="77" t="s">
         <v>4002</v>
       </c>
       <c r="I38" s="27" t="s">
@@ -49125,7 +50440,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="77" t="s">
         <v>4001</v>
       </c>
       <c r="I39" s="27" t="s">
@@ -49137,7 +50452,7 @@
       <c r="B40" s="36"/>
       <c r="C40" s="67"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="75" t="s">
         <v>4003</v>
       </c>
       <c r="F40" s="36"/>
@@ -49171,7 +50486,7 @@
       <c r="A45" s="27" t="s">
         <v>3984</v>
       </c>
-      <c r="E45" s="79" t="s">
+      <c r="E45" s="76" t="s">
         <v>4019</v>
       </c>
     </row>
@@ -49179,7 +50494,7 @@
       <c r="A46" s="27" t="s">
         <v>3989</v>
       </c>
-      <c r="E46" s="79" t="s">
+      <c r="E46" s="76" t="s">
         <v>4020</v>
       </c>
       <c r="I46" s="34" t="s">
@@ -49187,7 +50502,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E47" s="79" t="s">
+      <c r="E47" s="76" t="s">
         <v>4021</v>
       </c>
       <c r="I47" s="34" t="s">
@@ -49199,7 +50514,7 @@
       <c r="B48" s="36"/>
       <c r="C48" s="67"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="78"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
@@ -49218,17 +50533,17 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E55" s="79" t="s">
+      <c r="E55" s="76" t="s">
         <v>4009</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E56" s="79" t="s">
+      <c r="E56" s="76" t="s">
         <v>4007</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E57" s="79" t="s">
+      <c r="E57" s="76" t="s">
         <v>4008</v>
       </c>
     </row>
@@ -49237,9 +50552,9 @@
         <v>4010</v>
       </c>
       <c r="B58" s="61"/>
-      <c r="C58" s="88"/>
+      <c r="C58" s="85"/>
       <c r="D58" s="61"/>
-      <c r="E58" s="83"/>
+      <c r="E58" s="80"/>
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
@@ -49249,7 +50564,7 @@
       <c r="A59" s="64"/>
       <c r="B59" s="64"/>
       <c r="C59" s="40"/>
-      <c r="E59" s="79"/>
+      <c r="E59" s="76"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="64"/>
@@ -49287,17 +50602,17 @@
       <c r="I62" s="64"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E63" s="79" t="s">
+      <c r="E63" s="76" t="s">
         <v>4011</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E64" s="79" t="s">
+      <c r="E64" s="76" t="s">
         <v>4012</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E65" s="79"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
       <c r="H65" s="64"/>
@@ -49308,9 +50623,9 @@
         <v>4014</v>
       </c>
       <c r="B66" s="61"/>
-      <c r="C66" s="88"/>
+      <c r="C66" s="85"/>
       <c r="D66" s="61"/>
-      <c r="E66" s="83"/>
+      <c r="E66" s="80"/>
       <c r="F66" s="61"/>
       <c r="G66" s="61"/>
       <c r="H66" s="61"/>
@@ -49325,28 +50640,28 @@
       <c r="I67" s="64"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E68" s="79"/>
+      <c r="E68" s="76"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D69" s="64"/>
-      <c r="E69" s="81"/>
+      <c r="E69" s="78"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D70" s="64"/>
-      <c r="E70" s="81"/>
+      <c r="E70" s="78"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E71" s="79" t="s">
+      <c r="E71" s="76" t="s">
         <v>4015</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E72" s="79" t="s">
+      <c r="E72" s="76" t="s">
         <v>4016</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E73" s="79" t="s">
+      <c r="E73" s="76" t="s">
         <v>4017</v>
       </c>
     </row>

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7093855-F776-42F6-974D-F803C002ADE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="114_{A2407726-991A-4713-924A-63313A66922E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C00972D3-5DA1-43A1-9932-61C23D2C1D30}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="16874" windowHeight="11535" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1 (2010-2014)" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1 (2000-2014)" sheetId="1" r:id="rId3"/>
     <sheet name="table1" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
-    <sheet name="OLDtable2_round" sheetId="8" r:id="rId6"/>
-    <sheet name="OLDtable2" sheetId="7" r:id="rId7"/>
-    <sheet name="NEWtable2" sheetId="9" r:id="rId8"/>
+    <sheet name="NEWtable2" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="OLDtable2_round" sheetId="8" r:id="rId7"/>
+    <sheet name="OLDtable2" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12375,12 +12375,6 @@
     <t>1530 (9.50)</t>
   </si>
   <si>
-    <t>1. Unadjusted Hazard Ratio. 2. Hazard Ratio adjusted for age, sex, insurance status, education, race, and income category. 3. Adjusted for age, sex, insurance status, education, race, income,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and chronic conditions. Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "factor(CRN)1 1.226(1.074-1.399)"     "factor(EduR)2 0.956(0.856-1.069)"   </t>
   </si>
   <si>
@@ -12967,6 +12961,12 @@
   </si>
   <si>
     <t>[21] "factor(DiabetesRec)1   1.328 ( 1.225 - 1.439 )" "factor(CancerEvBin)1   1.346 ( 1.233 - 1.469 )"</t>
+  </si>
+  <si>
+    <t>1. Unadjusted Hazard Ratio. 2. Hazard Ratio adjusted for age, sex, insurance status, education, race, and income category. 3. Hazard Ratio adjusted for age, sex, insurance status, education, race, income,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and chronic conditions (All models: cancer; CVD models: diabetes; Diabetes models: CVD). Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range. </t>
   </si>
 </sst>
 </file>
@@ -47881,10 +47881,397 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD714-F6F6-44CE-A098-1B3ADD4DBD70}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.53125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="98" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="G1" s="98" t="s">
+        <v>3689</v>
+      </c>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B2" s="38" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>3696</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>4064</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>3691</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>3697</v>
+      </c>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>3951</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>4067</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>3938</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>3939</v>
+      </c>
+      <c r="I4" s="87" t="s">
+        <v>4065</v>
+      </c>
+      <c r="J4" s="68"/>
+    </row>
+    <row r="5" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="37" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>3953</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>4068</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>3941</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>3940</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>4066</v>
+      </c>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>3954</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>4069</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>3943</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>3942</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>3946</v>
+      </c>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>3972</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>3973</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>4071</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>3959</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>3960</v>
+      </c>
+      <c r="I9" s="87" t="s">
+        <v>4073</v>
+      </c>
+      <c r="J9" s="68"/>
+    </row>
+    <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="37" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>3974</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>3980</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>4070</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>3962</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>3961</v>
+      </c>
+      <c r="I10" s="87" t="s">
+        <v>4074</v>
+      </c>
+      <c r="J10" s="68"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>4072</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>3963</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>3966</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>4075</v>
+      </c>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>3925</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>4079</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>4085</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>3918</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>4076</v>
+      </c>
+      <c r="J14" s="68"/>
+    </row>
+    <row r="15" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>4089</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>3930</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>4080</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>4086</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>3917</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>4077</v>
+      </c>
+      <c r="J15" s="68"/>
+    </row>
+    <row r="16" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>4088</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>3933</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>4081</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="72" t="s">
+        <v>4087</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>3916</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>4078</v>
+      </c>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="27" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="27" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED4C5A6-F533-4C13-ACF9-63B92CA7B247}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="151" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="151" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -47892,259 +48279,259 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C1" s="91" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="I1" s="91" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="P1" s="91" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="W1" s="91" t="s">
-        <v>4188</v>
+        <v>4186</v>
       </c>
       <c r="AD1" s="91" t="s">
-        <v>4210</v>
+        <v>4208</v>
       </c>
       <c r="AP1" s="91" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C2" s="91" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="I2" s="91" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="P2" s="91" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
       <c r="W2" s="91" t="s">
-        <v>4189</v>
+        <v>4187</v>
       </c>
       <c r="AD2" s="91" t="s">
-        <v>4211</v>
+        <v>4209</v>
       </c>
       <c r="AP2" s="91" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="I3" s="91" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="P3" s="91" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="W3" s="91" t="s">
-        <v>4190</v>
+        <v>4188</v>
       </c>
       <c r="AD3" s="91" t="s">
-        <v>4212</v>
+        <v>4210</v>
       </c>
       <c r="AP3" s="91" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C4" s="91" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="I4" s="91" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="P4" s="91" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="W4" s="91" t="s">
-        <v>4191</v>
+        <v>4189</v>
       </c>
       <c r="AD4" s="91" t="s">
-        <v>4213</v>
+        <v>4211</v>
       </c>
       <c r="AP4" s="91" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C5" s="91" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="I5" s="91" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="P5" s="91" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="W5" s="91" t="s">
-        <v>4192</v>
+        <v>4190</v>
       </c>
       <c r="AD5" s="91" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
       <c r="AP5" s="91" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C6" s="91" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="I6" s="91" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="W6" s="91" t="s">
-        <v>4193</v>
+        <v>4191</v>
       </c>
       <c r="AD6" s="91" t="s">
-        <v>4215</v>
+        <v>4213</v>
       </c>
       <c r="AP6" s="91" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C7" s="91" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="I7" s="91" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="P7" s="91" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="W7" s="91" t="s">
-        <v>4194</v>
+        <v>4192</v>
       </c>
       <c r="AD7" s="91" t="s">
-        <v>4216</v>
+        <v>4214</v>
       </c>
       <c r="AP7" s="91" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C8" s="91" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
       <c r="I8" s="91" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="P8" s="91" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="W8" s="91" t="s">
-        <v>4195</v>
+        <v>4193</v>
       </c>
       <c r="AD8" s="91" t="s">
-        <v>4217</v>
+        <v>4215</v>
       </c>
       <c r="AP8" s="91" t="s">
-        <v>4261</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C9" s="91" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="I9" s="91" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="P9" s="91" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="W9" s="91" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
       <c r="AD9" s="91" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="AP9" s="91" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C10" s="92" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
       <c r="I10" s="91" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="P10" s="92" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="W10" s="91" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
       <c r="AD10" s="91" t="s">
-        <v>4219</v>
+        <v>4217</v>
       </c>
       <c r="AP10" s="91" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.45">
       <c r="I11" s="92" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="W11" s="92" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
       <c r="AD11" s="92" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="AP11" s="92" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C14" s="91" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="I14" s="91" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="P14" s="91" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
       <c r="W14" s="91" t="s">
-        <v>4222</v>
+        <v>4220</v>
       </c>
       <c r="AD14" s="93" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
       <c r="AP14" s="91" t="s">
-        <v>4265</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C15" s="91" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="I15" s="91" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="P15" s="91" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
       <c r="W15" s="91" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
       <c r="AD15" s="93" t="s">
-        <v>4235</v>
+        <v>4233</v>
       </c>
       <c r="AP15" s="91" t="s">
-        <v>4266</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.45">
@@ -48152,409 +48539,409 @@
         <v>3693</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="I16" s="91" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="P16" s="91" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
       <c r="W16" s="91" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
       <c r="AD16" s="93" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
       <c r="AP16" s="91" t="s">
-        <v>4267</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C17" s="91" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="I17" s="91" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
       <c r="P17" s="91" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
       <c r="W17" s="91" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="AD17" s="93" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
       <c r="AP17" s="91" t="s">
-        <v>4268</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C18" s="91" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="I18" s="91" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
       <c r="P18" s="91" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
       <c r="W18" s="91" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
       <c r="AD18" s="93" t="s">
-        <v>4238</v>
+        <v>4236</v>
       </c>
       <c r="AP18" s="91" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C19" s="91" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
       <c r="I19" s="91" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="P19" s="91" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
       <c r="W19" s="91" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="AD19" s="93" t="s">
-        <v>4239</v>
+        <v>4237</v>
       </c>
       <c r="AP19" s="91" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C20" s="91" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="I20" s="91" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
       <c r="P20" s="91" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="W20" s="91" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
       <c r="AD20" s="93" t="s">
-        <v>4240</v>
+        <v>4238</v>
       </c>
       <c r="AP20" s="91" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C21" s="91" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="I21" s="91" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="P21" s="91" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
       <c r="W21" s="91" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="AD21" s="93" t="s">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="AP21" s="91" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C22" s="91" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="I22" s="91" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
       <c r="P22" s="91" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="W22" s="91" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
       <c r="AD22" s="93" t="s">
-        <v>4242</v>
+        <v>4240</v>
       </c>
       <c r="AP22" s="91" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C23" s="92" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="I23" s="91" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="P23" s="91" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
       <c r="W23" s="91" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
       <c r="AD23" s="93" t="s">
-        <v>4243</v>
+        <v>4241</v>
       </c>
       <c r="AP23" s="91" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C24" s="92"/>
       <c r="I24" s="91" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="P24" s="92" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="W24" s="91" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
       <c r="AD24" s="94"/>
       <c r="AP24" s="91" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.45">
       <c r="I25" s="92" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="W25" s="92" t="s">
-        <v>4233</v>
+        <v>4231</v>
       </c>
       <c r="AD25" s="95" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
       <c r="AP25" s="92" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C27" s="91" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="I27" s="91" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="P27" s="91" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
       <c r="W27" s="91" t="s">
-        <v>4221</v>
+        <v>4219</v>
       </c>
       <c r="AD27" s="91" t="s">
-        <v>4244</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C28" s="91" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="I28" s="91" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="P28" s="91" t="s">
-        <v>4179</v>
+        <v>4177</v>
       </c>
       <c r="W28" s="91" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
       <c r="AD28" s="91" t="s">
-        <v>4245</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="I29" s="91" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="P29" s="91" t="s">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="W29" s="91" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
       <c r="AD29" s="91" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
       <c r="AP29" s="93" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C30" s="91" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="I30" s="91" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="P30" s="91" t="s">
-        <v>4181</v>
+        <v>4179</v>
       </c>
       <c r="W30" s="91" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
       <c r="AD30" s="91" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
       <c r="AP30" s="93" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C31" s="91" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
       <c r="I31" s="91" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
       <c r="P31" s="91" t="s">
-        <v>4182</v>
+        <v>4180</v>
       </c>
       <c r="W31" s="91" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
       <c r="AD31" s="91" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="AP31" s="93" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C32" s="91" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="I32" s="91" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="P32" s="91" t="s">
-        <v>4183</v>
+        <v>4181</v>
       </c>
       <c r="W32" s="91" t="s">
-        <v>4203</v>
+        <v>4201</v>
       </c>
       <c r="AD32" s="91" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="AP32" s="93" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="33" spans="3:42" x14ac:dyDescent="0.45">
       <c r="C33" s="91" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="I33" s="91" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="P33" s="91" t="s">
-        <v>4184</v>
+        <v>4182</v>
       </c>
       <c r="W33" s="91" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
       <c r="AD33" s="91" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="AP33" s="93" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="34" spans="3:42" x14ac:dyDescent="0.45">
       <c r="C34" s="92" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="I34" s="91" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
       <c r="P34" s="91" t="s">
-        <v>4185</v>
+        <v>4183</v>
       </c>
       <c r="W34" s="91" t="s">
-        <v>4205</v>
+        <v>4203</v>
       </c>
       <c r="AD34" s="91" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="AP34" s="93" t="s">
-        <v>4282</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="35" spans="3:42" x14ac:dyDescent="0.45">
       <c r="I35" s="91" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="P35" s="91" t="s">
-        <v>4186</v>
+        <v>4184</v>
       </c>
       <c r="W35" s="91" t="s">
-        <v>4206</v>
+        <v>4204</v>
       </c>
       <c r="AD35" s="91" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
       <c r="AP35" s="93" t="s">
-        <v>4283</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="36" spans="3:42" x14ac:dyDescent="0.45">
       <c r="I36" s="91" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="P36" s="92" t="s">
-        <v>4187</v>
+        <v>4185</v>
       </c>
       <c r="W36" s="91" t="s">
-        <v>4207</v>
+        <v>4205</v>
       </c>
       <c r="AD36" s="92" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="AP36" s="93" t="s">
-        <v>4284</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="37" spans="3:42" x14ac:dyDescent="0.45">
       <c r="I37" s="92" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="W37" s="92" t="s">
-        <v>4208</v>
+        <v>4206</v>
       </c>
       <c r="AP37" s="93" t="s">
-        <v>4285</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="38" spans="3:42" x14ac:dyDescent="0.45">
       <c r="AP38" s="93" t="s">
-        <v>4286</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="39" spans="3:42" x14ac:dyDescent="0.45">
       <c r="AP39" s="93" t="s">
-        <v>4287</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="40" spans="3:42" x14ac:dyDescent="0.45">
       <c r="AP40" s="93" t="s">
-        <v>4288</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="41" spans="3:42" x14ac:dyDescent="0.45">
@@ -48562,7 +48949,7 @@
     </row>
     <row r="42" spans="3:42" x14ac:dyDescent="0.45">
       <c r="AP42" s="95" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
     </row>
   </sheetData>
@@ -48571,7 +48958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4313555-EC6E-4D2C-90A6-517B882FC83C}">
   <dimension ref="A1:I73"/>
   <sheetViews>
@@ -49277,12 +49664,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A65" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -49956,6 +50343,412 @@
         <v>4017</v>
       </c>
     </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C83" s="68"/>
+      <c r="E83" s="77"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C84" s="68"/>
+      <c r="E84" s="77"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C85" s="68"/>
+      <c r="E85" s="77"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C86" s="68"/>
+      <c r="E86" s="77"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="61" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B87" s="61"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C88" s="68"/>
+      <c r="E88" s="77"/>
+      <c r="I88" s="27" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C89" s="68"/>
+      <c r="E89" s="77"/>
+      <c r="I89" s="27" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C90" s="68"/>
+      <c r="E90" s="77"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C91" s="68"/>
+      <c r="E91" s="77" t="s">
+        <v>3998</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C92" s="68"/>
+      <c r="E92" s="77" t="s">
+        <v>3999</v>
+      </c>
+      <c r="I92" s="27" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="75" t="s">
+        <v>4000</v>
+      </c>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="27" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C94" s="68"/>
+      <c r="E94" s="77"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C95" s="68"/>
+      <c r="E95" s="77"/>
+      <c r="I95" s="27" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C96" s="68"/>
+      <c r="E96" s="77"/>
+      <c r="I96" s="27" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C97" s="68"/>
+      <c r="E97" s="77"/>
+      <c r="I97" s="27" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C98" s="68"/>
+      <c r="E98" s="77"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C99" s="68"/>
+      <c r="E99" s="77" t="s">
+        <v>4002</v>
+      </c>
+      <c r="I99" s="27" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C100" s="68"/>
+      <c r="E100" s="77" t="s">
+        <v>4001</v>
+      </c>
+      <c r="I100" s="27" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="75" t="s">
+        <v>4003</v>
+      </c>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="27" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C102" s="68"/>
+      <c r="E102" s="77"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C103" s="68"/>
+      <c r="E103" s="77"/>
+      <c r="I103" s="34" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C104" s="68"/>
+      <c r="E104" s="77"/>
+      <c r="I104" s="34" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C105" s="68"/>
+      <c r="E105" s="77"/>
+      <c r="I105" s="34" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C106" s="68"/>
+      <c r="E106" s="76" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C107" s="68"/>
+      <c r="E107" s="76" t="s">
+        <v>4020</v>
+      </c>
+      <c r="I107" s="34" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C108" s="68"/>
+      <c r="E108" s="76" t="s">
+        <v>4021</v>
+      </c>
+      <c r="I108" s="34" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="71" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="27" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C110" s="68"/>
+      <c r="E110" s="77"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="27" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C111" s="68"/>
+      <c r="E111" s="77"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C112" s="68"/>
+      <c r="E112" s="77"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C113" s="68"/>
+      <c r="E113" s="77"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C114" s="68"/>
+      <c r="E114" s="77"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C115" s="68"/>
+      <c r="E115" s="77"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C116" s="68"/>
+      <c r="E116" s="76" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C117" s="68"/>
+      <c r="E117" s="76" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C118" s="68"/>
+      <c r="E118" s="76" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119" s="61" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B119" s="61"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="61"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="40"/>
+      <c r="E120" s="76"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="10" t="s">
+        <v>4013</v>
+      </c>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C124" s="68"/>
+      <c r="E124" s="76" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C125" s="68"/>
+      <c r="E125" s="76" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C126" s="68"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127" s="61" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B127" s="61"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="80"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C128" s="68"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="64"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="64"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C129" s="68"/>
+      <c r="E129" s="76"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C130" s="68"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="78"/>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C131" s="68"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="78"/>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C132" s="68"/>
+      <c r="E132" s="76" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C133" s="68"/>
+      <c r="E133" s="76" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C134" s="68"/>
+      <c r="E134" s="76" t="s">
+        <v>4017</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:I1"/>
@@ -49966,716 +50759,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD714-F6F6-44CE-A098-1B3ADD4DBD70}">
-  <dimension ref="A1:I73"/>
-  <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="77" customWidth="1"/>
-    <col min="6" max="6" width="2.86328125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="20.46484375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="20.53125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="98" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="98" t="s">
-        <v>3688</v>
-      </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-    </row>
-    <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>3691</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>3696</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>3697</v>
-      </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68" t="s">
-        <v>3691</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>3696</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
-        <v>3690</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
-        <v>3694</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>3947</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>3938</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>3939</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>4065</v>
-      </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68" t="s">
-        <v>3950</v>
-      </c>
-      <c r="H4" s="86" t="s">
-        <v>3951</v>
-      </c>
-      <c r="I4" s="87" t="s">
-        <v>4067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
-        <v>4082</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>3948</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>3941</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>3940</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>4066</v>
-      </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68" t="s">
-        <v>3952</v>
-      </c>
-      <c r="H5" s="86" t="s">
-        <v>3953</v>
-      </c>
-      <c r="I5" s="87" t="s">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
-        <v>4083</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>3949</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>3943</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>3942</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>3946</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68" t="s">
-        <v>3955</v>
-      </c>
-      <c r="H6" s="86" t="s">
-        <v>3954</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>4069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D7" s="68"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
-        <v>3964</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
-        <v>3694</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>3969</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>3959</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>3960</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>4073</v>
-      </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68" t="s">
-        <v>3972</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>3973</v>
-      </c>
-      <c r="I9" s="87" t="s">
-        <v>4071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
-        <v>4082</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>3970</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>3962</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>3961</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68" t="s">
-        <v>3974</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>3980</v>
-      </c>
-      <c r="I10" s="87" t="s">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
-        <v>4083</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>3971</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>3963</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>3966</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>4075</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40" t="s">
-        <v>3976</v>
-      </c>
-      <c r="H11" s="88" t="s">
-        <v>3975</v>
-      </c>
-      <c r="I11" s="87" t="s">
-        <v>4072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="39" t="s">
-        <v>4004</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
-        <v>3694</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>3922</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>4085</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>3918</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>4076</v>
-      </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68" t="s">
-        <v>4090</v>
-      </c>
-      <c r="H14" s="86" t="s">
-        <v>3925</v>
-      </c>
-      <c r="I14" s="81" t="s">
-        <v>4079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
-        <v>4082</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>3923</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>4086</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>3917</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>4077</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68" t="s">
-        <v>4089</v>
-      </c>
-      <c r="H15" s="86" t="s">
-        <v>3930</v>
-      </c>
-      <c r="I15" s="81" t="s">
-        <v>4080</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
-        <v>4083</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>3924</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>4087</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>3916</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>4078</v>
-      </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67" t="s">
-        <v>4088</v>
-      </c>
-      <c r="H16" s="89" t="s">
-        <v>3933</v>
-      </c>
-      <c r="I16" s="84" t="s">
-        <v>4081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="27" t="s">
-        <v>4091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
-        <v>4092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="27" t="s">
-        <v>4084</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="61" t="s">
-        <v>3990</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I27" s="27" t="s">
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I28" s="27" t="s">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="27" t="s">
-        <v>3984</v>
-      </c>
-      <c r="E30" s="77" t="s">
-        <v>3998</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>3999</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>3985</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="75" t="s">
-        <v>4000</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36" t="s">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="27" t="s">
-        <v>3991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I34" s="27" t="s">
-        <v>3992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I35" s="27" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I36" s="27" t="s">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="27" t="s">
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E38" s="77" t="s">
-        <v>4002</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>3993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E39" s="77" t="s">
-        <v>4001</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="75" t="s">
-        <v>4003</v>
-      </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="27" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I42" s="34" t="s">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I43" s="34" t="s">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I44" s="34" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="27" t="s">
-        <v>3984</v>
-      </c>
-      <c r="E45" s="76" t="s">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E46" s="76" t="s">
-        <v>4020</v>
-      </c>
-      <c r="I46" s="34" t="s">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E47" s="76" t="s">
-        <v>4021</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="71" t="s">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="27" t="s">
-        <v>4005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="27" t="s">
-        <v>4006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E55" s="76" t="s">
-        <v>4009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E56" s="76" t="s">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E57" s="76" t="s">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="61" t="s">
-        <v>4010</v>
-      </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="40"/>
-      <c r="E59" s="76"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="10" t="s">
-        <v>4013</v>
-      </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E63" s="76" t="s">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E64" s="76" t="s">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E65" s="76"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="61" t="s">
-        <v>4014</v>
-      </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D67" s="64"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E68" s="76"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D69" s="64"/>
-      <c r="E69" s="78"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D70" s="64"/>
-      <c r="E70" s="78"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E71" s="76" t="s">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E72" s="76" t="s">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E73" s="76" t="s">
-        <v>4017</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -50821,22 +50920,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882C1FE-BC45-4FCD-A08C-67DB8BD38111}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50852,28 +50960,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882C1FE-BC45-4FCD-A08C-67DB8BD38111}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="114_{A2407726-991A-4713-924A-63313A66922E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C00972D3-5DA1-43A1-9932-61C23D2C1D30}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="114_{A2407726-991A-4713-924A-63313A66922E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FCACA24B-BA48-42AE-A821-A63BA5056080}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="1747" yWindow="1357" windowWidth="18211" windowHeight="12893" firstSheet="1" activeTab="6" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="Sheet1 (2000-2014)" sheetId="1" r:id="rId3"/>
     <sheet name="table1" sheetId="6" r:id="rId4"/>
     <sheet name="NEWtable2" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="OLDtable2_round" sheetId="8" r:id="rId7"/>
-    <sheet name="OLDtable2" sheetId="7" r:id="rId8"/>
+    <sheet name="Supp1" sheetId="11" r:id="rId6"/>
+    <sheet name="Supp2" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="OLDtable2_round" sheetId="8" r:id="rId9"/>
+    <sheet name="OLDtable2" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8571" uniqueCount="4289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="4319">
   <si>
     <t>Variable</t>
   </si>
@@ -12967,6 +12969,96 @@
   </si>
   <si>
     <t xml:space="preserve"> and chronic conditions (All models: cancer; CVD models: diabetes; Diabetes models: CVD). Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range. </t>
+  </si>
+  <si>
+    <t>8737 (23.5)</t>
+  </si>
+  <si>
+    <t>1.182 (1.091 - 1.280)</t>
+  </si>
+  <si>
+    <t>15979 (27.6)</t>
+  </si>
+  <si>
+    <t>1.133 (1.066 - 1.205)</t>
+  </si>
+  <si>
+    <t>28340 (19.4)</t>
+  </si>
+  <si>
+    <t>1.232 (1.172 - 1.296)</t>
+  </si>
+  <si>
+    <t>2882 (8.37)</t>
+  </si>
+  <si>
+    <t>1.180 (1.045 - 1.331)</t>
+  </si>
+  <si>
+    <t>4692 (8.93)</t>
+  </si>
+  <si>
+    <t>1.080 (0.968 - 1.206)</t>
+  </si>
+  <si>
+    <t>10028 (7.30)</t>
+  </si>
+  <si>
+    <t>1.265 (1.162 - 1.378)</t>
+  </si>
+  <si>
+    <t>0.602 (0.542 - 0.668)</t>
+  </si>
+  <si>
+    <t>0.750 (0.669 - 0.840)</t>
+  </si>
+  <si>
+    <t>0.748 (0.686 - 0.815)</t>
+  </si>
+  <si>
+    <t>0.646 (0.600 - 0.694)</t>
+  </si>
+  <si>
+    <t>0.705 (0.667 - 0.746)</t>
+  </si>
+  <si>
+    <t>Delete Overly Influential</t>
+  </si>
+  <si>
+    <t>Splines</t>
+  </si>
+  <si>
+    <t>Died: N(%)</t>
+  </si>
+  <si>
+    <t>Model 2: HR (95% CI)</t>
+  </si>
+  <si>
+    <t>Disease-Specific Mortality</t>
+  </si>
+  <si>
+    <t>1. Hazard Ratio adjusted for age, sex, insurance status, education, race, income, and chronic conditions (All models: cancer; CVD models: diabetes; Diabetes models: CVD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Hazard Ratio adjusted for age, sex, insurance status, education, race, and income category. Abbreviations: CRN, cost-related nonadherence; CVD, cardiovascular disease; IQR, interquartile range. </t>
+  </si>
+  <si>
+    <t>1.300 (1.183 - 1.421)</t>
+  </si>
+  <si>
+    <t>1.228 (1.076 - 1.402)</t>
+  </si>
+  <si>
+    <t>1.119 (0.989 - 1.267)</t>
+  </si>
+  <si>
+    <t>1.158 (1.063 - 1.261)</t>
+  </si>
+  <si>
+    <t>1.147 (1.072 - 1.228)</t>
+  </si>
+  <si>
+    <t>1.229 (1.162 - 1.300)</t>
   </si>
 </sst>
 </file>
@@ -13120,7 +13212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -13387,6 +13479,9 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13394,6 +13489,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13777,41 +13875,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
       <c r="F1" s="6"/>
       <c r="G1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="6"/>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="96"/>
+      <c r="M1" s="97"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="97" t="s">
         <v>505</v>
       </c>
-      <c r="R1" s="96"/>
+      <c r="R1" s="97"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="96" t="s">
+      <c r="V1" s="97" t="s">
         <v>646</v>
       </c>
-      <c r="W1" s="96"/>
+      <c r="W1" s="97"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="96" t="s">
+      <c r="AA1" s="97" t="s">
         <v>647</v>
       </c>
-      <c r="AB1" s="96"/>
+      <c r="AB1" s="97"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="96" t="s">
+      <c r="AF1" s="97" t="s">
         <v>656</v>
       </c>
-      <c r="AG1" s="96"/>
+      <c r="AG1" s="97"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="24" t="s">
         <v>1042</v>
@@ -23543,6 +23641,1101 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AA1:AB1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
+  <dimension ref="A1:I134"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="2.86328125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="20.46484375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="20.53125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="99" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="99" t="s">
+        <v>3688</v>
+      </c>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+    </row>
+    <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B2" s="38" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>3696</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>3697</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
+        <v>3691</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>3938</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>3939</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>3944</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>3951</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A5" s="37" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>3945</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>3952</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>3953</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>3946</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>3955</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>3960</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>3972</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>3973</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A10" s="37" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>3961</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>3967</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>3974</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>3980</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A11" s="63" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>3966</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64" t="s">
+        <v>3976</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>3975</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>3918</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>3919</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>3926</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>3925</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>3917</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>3920</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>3931</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>3921</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
+        <v>3934</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>3933</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="27" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="27" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="61" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I27" s="27" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I28" s="27" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>3998</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>3999</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="41" t="s">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="27" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I34" s="27" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I35" s="27" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I36" s="27" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="27" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>4002</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E39" s="37" t="s">
+        <v>4001</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="41" t="s">
+        <v>4003</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="27" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I42" s="34" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I43" s="34" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I44" s="34" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>4020</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E47" s="34" t="s">
+        <v>4021</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="71" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="27" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="27" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E55" s="34" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E56" s="34" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E57" s="34" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="61" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="E59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="70" t="s">
+        <v>4013</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E63" s="34" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E64" s="34" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E65" s="34"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="61" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D67" s="64"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E68" s="34"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D69" s="64"/>
+      <c r="E69" s="63"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D70" s="64"/>
+      <c r="E70" s="63"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E71" s="34" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E72" s="34" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E73" s="34" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C83" s="68"/>
+      <c r="E83" s="77"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C84" s="68"/>
+      <c r="E84" s="77"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C85" s="68"/>
+      <c r="E85" s="77"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C86" s="68"/>
+      <c r="E86" s="77"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="61" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B87" s="61"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C88" s="68"/>
+      <c r="E88" s="77"/>
+      <c r="I88" s="27" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C89" s="68"/>
+      <c r="E89" s="77"/>
+      <c r="I89" s="27" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C90" s="68"/>
+      <c r="E90" s="77"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C91" s="68"/>
+      <c r="E91" s="77" t="s">
+        <v>3998</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C92" s="68"/>
+      <c r="E92" s="77" t="s">
+        <v>3999</v>
+      </c>
+      <c r="I92" s="27" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="75" t="s">
+        <v>4000</v>
+      </c>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="27" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C94" s="68"/>
+      <c r="E94" s="77"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C95" s="68"/>
+      <c r="E95" s="77"/>
+      <c r="I95" s="27" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C96" s="68"/>
+      <c r="E96" s="77"/>
+      <c r="I96" s="27" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C97" s="68"/>
+      <c r="E97" s="77"/>
+      <c r="I97" s="27" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C98" s="68"/>
+      <c r="E98" s="77"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C99" s="68"/>
+      <c r="E99" s="77" t="s">
+        <v>4002</v>
+      </c>
+      <c r="I99" s="27" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C100" s="68"/>
+      <c r="E100" s="77" t="s">
+        <v>4001</v>
+      </c>
+      <c r="I100" s="27" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="75" t="s">
+        <v>4003</v>
+      </c>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="27" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C102" s="68"/>
+      <c r="E102" s="77"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C103" s="68"/>
+      <c r="E103" s="77"/>
+      <c r="I103" s="34" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C104" s="68"/>
+      <c r="E104" s="77"/>
+      <c r="I104" s="34" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C105" s="68"/>
+      <c r="E105" s="77"/>
+      <c r="I105" s="34" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C106" s="68"/>
+      <c r="E106" s="76" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C107" s="68"/>
+      <c r="E107" s="76" t="s">
+        <v>4020</v>
+      </c>
+      <c r="I107" s="34" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C108" s="68"/>
+      <c r="E108" s="76" t="s">
+        <v>4021</v>
+      </c>
+      <c r="I108" s="34" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="71" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="27" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C110" s="68"/>
+      <c r="E110" s="77"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="27" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C111" s="68"/>
+      <c r="E111" s="77"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C112" s="68"/>
+      <c r="E112" s="77"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C113" s="68"/>
+      <c r="E113" s="77"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C114" s="68"/>
+      <c r="E114" s="77"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C115" s="68"/>
+      <c r="E115" s="77"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C116" s="68"/>
+      <c r="E116" s="76" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C117" s="68"/>
+      <c r="E117" s="76" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C118" s="68"/>
+      <c r="E118" s="76" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119" s="61" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B119" s="61"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="61"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="40"/>
+      <c r="E120" s="76"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="10" t="s">
+        <v>4013</v>
+      </c>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C124" s="68"/>
+      <c r="E124" s="76" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C125" s="68"/>
+      <c r="E125" s="76" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C126" s="68"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127" s="61" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B127" s="61"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="80"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C128" s="68"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="64"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="64"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C129" s="68"/>
+      <c r="E129" s="76"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C130" s="68"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="78"/>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C131" s="68"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="78"/>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C132" s="68"/>
+      <c r="E132" s="76" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C133" s="68"/>
+      <c r="E133" s="76" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C134" s="68"/>
+      <c r="E134" s="76" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23629,47 +24822,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="6"/>
       <c r="H1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="24"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="96" t="s">
+      <c r="N1" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="96"/>
+      <c r="O1" s="97"/>
       <c r="Q1" s="24"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="97" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="96"/>
+      <c r="U1" s="97"/>
       <c r="W1" s="24"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="96" t="s">
+      <c r="Z1" s="97" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="96"/>
+      <c r="AA1" s="97"/>
       <c r="AC1" s="24"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="96" t="s">
+      <c r="AF1" s="97" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="96"/>
+      <c r="AG1" s="97"/>
       <c r="AI1" s="24"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="96" t="s">
+      <c r="AL1" s="97" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="96"/>
+      <c r="AM1" s="97"/>
       <c r="AO1" s="24"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="24" t="s">
@@ -34335,13 +35528,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>504</v>
@@ -34350,38 +35543,38 @@
       <c r="J1" s="1"/>
       <c r="K1" s="7"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="96" t="s">
+      <c r="N1" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="96"/>
+      <c r="O1" s="97"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="7"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="97" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="96"/>
+      <c r="U1" s="97"/>
       <c r="V1" s="1"/>
       <c r="W1" s="7"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="96" t="s">
+      <c r="Z1" s="97" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="96"/>
+      <c r="AA1" s="97"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="7"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="96" t="s">
+      <c r="AF1" s="97" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="96"/>
+      <c r="AG1" s="97"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="7"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="96" t="s">
+      <c r="AL1" s="97" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="96"/>
+      <c r="AM1" s="97"/>
       <c r="AO1" s="7"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="7" t="s">
@@ -46887,18 +48080,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>3659</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97" t="s">
+      <c r="C1" s="98"/>
+      <c r="D1" s="98" t="s">
         <v>3693</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98" t="s">
         <v>3699</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="50" t="s">
@@ -47884,8 +49077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD714-F6F6-44CE-A098-1B3ADD4DBD70}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -47903,16 +49096,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="99" t="s">
         <v>3688</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="G1" s="98" t="s">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="G1" s="99" t="s">
         <v>3689</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
       <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -48268,6 +49461,500 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C18634A-E06E-456E-BD15-4C4D876CFD4D}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.53125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="99" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="G2" s="99" t="s">
+        <v>3689</v>
+      </c>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B3" s="38" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>3696</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>4064</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>3691</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>3697</v>
+      </c>
+      <c r="J3" s="68"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>4303</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>4290</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>4295</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>4302</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>4296</v>
+      </c>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>4291</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>4304</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>4292</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>4297</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>4301</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>4298</v>
+      </c>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:11" ht="43.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="96" t="s">
+        <v>4299</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>4054</v>
+      </c>
+      <c r="I7" s="90" t="s">
+        <v>4300</v>
+      </c>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="27" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="40"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K22" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE94E2D2-4740-4855-9F88-2CC5CEC95955}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18.53125" customWidth="1"/>
+    <col min="5" max="5" width="4.06640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="100" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="100" t="s">
+        <v>4310</v>
+      </c>
+      <c r="G2" s="100"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+    </row>
+    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
+      <c r="B3" s="38" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>4308</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>4309</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
+        <v>4308</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>4309</v>
+      </c>
+      <c r="H3" s="83"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="39" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="27" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E5" s="87"/>
+      <c r="F5" s="68" t="s">
+        <v>3938</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>4314</v>
+      </c>
+      <c r="H5" s="87"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="37" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>4317</v>
+      </c>
+      <c r="E6" s="87"/>
+      <c r="F6" s="68" t="s">
+        <v>3941</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>4315</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="37" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E7" s="87"/>
+      <c r="F7" s="68" t="s">
+        <v>3943</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>4313</v>
+      </c>
+      <c r="H7" s="87"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="74"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="27" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="27" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="91"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED4C5A6-F533-4C13-ACF9-63B92CA7B247}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
@@ -48958,7 +50645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4313555-EC6E-4D2C-90A6-517B882FC83C}">
   <dimension ref="A1:I73"/>
   <sheetViews>
@@ -48981,17 +50668,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="99" t="s">
         <v>3689</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="99" t="s">
         <v>3688</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
@@ -49664,1117 +51351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8162D-D5C4-4A4B-A8F4-00F9FF4DAA22}">
-  <dimension ref="A1:I134"/>
-  <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="2.86328125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="20.46484375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="20.53125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="98" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="98" t="s">
-        <v>3688</v>
-      </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-    </row>
-    <row r="2" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>3691</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>3696</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>3697</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
-        <v>3691</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>3696</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>3697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
-        <v>3690</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
-        <v>3694</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>3947</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>3938</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>3939</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>3944</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>3950</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>3951</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>3956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
-        <v>3695</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>3948</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>3941</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>3940</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>3945</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>3952</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>3953</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>3957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
-        <v>3687</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>3949</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>3943</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>3942</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>3946</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>3955</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>3954</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
-        <v>3964</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
-        <v>3694</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>3969</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>3959</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>3960</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>3965</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>3972</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>3973</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>3977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
-        <v>3695</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>3970</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>3962</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>3961</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>3967</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>3974</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>3980</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A11" s="63" t="s">
-        <v>3687</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>3971</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>3963</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>3966</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>3968</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64" t="s">
-        <v>3976</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>3975</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>3979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="39" t="s">
-        <v>4004</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
-        <v>3694</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>3922</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>3927</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>3918</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>3919</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>3926</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>3925</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
-        <v>3695</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>3923</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>3928</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>3917</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>3920</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>3931</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>3930</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A16" s="41" t="s">
-        <v>3687</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>3924</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>3929</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>3916</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>3921</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
-        <v>3934</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>3933</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>3937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="27" t="s">
-        <v>3932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="61" t="s">
-        <v>3990</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I27" s="27" t="s">
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I28" s="27" t="s">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="27" t="s">
-        <v>3984</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>3998</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>3999</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>3985</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="41" t="s">
-        <v>4000</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36" t="s">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="27" t="s">
-        <v>3991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I34" s="27" t="s">
-        <v>3992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I35" s="27" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I36" s="27" t="s">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="27" t="s">
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>4002</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>3993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E39" s="37" t="s">
-        <v>4001</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="41" t="s">
-        <v>4003</v>
-      </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="27" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I42" s="34" t="s">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I43" s="34" t="s">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I44" s="34" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="27" t="s">
-        <v>3984</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>4020</v>
-      </c>
-      <c r="I46" s="34" t="s">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E47" s="34" t="s">
-        <v>4021</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="71" t="s">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="27" t="s">
-        <v>4005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="27" t="s">
-        <v>4006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E55" s="34" t="s">
-        <v>4009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E56" s="34" t="s">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E57" s="34" t="s">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="61" t="s">
-        <v>4010</v>
-      </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="E59" s="34"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="70" t="s">
-        <v>4013</v>
-      </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E63" s="34" t="s">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E64" s="34" t="s">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E65" s="34"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="61" t="s">
-        <v>4014</v>
-      </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D67" s="64"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E68" s="34"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D69" s="64"/>
-      <c r="E69" s="63"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D70" s="64"/>
-      <c r="E70" s="63"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E71" s="34" t="s">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E72" s="34" t="s">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E73" s="34" t="s">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C83" s="68"/>
-      <c r="E83" s="77"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C84" s="68"/>
-      <c r="E84" s="77"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C85" s="68"/>
-      <c r="E85" s="77"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C86" s="68"/>
-      <c r="E86" s="77"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" s="61" t="s">
-        <v>3990</v>
-      </c>
-      <c r="B87" s="61"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C88" s="68"/>
-      <c r="E88" s="77"/>
-      <c r="I88" s="27" t="s">
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C89" s="68"/>
-      <c r="E89" s="77"/>
-      <c r="I89" s="27" t="s">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C90" s="68"/>
-      <c r="E90" s="77"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" s="27" t="s">
-        <v>3984</v>
-      </c>
-      <c r="C91" s="68"/>
-      <c r="E91" s="77" t="s">
-        <v>3998</v>
-      </c>
-      <c r="I91" s="27" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="C92" s="68"/>
-      <c r="E92" s="77" t="s">
-        <v>3999</v>
-      </c>
-      <c r="I92" s="27" t="s">
-        <v>3985</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="75" t="s">
-        <v>4000</v>
-      </c>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36" t="s">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" s="27" t="s">
-        <v>3991</v>
-      </c>
-      <c r="C94" s="68"/>
-      <c r="E94" s="77"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C95" s="68"/>
-      <c r="E95" s="77"/>
-      <c r="I95" s="27" t="s">
-        <v>3992</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C96" s="68"/>
-      <c r="E96" s="77"/>
-      <c r="I96" s="27" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C97" s="68"/>
-      <c r="E97" s="77"/>
-      <c r="I97" s="27" t="s">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" s="27" t="s">
-        <v>3984</v>
-      </c>
-      <c r="C98" s="68"/>
-      <c r="E98" s="77"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="C99" s="68"/>
-      <c r="E99" s="77" t="s">
-        <v>4002</v>
-      </c>
-      <c r="I99" s="27" t="s">
-        <v>3993</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C100" s="68"/>
-      <c r="E100" s="77" t="s">
-        <v>4001</v>
-      </c>
-      <c r="I100" s="27" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="75" t="s">
-        <v>4003</v>
-      </c>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102" s="27" t="s">
-        <v>4018</v>
-      </c>
-      <c r="C102" s="68"/>
-      <c r="E102" s="77"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C103" s="68"/>
-      <c r="E103" s="77"/>
-      <c r="I103" s="34" t="s">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C104" s="68"/>
-      <c r="E104" s="77"/>
-      <c r="I104" s="34" t="s">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C105" s="68"/>
-      <c r="E105" s="77"/>
-      <c r="I105" s="34" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106" s="27" t="s">
-        <v>3984</v>
-      </c>
-      <c r="C106" s="68"/>
-      <c r="E106" s="76" t="s">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A107" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="C107" s="68"/>
-      <c r="E107" s="76" t="s">
-        <v>4020</v>
-      </c>
-      <c r="I107" s="34" t="s">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C108" s="68"/>
-      <c r="E108" s="76" t="s">
-        <v>4021</v>
-      </c>
-      <c r="I108" s="34" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="75"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="71" t="s">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A110" s="27" t="s">
-        <v>4005</v>
-      </c>
-      <c r="C110" s="68"/>
-      <c r="E110" s="77"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A111" s="27" t="s">
-        <v>4006</v>
-      </c>
-      <c r="C111" s="68"/>
-      <c r="E111" s="77"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C112" s="68"/>
-      <c r="E112" s="77"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C113" s="68"/>
-      <c r="E113" s="77"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C114" s="68"/>
-      <c r="E114" s="77"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C115" s="68"/>
-      <c r="E115" s="77"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C116" s="68"/>
-      <c r="E116" s="76" t="s">
-        <v>4009</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C117" s="68"/>
-      <c r="E117" s="76" t="s">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C118" s="68"/>
-      <c r="E118" s="76" t="s">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A119" s="61" t="s">
-        <v>4010</v>
-      </c>
-      <c r="B119" s="61"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="61"/>
-      <c r="E119" s="80"/>
-      <c r="F119" s="61"/>
-      <c r="G119" s="61"/>
-      <c r="H119" s="61"/>
-      <c r="I119" s="61"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="40"/>
-      <c r="E120" s="76"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="64"/>
-      <c r="H121" s="64"/>
-      <c r="I121" s="64"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="10" t="s">
-        <v>4013</v>
-      </c>
-      <c r="F123" s="64"/>
-      <c r="G123" s="64"/>
-      <c r="H123" s="64"/>
-      <c r="I123" s="64"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C124" s="68"/>
-      <c r="E124" s="76" t="s">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C125" s="68"/>
-      <c r="E125" s="76" t="s">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C126" s="68"/>
-      <c r="E126" s="76"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A127" s="61" t="s">
-        <v>4014</v>
-      </c>
-      <c r="B127" s="61"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="80"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="61"/>
-      <c r="I127" s="61"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C128" s="68"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="64"/>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C129" s="68"/>
-      <c r="E129" s="76"/>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C130" s="68"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="78"/>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C131" s="68"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="78"/>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C132" s="68"/>
-      <c r="E132" s="76" t="s">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C133" s="68"/>
-      <c r="E133" s="76" t="s">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C134" s="68"/>
-      <c r="E134" s="76" t="s">
-        <v>4017</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -50920,31 +51497,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882C1FE-BC45-4FCD-A08C-67DB8BD38111}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50960,4 +51528,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882C1FE-BC45-4FCD-A08C-67DB8BD38111}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="6_{52BE2F94-A572-4139-8A44-E2C7CC3DCFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A669D62-8455-458E-ABDD-7895442CFFE1}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="6_{52BE2F94-A572-4139-8A44-E2C7CC3DCFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4B191D7-0CFB-4D74-A7BA-BE878DA86864}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="780" windowWidth="19477" windowHeight="13148" firstSheet="3" activeTab="10" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="817" yWindow="1215" windowWidth="19478" windowHeight="13147" firstSheet="3" activeTab="3" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1 (2010-2014)" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1 (2000-2014)" sheetId="1" r:id="rId3"/>
-    <sheet name="table1" sheetId="6" r:id="rId4"/>
+    <sheet name="table1" sheetId="16" r:id="rId4"/>
     <sheet name="table2" sheetId="9" r:id="rId5"/>
     <sheet name="Supp3" sheetId="11" r:id="rId6"/>
     <sheet name="Supp4" sheetId="12" r:id="rId7"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="4650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="4652">
   <si>
     <t>Variable</t>
   </si>
@@ -11589,24 +11589,6 @@
     <t>5495561.7 (33.1)</t>
   </si>
   <si>
-    <t>2765641.4 (39.0)</t>
-  </si>
-  <si>
-    <t>4329870.3 (61.0)</t>
-  </si>
-  <si>
-    <t>3861770.7 (38.8)</t>
-  </si>
-  <si>
-    <t>6092283.1 (61.2)</t>
-  </si>
-  <si>
-    <t>8827390.3 (34.7)</t>
-  </si>
-  <si>
-    <t>16628904.6 (65.3)</t>
-  </si>
-  <si>
     <t>96992.3 (4.7)</t>
   </si>
   <si>
@@ -11619,31 +11601,16 @@
     <t>BMI Median (IQR)</t>
   </si>
   <si>
-    <t>65.00 [18.00, 85.00]</t>
-  </si>
-  <si>
-    <t>55.00 [18.00, 85.00]</t>
-  </si>
-  <si>
     <t>29.80 [16.10, 53.90]</t>
   </si>
   <si>
     <t>31.10 [17.30, 54.50]</t>
   </si>
   <si>
-    <t>68.00 [18.00, 85.00]</t>
-  </si>
-  <si>
     <t>27.40 [14.80, 55.30]</t>
   </si>
   <si>
     <t>28.20 [15.70, 54.50]</t>
-  </si>
-  <si>
-    <t>53.00 [18.00, 85.00]</t>
-  </si>
-  <si>
-    <t>64.00 [18.00, 85.00]</t>
   </si>
   <si>
     <t>28.10 [14.80, 55.30]</t>
@@ -14053,6 +14020,45 @@
   </si>
   <si>
     <t>410375.3 (5.2)</t>
+  </si>
+  <si>
+    <t>Female Sex</t>
+  </si>
+  <si>
+    <t>1872888.6 (19.9)</t>
+  </si>
+  <si>
+    <t>7521527.8 (80.1)</t>
+  </si>
+  <si>
+    <t>4311920.2 (19.1)</t>
+  </si>
+  <si>
+    <t>18276849.2 (80.9)</t>
+  </si>
+  <si>
+    <t>10364659.4 (17.2)</t>
+  </si>
+  <si>
+    <t>49886713.8 (82.8)</t>
+  </si>
+  <si>
+    <t>64.00 [54.00, 73.00]</t>
+  </si>
+  <si>
+    <t>55.00 [46.00, 63.00]</t>
+  </si>
+  <si>
+    <t>55.00 [45.00, 65.00]</t>
+  </si>
+  <si>
+    <t>67.00 [54.00, 77.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62.00 [50.00, 74.00]</t>
+  </si>
+  <si>
+    <t>53.00 [42.00, 62.00]</t>
   </si>
 </sst>
 </file>
@@ -14250,7 +14256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -14382,14 +14388,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14412,7 +14412,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -14539,6 +14538,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14549,6 +14551,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14932,41 +14937,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="6"/>
       <c r="G1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="6"/>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="104" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="106"/>
+      <c r="M1" s="104"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="106" t="s">
+      <c r="Q1" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="R1" s="106"/>
+      <c r="R1" s="104"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="106" t="s">
+      <c r="V1" s="104" t="s">
         <v>646</v>
       </c>
-      <c r="W1" s="106"/>
+      <c r="W1" s="104"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="106" t="s">
+      <c r="AA1" s="104" t="s">
         <v>647</v>
       </c>
-      <c r="AB1" s="106"/>
+      <c r="AB1" s="104"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="106" t="s">
+      <c r="AF1" s="104" t="s">
         <v>656</v>
       </c>
-      <c r="AG1" s="106"/>
+      <c r="AG1" s="104"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="24" t="s">
         <v>1042</v>
@@ -24709,569 +24714,569 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="63" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="63"/>
-    <col min="6" max="6" width="22.19921875" style="63" customWidth="1"/>
-    <col min="7" max="7" width="24.1328125" style="63" customWidth="1"/>
-    <col min="8" max="8" width="16.73046875" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="63"/>
+    <col min="1" max="1" width="19.73046875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="60"/>
+    <col min="6" max="6" width="22.19921875" style="60" customWidth="1"/>
+    <col min="7" max="7" width="24.1328125" style="60" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="60"/>
     <col min="10" max="16384" width="9.06640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B1" s="63" t="s">
-        <v>4260</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>4262</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>4261</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>4263</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>4264</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>4265</v>
+      <c r="B1" s="60" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>4250</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>4252</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>4253</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>4254</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>3660</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="95" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>4126</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>4603</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>4371</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>4135</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>4137</v>
-      </c>
-      <c r="D2" s="99" t="s">
+      <c r="H2" s="95" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="91" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>4562</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>4604</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>4372</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>4410</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="91" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>4583</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>4605</v>
+      </c>
+      <c r="F4" s="97" t="s">
+        <v>4373</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>4411</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="91" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>4606</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>4374</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>4412</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="91" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>4585</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>4607</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>4375</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>4413</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="91" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>4608</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>4376</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>4414</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="91" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>4609</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>4377</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>4415</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="91" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>4568</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>4588</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>4610</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>4378</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>4416</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="91" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>4589</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>4379</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>4417</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>4612</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>4380</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>4418</v>
+      </c>
+      <c r="H11" s="95" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="91" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>4591</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>4613</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>4381</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>4419</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="91" t="s">
+        <v>4627</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D13" s="95" t="s">
         <v>4614</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F13" s="97" t="s">
         <v>4382</v>
       </c>
-      <c r="G2" s="98" t="s">
-        <v>4146</v>
-      </c>
-      <c r="H2" s="98" t="s">
-        <v>4149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="94" t="s">
-        <v>3672</v>
-      </c>
-      <c r="B3" s="98" t="s">
+      <c r="G13" s="95" t="s">
+        <v>4420</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="91" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B14" s="96" t="s">
         <v>4573</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C14" s="96" t="s">
         <v>4593</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D14" s="96" t="s">
         <v>4615</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F14" s="98" t="s">
         <v>4383</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G14" s="96" t="s">
         <v>4421</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H14" s="96" t="s">
         <v>4402</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
-        <v>4636</v>
-      </c>
-      <c r="B4" s="98" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="91" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B15" s="96" t="s">
         <v>4574</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C15" s="96" t="s">
         <v>4594</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D15" s="96" t="s">
         <v>4616</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F15" s="97" t="s">
         <v>4384</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G15" s="95" t="s">
         <v>4422</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H15" s="96" t="s">
         <v>4403</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="94" t="s">
-        <v>4267</v>
-      </c>
-      <c r="B5" s="98" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="91" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B16" s="96" t="s">
         <v>4575</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C16" s="96" t="s">
         <v>4595</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D16" s="96" t="s">
         <v>4617</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F16" s="98" t="s">
         <v>4385</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G16" s="96" t="s">
         <v>4423</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H16" s="96" t="s">
         <v>4404</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="94" t="s">
-        <v>4642</v>
-      </c>
-      <c r="B6" s="98" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="91" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B17" s="96" t="s">
         <v>4576</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C17" s="96" t="s">
         <v>4596</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D17" s="96" t="s">
         <v>4618</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F17" s="97" t="s">
         <v>4386</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G17" s="95" t="s">
         <v>4424</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H17" s="96" t="s">
         <v>4405</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="94" t="s">
-        <v>4644</v>
-      </c>
-      <c r="B7" s="98" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="91" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B18" s="95" t="s">
         <v>4577</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C18" s="95" t="s">
         <v>4597</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D18" s="95" t="s">
         <v>4619</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F18" s="97" t="s">
         <v>4387</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G18" s="95" t="s">
         <v>4425</v>
       </c>
-      <c r="H7" s="99" t="s">
+      <c r="H18" s="96" t="s">
         <v>4406</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="94" t="s">
-        <v>4645</v>
-      </c>
-      <c r="B8" s="98" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="91" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B19" s="96" t="s">
         <v>4578</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C19" s="95" t="s">
         <v>4598</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D19" s="95" t="s">
         <v>4620</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F19" s="98" t="s">
         <v>4388</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G19" s="96" t="s">
         <v>4426</v>
       </c>
-      <c r="H8" s="99" t="s">
+      <c r="H19" s="96" t="s">
         <v>4407</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="94" t="s">
-        <v>4646</v>
-      </c>
-      <c r="B9" s="98" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="91" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>4621</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>4389</v>
+      </c>
+      <c r="G20" s="95" t="s">
+        <v>4427</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="91" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B21" s="96" t="s">
         <v>4579</v>
       </c>
-      <c r="C9" s="98" t="s">
-        <v>4599</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>4621</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>4389</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>4427</v>
-      </c>
-      <c r="H9" s="99" t="s">
-        <v>4408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="94" t="s">
-        <v>4647</v>
-      </c>
-      <c r="B10" s="98" t="s">
+      <c r="C21" s="96" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>4622</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>4390</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>4428</v>
+      </c>
+      <c r="H21" s="98" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="91" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B22" s="95" t="s">
         <v>4580</v>
       </c>
-      <c r="C10" s="98" t="s">
-        <v>4600</v>
-      </c>
-      <c r="D10" s="98" t="s">
-        <v>4622</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>4390</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>4428</v>
-      </c>
-      <c r="H10" s="99" t="s">
-        <v>4409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="94" t="s">
-        <v>4643</v>
-      </c>
-      <c r="B11" s="98" t="s">
+      <c r="C22" s="95" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>4623</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="91" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B23" s="97" t="s">
         <v>4581</v>
       </c>
-      <c r="C11" s="98" t="s">
-        <v>4601</v>
-      </c>
-      <c r="D11" s="98" t="s">
-        <v>4623</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>4391</v>
-      </c>
-      <c r="G11" s="98" t="s">
-        <v>4429</v>
-      </c>
-      <c r="H11" s="98" t="s">
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="94" t="s">
-        <v>4637</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>4582</v>
-      </c>
-      <c r="C12" s="98" t="s">
+      <c r="C23" s="97" t="s">
         <v>4602</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D23" s="97" t="s">
         <v>4624</v>
       </c>
-      <c r="F12" s="100" t="s">
-        <v>4392</v>
-      </c>
-      <c r="G12" s="99" t="s">
-        <v>4430</v>
-      </c>
-      <c r="H12" s="99" t="s">
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="94" t="s">
-        <v>4638</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>4583</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>4603</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>4625</v>
-      </c>
-      <c r="F13" s="100" t="s">
-        <v>4393</v>
-      </c>
-      <c r="G13" s="98" t="s">
-        <v>4431</v>
-      </c>
-      <c r="H13" s="99" t="s">
-        <v>4412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="94" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>4584</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>4604</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>4626</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>4394</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>4432</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>4413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="94" t="s">
-        <v>3727</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>4585</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>4605</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>4627</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>4395</v>
-      </c>
-      <c r="G15" s="98" t="s">
-        <v>4433</v>
-      </c>
-      <c r="H15" s="99" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="94" t="s">
-        <v>3671</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>4586</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>4606</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>4628</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>4396</v>
-      </c>
-      <c r="G16" s="99" t="s">
-        <v>4434</v>
-      </c>
-      <c r="H16" s="99" t="s">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="94" t="s">
-        <v>3666</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>4587</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>4607</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>4629</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>4397</v>
-      </c>
-      <c r="G17" s="98" t="s">
-        <v>4435</v>
-      </c>
-      <c r="H17" s="99" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="94" t="s">
-        <v>4266</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>4588</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>4608</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>4630</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>4398</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>4436</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="94" t="s">
-        <v>4639</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>4589</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>4609</v>
-      </c>
-      <c r="D19" s="98" t="s">
-        <v>4631</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>4399</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>4437</v>
-      </c>
-      <c r="H19" s="99" t="s">
-        <v>4418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="94" t="s">
-        <v>3669</v>
-      </c>
-      <c r="B20" s="98" t="s">
-        <v>3880</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>4610</v>
-      </c>
-      <c r="D20" s="98" t="s">
-        <v>4632</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>4400</v>
-      </c>
-      <c r="G20" s="98" t="s">
-        <v>4438</v>
-      </c>
-      <c r="H20" s="98" t="s">
-        <v>4419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="94" t="s">
-        <v>3671</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>4590</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>4611</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>4633</v>
-      </c>
-      <c r="F21" s="101" t="s">
-        <v>4401</v>
-      </c>
-      <c r="G21" s="100" t="s">
-        <v>4439</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="94" t="s">
-        <v>3659</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>4591</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>4612</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>4634</v>
-      </c>
-      <c r="F22" s="103" t="s">
+      <c r="F23" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="102" t="s">
+      <c r="G23" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H23" s="99" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="94" t="s">
-        <v>4640</v>
-      </c>
-      <c r="B23" s="100" t="s">
-        <v>4592</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>4613</v>
-      </c>
-      <c r="D23" s="100" t="s">
-        <v>4635</v>
-      </c>
-      <c r="F23" s="104" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="91"/>
+      <c r="F24" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="102" t="s">
+      <c r="G24" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="102" t="s">
+      <c r="H24" s="99" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="94"/>
-      <c r="F24" s="102" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="102" t="s">
+      <c r="D25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="102" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="99" t="s">
         <v>93</v>
       </c>
     </row>
@@ -25284,7 +25289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED4C5A6-F533-4C13-ACF9-63B92CA7B247}">
   <dimension ref="A1:AY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -25295,594 +25300,594 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C1" s="79" t="s">
-        <v>3905</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>3935</v>
-      </c>
-      <c r="P1" s="79" t="s">
-        <v>3969</v>
-      </c>
-      <c r="W1" s="79" t="s">
-        <v>4000</v>
-      </c>
-      <c r="AE1" s="79" t="s">
-        <v>4022</v>
-      </c>
-      <c r="AN1" s="79" t="s">
-        <v>4066</v>
+      <c r="C1" s="76" t="s">
+        <v>3894</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>3924</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>3958</v>
+      </c>
+      <c r="W1" s="76" t="s">
+        <v>3989</v>
+      </c>
+      <c r="AE1" s="76" t="s">
+        <v>4011</v>
+      </c>
+      <c r="AN1" s="76" t="s">
+        <v>4055</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C2" s="79" t="s">
-        <v>3906</v>
-      </c>
-      <c r="I2" s="79" t="s">
-        <v>3936</v>
-      </c>
-      <c r="P2" s="79" t="s">
-        <v>3970</v>
-      </c>
-      <c r="W2" s="79" t="s">
-        <v>4001</v>
-      </c>
-      <c r="AE2" s="79" t="s">
-        <v>4023</v>
-      </c>
-      <c r="AN2" s="79" t="s">
-        <v>4067</v>
+      <c r="C2" s="76" t="s">
+        <v>3895</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>3925</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>3959</v>
+      </c>
+      <c r="W2" s="76" t="s">
+        <v>3990</v>
+      </c>
+      <c r="AE2" s="76" t="s">
+        <v>4012</v>
+      </c>
+      <c r="AN2" s="76" t="s">
+        <v>4056</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3925</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>3907</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>3937</v>
-      </c>
-      <c r="P3" s="79" t="s">
-        <v>3971</v>
-      </c>
-      <c r="W3" s="79" t="s">
-        <v>4002</v>
-      </c>
-      <c r="AE3" s="79" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>3896</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>3926</v>
+      </c>
+      <c r="P3" s="76" t="s">
+        <v>3960</v>
+      </c>
+      <c r="W3" s="76" t="s">
+        <v>3991</v>
+      </c>
+      <c r="AE3" s="76" t="s">
+        <v>4013</v>
+      </c>
+      <c r="AN3" s="76" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="C4" s="76" t="s">
+        <v>3897</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>3927</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>3961</v>
+      </c>
+      <c r="W4" s="76" t="s">
+        <v>3992</v>
+      </c>
+      <c r="AE4" s="76" t="s">
+        <v>4014</v>
+      </c>
+      <c r="AN4" s="76" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="C5" s="76" t="s">
+        <v>3898</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>3928</v>
+      </c>
+      <c r="P5" s="76" t="s">
+        <v>3962</v>
+      </c>
+      <c r="W5" s="76" t="s">
+        <v>3993</v>
+      </c>
+      <c r="AE5" s="76" t="s">
+        <v>4015</v>
+      </c>
+      <c r="AN5" s="76" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="C6" s="76" t="s">
+        <v>3899</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>3929</v>
+      </c>
+      <c r="P6" s="76" t="s">
+        <v>3963</v>
+      </c>
+      <c r="W6" s="76" t="s">
+        <v>3994</v>
+      </c>
+      <c r="AE6" s="76" t="s">
+        <v>4016</v>
+      </c>
+      <c r="AN6" s="76" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="C7" s="76" t="s">
+        <v>3900</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>3930</v>
+      </c>
+      <c r="P7" s="76" t="s">
+        <v>3964</v>
+      </c>
+      <c r="W7" s="76" t="s">
+        <v>3995</v>
+      </c>
+      <c r="AE7" s="76" t="s">
+        <v>4017</v>
+      </c>
+      <c r="AN7" s="76" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="C8" s="76" t="s">
+        <v>3901</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>3931</v>
+      </c>
+      <c r="P8" s="76" t="s">
+        <v>3965</v>
+      </c>
+      <c r="W8" s="76" t="s">
+        <v>3996</v>
+      </c>
+      <c r="AE8" s="76" t="s">
+        <v>4018</v>
+      </c>
+      <c r="AN8" s="76" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="C9" s="76" t="s">
+        <v>3902</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>3932</v>
+      </c>
+      <c r="P9" s="76" t="s">
+        <v>3966</v>
+      </c>
+      <c r="W9" s="76" t="s">
+        <v>3997</v>
+      </c>
+      <c r="AE9" s="76" t="s">
+        <v>4019</v>
+      </c>
+      <c r="AN9" s="76" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="C10" s="77" t="s">
+        <v>3903</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>3933</v>
+      </c>
+      <c r="P10" s="77" t="s">
+        <v>3967</v>
+      </c>
+      <c r="W10" s="76" t="s">
+        <v>3998</v>
+      </c>
+      <c r="AE10" s="76" t="s">
+        <v>4020</v>
+      </c>
+      <c r="AN10" s="76" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="I11" s="77" t="s">
+        <v>3934</v>
+      </c>
+      <c r="W11" s="77" t="s">
+        <v>3999</v>
+      </c>
+      <c r="AE11" s="77" t="s">
+        <v>4021</v>
+      </c>
+      <c r="AN11" s="77" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="81"/>
+    </row>
+    <row r="14" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C14" s="76" t="s">
+        <v>3904</v>
+      </c>
+      <c r="I14" s="76" t="s">
+        <v>3935</v>
+      </c>
+      <c r="P14" s="76" t="s">
+        <v>3968</v>
+      </c>
+      <c r="W14" s="76" t="s">
+        <v>4023</v>
+      </c>
+      <c r="AE14" s="82" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="76" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C15" s="76" t="s">
+        <v>3905</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>3936</v>
+      </c>
+      <c r="P15" s="76" t="s">
+        <v>3969</v>
+      </c>
+      <c r="W15" s="76" t="s">
         <v>4024</v>
       </c>
-      <c r="AN3" s="79" t="s">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C4" s="79" t="s">
-        <v>3908</v>
-      </c>
-      <c r="I4" s="79" t="s">
-        <v>3938</v>
-      </c>
-      <c r="P4" s="79" t="s">
-        <v>3972</v>
-      </c>
-      <c r="W4" s="79" t="s">
-        <v>4003</v>
-      </c>
-      <c r="AE4" s="79" t="s">
-        <v>4025</v>
-      </c>
-      <c r="AN4" s="79" t="s">
-        <v>4069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C5" s="79" t="s">
-        <v>3909</v>
-      </c>
-      <c r="I5" s="79" t="s">
-        <v>3939</v>
-      </c>
-      <c r="P5" s="79" t="s">
-        <v>3973</v>
-      </c>
-      <c r="W5" s="79" t="s">
-        <v>4004</v>
-      </c>
-      <c r="AE5" s="79" t="s">
-        <v>4026</v>
-      </c>
-      <c r="AN5" s="79" t="s">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C6" s="79" t="s">
-        <v>3910</v>
-      </c>
-      <c r="I6" s="79" t="s">
-        <v>3940</v>
-      </c>
-      <c r="P6" s="79" t="s">
-        <v>3974</v>
-      </c>
-      <c r="W6" s="79" t="s">
-        <v>4005</v>
-      </c>
-      <c r="AE6" s="79" t="s">
-        <v>4027</v>
-      </c>
-      <c r="AN6" s="79" t="s">
-        <v>4071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C7" s="79" t="s">
-        <v>3911</v>
-      </c>
-      <c r="I7" s="79" t="s">
-        <v>3941</v>
-      </c>
-      <c r="P7" s="79" t="s">
-        <v>3975</v>
-      </c>
-      <c r="W7" s="79" t="s">
-        <v>4006</v>
-      </c>
-      <c r="AE7" s="79" t="s">
-        <v>4028</v>
-      </c>
-      <c r="AN7" s="79" t="s">
-        <v>4072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C8" s="79" t="s">
-        <v>3912</v>
-      </c>
-      <c r="I8" s="79" t="s">
-        <v>3942</v>
-      </c>
-      <c r="P8" s="79" t="s">
-        <v>3976</v>
-      </c>
-      <c r="W8" s="79" t="s">
-        <v>4007</v>
-      </c>
-      <c r="AE8" s="79" t="s">
-        <v>4029</v>
-      </c>
-      <c r="AN8" s="79" t="s">
-        <v>4073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C9" s="79" t="s">
-        <v>3913</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>3943</v>
-      </c>
-      <c r="P9" s="79" t="s">
-        <v>3977</v>
-      </c>
-      <c r="W9" s="79" t="s">
-        <v>4008</v>
-      </c>
-      <c r="AE9" s="79" t="s">
-        <v>4030</v>
-      </c>
-      <c r="AN9" s="79" t="s">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C10" s="80" t="s">
-        <v>3914</v>
-      </c>
-      <c r="I10" s="79" t="s">
-        <v>3944</v>
-      </c>
-      <c r="P10" s="80" t="s">
-        <v>3978</v>
-      </c>
-      <c r="W10" s="79" t="s">
-        <v>4009</v>
-      </c>
-      <c r="AE10" s="79" t="s">
-        <v>4031</v>
-      </c>
-      <c r="AN10" s="79" t="s">
-        <v>4075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="I11" s="80" t="s">
-        <v>3945</v>
-      </c>
-      <c r="W11" s="80" t="s">
-        <v>4010</v>
-      </c>
-      <c r="AE11" s="80" t="s">
-        <v>4032</v>
-      </c>
-      <c r="AN11" s="80" t="s">
-        <v>4076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-    </row>
-    <row r="14" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C14" s="79" t="s">
-        <v>3915</v>
-      </c>
-      <c r="I14" s="79" t="s">
-        <v>3946</v>
-      </c>
-      <c r="P14" s="79" t="s">
-        <v>3979</v>
-      </c>
-      <c r="W14" s="79" t="s">
-        <v>4034</v>
-      </c>
-      <c r="AE14" s="85" t="s">
-        <v>4046</v>
-      </c>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="79" t="s">
-        <v>4077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="79" t="s">
-        <v>3916</v>
-      </c>
-      <c r="I15" s="79" t="s">
-        <v>3947</v>
-      </c>
-      <c r="P15" s="79" t="s">
-        <v>3980</v>
-      </c>
-      <c r="W15" s="79" t="s">
-        <v>4035</v>
-      </c>
-      <c r="AE15" s="85" t="s">
-        <v>4047</v>
-      </c>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="79" t="s">
-        <v>4078</v>
+      <c r="AE15" s="82" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="76" t="s">
+        <v>4067</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3686</v>
       </c>
-      <c r="C16" s="79" t="s">
-        <v>3917</v>
-      </c>
-      <c r="I16" s="79" t="s">
+      <c r="C16" s="76" t="s">
+        <v>3906</v>
+      </c>
+      <c r="I16" s="76" t="s">
+        <v>3937</v>
+      </c>
+      <c r="P16" s="76" t="s">
+        <v>3970</v>
+      </c>
+      <c r="W16" s="76" t="s">
+        <v>4025</v>
+      </c>
+      <c r="AE16" s="82" t="s">
+        <v>4037</v>
+      </c>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="76" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C17" s="76" t="s">
+        <v>3907</v>
+      </c>
+      <c r="I17" s="76" t="s">
+        <v>3938</v>
+      </c>
+      <c r="P17" s="76" t="s">
+        <v>3971</v>
+      </c>
+      <c r="W17" s="76" t="s">
+        <v>4026</v>
+      </c>
+      <c r="AE17" s="82" t="s">
+        <v>4038</v>
+      </c>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="76" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C18" s="76" t="s">
+        <v>3908</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>3939</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>3972</v>
+      </c>
+      <c r="W18" s="76" t="s">
+        <v>4027</v>
+      </c>
+      <c r="AE18" s="82" t="s">
+        <v>4039</v>
+      </c>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="76" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C19" s="76" t="s">
+        <v>3909</v>
+      </c>
+      <c r="I19" s="76" t="s">
+        <v>3940</v>
+      </c>
+      <c r="P19" s="76" t="s">
+        <v>3973</v>
+      </c>
+      <c r="W19" s="76" t="s">
+        <v>4028</v>
+      </c>
+      <c r="AE19" s="82" t="s">
+        <v>4040</v>
+      </c>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="83"/>
+      <c r="AN19" s="76" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C20" s="76" t="s">
+        <v>3910</v>
+      </c>
+      <c r="I20" s="76" t="s">
+        <v>3941</v>
+      </c>
+      <c r="P20" s="76" t="s">
+        <v>3974</v>
+      </c>
+      <c r="W20" s="76" t="s">
+        <v>4029</v>
+      </c>
+      <c r="AE20" s="82" t="s">
+        <v>4041</v>
+      </c>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="83"/>
+      <c r="AJ20" s="83"/>
+      <c r="AK20" s="83"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="83"/>
+      <c r="AN20" s="76" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C21" s="76" t="s">
+        <v>3911</v>
+      </c>
+      <c r="I21" s="76" t="s">
+        <v>3942</v>
+      </c>
+      <c r="P21" s="76" t="s">
+        <v>3975</v>
+      </c>
+      <c r="W21" s="76" t="s">
+        <v>4030</v>
+      </c>
+      <c r="AE21" s="82" t="s">
+        <v>4042</v>
+      </c>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="76" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C22" s="76" t="s">
+        <v>3912</v>
+      </c>
+      <c r="I22" s="76" t="s">
+        <v>3943</v>
+      </c>
+      <c r="P22" s="76" t="s">
+        <v>3976</v>
+      </c>
+      <c r="W22" s="76" t="s">
+        <v>4031</v>
+      </c>
+      <c r="AE22" s="82" t="s">
+        <v>4043</v>
+      </c>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83"/>
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="76" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C23" s="77" t="s">
+        <v>3913</v>
+      </c>
+      <c r="I23" s="76" t="s">
+        <v>3944</v>
+      </c>
+      <c r="P23" s="76" t="s">
+        <v>3977</v>
+      </c>
+      <c r="W23" s="76" t="s">
+        <v>4032</v>
+      </c>
+      <c r="AE23" s="82" t="s">
+        <v>4044</v>
+      </c>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="83"/>
+      <c r="AN23" s="76" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="C24" s="77"/>
+      <c r="I24" s="76" t="s">
+        <v>3945</v>
+      </c>
+      <c r="P24" s="77" t="s">
+        <v>3978</v>
+      </c>
+      <c r="W24" s="76" t="s">
+        <v>4033</v>
+      </c>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+      <c r="AK24" s="83"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
+      <c r="AN24" s="76" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="I25" s="77" t="s">
+        <v>3946</v>
+      </c>
+      <c r="W25" s="77" t="s">
+        <v>4034</v>
+      </c>
+      <c r="AE25" s="85" t="s">
+        <v>4010</v>
+      </c>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="83"/>
+      <c r="AN25" s="77" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="C27" s="76" t="s">
+        <v>3915</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>3947</v>
+      </c>
+      <c r="P27" s="76" t="s">
+        <v>3979</v>
+      </c>
+      <c r="W27" s="76" t="s">
+        <v>4022</v>
+      </c>
+      <c r="AE27" s="76" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="C28" s="76" t="s">
+        <v>3916</v>
+      </c>
+      <c r="I28" s="76" t="s">
         <v>3948</v>
       </c>
-      <c r="P16" s="79" t="s">
-        <v>3981</v>
-      </c>
-      <c r="W16" s="79" t="s">
-        <v>4036</v>
-      </c>
-      <c r="AE16" s="85" t="s">
-        <v>4048</v>
-      </c>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="86"/>
-      <c r="AK16" s="86"/>
-      <c r="AL16" s="86"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="79" t="s">
-        <v>4079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C17" s="79" t="s">
-        <v>3918</v>
-      </c>
-      <c r="I17" s="79" t="s">
-        <v>3949</v>
-      </c>
-      <c r="P17" s="79" t="s">
-        <v>3982</v>
-      </c>
-      <c r="W17" s="79" t="s">
-        <v>4037</v>
-      </c>
-      <c r="AE17" s="85" t="s">
-        <v>4049</v>
-      </c>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="86"/>
-      <c r="AK17" s="86"/>
-      <c r="AL17" s="86"/>
-      <c r="AM17" s="86"/>
-      <c r="AN17" s="79" t="s">
-        <v>4080</v>
-      </c>
-    </row>
-    <row r="18" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C18" s="79" t="s">
-        <v>3919</v>
-      </c>
-      <c r="I18" s="79" t="s">
-        <v>3950</v>
-      </c>
-      <c r="P18" s="79" t="s">
-        <v>3983</v>
-      </c>
-      <c r="W18" s="79" t="s">
-        <v>4038</v>
-      </c>
-      <c r="AE18" s="85" t="s">
-        <v>4050</v>
-      </c>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="86"/>
-      <c r="AL18" s="86"/>
-      <c r="AM18" s="86"/>
-      <c r="AN18" s="79" t="s">
-        <v>4081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C19" s="79" t="s">
-        <v>3920</v>
-      </c>
-      <c r="I19" s="79" t="s">
-        <v>3951</v>
-      </c>
-      <c r="P19" s="79" t="s">
-        <v>3984</v>
-      </c>
-      <c r="W19" s="79" t="s">
-        <v>4039</v>
-      </c>
-      <c r="AE19" s="85" t="s">
-        <v>4051</v>
-      </c>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="86"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="79" t="s">
-        <v>4082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C20" s="79" t="s">
-        <v>3921</v>
-      </c>
-      <c r="I20" s="79" t="s">
-        <v>3952</v>
-      </c>
-      <c r="P20" s="79" t="s">
-        <v>3985</v>
-      </c>
-      <c r="W20" s="79" t="s">
-        <v>4040</v>
-      </c>
-      <c r="AE20" s="85" t="s">
-        <v>4052</v>
-      </c>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="79" t="s">
-        <v>4083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C21" s="79" t="s">
-        <v>3922</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>3953</v>
-      </c>
-      <c r="P21" s="79" t="s">
-        <v>3986</v>
-      </c>
-      <c r="W21" s="79" t="s">
-        <v>4041</v>
-      </c>
-      <c r="AE21" s="85" t="s">
-        <v>4053</v>
-      </c>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="86"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="79" t="s">
-        <v>4084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C22" s="79" t="s">
-        <v>3923</v>
-      </c>
-      <c r="I22" s="79" t="s">
-        <v>3954</v>
-      </c>
-      <c r="P22" s="79" t="s">
-        <v>3987</v>
-      </c>
-      <c r="W22" s="79" t="s">
-        <v>4042</v>
-      </c>
-      <c r="AE22" s="85" t="s">
-        <v>4054</v>
-      </c>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="86"/>
-      <c r="AK22" s="86"/>
-      <c r="AL22" s="86"/>
-      <c r="AM22" s="86"/>
-      <c r="AN22" s="79" t="s">
-        <v>4085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C23" s="80" t="s">
-        <v>3924</v>
-      </c>
-      <c r="I23" s="79" t="s">
-        <v>3955</v>
-      </c>
-      <c r="P23" s="79" t="s">
-        <v>3988</v>
-      </c>
-      <c r="W23" s="79" t="s">
-        <v>4043</v>
-      </c>
-      <c r="AE23" s="85" t="s">
-        <v>4055</v>
-      </c>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="86"/>
-      <c r="AN23" s="79" t="s">
-        <v>4086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C24" s="80"/>
-      <c r="I24" s="79" t="s">
-        <v>3956</v>
-      </c>
-      <c r="P24" s="80" t="s">
-        <v>3989</v>
-      </c>
-      <c r="W24" s="79" t="s">
-        <v>4044</v>
-      </c>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="86"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="86"/>
-      <c r="AJ24" s="86"/>
-      <c r="AK24" s="86"/>
-      <c r="AL24" s="86"/>
-      <c r="AM24" s="86"/>
-      <c r="AN24" s="79" t="s">
-        <v>4087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="I25" s="80" t="s">
-        <v>3957</v>
-      </c>
-      <c r="W25" s="80" t="s">
-        <v>4045</v>
-      </c>
-      <c r="AE25" s="88" t="s">
-        <v>4021</v>
-      </c>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="86"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="80" t="s">
-        <v>4088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C27" s="79" t="s">
-        <v>3926</v>
-      </c>
-      <c r="I27" s="79" t="s">
-        <v>3958</v>
-      </c>
-      <c r="P27" s="79" t="s">
-        <v>3990</v>
-      </c>
-      <c r="W27" s="79" t="s">
-        <v>4033</v>
-      </c>
-      <c r="AE27" s="79" t="s">
-        <v>4056</v>
-      </c>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C28" s="79" t="s">
-        <v>3927</v>
-      </c>
-      <c r="I28" s="79" t="s">
-        <v>3959</v>
-      </c>
-      <c r="P28" s="79" t="s">
-        <v>3991</v>
-      </c>
-      <c r="W28" s="79" t="s">
-        <v>4011</v>
-      </c>
-      <c r="AE28" s="79" t="s">
-        <v>4057</v>
+      <c r="P28" s="76" t="s">
+        <v>3980</v>
+      </c>
+      <c r="W28" s="76" t="s">
+        <v>4000</v>
+      </c>
+      <c r="AE28" s="76" t="s">
+        <v>4046</v>
       </c>
       <c r="AN28" s="27"/>
       <c r="AO28" s="27"/>
@@ -25899,25 +25904,25 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>3934</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>3928</v>
-      </c>
-      <c r="I29" s="79" t="s">
-        <v>3960</v>
-      </c>
-      <c r="P29" s="79" t="s">
-        <v>3992</v>
-      </c>
-      <c r="W29" s="79" t="s">
-        <v>4012</v>
-      </c>
-      <c r="AE29" s="79" t="s">
-        <v>4058</v>
-      </c>
-      <c r="AN29" s="89" t="s">
-        <v>4089</v>
+        <v>3923</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>3917</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>3949</v>
+      </c>
+      <c r="P29" s="76" t="s">
+        <v>3981</v>
+      </c>
+      <c r="W29" s="76" t="s">
+        <v>4001</v>
+      </c>
+      <c r="AE29" s="76" t="s">
+        <v>4047</v>
+      </c>
+      <c r="AN29" s="86" t="s">
+        <v>4078</v>
       </c>
       <c r="AO29" s="27"/>
       <c r="AP29" s="27"/>
@@ -25932,23 +25937,23 @@
       <c r="AY29" s="27"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C30" s="79" t="s">
-        <v>3929</v>
-      </c>
-      <c r="I30" s="79" t="s">
-        <v>3961</v>
-      </c>
-      <c r="P30" s="79" t="s">
-        <v>3993</v>
-      </c>
-      <c r="W30" s="79" t="s">
-        <v>4013</v>
-      </c>
-      <c r="AE30" s="79" t="s">
-        <v>4059</v>
-      </c>
-      <c r="AN30" s="89" t="s">
-        <v>4090</v>
+      <c r="C30" s="76" t="s">
+        <v>3918</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>3950</v>
+      </c>
+      <c r="P30" s="76" t="s">
+        <v>3982</v>
+      </c>
+      <c r="W30" s="76" t="s">
+        <v>4002</v>
+      </c>
+      <c r="AE30" s="76" t="s">
+        <v>4048</v>
+      </c>
+      <c r="AN30" s="86" t="s">
+        <v>4079</v>
       </c>
       <c r="AO30" s="27"/>
       <c r="AP30" s="27"/>
@@ -25963,23 +25968,23 @@
       <c r="AY30" s="27"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C31" s="79" t="s">
-        <v>3930</v>
-      </c>
-      <c r="I31" s="79" t="s">
-        <v>3962</v>
-      </c>
-      <c r="P31" s="79" t="s">
-        <v>3994</v>
-      </c>
-      <c r="W31" s="79" t="s">
-        <v>4014</v>
-      </c>
-      <c r="AE31" s="79" t="s">
-        <v>4060</v>
-      </c>
-      <c r="AN31" s="89" t="s">
-        <v>4091</v>
+      <c r="C31" s="76" t="s">
+        <v>3919</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>3951</v>
+      </c>
+      <c r="P31" s="76" t="s">
+        <v>3983</v>
+      </c>
+      <c r="W31" s="76" t="s">
+        <v>4003</v>
+      </c>
+      <c r="AE31" s="76" t="s">
+        <v>4049</v>
+      </c>
+      <c r="AN31" s="86" t="s">
+        <v>4080</v>
       </c>
       <c r="AO31" s="27"/>
       <c r="AP31" s="27"/>
@@ -25994,23 +25999,23 @@
       <c r="AY31" s="27"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C32" s="79" t="s">
-        <v>3931</v>
-      </c>
-      <c r="I32" s="79" t="s">
-        <v>3963</v>
-      </c>
-      <c r="P32" s="79" t="s">
-        <v>3995</v>
-      </c>
-      <c r="W32" s="79" t="s">
-        <v>4015</v>
-      </c>
-      <c r="AE32" s="79" t="s">
-        <v>4061</v>
-      </c>
-      <c r="AN32" s="89" t="s">
-        <v>4092</v>
+      <c r="C32" s="76" t="s">
+        <v>3920</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>3952</v>
+      </c>
+      <c r="P32" s="76" t="s">
+        <v>3984</v>
+      </c>
+      <c r="W32" s="76" t="s">
+        <v>4004</v>
+      </c>
+      <c r="AE32" s="76" t="s">
+        <v>4050</v>
+      </c>
+      <c r="AN32" s="86" t="s">
+        <v>4081</v>
       </c>
       <c r="AO32" s="27"/>
       <c r="AP32" s="27"/>
@@ -26025,23 +26030,23 @@
       <c r="AY32" s="27"/>
     </row>
     <row r="33" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="C33" s="79" t="s">
-        <v>3932</v>
-      </c>
-      <c r="I33" s="79" t="s">
-        <v>3964</v>
-      </c>
-      <c r="P33" s="79" t="s">
-        <v>3996</v>
-      </c>
-      <c r="W33" s="79" t="s">
-        <v>4016</v>
-      </c>
-      <c r="AE33" s="79" t="s">
-        <v>4062</v>
-      </c>
-      <c r="AN33" s="89" t="s">
-        <v>4093</v>
+      <c r="C33" s="76" t="s">
+        <v>3921</v>
+      </c>
+      <c r="I33" s="76" t="s">
+        <v>3953</v>
+      </c>
+      <c r="P33" s="76" t="s">
+        <v>3985</v>
+      </c>
+      <c r="W33" s="76" t="s">
+        <v>4005</v>
+      </c>
+      <c r="AE33" s="76" t="s">
+        <v>4051</v>
+      </c>
+      <c r="AN33" s="86" t="s">
+        <v>4082</v>
       </c>
       <c r="AO33" s="27"/>
       <c r="AP33" s="27"/>
@@ -26056,23 +26061,23 @@
       <c r="AY33" s="27"/>
     </row>
     <row r="34" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="C34" s="80" t="s">
-        <v>3933</v>
-      </c>
-      <c r="I34" s="79" t="s">
-        <v>3965</v>
-      </c>
-      <c r="P34" s="79" t="s">
-        <v>3997</v>
-      </c>
-      <c r="W34" s="79" t="s">
-        <v>4017</v>
-      </c>
-      <c r="AE34" s="79" t="s">
-        <v>4063</v>
-      </c>
-      <c r="AN34" s="89" t="s">
-        <v>4094</v>
+      <c r="C34" s="77" t="s">
+        <v>3922</v>
+      </c>
+      <c r="I34" s="76" t="s">
+        <v>3954</v>
+      </c>
+      <c r="P34" s="76" t="s">
+        <v>3986</v>
+      </c>
+      <c r="W34" s="76" t="s">
+        <v>4006</v>
+      </c>
+      <c r="AE34" s="76" t="s">
+        <v>4052</v>
+      </c>
+      <c r="AN34" s="86" t="s">
+        <v>4083</v>
       </c>
       <c r="AO34" s="27"/>
       <c r="AP34" s="27"/>
@@ -26087,20 +26092,20 @@
       <c r="AY34" s="27"/>
     </row>
     <row r="35" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="I35" s="79" t="s">
-        <v>3966</v>
-      </c>
-      <c r="P35" s="79" t="s">
-        <v>3998</v>
-      </c>
-      <c r="W35" s="79" t="s">
-        <v>4018</v>
-      </c>
-      <c r="AE35" s="79" t="s">
-        <v>4064</v>
-      </c>
-      <c r="AN35" s="89" t="s">
-        <v>4095</v>
+      <c r="I35" s="76" t="s">
+        <v>3955</v>
+      </c>
+      <c r="P35" s="76" t="s">
+        <v>3987</v>
+      </c>
+      <c r="W35" s="76" t="s">
+        <v>4007</v>
+      </c>
+      <c r="AE35" s="76" t="s">
+        <v>4053</v>
+      </c>
+      <c r="AN35" s="86" t="s">
+        <v>4084</v>
       </c>
       <c r="AO35" s="27"/>
       <c r="AP35" s="27"/>
@@ -26115,20 +26120,20 @@
       <c r="AY35" s="27"/>
     </row>
     <row r="36" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="I36" s="79" t="s">
-        <v>3967</v>
-      </c>
-      <c r="P36" s="80" t="s">
-        <v>3999</v>
-      </c>
-      <c r="W36" s="79" t="s">
-        <v>4019</v>
-      </c>
-      <c r="AE36" s="80" t="s">
-        <v>4065</v>
-      </c>
-      <c r="AN36" s="89" t="s">
-        <v>4096</v>
+      <c r="I36" s="76" t="s">
+        <v>3956</v>
+      </c>
+      <c r="P36" s="77" t="s">
+        <v>3988</v>
+      </c>
+      <c r="W36" s="76" t="s">
+        <v>4008</v>
+      </c>
+      <c r="AE36" s="77" t="s">
+        <v>4054</v>
+      </c>
+      <c r="AN36" s="86" t="s">
+        <v>4085</v>
       </c>
       <c r="AO36" s="27"/>
       <c r="AP36" s="27"/>
@@ -26143,14 +26148,14 @@
       <c r="AY36" s="27"/>
     </row>
     <row r="37" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="I37" s="80" t="s">
-        <v>3968</v>
-      </c>
-      <c r="W37" s="80" t="s">
-        <v>4020</v>
-      </c>
-      <c r="AN37" s="89" t="s">
-        <v>4097</v>
+      <c r="I37" s="77" t="s">
+        <v>3957</v>
+      </c>
+      <c r="W37" s="77" t="s">
+        <v>4009</v>
+      </c>
+      <c r="AN37" s="86" t="s">
+        <v>4086</v>
       </c>
       <c r="AO37" s="27"/>
       <c r="AP37" s="27"/>
@@ -26165,8 +26170,8 @@
       <c r="AY37" s="27"/>
     </row>
     <row r="38" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN38" s="89" t="s">
-        <v>4098</v>
+      <c r="AN38" s="86" t="s">
+        <v>4087</v>
       </c>
       <c r="AO38" s="27"/>
       <c r="AP38" s="27"/>
@@ -26181,8 +26186,8 @@
       <c r="AY38" s="27"/>
     </row>
     <row r="39" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN39" s="89" t="s">
-        <v>4099</v>
+      <c r="AN39" s="86" t="s">
+        <v>4088</v>
       </c>
       <c r="AO39" s="27"/>
       <c r="AP39" s="27"/>
@@ -26197,8 +26202,8 @@
       <c r="AY39" s="27"/>
     </row>
     <row r="40" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN40" s="89" t="s">
-        <v>4100</v>
+      <c r="AN40" s="86" t="s">
+        <v>4089</v>
       </c>
       <c r="AO40" s="27"/>
       <c r="AP40" s="27"/>
@@ -26213,7 +26218,7 @@
       <c r="AY40" s="27"/>
     </row>
     <row r="41" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN41" s="90"/>
+      <c r="AN41" s="87"/>
       <c r="AO41" s="27"/>
       <c r="AP41" s="27"/>
       <c r="AQ41" s="27"/>
@@ -26227,8 +26232,8 @@
       <c r="AY41" s="27"/>
     </row>
     <row r="42" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN42" s="91" t="s">
-        <v>4021</v>
+      <c r="AN42" s="88" t="s">
+        <v>4010</v>
       </c>
       <c r="AO42" s="27"/>
       <c r="AP42" s="27"/>
@@ -26328,47 +26333,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="6"/>
       <c r="H1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="24"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="106" t="s">
+      <c r="N1" s="104" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="106"/>
+      <c r="O1" s="104"/>
       <c r="Q1" s="24"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="106" t="s">
+      <c r="T1" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="106"/>
+      <c r="U1" s="104"/>
       <c r="W1" s="24"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="106" t="s">
+      <c r="Z1" s="104" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="106"/>
+      <c r="AA1" s="104"/>
       <c r="AC1" s="24"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="106" t="s">
+      <c r="AF1" s="104" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="106"/>
+      <c r="AG1" s="104"/>
       <c r="AI1" s="24"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="106" t="s">
+      <c r="AL1" s="104" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="106"/>
+      <c r="AM1" s="104"/>
       <c r="AO1" s="24"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="24" t="s">
@@ -37034,13 +37039,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>504</v>
@@ -37049,38 +37054,38 @@
       <c r="J1" s="1"/>
       <c r="K1" s="7"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="106" t="s">
+      <c r="N1" s="104" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="106"/>
+      <c r="O1" s="104"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="7"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="106" t="s">
+      <c r="T1" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="106"/>
+      <c r="U1" s="104"/>
       <c r="V1" s="1"/>
       <c r="W1" s="7"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="106" t="s">
+      <c r="Z1" s="104" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="106"/>
+      <c r="AA1" s="104"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="7"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="106" t="s">
+      <c r="AF1" s="104" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="106"/>
+      <c r="AG1" s="104"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="7"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="106" t="s">
+      <c r="AL1" s="104" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="106"/>
+      <c r="AM1" s="104"/>
       <c r="AO1" s="7"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="7" t="s">
@@ -49566,1004 +49571,970 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B31CA-98BF-453E-B5B4-4EB9FEC3C9BB}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D32357-5C1C-41F6-8BDE-6FC835CC8A92}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.1328125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="14.265625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" style="49" customWidth="1"/>
-    <col min="6" max="6" width="14.1328125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="49" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="41"/>
+    <col min="2" max="2" width="16.19921875" style="103" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" style="103" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" style="103" customWidth="1"/>
+    <col min="6" max="6" width="14.1328125" style="103" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="107" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="105" t="s">
         <v>3659</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107" t="s">
+      <c r="C1" s="105"/>
+      <c r="D1" s="105" t="s">
         <v>3686</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107" t="s">
+      <c r="E1" s="105"/>
+      <c r="F1" s="105" t="s">
         <v>3690</v>
       </c>
-      <c r="G1" s="107"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+      <c r="G1" s="105"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="103" t="s">
         <v>3660</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="103" t="s">
         <v>3661</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="103" t="s">
         <v>3660</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>3661</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="103" t="s">
         <v>3660</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="103" t="s">
         <v>3661</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>3695</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>3840</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>3841</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="50" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>4641</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>4642</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>4643</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>4644</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="41" t="s">
         <v>3842</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>3843</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>3844</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>3845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
-        <v>3848</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>3851</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>3850</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>3851</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>3854</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>3857</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>3858</v>
-      </c>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="55" t="s">
+        <v>4647</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>4646</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>4649</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4651</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>3729</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>3728</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="53" t="s">
         <v>3766</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="53" t="s">
         <v>3765</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="53" t="s">
         <v>3801</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="53" t="s">
         <v>3800</v>
       </c>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="41" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>3846</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>3849</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>3853</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>3856</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>3855</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>3860</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>3859</v>
-      </c>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G6" s="55" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="44" t="s">
         <v>3674</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>3731</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>3730</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="53" t="s">
         <v>3768</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="53" t="s">
         <v>3767</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="53" t="s">
         <v>3803</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="53" t="s">
         <v>3802</v>
       </c>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="44" t="s">
         <v>3662</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>3733</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>3732</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="53" t="s">
         <v>3770</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="53" t="s">
         <v>3769</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="53" t="s">
         <v>3805</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="53" t="s">
         <v>3804</v>
       </c>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="44" t="s">
         <v>3663</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>3735</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="53" t="s">
         <v>3734</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="53" t="s">
         <v>3772</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="53" t="s">
         <v>3771</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="53" t="s">
         <v>3807</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="53" t="s">
         <v>3806</v>
       </c>
-      <c r="I10" s="51"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="44" t="s">
         <v>3664</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>3737</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="53" t="s">
         <v>3736</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="53" t="s">
         <v>3774</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="53" t="s">
         <v>3773</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="53" t="s">
         <v>3809</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="53" t="s">
         <v>3808</v>
       </c>
-      <c r="I11" s="51"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="44" t="s">
         <v>3665</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="53" t="s">
         <v>3739</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="53" t="s">
         <v>3738</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="53" t="s">
         <v>3776</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="53" t="s">
         <v>3775</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="53" t="s">
         <v>3811</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="53" t="s">
         <v>3810</v>
       </c>
-      <c r="I13" s="51"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="44" t="s">
         <v>3666</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="53" t="s">
         <v>3741</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="53" t="s">
         <v>3740</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="53" t="s">
         <v>3778</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="53" t="s">
         <v>3777</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="53" t="s">
         <v>3813</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="53" t="s">
         <v>3812</v>
       </c>
-      <c r="I14" s="51"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="44" t="s">
         <v>3667</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>3743</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>3742</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>4180</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>4183</v>
-      </c>
-      <c r="F15" s="55" t="s">
+      <c r="D15" s="53" t="s">
+        <v>4169</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>4172</v>
+      </c>
+      <c r="F15" s="53" t="s">
         <v>3814</v>
       </c>
-      <c r="G15" s="55" t="s">
-        <v>4190</v>
-      </c>
-      <c r="I15" s="51"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G15" s="53" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="44" t="s">
         <v>3668</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
+        <v>4162</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>4170</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>4173</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="F16" s="53" t="s">
         <v>4176</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>4181</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>4184</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>4187</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>4191</v>
-      </c>
-      <c r="I16" s="51"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G16" s="53" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="44" t="s">
         <v>3669</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="53" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>4166</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>4174</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="F17" s="53" t="s">
         <v>4177</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>4182</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>4185</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>4188</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>4192</v>
-      </c>
-      <c r="I17" s="51"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G17" s="53" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="44" t="s">
         <v>3671</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>4168</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>4175</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="F18" s="53" t="s">
         <v>4178</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>4179</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>4186</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>4189</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>4193</v>
-      </c>
-      <c r="I18" s="51"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G18" s="53" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="I19" s="51"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="44" t="s">
         <v>3723</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="53" t="s">
         <v>3744</v>
       </c>
-      <c r="C20" s="55" t="s">
-        <v>3846</v>
-      </c>
-      <c r="D20" s="55" t="s">
+      <c r="C20" s="53" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D20" s="53" t="s">
         <v>3779</v>
       </c>
-      <c r="E20" s="55" t="s">
-        <v>4648</v>
-      </c>
-      <c r="F20" s="55" t="s">
+      <c r="E20" s="53" t="s">
+        <v>4637</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>3815</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>4649</v>
-      </c>
-      <c r="I20" s="51"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G20" s="53" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="44" t="s">
         <v>3724</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="53" t="s">
         <v>3746</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="53" t="s">
         <v>3745</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="53" t="s">
         <v>3781</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="53" t="s">
         <v>3780</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="53" t="s">
         <v>3817</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="53" t="s">
         <v>3816</v>
       </c>
-      <c r="I21" s="51"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="44" t="s">
         <v>3725</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="53" t="s">
         <v>3748</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="53" t="s">
         <v>3747</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="53" t="s">
         <v>3783</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="53" t="s">
         <v>3782</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="53" t="s">
         <v>3819</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="53" t="s">
         <v>3818</v>
       </c>
-      <c r="I22" s="51"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="44" t="s">
         <v>3726</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>4167</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>4168</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>4169</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>4170</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>4171</v>
-      </c>
-      <c r="G23" s="55" t="s">
-        <v>4172</v>
-      </c>
-      <c r="I23" s="51"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="53" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>4158</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>4159</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>4160</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="44" t="s">
         <v>3727</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="53" t="s">
         <v>3750</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="53" t="s">
         <v>3749</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="53" t="s">
         <v>3785</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="53" t="s">
         <v>3784</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="53" t="s">
         <v>3821</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="53" t="s">
         <v>3820</v>
       </c>
-      <c r="I24" s="51"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="44" t="s">
         <v>3671</v>
       </c>
-      <c r="B25" s="55" t="s">
-        <v>4166</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>4165</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>4164</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>3847</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>4163</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>4162</v>
-      </c>
-      <c r="I25" s="51"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="53" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>4154</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>4153</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>4152</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="I26" s="51"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="44" t="s">
         <v>3670</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="53" t="s">
         <v>3752</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="53" t="s">
         <v>3751</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="53" t="s">
         <v>3787</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="53" t="s">
         <v>3786</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="53" t="s">
         <v>3823</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="53" t="s">
         <v>3822</v>
       </c>
-      <c r="I27" s="51"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="44" t="s">
         <v>3672</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="53" t="s">
         <v>3754</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="53" t="s">
         <v>3753</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="53" t="s">
         <v>3789</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="53" t="s">
         <v>3788</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="53" t="s">
         <v>3825</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="53" t="s">
         <v>3824</v>
       </c>
-      <c r="I28" s="51"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="44" t="s">
         <v>3673</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="53" t="s">
         <v>3756</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="53" t="s">
         <v>3755</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="53" t="s">
         <v>3791</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="53" t="s">
         <v>3790</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="53" t="s">
         <v>3827</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="53" t="s">
         <v>3826</v>
       </c>
-      <c r="I29" s="51"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="I30" s="51"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="105" t="s">
-        <v>4642</v>
-      </c>
-      <c r="B31" s="55" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="102" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B31" s="53" t="s">
         <v>3758</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="53" t="s">
         <v>3757</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="53" t="s">
         <v>3793</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="53" t="s">
         <v>3792</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="53" t="s">
         <v>3829</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="53" t="s">
         <v>3828</v>
       </c>
-      <c r="I31" s="51"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="105" t="s">
-        <v>4644</v>
-      </c>
-      <c r="B32" s="55" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="102" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B32" s="53" t="s">
         <v>3760</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="53" t="s">
         <v>3759</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="53" t="s">
         <v>3795</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="53" t="s">
         <v>3794</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="53" t="s">
         <v>3831</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="53" t="s">
         <v>3830</v>
       </c>
-      <c r="I32" s="51"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="105" t="s">
-        <v>4645</v>
-      </c>
-      <c r="B33" s="55" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="102" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B33" s="53" t="s">
         <v>3762</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="53" t="s">
         <v>3761</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="53" t="s">
         <v>3797</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="53" t="s">
         <v>3796</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="53" t="s">
         <v>3833</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="53" t="s">
         <v>3832</v>
       </c>
-      <c r="I33" s="51"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="105" t="s">
-        <v>4646</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>4157</v>
-      </c>
-      <c r="C34" s="55" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="102" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>4146</v>
+      </c>
+      <c r="C34" s="53" t="s">
         <v>3763</v>
       </c>
-      <c r="D34" s="55" t="s">
-        <v>4154</v>
-      </c>
-      <c r="E34" s="55" t="s">
+      <c r="D34" s="53" t="s">
+        <v>4143</v>
+      </c>
+      <c r="E34" s="53" t="s">
         <v>3798</v>
       </c>
-      <c r="F34" s="55" t="s">
-        <v>4151</v>
-      </c>
-      <c r="G34" s="55" t="s">
+      <c r="F34" s="53" t="s">
+        <v>4140</v>
+      </c>
+      <c r="G34" s="53" t="s">
         <v>3834</v>
       </c>
-      <c r="I34" s="51"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="105" t="s">
-        <v>4647</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>4158</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>4160</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>4155</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>4153</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>4152</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>4161</v>
-      </c>
-      <c r="I35" s="51"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="105" t="s">
-        <v>4643</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>4159</v>
-      </c>
-      <c r="C36" s="55" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="102" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>4144</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>4142</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>4141</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="102" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C36" s="53" t="s">
         <v>3764</v>
       </c>
-      <c r="D36" s="55" t="s">
-        <v>4156</v>
-      </c>
-      <c r="E36" s="55" t="s">
+      <c r="D36" s="53" t="s">
+        <v>4145</v>
+      </c>
+      <c r="E36" s="53" t="s">
         <v>3799</v>
       </c>
-      <c r="F36" s="55" t="s">
-        <v>4150</v>
-      </c>
-      <c r="G36" s="55" t="s">
+      <c r="F36" s="53" t="s">
+        <v>4139</v>
+      </c>
+      <c r="G36" s="53" t="s">
         <v>3835</v>
       </c>
-      <c r="I36" s="59"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="44" t="s">
         <v>3677</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="54" t="s">
         <v>3708</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="54" t="s">
         <v>3707</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="54" t="s">
         <v>3714</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="55" t="s">
         <v>3837</v>
       </c>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="54" t="s">
         <v>3722</v>
       </c>
-      <c r="G38" s="57" t="s">
+      <c r="G38" s="55" t="s">
         <v>3838</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="44" t="s">
         <v>3678</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="54" t="s">
         <v>3709</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="54" t="s">
         <v>3710</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="54" t="s">
         <v>3715</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="55" t="s">
         <v>3836</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="54" t="s">
         <v>3721</v>
       </c>
-      <c r="G39" s="57" t="s">
+      <c r="G39" s="55" t="s">
         <v>3839</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="45" t="s">
         <v>3679</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="54" t="s">
         <v>3711</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="54" t="s">
         <v>3712</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="54" t="s">
         <v>3717</v>
       </c>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="56" t="s">
         <v>3716</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="54" t="s">
         <v>3720</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="56" t="s">
         <v>3719</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="46" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="47" t="s">
         <v>3676</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="103" t="s">
         <v>3706</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="103" t="s">
         <v>3389</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="103" t="s">
         <v>3713</v>
       </c>
-      <c r="E42" s="53" t="s">
-        <v>3874</v>
-      </c>
-      <c r="F42" s="49" t="s">
+      <c r="E42" s="51" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F42" s="103" t="s">
         <v>3718</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="51" t="s">
         <v>3389</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="47" t="s">
         <v>3691</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="103" t="s">
         <v>3696</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="103" t="s">
         <v>3389</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="103" t="s">
         <v>3700</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="103" t="s">
         <v>3389</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="103" t="s">
         <v>3703</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="103" t="s">
         <v>3389</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="47" t="s">
         <v>3692</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="103" t="s">
         <v>3697</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="103" t="s">
         <v>3389</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="103" t="s">
         <v>3701</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="103" t="s">
         <v>3389</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="103" t="s">
         <v>3704</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="103" t="s">
         <v>3389</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="47" t="s">
         <v>3693</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="103" t="s">
         <v>3698</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="103" t="s">
         <v>3389</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="103" t="s">
         <v>3702</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="103" t="s">
         <v>3389</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="103" t="s">
         <v>3705</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="103" t="s">
         <v>3389</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="48" t="s">
         <v>3699</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="47" t="s">
         <v>3694</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="47" t="s">
         <v>3680</v>
       </c>
@@ -50575,7 +50546,6 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -50584,16 +50554,16 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="60" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="65" customWidth="1"/>
     <col min="6" max="6" width="4.3984375" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.73046875" style="27" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="27" bestFit="1" customWidth="1"/>
@@ -50602,41 +50572,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="106" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="G1" s="108" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="G1" s="106" t="s">
         <v>3682</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="37" t="s">
         <v>3685</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="60" t="s">
         <v>3684</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>3688</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>3895</v>
-      </c>
-      <c r="G2" s="63" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>3684</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>3688</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="63" t="s">
         <v>3689</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="38" t="s">
@@ -50647,9 +50617,9 @@
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="35"/>
-      <c r="I3" s="67"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -50657,303 +50627,303 @@
         <v>3687</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>4248</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>3864</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>3886</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>4133</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>3861</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>3876</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>4142</v>
-      </c>
-      <c r="J4" s="63"/>
+        <v>4237</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>3875</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>4122</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>3865</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>4131</v>
+      </c>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>4249</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>3865</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>3887</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>4134</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>3862</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>3877</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>4143</v>
-      </c>
-      <c r="J5" s="63"/>
+        <v>4238</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>3876</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>4123</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>3851</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>3866</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>4132</v>
+      </c>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A6" s="36" t="s">
-        <v>3897</v>
+        <v>3886</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>4250</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>3866</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>3888</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>4135</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>3863</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>3878</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>3885</v>
-      </c>
-      <c r="J6" s="63"/>
+        <v>4239</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>4124</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>3852</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>3867</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>3874</v>
+      </c>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="63"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="38" t="s">
-        <v>3870</v>
+        <v>3859</v>
       </c>
       <c r="B8" s="35"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
         <v>3687</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>4251</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>3871</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>3889</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>4136</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>3867</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>3879</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>4144</v>
-      </c>
-      <c r="J9" s="63"/>
+        <v>4240</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>4125</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>3856</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>3868</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>4133</v>
+      </c>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>4252</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>3872</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>3890</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>4138</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>3868</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>3880</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>4145</v>
-      </c>
-      <c r="J10" s="63"/>
+        <v>4241</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>3879</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>4127</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>3857</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>3869</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>4134</v>
+      </c>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
-        <v>3897</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>4253</v>
+        <v>3886</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>4242</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>3891</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>4137</v>
+        <v>3862</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>4126</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>3869</v>
-      </c>
-      <c r="H11" s="76" t="s">
-        <v>3881</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>4146</v>
+        <v>3858</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>3870</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>4135</v>
       </c>
       <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="72"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="38" t="s">
-        <v>3875</v>
+        <v>3864</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="62"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="27" t="s">
         <v>3687</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>4254</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>3904</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>3892</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>4139</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>3899</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>3882</v>
-      </c>
-      <c r="I14" s="70" t="s">
-        <v>4147</v>
-      </c>
-      <c r="J14" s="63"/>
+        <v>4243</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>3888</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>3871</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>4136</v>
+      </c>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>4255</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>3903</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>3893</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>4140</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>3900</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>3883</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>4148</v>
-      </c>
-      <c r="J15" s="63"/>
+        <v>4244</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>3882</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>4129</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>3889</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>3872</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>4137</v>
+      </c>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A16" s="40" t="s">
-        <v>3897</v>
+        <v>3886</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>4256</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>3902</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>3894</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>4141</v>
+        <v>4245</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>4130</v>
       </c>
       <c r="F16" s="35"/>
-      <c r="G16" s="64" t="s">
-        <v>3901</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>3884</v>
-      </c>
-      <c r="I16" s="78" t="s">
-        <v>4149</v>
-      </c>
-      <c r="J16" s="62"/>
+      <c r="G16" s="61" t="s">
+        <v>3890</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>3873</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>4138</v>
+      </c>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
-        <v>4101</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
-        <v>4102</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
-        <v>3898</v>
+        <v>3887</v>
       </c>
     </row>
   </sheetData>
@@ -50971,16 +50941,16 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="60" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="65" customWidth="1"/>
     <col min="6" max="6" width="4.3984375" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.73046875" style="27" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="27" bestFit="1" customWidth="1"/>
@@ -50990,45 +50960,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
-        <v>4120</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="106" t="s">
         <v>3681</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="G2" s="108" t="s">
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="G2" s="106" t="s">
         <v>3682</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B3" s="37" t="s">
         <v>3685</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="60" t="s">
         <v>3684</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>3688</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>3895</v>
-      </c>
-      <c r="G3" s="63" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>3684</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>3688</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="63" t="s">
         <v>3689</v>
       </c>
-      <c r="J3" s="63"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="38" t="s">
@@ -51039,9 +51009,9 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="35"/>
-      <c r="I4" s="67"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -51049,311 +51019,311 @@
         <v>3687</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>4257</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>4103</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>4117</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>4104</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>4109</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>4116</v>
-      </c>
-      <c r="I5" s="75" t="s">
-        <v>4110</v>
-      </c>
-      <c r="J5" s="63"/>
+        <v>4246</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>4106</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>4098</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>4105</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A6" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>4258</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>4105</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>4118</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>4106</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>4111</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>4115</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>4112</v>
-      </c>
-      <c r="J6" s="63"/>
+        <v>4247</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>4107</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>4095</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>4100</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>4104</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>4101</v>
+      </c>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A7" s="40" t="s">
-        <v>3897</v>
+        <v>3886</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>4259</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>4107</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>4119</v>
-      </c>
-      <c r="E7" s="78" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>4096</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>4108</v>
       </c>
+      <c r="E7" s="75" t="s">
+        <v>4097</v>
+      </c>
       <c r="F7" s="35"/>
-      <c r="G7" s="81" t="s">
-        <v>4113</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>3894</v>
-      </c>
-      <c r="I7" s="78" t="s">
-        <v>4114</v>
-      </c>
-      <c r="J7" s="63"/>
+      <c r="G7" s="78" t="s">
+        <v>4102</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>3883</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>4103</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="38" t="s">
-        <v>3870</v>
+        <v>3859</v>
       </c>
       <c r="B8" s="35"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="82"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
         <v>3687</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>4225</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>4235</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>4231</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>4230</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>4212</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>4208</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>4207</v>
-      </c>
-      <c r="J9" s="63"/>
+        <v>4214</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>4224</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>4220</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>4201</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>4197</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>4196</v>
+      </c>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>4227</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>4238</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>4237</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>4236</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>4215</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>4214</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>4213</v>
-      </c>
-      <c r="J10" s="63"/>
+      <c r="D10" s="71" t="s">
+        <v>4226</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>4204</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>4203</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>4202</v>
+      </c>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
-        <v>3897</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>4229</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>4245</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>4242</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>4246</v>
-      </c>
-      <c r="G11" s="83" t="s">
-        <v>4221</v>
-      </c>
-      <c r="H11" s="76" t="s">
-        <v>4220</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>4219</v>
-      </c>
-      <c r="J11" s="83"/>
+        <v>3886</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>4235</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>4210</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>4209</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>4208</v>
+      </c>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="83"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="38" t="s">
-        <v>3875</v>
+        <v>3864</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="82"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="27" t="s">
         <v>3687</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>4226</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>4234</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>4233</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>4232</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>4209</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>4210</v>
-      </c>
-      <c r="I14" s="70" t="s">
-        <v>4211</v>
-      </c>
-      <c r="J14" s="63"/>
+        <v>4215</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>4222</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>4198</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>4199</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>4200</v>
+      </c>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>4229</v>
+      </c>
+      <c r="E15" s="67" t="s">
         <v>4228</v>
       </c>
-      <c r="C15" s="63" t="s">
-        <v>4241</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>4240</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>4239</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>4217</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>4218</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>4216</v>
-      </c>
-      <c r="J15" s="63"/>
+      <c r="G15" s="60" t="s">
+        <v>4206</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>4207</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>4205</v>
+      </c>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A16" s="40" t="s">
-        <v>3897</v>
+        <v>3886</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>3641</v>
       </c>
-      <c r="C16" s="82" t="s">
-        <v>4244</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>4243</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>4247</v>
+      <c r="C16" s="79" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>4232</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>4236</v>
       </c>
       <c r="F16" s="35"/>
-      <c r="G16" s="64" t="s">
-        <v>4224</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>4223</v>
-      </c>
-      <c r="I16" s="73" t="s">
-        <v>4222</v>
-      </c>
-      <c r="J16" s="82"/>
+      <c r="G16" s="61" t="s">
+        <v>4213</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>4212</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>4211</v>
+      </c>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="63"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
-        <v>4101</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
-        <v>4102</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="27" t="s">
-        <v>3898</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K25" s="39"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K31" s="63"/>
+      <c r="K31" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -51388,39 +51358,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
-        <v>4121</v>
+        <v>4110</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="107" t="s">
         <v>3681</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="39"/>
-      <c r="G2" s="109" t="s">
-        <v>4124</v>
-      </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
+      <c r="G2" s="107" t="s">
+        <v>4113</v>
+      </c>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.45">
       <c r="A3" s="27"/>
@@ -51428,28 +51398,28 @@
         <v>3685</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>4122</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>4194</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>4123</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65" t="s">
-        <v>4122</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>4194</v>
+        <v>4111</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>4183</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>4112</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62" t="s">
+        <v>4111</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>4183</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>4123</v>
-      </c>
-      <c r="J3" s="72"/>
+        <v>4112</v>
+      </c>
+      <c r="J3" s="69"/>
       <c r="K3" s="39"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="38" t="s">
@@ -51462,8 +51432,8 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="67"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="35"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -51473,338 +51443,338 @@
         <v>3687</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>4248</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>3864</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>3886</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>4130</v>
-      </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="63" t="s">
-        <v>3861</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>3876</v>
-      </c>
-      <c r="I5" s="74" t="s">
-        <v>4128</v>
-      </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="63"/>
+        <v>4237</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>3875</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="60" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>3865</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>4117</v>
+      </c>
+      <c r="J5" s="72"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A6" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>4249</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>3865</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>3887</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>4131</v>
-      </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="63" t="s">
-        <v>3862</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>3877</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>4129</v>
-      </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="63"/>
+        <v>4238</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>3876</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>4120</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="60" t="s">
+        <v>3851</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>3866</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>4118</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A7" s="36" t="s">
-        <v>3897</v>
+        <v>3886</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>4250</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>3866</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>3888</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>4132</v>
-      </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="63" t="s">
-        <v>3863</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>3878</v>
-      </c>
-      <c r="I7" s="74" t="s">
-        <v>4127</v>
-      </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="63"/>
+        <v>4239</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>4121</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="60" t="s">
+        <v>3852</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>3867</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>4116</v>
+      </c>
+      <c r="J7" s="72"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="36"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="63"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A9" s="38" t="s">
-        <v>3870</v>
+        <v>3859</v>
       </c>
       <c r="B9" s="35"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="82"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
         <v>3687</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>4251</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>3871</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>3889</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>4198</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>3867</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>3879</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>4195</v>
-      </c>
-      <c r="J10" s="63"/>
+        <v>4240</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>3856</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>3868</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>4184</v>
+      </c>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:13" s="27" customFormat="1" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>4252</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>3872</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>3890</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>4199</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>3868</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>3880</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>4196</v>
-      </c>
-      <c r="J11" s="63"/>
+        <v>4241</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>3879</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>4188</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>3857</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>3869</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>4185</v>
+      </c>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:13" s="27" customFormat="1" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A12" s="36" t="s">
-        <v>3897</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>4253</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>3891</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>4200</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>3869</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>3881</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>4197</v>
-      </c>
-      <c r="J12" s="83"/>
+        <v>3886</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>3862</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>4189</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>3858</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>3870</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A13" s="36"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="75"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="83"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A14" s="38" t="s">
-        <v>3875</v>
+        <v>3864</v>
       </c>
       <c r="B14" s="35"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="82"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
         <v>3687</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>4254</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>3904</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>3892</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>4204</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>3899</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>3882</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>4201</v>
-      </c>
-      <c r="J15" s="63"/>
+        <v>4243</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>3888</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>3871</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>4190</v>
+      </c>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:13" s="27" customFormat="1" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A16" s="36" t="s">
-        <v>3896</v>
+        <v>3885</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>4255</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>3903</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>3893</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>4205</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>3900</v>
-      </c>
-      <c r="H16" s="74" t="s">
-        <v>3883</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>4202</v>
-      </c>
-      <c r="J16" s="63"/>
+        <v>4244</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>3882</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>3889</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>3872</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>4191</v>
+      </c>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:13" s="27" customFormat="1" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A17" s="40" t="s">
-        <v>3897</v>
+        <v>3886</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>4256</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>3902</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>3894</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>4206</v>
+        <v>4245</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>4195</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="64" t="s">
-        <v>3901</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>3884</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>4203</v>
-      </c>
-      <c r="J17" s="82"/>
+      <c r="G17" s="61" t="s">
+        <v>3890</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>3873</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>4192</v>
+      </c>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="63"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="66"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
-        <v>4125</v>
+        <v>4114</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -51813,15 +51783,15 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
-        <v>4126</v>
+        <v>4115</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -51830,15 +51800,15 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="27" t="s">
-        <v>3898</v>
+        <v>3887</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -51848,12 +51818,12 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -51863,12 +51833,12 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -51878,11 +51848,11 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="68"/>
+      <c r="G24" s="65"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -51892,25 +51862,25 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="63"/>
+      <c r="C25" s="60"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="68"/>
-      <c r="I25" s="79"/>
+      <c r="G25" s="65"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E27" s="79"/>
+      <c r="E27" s="76"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E29" s="79"/>
+      <c r="E29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -51928,635 +51898,636 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.53125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="24.46484375" style="63" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.53125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" style="60" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" style="60" customWidth="1"/>
     <col min="5" max="5" width="16.73046875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" style="63" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="17.73046875" style="60" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B1" s="63" t="s">
-        <v>4260</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>4262</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>4261</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>4263</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>4264</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>4265</v>
+      <c r="B1" s="60" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>4250</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>4252</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>4253</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>4254</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>3660</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="95" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>4451</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="95" t="s">
+        <v>4131</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>4136</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="91" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>4452</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>4474</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="96" t="s">
+        <v>4257</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>4313</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="91" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>4453</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="95" t="s">
+        <v>4258</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>4314</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="91" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>4454</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>4476</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="95" t="s">
+        <v>4259</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>4315</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="91" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>4455</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="96" t="s">
+        <v>4262</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>4316</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="91" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>4478</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="95" t="s">
+        <v>4263</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>4317</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>4299</v>
+      </c>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="91" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>4479</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="95" t="s">
+        <v>4275</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>4318</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>4300</v>
+      </c>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="91" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>4480</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="95" t="s">
+        <v>4261</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>4319</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>4301</v>
+      </c>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="91" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>4481</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="95" t="s">
+        <v>4260</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>4320</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>4302</v>
+      </c>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>4460</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>4482</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="95" t="s">
+        <v>4272</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>4321</v>
+      </c>
+      <c r="H11" s="95" t="s">
+        <v>4303</v>
+      </c>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="91" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>4483</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="95" t="s">
+        <v>4264</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>4322</v>
+      </c>
+      <c r="H12" s="95" t="s">
+        <v>4304</v>
+      </c>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="91" t="s">
+        <v>4627</v>
+      </c>
+      <c r="B13" s="96" t="s">
         <v>4440</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C13" s="96" t="s">
         <v>4462</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D13" s="96" t="s">
         <v>4484</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="98" t="s">
-        <v>4142</v>
-      </c>
-      <c r="G2" s="98" t="s">
-        <v>4144</v>
-      </c>
-      <c r="H2" s="99" t="s">
-        <v>4147</v>
-      </c>
-      <c r="J2" s="92"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="94" t="s">
-        <v>3672</v>
-      </c>
-      <c r="B3" s="99" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="96" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>4323</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>4305</v>
+      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="91" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B14" s="95" t="s">
         <v>4441</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C14" s="95" t="s">
         <v>4463</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D14" s="96" t="s">
         <v>4485</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="99" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="95" t="s">
+        <v>4266</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>4324</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>4306</v>
+      </c>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="91" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>4486</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="96" t="s">
+        <v>4267</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>4325</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>4307</v>
+      </c>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="91" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="95" t="s">
         <v>4268</v>
       </c>
-      <c r="G3" s="99" t="s">
-        <v>4324</v>
-      </c>
-      <c r="H3" s="99" t="s">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
-        <v>4636</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>4442</v>
-      </c>
-      <c r="C4" s="98" t="s">
-        <v>4464</v>
-      </c>
-      <c r="D4" s="98" t="s">
-        <v>4486</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="98" t="s">
+      <c r="G16" s="95" t="s">
+        <v>4326</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="91" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>4488</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="96" t="s">
+        <v>4274</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>4327</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="91" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>4489</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="95" t="s">
         <v>4269</v>
       </c>
-      <c r="G4" s="98" t="s">
-        <v>4325</v>
-      </c>
-      <c r="H4" s="99" t="s">
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="94" t="s">
-        <v>4267</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>4443</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>4465</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>4487</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="98" t="s">
+      <c r="G18" s="95" t="s">
+        <v>4328</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="91" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>4490</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="96" t="s">
         <v>4270</v>
       </c>
-      <c r="G5" s="98" t="s">
-        <v>4326</v>
-      </c>
-      <c r="H5" s="98" t="s">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="94" t="s">
-        <v>4642</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>4444</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>4466</v>
-      </c>
-      <c r="D6" s="99" t="s">
-        <v>4488</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="99" t="s">
+      <c r="G19" s="96" t="s">
+        <v>4329</v>
+      </c>
+      <c r="H19" s="96" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="91" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>4491</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="95" t="s">
         <v>4273</v>
       </c>
-      <c r="G6" s="99" t="s">
-        <v>4327</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="94" t="s">
-        <v>4644</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>4445</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>4467</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>4489</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="98" t="s">
-        <v>4274</v>
-      </c>
-      <c r="G7" s="98" t="s">
-        <v>4328</v>
-      </c>
-      <c r="H7" s="99" t="s">
-        <v>4310</v>
-      </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="94" t="s">
-        <v>4645</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>4446</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>4468</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>4490</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="98" t="s">
-        <v>4286</v>
-      </c>
-      <c r="G8" s="98" t="s">
-        <v>4329</v>
-      </c>
-      <c r="H8" s="99" t="s">
-        <v>4311</v>
-      </c>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="94" t="s">
-        <v>4646</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>4447</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>4469</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>4491</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="98" t="s">
-        <v>4272</v>
-      </c>
-      <c r="G9" s="98" t="s">
+      <c r="G20" s="95" t="s">
         <v>4330</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H20" s="96" t="s">
         <v>4312</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="94" t="s">
-        <v>4647</v>
-      </c>
-      <c r="B10" s="98" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="91" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B21" s="96" t="s">
         <v>4448</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C21" s="96" t="s">
         <v>4470</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D21" s="96" t="s">
         <v>4492</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="98" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="98" t="s">
         <v>4271</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G21" s="98" t="s">
         <v>4331</v>
       </c>
-      <c r="H10" s="99" t="s">
-        <v>4313</v>
-      </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="94" t="s">
-        <v>4643</v>
-      </c>
-      <c r="B11" s="98" t="s">
+      <c r="H21" s="98" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="91" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B22" s="95" t="s">
         <v>4449</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C22" s="95" t="s">
         <v>4471</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D22" s="95" t="s">
         <v>4493</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="98" t="s">
-        <v>4283</v>
-      </c>
-      <c r="G11" s="98" t="s">
-        <v>4332</v>
-      </c>
-      <c r="H11" s="98" t="s">
-        <v>4314</v>
-      </c>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="94" t="s">
-        <v>4637</v>
-      </c>
-      <c r="B12" s="98" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" s="97" t="s">
         <v>4450</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C23" s="97" t="s">
         <v>4472</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D23" s="98" t="s">
         <v>4494</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="98" t="s">
-        <v>4275</v>
-      </c>
-      <c r="G12" s="98" t="s">
-        <v>4333</v>
-      </c>
-      <c r="H12" s="98" t="s">
-        <v>4315</v>
-      </c>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="94" t="s">
-        <v>4638</v>
-      </c>
-      <c r="B13" s="99" t="s">
-        <v>4451</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>4473</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>4495</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="99" t="s">
-        <v>4276</v>
-      </c>
-      <c r="G13" s="99" t="s">
-        <v>4334</v>
-      </c>
-      <c r="H13" s="99" t="s">
-        <v>4316</v>
-      </c>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="94" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>4452</v>
-      </c>
-      <c r="C14" s="98" t="s">
-        <v>4474</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>4496</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="98" t="s">
-        <v>4277</v>
-      </c>
-      <c r="G14" s="98" t="s">
-        <v>4335</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>4317</v>
-      </c>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="94" t="s">
-        <v>3727</v>
-      </c>
-      <c r="B15" s="98" t="s">
-        <v>4453</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>4475</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>4497</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="99" t="s">
-        <v>4278</v>
-      </c>
-      <c r="G15" s="99" t="s">
-        <v>4336</v>
-      </c>
-      <c r="H15" s="99" t="s">
-        <v>4318</v>
-      </c>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="94" t="s">
-        <v>3671</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>4454</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>4476</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>4498</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="98" t="s">
-        <v>4279</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>4337</v>
-      </c>
-      <c r="H16" s="99" t="s">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="94" t="s">
-        <v>3666</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>4455</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>4477</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>4499</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="99" t="s">
-        <v>4285</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>4338</v>
-      </c>
-      <c r="H17" s="99" t="s">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="94" t="s">
-        <v>4266</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>4456</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>4478</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>4500</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="98" t="s">
-        <v>4280</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>4339</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="94" t="s">
-        <v>4639</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>4457</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>4479</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>4501</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="99" t="s">
-        <v>4281</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>4340</v>
-      </c>
-      <c r="H19" s="99" t="s">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="94" t="s">
-        <v>3669</v>
-      </c>
-      <c r="B20" s="98" t="s">
-        <v>4458</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>4480</v>
-      </c>
-      <c r="D20" s="98" t="s">
-        <v>4502</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="98" t="s">
-        <v>4284</v>
-      </c>
-      <c r="G20" s="98" t="s">
-        <v>4341</v>
-      </c>
-      <c r="H20" s="99" t="s">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="94" t="s">
-        <v>3671</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>4459</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>4481</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>4503</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="101" t="s">
-        <v>4282</v>
-      </c>
-      <c r="G21" s="101" t="s">
-        <v>4342</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>4641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="94" t="s">
-        <v>4640</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>4460</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>4482</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>4504</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="102" t="s">
+      <c r="E23" s="91"/>
+      <c r="F23" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="102" t="s">
+      <c r="G23" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H23" s="99" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="94" t="s">
-        <v>374</v>
-      </c>
-      <c r="B23" s="100" t="s">
-        <v>4461</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>4483</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>4505</v>
-      </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="102" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F24" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="102" t="s">
+      <c r="G24" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="102" t="s">
+      <c r="H24" s="99" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F24" s="102" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="102" t="s">
+      <c r="C25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="102" t="s">
+      <c r="D25" s="99" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="102" t="s">
+      <c r="E25" s="90"/>
+      <c r="F25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="G25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="H25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="102" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J26" s="79"/>
+      <c r="J26" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -52565,628 +52536,628 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="21.1328125" style="63" customWidth="1"/>
+    <col min="2" max="8" width="21.1328125" style="60" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B1" s="63" t="s">
-        <v>4260</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>4262</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>4261</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>4263</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>4264</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>4265</v>
+      <c r="B1" s="60" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>4250</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>4252</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>4253</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>4254</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>3660</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>4134</v>
-      </c>
-      <c r="C2" s="98" t="s">
+      <c r="B2" s="95" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>4517</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>4129</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>4132</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>4351</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>4137</v>
+      </c>
+      <c r="K2" s="93"/>
+      <c r="L2" s="89"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="91" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>4540</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>4277</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>4352</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>4332</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="93"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="91" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>4519</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>4278</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>4353</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>4333</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="93"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="91" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>4520</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>4542</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>4294</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>4354</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>4334</v>
+      </c>
+      <c r="K5" s="94"/>
+      <c r="L5" s="93"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="91" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>4521</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>4543</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>4276</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>4355</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>4335</v>
+      </c>
+      <c r="K6" s="94"/>
+      <c r="L6" s="93"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="91" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>4544</v>
+      </c>
+      <c r="F7" s="95" t="s">
+        <v>4279</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>4356</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>4336</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="93"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="91" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>4523</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>4545</v>
+      </c>
+      <c r="F8" s="95" t="s">
+        <v>4280</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>4357</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>4337</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="93"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="91" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>4524</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>4546</v>
+      </c>
+      <c r="F9" s="95" t="s">
+        <v>4281</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>4358</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>4338</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="93"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="91" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>4525</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>4547</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>4290</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>4359</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>4339</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="93"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>4526</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>4548</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>4293</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>4360</v>
+      </c>
+      <c r="H11" s="95" t="s">
+        <v>4340</v>
+      </c>
+      <c r="K11" s="94"/>
+      <c r="L11" s="93"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="91" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>4527</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>4549</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>4282</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>4361</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>4341</v>
+      </c>
+      <c r="K12" s="94"/>
+      <c r="L12" s="93"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="91" t="s">
+        <v>4627</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C13" s="96" t="s">
         <v>4528</v>
       </c>
-      <c r="D2" s="99" t="s">
-        <v>4140</v>
-      </c>
-      <c r="F2" s="99" t="s">
-        <v>4143</v>
-      </c>
-      <c r="G2" s="98" t="s">
+      <c r="D13" s="96" t="s">
+        <v>4550</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>4289</v>
+      </c>
+      <c r="G13" s="95" t="s">
         <v>4362</v>
       </c>
-      <c r="H2" s="99" t="s">
-        <v>4148</v>
-      </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="92"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="94" t="s">
-        <v>3672</v>
-      </c>
-      <c r="B3" s="98" t="s">
+      <c r="H13" s="96" t="s">
+        <v>4342</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="93"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="91" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B14" s="96" t="s">
         <v>4506</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C14" s="96" t="s">
         <v>4529</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D14" s="96" t="s">
         <v>4551</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F14" s="96" t="s">
+        <v>4291</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>4363</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>4343</v>
+      </c>
+      <c r="K14" s="94"/>
+      <c r="L14" s="93"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="91" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>4530</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>4552</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>4283</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>4364</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>4344</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="93"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="91" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>4531</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F16" s="96" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G16" s="96" t="s">
+        <v>4365</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>4345</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="L16" s="93"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="91" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>4532</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>4554</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>4285</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>4366</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>4346</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="93"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="91" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>4555</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G18" s="95" t="s">
+        <v>4367</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>4347</v>
+      </c>
+      <c r="K18" s="94"/>
+      <c r="L18" s="93"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="91" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>4534</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>4556</v>
+      </c>
+      <c r="F19" s="96" t="s">
+        <v>4287</v>
+      </c>
+      <c r="G19" s="96" t="s">
+        <v>4368</v>
+      </c>
+      <c r="H19" s="96" t="s">
+        <v>4348</v>
+      </c>
+      <c r="K19" s="94"/>
+      <c r="L19" s="93"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="91" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>4535</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>4557</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>4292</v>
+      </c>
+      <c r="G20" s="95" t="s">
+        <v>4369</v>
+      </c>
+      <c r="H20" s="96" t="s">
+        <v>4349</v>
+      </c>
+      <c r="K20" s="94"/>
+      <c r="L20" s="93"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="91" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>4536</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>4558</v>
+      </c>
+      <c r="F21" s="98" t="s">
         <v>4288</v>
       </c>
-      <c r="G3" s="98" t="s">
-        <v>4363</v>
-      </c>
-      <c r="H3" s="99" t="s">
-        <v>4343</v>
-      </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="96"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
-        <v>4636</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>4507</v>
-      </c>
-      <c r="C4" s="98" t="s">
-        <v>4530</v>
-      </c>
-      <c r="D4" s="98" t="s">
-        <v>4552</v>
-      </c>
-      <c r="F4" s="98" t="s">
-        <v>4289</v>
-      </c>
-      <c r="G4" s="98" t="s">
-        <v>4364</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>4344</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="96"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="94" t="s">
-        <v>4267</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>4508</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>4531</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>4553</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>4305</v>
-      </c>
-      <c r="G5" s="98" t="s">
-        <v>4365</v>
-      </c>
-      <c r="H5" s="98" t="s">
-        <v>4345</v>
-      </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="96"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="94" t="s">
-        <v>4642</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>4509</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>4532</v>
-      </c>
-      <c r="D6" s="99" t="s">
-        <v>4554</v>
-      </c>
-      <c r="F6" s="98" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>4366</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>4346</v>
-      </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="96"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="94" t="s">
-        <v>4644</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>4510</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>4533</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>4555</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>4290</v>
-      </c>
-      <c r="G7" s="98" t="s">
-        <v>4367</v>
-      </c>
-      <c r="H7" s="99" t="s">
-        <v>4347</v>
-      </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="96"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="94" t="s">
-        <v>4645</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>4511</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>4534</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>4556</v>
-      </c>
-      <c r="F8" s="98" t="s">
-        <v>4291</v>
-      </c>
-      <c r="G8" s="98" t="s">
-        <v>4368</v>
-      </c>
-      <c r="H8" s="99" t="s">
-        <v>4348</v>
-      </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="96"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="94" t="s">
-        <v>4646</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>4512</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>4535</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>4557</v>
-      </c>
-      <c r="F9" s="98" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>4369</v>
-      </c>
-      <c r="H9" s="99" t="s">
-        <v>4349</v>
-      </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="96"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="94" t="s">
-        <v>4647</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>4513</v>
-      </c>
-      <c r="C10" s="98" t="s">
-        <v>4536</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>4558</v>
-      </c>
-      <c r="F10" s="98" t="s">
-        <v>4301</v>
-      </c>
-      <c r="G10" s="98" t="s">
+      <c r="G21" s="98" t="s">
         <v>4370</v>
       </c>
-      <c r="H10" s="99" t="s">
+      <c r="H21" s="98" t="s">
         <v>4350</v>
       </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="96"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="94" t="s">
-        <v>4643</v>
-      </c>
-      <c r="B11" s="98" t="s">
+      <c r="K21" s="94"/>
+      <c r="L21" s="93"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="91" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B22" s="95" t="s">
         <v>4514</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C22" s="95" t="s">
         <v>4537</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D22" s="95" t="s">
         <v>4559</v>
       </c>
-      <c r="F11" s="98" t="s">
-        <v>4304</v>
-      </c>
-      <c r="G11" s="98" t="s">
-        <v>4371</v>
-      </c>
-      <c r="H11" s="98" t="s">
-        <v>4351</v>
-      </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="96"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="94" t="s">
-        <v>4637</v>
-      </c>
-      <c r="B12" s="98" t="s">
+      <c r="F22" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="94"/>
+      <c r="L22" s="93"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="91" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B23" s="95" t="s">
         <v>4515</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C23" s="95" t="s">
         <v>4538</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D23" s="95" t="s">
         <v>4560</v>
       </c>
-      <c r="F12" s="99" t="s">
-        <v>4293</v>
-      </c>
-      <c r="G12" s="99" t="s">
-        <v>4372</v>
-      </c>
-      <c r="H12" s="99" t="s">
-        <v>4352</v>
-      </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="96"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="94" t="s">
-        <v>4638</v>
-      </c>
-      <c r="B13" s="99" t="s">
+      <c r="F23" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="94"/>
+      <c r="L23" s="93"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" s="97" t="s">
         <v>4516</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C24" s="97" t="s">
         <v>4539</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D24" s="97" t="s">
         <v>4561</v>
       </c>
-      <c r="F13" s="98" t="s">
-        <v>4300</v>
-      </c>
-      <c r="G13" s="98" t="s">
-        <v>4373</v>
-      </c>
-      <c r="H13" s="99" t="s">
-        <v>4353</v>
-      </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="96"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="94" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>4517</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>4540</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>4562</v>
-      </c>
-      <c r="F14" s="99" t="s">
-        <v>4302</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>4374</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>4354</v>
-      </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="96"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="94" t="s">
-        <v>3727</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>4518</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>4541</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>4563</v>
-      </c>
-      <c r="F15" s="99" t="s">
-        <v>4294</v>
-      </c>
-      <c r="G15" s="99" t="s">
-        <v>4375</v>
-      </c>
-      <c r="H15" s="99" t="s">
-        <v>4355</v>
-      </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="96"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="94" t="s">
-        <v>3671</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>4519</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>4542</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>4564</v>
-      </c>
-      <c r="F16" s="99" t="s">
-        <v>4295</v>
-      </c>
-      <c r="G16" s="99" t="s">
-        <v>4376</v>
-      </c>
-      <c r="H16" s="99" t="s">
-        <v>4356</v>
-      </c>
-      <c r="K16" s="97"/>
-      <c r="L16" s="96"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="94" t="s">
-        <v>3666</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>4520</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>4543</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>4565</v>
-      </c>
-      <c r="F17" s="98" t="s">
-        <v>4296</v>
-      </c>
-      <c r="G17" s="98" t="s">
-        <v>4377</v>
-      </c>
-      <c r="H17" s="99" t="s">
-        <v>4357</v>
-      </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="96"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="94" t="s">
-        <v>4266</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>4521</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>4544</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>4566</v>
-      </c>
-      <c r="F18" s="98" t="s">
-        <v>4297</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>4378</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>4358</v>
-      </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="96"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="94" t="s">
-        <v>4639</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>4522</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>4545</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>4567</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>4298</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>4379</v>
-      </c>
-      <c r="H19" s="99" t="s">
-        <v>4359</v>
-      </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="96"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="94" t="s">
-        <v>3669</v>
-      </c>
-      <c r="B20" s="98" t="s">
-        <v>4523</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>4546</v>
-      </c>
-      <c r="D20" s="98" t="s">
-        <v>4568</v>
-      </c>
-      <c r="F20" s="98" t="s">
-        <v>4303</v>
-      </c>
-      <c r="G20" s="98" t="s">
-        <v>4380</v>
-      </c>
-      <c r="H20" s="99" t="s">
-        <v>4360</v>
-      </c>
-      <c r="K20" s="97"/>
-      <c r="L20" s="96"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="94" t="s">
-        <v>3671</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>4524</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>4547</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>4569</v>
-      </c>
-      <c r="F21" s="101" t="s">
-        <v>4299</v>
-      </c>
-      <c r="G21" s="101" t="s">
-        <v>4381</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>4361</v>
-      </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="96"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="94" t="s">
-        <v>3659</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>4525</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>4548</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>4570</v>
-      </c>
-      <c r="F22" s="102" t="s">
+      <c r="F24" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="102" t="s">
+      <c r="G24" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H24" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="96"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="94" t="s">
-        <v>4640</v>
-      </c>
-      <c r="B23" s="98" t="s">
-        <v>4526</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>4549</v>
-      </c>
-      <c r="D23" s="98" t="s">
-        <v>4571</v>
-      </c>
-      <c r="F23" s="102" t="s">
+      <c r="K24" s="94"/>
+      <c r="L24" s="93"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="102" t="s">
+      <c r="C25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="102" t="s">
+      <c r="D25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="96"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="94" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>4527</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>4550</v>
-      </c>
-      <c r="D24" s="100" t="s">
-        <v>4572</v>
-      </c>
-      <c r="F24" s="102" t="s">
+      <c r="F25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="102" t="s">
+      <c r="G25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="96"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="102" t="s">
+      <c r="H25" s="99" t="s">
         <v>93</v>
       </c>
     </row>
@@ -53196,15 +53167,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -53350,6 +53312,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -53357,14 +53328,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53378,6 +53341,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="6_{52BE2F94-A572-4139-8A44-E2C7CC3DCFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4B191D7-0CFB-4D74-A7BA-BE878DA86864}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="6_{52BE2F94-A572-4139-8A44-E2C7CC3DCFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C78386EE-8702-4DDB-A8EB-3D9BBE4EF44D}"/>
   <bookViews>
-    <workbookView xWindow="817" yWindow="1215" windowWidth="19478" windowHeight="13147" firstSheet="3" activeTab="3" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="2415" yWindow="277" windowWidth="19478" windowHeight="13148" firstSheet="3" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="4652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="4653">
   <si>
     <t>Variable</t>
   </si>
@@ -14059,6 +14059,9 @@
   </si>
   <si>
     <t>53.00 [42.00, 62.00]</t>
+  </si>
+  <si>
+    <t>CVD, excluding Hypertension</t>
   </si>
 </sst>
 </file>
@@ -14256,7 +14259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -14541,6 +14544,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14553,8 +14559,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14937,41 +14943,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="6"/>
       <c r="G1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="6"/>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="105" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="104"/>
+      <c r="M1" s="105"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="104" t="s">
+      <c r="Q1" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="R1" s="104"/>
+      <c r="R1" s="105"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="104" t="s">
+      <c r="V1" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="W1" s="104"/>
+      <c r="W1" s="105"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="104" t="s">
+      <c r="AA1" s="105" t="s">
         <v>647</v>
       </c>
-      <c r="AB1" s="104"/>
+      <c r="AB1" s="105"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="104" t="s">
+      <c r="AF1" s="105" t="s">
         <v>656</v>
       </c>
-      <c r="AG1" s="104"/>
+      <c r="AG1" s="105"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="24" t="s">
         <v>1042</v>
@@ -26333,47 +26339,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="6"/>
       <c r="H1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="24"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="104" t="s">
+      <c r="N1" s="105" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="104"/>
+      <c r="O1" s="105"/>
       <c r="Q1" s="24"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="104" t="s">
+      <c r="T1" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="104"/>
+      <c r="U1" s="105"/>
       <c r="W1" s="24"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="104" t="s">
+      <c r="Z1" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="104"/>
+      <c r="AA1" s="105"/>
       <c r="AC1" s="24"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="104" t="s">
+      <c r="AF1" s="105" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="104"/>
+      <c r="AG1" s="105"/>
       <c r="AI1" s="24"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="104" t="s">
+      <c r="AL1" s="105" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="104"/>
+      <c r="AM1" s="105"/>
       <c r="AO1" s="24"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="24" t="s">
@@ -37039,13 +37045,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>504</v>
@@ -37054,38 +37060,38 @@
       <c r="J1" s="1"/>
       <c r="K1" s="7"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="104" t="s">
+      <c r="N1" s="105" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="104"/>
+      <c r="O1" s="105"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="7"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="104" t="s">
+      <c r="T1" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="104"/>
+      <c r="U1" s="105"/>
       <c r="V1" s="1"/>
       <c r="W1" s="7"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="104" t="s">
+      <c r="Z1" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="104"/>
+      <c r="AA1" s="105"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="7"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="104" t="s">
+      <c r="AF1" s="105" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="104"/>
+      <c r="AG1" s="105"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="7"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="104" t="s">
+      <c r="AL1" s="105" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="104"/>
+      <c r="AM1" s="105"/>
       <c r="AO1" s="7"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="7" t="s">
@@ -49574,8 +49580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D32357-5C1C-41F6-8BDE-6FC835CC8A92}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49590,18 +49596,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="106" t="s">
         <v>3659</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105" t="s">
-        <v>3686</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="106" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106" t="s">
         <v>3690</v>
       </c>
-      <c r="G1" s="105"/>
+      <c r="G1" s="106"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2" s="103" t="s">
@@ -49653,7 +49659,7 @@
       <c r="B4" s="55" t="s">
         <v>4647</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="104" t="s">
         <v>4646</v>
       </c>
       <c r="D4" s="55" t="s">
@@ -50551,10 +50557,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD714-F6F6-44CE-A098-1B3ADD4DBD70}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -50572,16 +50578,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="107" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="G1" s="106" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="G1" s="107" t="s">
         <v>3682</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -50595,7 +50601,7 @@
         <v>3688</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>3884</v>
+        <v>3689</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>3684</v>
@@ -50604,7 +50610,7 @@
         <v>3688</v>
       </c>
       <c r="I2" s="63" t="s">
-        <v>3689</v>
+        <v>3884</v>
       </c>
       <c r="J2" s="60"/>
     </row>
@@ -50704,232 +50710,215 @@
       <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="60"/>
+      <c r="A7" s="109" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B7" s="109"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
-        <v>3859</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="59"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
+      <c r="A8" s="27" t="s">
         <v>3687</v>
       </c>
+      <c r="B8" s="27" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>4125</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>3856</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>3868</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>4133</v>
+      </c>
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="36" t="s">
+        <v>3885</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>4125</v>
+        <v>4127</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="J9" s="60"/>
     </row>
-    <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>3862</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>4126</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>3858</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>3870</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="109" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="27" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>4243</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>3888</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>3871</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>4136</v>
+      </c>
+      <c r="J12" s="60"/>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="36" t="s">
         <v>3885</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>4241</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>3861</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>3879</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>4127</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>3857</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>3869</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>4134</v>
-      </c>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="B13" s="27" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>3882</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>4129</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>3889</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>3872</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>4137</v>
+      </c>
+      <c r="J13" s="60"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="40" t="s">
         <v>3886</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>4242</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>3862</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>3880</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>4126</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>3858</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>3870</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>4135</v>
-      </c>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
-        <v>3864</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
-        <v>3687</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>4243</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>3893</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>3881</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>4128</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>3888</v>
-      </c>
-      <c r="H14" s="71" t="s">
-        <v>3871</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>4136</v>
-      </c>
-      <c r="J14" s="60"/>
-    </row>
-    <row r="15" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>4244</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>3892</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>3882</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>4129</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>3889</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>3872</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>4137</v>
-      </c>
-      <c r="J15" s="60"/>
-    </row>
-    <row r="16" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="40" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B16" s="40" t="s">
+      <c r="B14" s="40" t="s">
         <v>4245</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C14" s="59" t="s">
         <v>3891</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D14" s="74" t="s">
         <v>3883</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E14" s="70" t="s">
         <v>4130</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="61" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="61" t="s">
         <v>3890</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="H14" s="74" t="s">
         <v>3873</v>
       </c>
-      <c r="I16" s="75" t="s">
+      <c r="I14" s="75" t="s">
         <v>4138</v>
       </c>
-      <c r="J16" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="27" t="s">
+        <v>4091</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
-        <v>4091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="27" t="s">
         <v>3887</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50964,16 +50953,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="107" t="s">
         <v>3681</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="G2" s="106" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="G2" s="107" t="s">
         <v>3682</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
       <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
@@ -51376,21 +51365,21 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="108" t="s">
         <v>3681</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="39"/>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="108" t="s">
         <v>4113</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="58"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.45">
       <c r="A3" s="27"/>
@@ -53167,6 +53156,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -53312,15 +53310,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -53328,6 +53317,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53341,14 +53338,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/output/NHIS_Variables.xlsx
+++ b/output/NHIS_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Fall_2019\Capstone\nhis2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="6_{52BE2F94-A572-4139-8A44-E2C7CC3DCFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C78386EE-8702-4DDB-A8EB-3D9BBE4EF44D}"/>
+  <xr:revisionPtr revIDLastSave="658" documentId="6_{52BE2F94-A572-4139-8A44-E2C7CC3DCFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2219039-A294-4FA5-92CD-EACDC89C645D}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="277" windowWidth="19478" windowHeight="13148" firstSheet="3" activeTab="4" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
+    <workbookView xWindow="2415" yWindow="277" windowWidth="19478" windowHeight="13148" firstSheet="3" activeTab="6" xr2:uid="{EA08A29F-E728-4C0B-869C-5685DA05B4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude NoDz (2010-2014)" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="4653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9021" uniqueCount="4661">
   <si>
     <t>Variable</t>
   </si>
@@ -14063,12 +14063,120 @@
   <si>
     <t>CVD, excluding Hypertension</t>
   </si>
+  <si>
+    <t>HR (95% CI)</t>
+  </si>
+  <si>
+    <r>
+      <t>Model 1: HR (95% CI)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Model 2: HR (95% CI)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Model 2: HR (95% CI)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CRN for CVD, narrow definition</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CRN for CVD, expanded definition</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CRN for CVD, narrow definition</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CRN for CVD, expanded definition</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14208,6 +14316,66 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -14259,7 +14427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -14354,9 +14522,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14415,9 +14580,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14426,9 +14588,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14475,9 +14634,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14547,6 +14703,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14556,11 +14715,130 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14943,41 +15221,41 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
       <c r="F1" s="6"/>
       <c r="G1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="6"/>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="102" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="105"/>
+      <c r="M1" s="102"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="105" t="s">
+      <c r="Q1" s="102" t="s">
         <v>505</v>
       </c>
-      <c r="R1" s="105"/>
+      <c r="R1" s="102"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="105" t="s">
+      <c r="V1" s="102" t="s">
         <v>646</v>
       </c>
-      <c r="W1" s="105"/>
+      <c r="W1" s="102"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="105" t="s">
+      <c r="AA1" s="102" t="s">
         <v>647</v>
       </c>
-      <c r="AB1" s="105"/>
+      <c r="AB1" s="102"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="105" t="s">
+      <c r="AF1" s="102" t="s">
         <v>656</v>
       </c>
-      <c r="AG1" s="105"/>
+      <c r="AG1" s="102"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="24" t="s">
         <v>1042</v>
@@ -24717,572 +24995,660 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CEF9B2-212A-4C2A-A5AA-DC1097B3429E}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.73046875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="60"/>
-    <col min="6" max="6" width="22.19921875" style="60" customWidth="1"/>
-    <col min="7" max="7" width="24.1328125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="16.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="60"/>
+    <col min="2" max="2" width="22.46484375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="25.73046875" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="24.1328125" style="58" customWidth="1"/>
+    <col min="8" max="8" width="19.9296875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="58"/>
     <col min="10" max="16384" width="9.06640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>4249</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>4251</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>4250</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="58" t="s">
         <v>4252</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>4253</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>4254</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
         <v>3660</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B3" s="91" t="s">
         <v>4124</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>4126</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D3" s="92" t="s">
         <v>4603</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="E3" s="27" t="s">
+        <v>3660</v>
+      </c>
+      <c r="F3" s="93" t="s">
         <v>4371</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G3" s="91" t="s">
         <v>4135</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H3" s="91" t="s">
         <v>4138</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="87" t="s">
         <v>3672</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B4" s="91" t="s">
         <v>4562</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>4582</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D4" s="91" t="s">
         <v>4604</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="E4" s="87" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F4" s="93" t="s">
         <v>4372</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G4" s="91" t="s">
         <v>4410</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H4" s="92" t="s">
         <v>4391</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="91" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="87" t="s">
         <v>4625</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B5" s="91" t="s">
         <v>4563</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C5" s="91" t="s">
         <v>4583</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D5" s="91" t="s">
         <v>4605</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="E5" s="87" t="s">
+        <v>4625</v>
+      </c>
+      <c r="F5" s="93" t="s">
         <v>4373</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G5" s="91" t="s">
         <v>4411</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H5" s="91" t="s">
         <v>4392</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="91" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="87" t="s">
         <v>4256</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B6" s="91" t="s">
         <v>4564</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C6" s="91" t="s">
         <v>4584</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D6" s="91" t="s">
         <v>4606</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="E6" s="87" t="s">
+        <v>4256</v>
+      </c>
+      <c r="F6" s="93" t="s">
         <v>4374</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G6" s="91" t="s">
         <v>4412</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H6" s="91" t="s">
         <v>4393</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="87" t="s">
         <v>4633</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B7" s="91" t="s">
         <v>4565</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C7" s="91" t="s">
         <v>4585</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D7" s="92" t="s">
         <v>4607</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="E7" s="87" t="s">
+        <v>4633</v>
+      </c>
+      <c r="F7" s="93" t="s">
         <v>4375</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G7" s="91" t="s">
         <v>4413</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H7" s="92" t="s">
         <v>4394</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="91" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="87" t="s">
         <v>4634</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B8" s="91" t="s">
         <v>4566</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C8" s="91" t="s">
         <v>4586</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D8" s="92" t="s">
         <v>4608</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="E8" s="87" t="s">
+        <v>4634</v>
+      </c>
+      <c r="F8" s="93" t="s">
         <v>4376</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G8" s="91" t="s">
         <v>4414</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H8" s="92" t="s">
         <v>4395</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="91" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="87" t="s">
         <v>4635</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B9" s="91" t="s">
         <v>4567</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C9" s="91" t="s">
         <v>4587</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D9" s="91" t="s">
         <v>4609</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="E9" s="87" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F9" s="93" t="s">
         <v>4377</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G9" s="91" t="s">
         <v>4415</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H9" s="92" t="s">
         <v>4396</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="91" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="87" t="s">
         <v>4636</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B10" s="91" t="s">
         <v>4568</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C10" s="91" t="s">
         <v>4588</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D10" s="91" t="s">
         <v>4610</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="E10" s="87" t="s">
+        <v>4636</v>
+      </c>
+      <c r="F10" s="93" t="s">
         <v>4378</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G10" s="91" t="s">
         <v>4416</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H10" s="92" t="s">
         <v>4397</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="91" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="87" t="s">
         <v>4632</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B11" s="91" t="s">
         <v>4569</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C11" s="91" t="s">
         <v>4589</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D11" s="91" t="s">
         <v>4611</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="E11" s="87" t="s">
+        <v>4632</v>
+      </c>
+      <c r="F11" s="93" t="s">
         <v>4379</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G11" s="91" t="s">
         <v>4417</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H11" s="92" t="s">
         <v>4398</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="27" t="s">
         <v>4639</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B12" s="91" t="s">
         <v>4570</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C12" s="91" t="s">
         <v>4590</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D12" s="91" t="s">
         <v>4612</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="E12" s="27" t="s">
+        <v>4639</v>
+      </c>
+      <c r="F12" s="93" t="s">
         <v>4380</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G12" s="91" t="s">
         <v>4418</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H12" s="91" t="s">
         <v>4399</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="91" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="87" t="s">
         <v>4626</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B13" s="91" t="s">
         <v>4571</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C13" s="91" t="s">
         <v>4591</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D13" s="91" t="s">
         <v>4613</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="E13" s="87" t="s">
+        <v>4626</v>
+      </c>
+      <c r="F13" s="93" t="s">
         <v>4381</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G13" s="92" t="s">
         <v>4419</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H13" s="92" t="s">
         <v>4400</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="91" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="87" t="s">
         <v>4627</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B14" s="91" t="s">
         <v>4572</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C14" s="91" t="s">
         <v>4592</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D14" s="91" t="s">
         <v>4614</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="E14" s="87" t="s">
+        <v>4627</v>
+      </c>
+      <c r="F14" s="93" t="s">
         <v>4382</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G14" s="91" t="s">
         <v>4420</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="H14" s="92" t="s">
         <v>4401</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="91" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="87" t="s">
         <v>3726</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>4573</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C15" s="92" t="s">
         <v>4593</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D15" s="92" t="s">
         <v>4615</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="E15" s="87" t="s">
+        <v>3726</v>
+      </c>
+      <c r="F15" s="94" t="s">
         <v>4383</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G15" s="92" t="s">
         <v>4421</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="H15" s="92" t="s">
         <v>4402</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="91" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="87" t="s">
         <v>3727</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B16" s="92" t="s">
         <v>4574</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C16" s="92" t="s">
         <v>4594</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D16" s="92" t="s">
         <v>4616</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="E16" s="87" t="s">
+        <v>3727</v>
+      </c>
+      <c r="F16" s="93" t="s">
         <v>4384</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G16" s="91" t="s">
         <v>4422</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>4403</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="91" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="87" t="s">
         <v>3671</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B17" s="92" t="s">
         <v>4575</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C17" s="92" t="s">
         <v>4595</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D17" s="92" t="s">
         <v>4617</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="E17" s="87" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F17" s="94" t="s">
         <v>4385</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G17" s="92" t="s">
         <v>4423</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H17" s="92" t="s">
         <v>4404</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="91" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="87" t="s">
         <v>3666</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B18" s="92" t="s">
         <v>4576</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C18" s="92" t="s">
         <v>4596</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D18" s="92" t="s">
         <v>4618</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="E18" s="87" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F18" s="93" t="s">
         <v>4386</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G18" s="91" t="s">
         <v>4424</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H18" s="92" t="s">
         <v>4405</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="91" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="87" t="s">
         <v>4255</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B19" s="91" t="s">
         <v>4577</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C19" s="91" t="s">
         <v>4597</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D19" s="91" t="s">
         <v>4619</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="E19" s="87" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F19" s="93" t="s">
         <v>4387</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G19" s="91" t="s">
         <v>4425</v>
       </c>
-      <c r="H18" s="96" t="s">
+      <c r="H19" s="92" t="s">
         <v>4406</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="91" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="87" t="s">
         <v>4628</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B20" s="92" t="s">
         <v>4578</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C20" s="91" t="s">
         <v>4598</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D20" s="91" t="s">
         <v>4620</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="E20" s="87" t="s">
+        <v>4628</v>
+      </c>
+      <c r="F20" s="94" t="s">
         <v>4388</v>
       </c>
-      <c r="G19" s="96" t="s">
+      <c r="G20" s="92" t="s">
         <v>4426</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H20" s="92" t="s">
         <v>4407</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="91" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="87" t="s">
         <v>3669</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B21" s="91" t="s">
         <v>3869</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C21" s="91" t="s">
         <v>4599</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D21" s="91" t="s">
         <v>4621</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="E21" s="87" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F21" s="93" t="s">
         <v>4389</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G21" s="91" t="s">
         <v>4427</v>
       </c>
-      <c r="H20" s="95" t="s">
+      <c r="H21" s="91" t="s">
         <v>4408</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="91" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="87" t="s">
         <v>3671</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B22" s="92" t="s">
         <v>4579</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C22" s="92" t="s">
         <v>4600</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D22" s="92" t="s">
         <v>4622</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="E22" s="87" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F22" s="94" t="s">
         <v>4390</v>
       </c>
-      <c r="G21" s="97" t="s">
+      <c r="G22" s="93" t="s">
         <v>4428</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H22" s="94" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="91" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="87" t="s">
         <v>3659</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B23" s="91" t="s">
         <v>4580</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C23" s="91" t="s">
         <v>4601</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D23" s="91" t="s">
         <v>4623</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="E23" s="87" t="s">
+        <v>3659</v>
+      </c>
+      <c r="F23" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="99" t="s">
+      <c r="G23" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H23" s="95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="91" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="87" t="s">
         <v>4629</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B24" s="93" t="s">
         <v>4581</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C24" s="93" t="s">
         <v>4602</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D24" s="93" t="s">
         <v>4624</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="E24" s="87" t="s">
+        <v>4629</v>
+      </c>
+      <c r="F24" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="99" t="s">
+      <c r="G24" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="99" t="s">
+      <c r="H24" s="95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="91"/>
-      <c r="F24" s="99" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="87"/>
+      <c r="F25" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="G25" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H25" s="95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="99" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E26" s="95" t="s">
         <v>93</v>
       </c>
     </row>
@@ -25306,42 +25672,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="73" t="s">
         <v>3894</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="73" t="s">
         <v>3924</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="73" t="s">
         <v>3958</v>
       </c>
-      <c r="W1" s="76" t="s">
+      <c r="W1" s="73" t="s">
         <v>3989</v>
       </c>
-      <c r="AE1" s="76" t="s">
+      <c r="AE1" s="73" t="s">
         <v>4011</v>
       </c>
-      <c r="AN1" s="76" t="s">
+      <c r="AN1" s="73" t="s">
         <v>4055</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="73" t="s">
         <v>3895</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="73" t="s">
         <v>3925</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="73" t="s">
         <v>3959</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="73" t="s">
         <v>3990</v>
       </c>
-      <c r="AE2" s="76" t="s">
+      <c r="AE2" s="73" t="s">
         <v>4012</v>
       </c>
-      <c r="AN2" s="76" t="s">
+      <c r="AN2" s="73" t="s">
         <v>4056</v>
       </c>
     </row>
@@ -25349,243 +25715,243 @@
       <c r="A3" t="s">
         <v>3914</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="73" t="s">
         <v>3896</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="73" t="s">
         <v>3926</v>
       </c>
-      <c r="P3" s="76" t="s">
+      <c r="P3" s="73" t="s">
         <v>3960</v>
       </c>
-      <c r="W3" s="76" t="s">
+      <c r="W3" s="73" t="s">
         <v>3991</v>
       </c>
-      <c r="AE3" s="76" t="s">
+      <c r="AE3" s="73" t="s">
         <v>4013</v>
       </c>
-      <c r="AN3" s="76" t="s">
+      <c r="AN3" s="73" t="s">
         <v>4057</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="73" t="s">
         <v>3897</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="73" t="s">
         <v>3927</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>3961</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="73" t="s">
         <v>3992</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="73" t="s">
         <v>4014</v>
       </c>
-      <c r="AN4" s="76" t="s">
+      <c r="AN4" s="73" t="s">
         <v>4058</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="73" t="s">
         <v>3898</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="73" t="s">
         <v>3928</v>
       </c>
-      <c r="P5" s="76" t="s">
+      <c r="P5" s="73" t="s">
         <v>3962</v>
       </c>
-      <c r="W5" s="76" t="s">
+      <c r="W5" s="73" t="s">
         <v>3993</v>
       </c>
-      <c r="AE5" s="76" t="s">
+      <c r="AE5" s="73" t="s">
         <v>4015</v>
       </c>
-      <c r="AN5" s="76" t="s">
+      <c r="AN5" s="73" t="s">
         <v>4059</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="73" t="s">
         <v>3899</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="73" t="s">
         <v>3929</v>
       </c>
-      <c r="P6" s="76" t="s">
+      <c r="P6" s="73" t="s">
         <v>3963</v>
       </c>
-      <c r="W6" s="76" t="s">
+      <c r="W6" s="73" t="s">
         <v>3994</v>
       </c>
-      <c r="AE6" s="76" t="s">
+      <c r="AE6" s="73" t="s">
         <v>4016</v>
       </c>
-      <c r="AN6" s="76" t="s">
+      <c r="AN6" s="73" t="s">
         <v>4060</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="73" t="s">
         <v>3900</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="73" t="s">
         <v>3930</v>
       </c>
-      <c r="P7" s="76" t="s">
+      <c r="P7" s="73" t="s">
         <v>3964</v>
       </c>
-      <c r="W7" s="76" t="s">
+      <c r="W7" s="73" t="s">
         <v>3995</v>
       </c>
-      <c r="AE7" s="76" t="s">
+      <c r="AE7" s="73" t="s">
         <v>4017</v>
       </c>
-      <c r="AN7" s="76" t="s">
+      <c r="AN7" s="73" t="s">
         <v>4061</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="73" t="s">
         <v>3901</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="73" t="s">
         <v>3931</v>
       </c>
-      <c r="P8" s="76" t="s">
+      <c r="P8" s="73" t="s">
         <v>3965</v>
       </c>
-      <c r="W8" s="76" t="s">
+      <c r="W8" s="73" t="s">
         <v>3996</v>
       </c>
-      <c r="AE8" s="76" t="s">
+      <c r="AE8" s="73" t="s">
         <v>4018</v>
       </c>
-      <c r="AN8" s="76" t="s">
+      <c r="AN8" s="73" t="s">
         <v>4062</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="73" t="s">
         <v>3902</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="73" t="s">
         <v>3932</v>
       </c>
-      <c r="P9" s="76" t="s">
+      <c r="P9" s="73" t="s">
         <v>3966</v>
       </c>
-      <c r="W9" s="76" t="s">
+      <c r="W9" s="73" t="s">
         <v>3997</v>
       </c>
-      <c r="AE9" s="76" t="s">
+      <c r="AE9" s="73" t="s">
         <v>4019</v>
       </c>
-      <c r="AN9" s="76" t="s">
+      <c r="AN9" s="73" t="s">
         <v>4063</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="74" t="s">
         <v>3903</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="73" t="s">
         <v>3933</v>
       </c>
-      <c r="P10" s="77" t="s">
+      <c r="P10" s="74" t="s">
         <v>3967</v>
       </c>
-      <c r="W10" s="76" t="s">
+      <c r="W10" s="73" t="s">
         <v>3998</v>
       </c>
-      <c r="AE10" s="76" t="s">
+      <c r="AE10" s="73" t="s">
         <v>4020</v>
       </c>
-      <c r="AN10" s="76" t="s">
+      <c r="AN10" s="73" t="s">
         <v>4064</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="74" t="s">
         <v>3934</v>
       </c>
-      <c r="W11" s="77" t="s">
+      <c r="W11" s="74" t="s">
         <v>3999</v>
       </c>
-      <c r="AE11" s="77" t="s">
+      <c r="AE11" s="74" t="s">
         <v>4021</v>
       </c>
-      <c r="AN11" s="77" t="s">
+      <c r="AN11" s="74" t="s">
         <v>4065</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="81"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
     </row>
     <row r="14" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="73" t="s">
         <v>3904</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="73" t="s">
         <v>3935</v>
       </c>
-      <c r="P14" s="76" t="s">
+      <c r="P14" s="73" t="s">
         <v>3968</v>
       </c>
-      <c r="W14" s="76" t="s">
+      <c r="W14" s="73" t="s">
         <v>4023</v>
       </c>
-      <c r="AE14" s="82" t="s">
+      <c r="AE14" s="78" t="s">
         <v>4035</v>
       </c>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="83"/>
-      <c r="AN14" s="76" t="s">
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="73" t="s">
         <v>4066</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="73" t="s">
         <v>3905</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="73" t="s">
         <v>3936</v>
       </c>
-      <c r="P15" s="76" t="s">
+      <c r="P15" s="73" t="s">
         <v>3969</v>
       </c>
-      <c r="W15" s="76" t="s">
+      <c r="W15" s="73" t="s">
         <v>4024</v>
       </c>
-      <c r="AE15" s="82" t="s">
+      <c r="AE15" s="78" t="s">
         <v>4036</v>
       </c>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="83"/>
-      <c r="AJ15" s="83"/>
-      <c r="AK15" s="83"/>
-      <c r="AL15" s="83"/>
-      <c r="AM15" s="83"/>
-      <c r="AN15" s="76" t="s">
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="73" t="s">
         <v>4067</v>
       </c>
     </row>
@@ -25593,306 +25959,306 @@
       <c r="A16" t="s">
         <v>3686</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="73" t="s">
         <v>3906</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="73" t="s">
         <v>3937</v>
       </c>
-      <c r="P16" s="76" t="s">
+      <c r="P16" s="73" t="s">
         <v>3970</v>
       </c>
-      <c r="W16" s="76" t="s">
+      <c r="W16" s="73" t="s">
         <v>4025</v>
       </c>
-      <c r="AE16" s="82" t="s">
+      <c r="AE16" s="78" t="s">
         <v>4037</v>
       </c>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="83"/>
-      <c r="AM16" s="83"/>
-      <c r="AN16" s="76" t="s">
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+      <c r="AN16" s="73" t="s">
         <v>4068</v>
       </c>
     </row>
     <row r="17" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="73" t="s">
         <v>3907</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="73" t="s">
         <v>3938</v>
       </c>
-      <c r="P17" s="76" t="s">
+      <c r="P17" s="73" t="s">
         <v>3971</v>
       </c>
-      <c r="W17" s="76" t="s">
+      <c r="W17" s="73" t="s">
         <v>4026</v>
       </c>
-      <c r="AE17" s="82" t="s">
+      <c r="AE17" s="78" t="s">
         <v>4038</v>
       </c>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="76" t="s">
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="73" t="s">
         <v>4069</v>
       </c>
     </row>
     <row r="18" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="73" t="s">
         <v>3908</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="73" t="s">
         <v>3939</v>
       </c>
-      <c r="P18" s="76" t="s">
+      <c r="P18" s="73" t="s">
         <v>3972</v>
       </c>
-      <c r="W18" s="76" t="s">
+      <c r="W18" s="73" t="s">
         <v>4027</v>
       </c>
-      <c r="AE18" s="82" t="s">
+      <c r="AE18" s="78" t="s">
         <v>4039</v>
       </c>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="83"/>
-      <c r="AM18" s="83"/>
-      <c r="AN18" s="76" t="s">
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="79"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="73" t="s">
         <v>4070</v>
       </c>
     </row>
     <row r="19" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="73" t="s">
         <v>3909</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="73" t="s">
         <v>3940</v>
       </c>
-      <c r="P19" s="76" t="s">
+      <c r="P19" s="73" t="s">
         <v>3973</v>
       </c>
-      <c r="W19" s="76" t="s">
+      <c r="W19" s="73" t="s">
         <v>4028</v>
       </c>
-      <c r="AE19" s="82" t="s">
+      <c r="AE19" s="78" t="s">
         <v>4040</v>
       </c>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="83"/>
-      <c r="AJ19" s="83"/>
-      <c r="AK19" s="83"/>
-      <c r="AL19" s="83"/>
-      <c r="AM19" s="83"/>
-      <c r="AN19" s="76" t="s">
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="79"/>
+      <c r="AN19" s="73" t="s">
         <v>4071</v>
       </c>
     </row>
     <row r="20" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="73" t="s">
         <v>3910</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="73" t="s">
         <v>3941</v>
       </c>
-      <c r="P20" s="76" t="s">
+      <c r="P20" s="73" t="s">
         <v>3974</v>
       </c>
-      <c r="W20" s="76" t="s">
+      <c r="W20" s="73" t="s">
         <v>4029</v>
       </c>
-      <c r="AE20" s="82" t="s">
+      <c r="AE20" s="78" t="s">
         <v>4041</v>
       </c>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="83"/>
-      <c r="AJ20" s="83"/>
-      <c r="AK20" s="83"/>
-      <c r="AL20" s="83"/>
-      <c r="AM20" s="83"/>
-      <c r="AN20" s="76" t="s">
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="79"/>
+      <c r="AM20" s="79"/>
+      <c r="AN20" s="73" t="s">
         <v>4072</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="73" t="s">
         <v>3911</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="73" t="s">
         <v>3942</v>
       </c>
-      <c r="P21" s="76" t="s">
+      <c r="P21" s="73" t="s">
         <v>3975</v>
       </c>
-      <c r="W21" s="76" t="s">
+      <c r="W21" s="73" t="s">
         <v>4030</v>
       </c>
-      <c r="AE21" s="82" t="s">
+      <c r="AE21" s="78" t="s">
         <v>4042</v>
       </c>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="83"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="83"/>
-      <c r="AM21" s="83"/>
-      <c r="AN21" s="76" t="s">
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="73" t="s">
         <v>4073</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="73" t="s">
         <v>3912</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="73" t="s">
         <v>3943</v>
       </c>
-      <c r="P22" s="76" t="s">
+      <c r="P22" s="73" t="s">
         <v>3976</v>
       </c>
-      <c r="W22" s="76" t="s">
+      <c r="W22" s="73" t="s">
         <v>4031</v>
       </c>
-      <c r="AE22" s="82" t="s">
+      <c r="AE22" s="78" t="s">
         <v>4043</v>
       </c>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="83"/>
-      <c r="AH22" s="83"/>
-      <c r="AI22" s="83"/>
-      <c r="AJ22" s="83"/>
-      <c r="AK22" s="83"/>
-      <c r="AL22" s="83"/>
-      <c r="AM22" s="83"/>
-      <c r="AN22" s="76" t="s">
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="73" t="s">
         <v>4074</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="74" t="s">
         <v>3913</v>
       </c>
-      <c r="I23" s="76" t="s">
+      <c r="I23" s="73" t="s">
         <v>3944</v>
       </c>
-      <c r="P23" s="76" t="s">
+      <c r="P23" s="73" t="s">
         <v>3977</v>
       </c>
-      <c r="W23" s="76" t="s">
+      <c r="W23" s="73" t="s">
         <v>4032</v>
       </c>
-      <c r="AE23" s="82" t="s">
+      <c r="AE23" s="78" t="s">
         <v>4044</v>
       </c>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="83"/>
-      <c r="AJ23" s="83"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="83"/>
-      <c r="AM23" s="83"/>
-      <c r="AN23" s="76" t="s">
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="79"/>
+      <c r="AM23" s="79"/>
+      <c r="AN23" s="73" t="s">
         <v>4075</v>
       </c>
     </row>
     <row r="24" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="C24" s="77"/>
-      <c r="I24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="I24" s="73" t="s">
         <v>3945</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="74" t="s">
         <v>3978</v>
       </c>
-      <c r="W24" s="76" t="s">
+      <c r="W24" s="73" t="s">
         <v>4033</v>
       </c>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
-      <c r="AI24" s="83"/>
-      <c r="AJ24" s="83"/>
-      <c r="AK24" s="83"/>
-      <c r="AL24" s="83"/>
-      <c r="AM24" s="83"/>
-      <c r="AN24" s="76" t="s">
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="79"/>
+      <c r="AM24" s="79"/>
+      <c r="AN24" s="73" t="s">
         <v>4076</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="I25" s="77" t="s">
+      <c r="I25" s="74" t="s">
         <v>3946</v>
       </c>
-      <c r="W25" s="77" t="s">
+      <c r="W25" s="74" t="s">
         <v>4034</v>
       </c>
-      <c r="AE25" s="85" t="s">
+      <c r="AE25" s="81" t="s">
         <v>4010</v>
       </c>
-      <c r="AF25" s="83"/>
-      <c r="AG25" s="83"/>
-      <c r="AH25" s="83"/>
-      <c r="AI25" s="83"/>
-      <c r="AJ25" s="83"/>
-      <c r="AK25" s="83"/>
-      <c r="AL25" s="83"/>
-      <c r="AM25" s="83"/>
-      <c r="AN25" s="77" t="s">
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="79"/>
+      <c r="AM25" s="79"/>
+      <c r="AN25" s="74" t="s">
         <v>4077</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="73" t="s">
         <v>3915</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="73" t="s">
         <v>3947</v>
       </c>
-      <c r="P27" s="76" t="s">
+      <c r="P27" s="73" t="s">
         <v>3979</v>
       </c>
-      <c r="W27" s="76" t="s">
+      <c r="W27" s="73" t="s">
         <v>4022</v>
       </c>
-      <c r="AE27" s="76" t="s">
+      <c r="AE27" s="73" t="s">
         <v>4045</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="73" t="s">
         <v>3916</v>
       </c>
-      <c r="I28" s="76" t="s">
+      <c r="I28" s="73" t="s">
         <v>3948</v>
       </c>
-      <c r="P28" s="76" t="s">
+      <c r="P28" s="73" t="s">
         <v>3980</v>
       </c>
-      <c r="W28" s="76" t="s">
+      <c r="W28" s="73" t="s">
         <v>4000</v>
       </c>
-      <c r="AE28" s="76" t="s">
+      <c r="AE28" s="73" t="s">
         <v>4046</v>
       </c>
       <c r="AN28" s="27"/>
@@ -25912,22 +26278,22 @@
       <c r="A29" t="s">
         <v>3923</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="73" t="s">
         <v>3917</v>
       </c>
-      <c r="I29" s="76" t="s">
+      <c r="I29" s="73" t="s">
         <v>3949</v>
       </c>
-      <c r="P29" s="76" t="s">
+      <c r="P29" s="73" t="s">
         <v>3981</v>
       </c>
-      <c r="W29" s="76" t="s">
+      <c r="W29" s="73" t="s">
         <v>4001</v>
       </c>
-      <c r="AE29" s="76" t="s">
+      <c r="AE29" s="73" t="s">
         <v>4047</v>
       </c>
-      <c r="AN29" s="86" t="s">
+      <c r="AN29" s="82" t="s">
         <v>4078</v>
       </c>
       <c r="AO29" s="27"/>
@@ -25943,22 +26309,22 @@
       <c r="AY29" s="27"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="73" t="s">
         <v>3918</v>
       </c>
-      <c r="I30" s="76" t="s">
+      <c r="I30" s="73" t="s">
         <v>3950</v>
       </c>
-      <c r="P30" s="76" t="s">
+      <c r="P30" s="73" t="s">
         <v>3982</v>
       </c>
-      <c r="W30" s="76" t="s">
+      <c r="W30" s="73" t="s">
         <v>4002</v>
       </c>
-      <c r="AE30" s="76" t="s">
+      <c r="AE30" s="73" t="s">
         <v>4048</v>
       </c>
-      <c r="AN30" s="86" t="s">
+      <c r="AN30" s="82" t="s">
         <v>4079</v>
       </c>
       <c r="AO30" s="27"/>
@@ -25974,22 +26340,22 @@
       <c r="AY30" s="27"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="73" t="s">
         <v>3919</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="73" t="s">
         <v>3951</v>
       </c>
-      <c r="P31" s="76" t="s">
+      <c r="P31" s="73" t="s">
         <v>3983</v>
       </c>
-      <c r="W31" s="76" t="s">
+      <c r="W31" s="73" t="s">
         <v>4003</v>
       </c>
-      <c r="AE31" s="76" t="s">
+      <c r="AE31" s="73" t="s">
         <v>4049</v>
       </c>
-      <c r="AN31" s="86" t="s">
+      <c r="AN31" s="82" t="s">
         <v>4080</v>
       </c>
       <c r="AO31" s="27"/>
@@ -26005,22 +26371,22 @@
       <c r="AY31" s="27"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="73" t="s">
         <v>3920</v>
       </c>
-      <c r="I32" s="76" t="s">
+      <c r="I32" s="73" t="s">
         <v>3952</v>
       </c>
-      <c r="P32" s="76" t="s">
+      <c r="P32" s="73" t="s">
         <v>3984</v>
       </c>
-      <c r="W32" s="76" t="s">
+      <c r="W32" s="73" t="s">
         <v>4004</v>
       </c>
-      <c r="AE32" s="76" t="s">
+      <c r="AE32" s="73" t="s">
         <v>4050</v>
       </c>
-      <c r="AN32" s="86" t="s">
+      <c r="AN32" s="82" t="s">
         <v>4081</v>
       </c>
       <c r="AO32" s="27"/>
@@ -26036,22 +26402,22 @@
       <c r="AY32" s="27"/>
     </row>
     <row r="33" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="73" t="s">
         <v>3921</v>
       </c>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="73" t="s">
         <v>3953</v>
       </c>
-      <c r="P33" s="76" t="s">
+      <c r="P33" s="73" t="s">
         <v>3985</v>
       </c>
-      <c r="W33" s="76" t="s">
+      <c r="W33" s="73" t="s">
         <v>4005</v>
       </c>
-      <c r="AE33" s="76" t="s">
+      <c r="AE33" s="73" t="s">
         <v>4051</v>
       </c>
-      <c r="AN33" s="86" t="s">
+      <c r="AN33" s="82" t="s">
         <v>4082</v>
       </c>
       <c r="AO33" s="27"/>
@@ -26067,22 +26433,22 @@
       <c r="AY33" s="27"/>
     </row>
     <row r="34" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="74" t="s">
         <v>3922</v>
       </c>
-      <c r="I34" s="76" t="s">
+      <c r="I34" s="73" t="s">
         <v>3954</v>
       </c>
-      <c r="P34" s="76" t="s">
+      <c r="P34" s="73" t="s">
         <v>3986</v>
       </c>
-      <c r="W34" s="76" t="s">
+      <c r="W34" s="73" t="s">
         <v>4006</v>
       </c>
-      <c r="AE34" s="76" t="s">
+      <c r="AE34" s="73" t="s">
         <v>4052</v>
       </c>
-      <c r="AN34" s="86" t="s">
+      <c r="AN34" s="82" t="s">
         <v>4083</v>
       </c>
       <c r="AO34" s="27"/>
@@ -26098,19 +26464,19 @@
       <c r="AY34" s="27"/>
     </row>
     <row r="35" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="I35" s="76" t="s">
+      <c r="I35" s="73" t="s">
         <v>3955</v>
       </c>
-      <c r="P35" s="76" t="s">
+      <c r="P35" s="73" t="s">
         <v>3987</v>
       </c>
-      <c r="W35" s="76" t="s">
+      <c r="W35" s="73" t="s">
         <v>4007</v>
       </c>
-      <c r="AE35" s="76" t="s">
+      <c r="AE35" s="73" t="s">
         <v>4053</v>
       </c>
-      <c r="AN35" s="86" t="s">
+      <c r="AN35" s="82" t="s">
         <v>4084</v>
       </c>
       <c r="AO35" s="27"/>
@@ -26126,19 +26492,19 @@
       <c r="AY35" s="27"/>
     </row>
     <row r="36" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="I36" s="76" t="s">
+      <c r="I36" s="73" t="s">
         <v>3956</v>
       </c>
-      <c r="P36" s="77" t="s">
+      <c r="P36" s="74" t="s">
         <v>3988</v>
       </c>
-      <c r="W36" s="76" t="s">
+      <c r="W36" s="73" t="s">
         <v>4008</v>
       </c>
-      <c r="AE36" s="77" t="s">
+      <c r="AE36" s="74" t="s">
         <v>4054</v>
       </c>
-      <c r="AN36" s="86" t="s">
+      <c r="AN36" s="82" t="s">
         <v>4085</v>
       </c>
       <c r="AO36" s="27"/>
@@ -26154,13 +26520,13 @@
       <c r="AY36" s="27"/>
     </row>
     <row r="37" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="I37" s="77" t="s">
+      <c r="I37" s="74" t="s">
         <v>3957</v>
       </c>
-      <c r="W37" s="77" t="s">
+      <c r="W37" s="74" t="s">
         <v>4009</v>
       </c>
-      <c r="AN37" s="86" t="s">
+      <c r="AN37" s="82" t="s">
         <v>4086</v>
       </c>
       <c r="AO37" s="27"/>
@@ -26176,7 +26542,7 @@
       <c r="AY37" s="27"/>
     </row>
     <row r="38" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN38" s="86" t="s">
+      <c r="AN38" s="82" t="s">
         <v>4087</v>
       </c>
       <c r="AO38" s="27"/>
@@ -26192,7 +26558,7 @@
       <c r="AY38" s="27"/>
     </row>
     <row r="39" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN39" s="86" t="s">
+      <c r="AN39" s="82" t="s">
         <v>4088</v>
       </c>
       <c r="AO39" s="27"/>
@@ -26208,7 +26574,7 @@
       <c r="AY39" s="27"/>
     </row>
     <row r="40" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN40" s="86" t="s">
+      <c r="AN40" s="82" t="s">
         <v>4089</v>
       </c>
       <c r="AO40" s="27"/>
@@ -26224,7 +26590,7 @@
       <c r="AY40" s="27"/>
     </row>
     <row r="41" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN41" s="87"/>
+      <c r="AN41" s="83"/>
       <c r="AO41" s="27"/>
       <c r="AP41" s="27"/>
       <c r="AQ41" s="27"/>
@@ -26238,7 +26604,7 @@
       <c r="AY41" s="27"/>
     </row>
     <row r="42" spans="3:51" x14ac:dyDescent="0.45">
-      <c r="AN42" s="88" t="s">
+      <c r="AN42" s="84" t="s">
         <v>4010</v>
       </c>
       <c r="AO42" s="27"/>
@@ -26339,47 +26705,47 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="6"/>
       <c r="H1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="K1" s="24"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="105" t="s">
+      <c r="N1" s="102" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="102"/>
       <c r="Q1" s="24"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="105" t="s">
+      <c r="T1" s="102" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="105"/>
+      <c r="U1" s="102"/>
       <c r="W1" s="24"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="105" t="s">
+      <c r="Z1" s="102" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="105"/>
+      <c r="AA1" s="102"/>
       <c r="AC1" s="24"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="105" t="s">
+      <c r="AF1" s="102" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="105"/>
+      <c r="AG1" s="102"/>
       <c r="AI1" s="24"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="105" t="s">
+      <c r="AL1" s="102" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="105"/>
+      <c r="AM1" s="102"/>
       <c r="AO1" s="24"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="24" t="s">
@@ -37045,13 +37411,13 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>504</v>
@@ -37060,38 +37426,38 @@
       <c r="J1" s="1"/>
       <c r="K1" s="7"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="105" t="s">
+      <c r="N1" s="102" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="102"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="7"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="105" t="s">
+      <c r="T1" s="102" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="105"/>
+      <c r="U1" s="102"/>
       <c r="V1" s="1"/>
       <c r="W1" s="7"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="105" t="s">
+      <c r="Z1" s="102" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="105"/>
+      <c r="AA1" s="102"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="7"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="105" t="s">
+      <c r="AF1" s="102" t="s">
         <v>647</v>
       </c>
-      <c r="AG1" s="105"/>
+      <c r="AG1" s="102"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="7"/>
       <c r="AK1" s="6"/>
-      <c r="AL1" s="105" t="s">
+      <c r="AL1" s="102" t="s">
         <v>656</v>
       </c>
-      <c r="AM1" s="105"/>
+      <c r="AM1" s="102"/>
       <c r="AO1" s="7"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="7" t="s">
@@ -49586,962 +49952,962 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="103" customWidth="1"/>
-    <col min="3" max="3" width="14.265625" style="103" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="103" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" style="103" customWidth="1"/>
-    <col min="6" max="6" width="14.1328125" style="103" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="103" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="99" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" style="99" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" style="99" customWidth="1"/>
+    <col min="6" max="6" width="14.1328125" style="99" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="103" t="s">
         <v>3659</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="103" t="s">
         <v>4652</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103" t="s">
         <v>3690</v>
       </c>
-      <c r="G1" s="106"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>3660</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="99" t="s">
         <v>3661</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="99" t="s">
         <v>3660</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>3661</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="99" t="s">
         <v>3660</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="99" t="s">
         <v>3661</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>3695</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>4640</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>4641</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>4642</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>4643</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>4644</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>4645</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>3842</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>4647</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="100" t="s">
         <v>4646</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>4648</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>4649</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>4651</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>4650</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>3729</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>3728</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>3766</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>3765</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>3801</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>3800</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>3843</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>3845</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>3844</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>3847</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>3846</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>3849</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="54" t="s">
         <v>3848</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>3674</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>3731</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>3730</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>3768</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>3767</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="52" t="s">
         <v>3803</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="52" t="s">
         <v>3802</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>3662</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>3733</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>3732</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>3770</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>3769</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>3805</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="52" t="s">
         <v>3804</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>3663</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>3735</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>3734</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>3772</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>3771</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>3807</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="52" t="s">
         <v>3806</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>3664</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>3737</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>3736</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>3774</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>3773</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="52" t="s">
         <v>3809</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="52" t="s">
         <v>3808</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>3665</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>3739</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>3738</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>3776</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>3775</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="52" t="s">
         <v>3811</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>3810</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>3666</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>3741</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>3740</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>3778</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>3777</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="52" t="s">
         <v>3813</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="52" t="s">
         <v>3812</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>3667</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="52" t="s">
         <v>3743</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>3742</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>4169</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>4172</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>3814</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="52" t="s">
         <v>4179</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>3668</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>4162</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>4165</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>4170</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>4173</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>4176</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="52" t="s">
         <v>4180</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>3669</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>4163</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>4166</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>4171</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>4174</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="52" t="s">
         <v>4177</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="52" t="s">
         <v>4181</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>3671</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>4164</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="52" t="s">
         <v>4167</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>4168</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>4175</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="52" t="s">
         <v>4178</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="52" t="s">
         <v>4182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>3723</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>3744</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="52" t="s">
         <v>3840</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>3779</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>4637</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="52" t="s">
         <v>3815</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="52" t="s">
         <v>4638</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>3724</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>3746</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="52" t="s">
         <v>3745</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="52" t="s">
         <v>3781</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="52" t="s">
         <v>3780</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="52" t="s">
         <v>3817</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="52" t="s">
         <v>3816</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="43" t="s">
         <v>3725</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="52" t="s">
         <v>3748</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="52" t="s">
         <v>3747</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>3783</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="52" t="s">
         <v>3782</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="52" t="s">
         <v>3819</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="52" t="s">
         <v>3818</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="43" t="s">
         <v>3726</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="52" t="s">
         <v>4156</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="52" t="s">
         <v>4157</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="52" t="s">
         <v>4158</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="52" t="s">
         <v>4159</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="52" t="s">
         <v>4160</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="52" t="s">
         <v>4161</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="43" t="s">
         <v>3727</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="52" t="s">
         <v>3750</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="52" t="s">
         <v>3749</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="52" t="s">
         <v>3785</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="52" t="s">
         <v>3784</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="52" t="s">
         <v>3821</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="52" t="s">
         <v>3820</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="43" t="s">
         <v>3671</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="52" t="s">
         <v>4155</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="52" t="s">
         <v>4154</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="52" t="s">
         <v>4153</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="52" t="s">
         <v>3841</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="52" t="s">
         <v>4152</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="52" t="s">
         <v>4151</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>3670</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>3752</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>3751</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="52" t="s">
         <v>3787</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="52" t="s">
         <v>3786</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="52" t="s">
         <v>3823</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="52" t="s">
         <v>3822</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>3672</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="52" t="s">
         <v>3754</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>3753</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="52" t="s">
         <v>3789</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="52" t="s">
         <v>3788</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="52" t="s">
         <v>3825</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="52" t="s">
         <v>3824</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>3673</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="52" t="s">
         <v>3756</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="52" t="s">
         <v>3755</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="52" t="s">
         <v>3791</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="52" t="s">
         <v>3790</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="52" t="s">
         <v>3827</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="52" t="s">
         <v>3826</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="98" t="s">
         <v>4631</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>3758</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="52" t="s">
         <v>3757</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="52" t="s">
         <v>3793</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="52" t="s">
         <v>3792</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="52" t="s">
         <v>3829</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="52" t="s">
         <v>3828</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="98" t="s">
         <v>4633</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="52" t="s">
         <v>3760</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="52" t="s">
         <v>3759</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="52" t="s">
         <v>3795</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="52" t="s">
         <v>3794</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="52" t="s">
         <v>3831</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52" t="s">
         <v>3830</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="98" t="s">
         <v>4634</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="52" t="s">
         <v>3762</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="52" t="s">
         <v>3761</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="52" t="s">
         <v>3797</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="52" t="s">
         <v>3796</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="52" t="s">
         <v>3833</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="52" t="s">
         <v>3832</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="98" t="s">
         <v>4635</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="52" t="s">
         <v>4146</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="52" t="s">
         <v>3763</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="52" t="s">
         <v>4143</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="52" t="s">
         <v>3798</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="52" t="s">
         <v>4140</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="52" t="s">
         <v>3834</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="98" t="s">
         <v>4636</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>4147</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="52" t="s">
         <v>4149</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>4144</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="52" t="s">
         <v>4142</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="52" t="s">
         <v>4141</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="G35" s="52" t="s">
         <v>4150</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="98" t="s">
         <v>4632</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>4148</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="52" t="s">
         <v>3764</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="52" t="s">
         <v>4145</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="52" t="s">
         <v>3799</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="52" t="s">
         <v>4139</v>
       </c>
-      <c r="G36" s="53" t="s">
+      <c r="G36" s="52" t="s">
         <v>3835</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="43" t="s">
         <v>3677</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>3708</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="53" t="s">
         <v>3707</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="53" t="s">
         <v>3714</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="54" t="s">
         <v>3837</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="53" t="s">
         <v>3722</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="54" t="s">
         <v>3838</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="43" t="s">
         <v>3678</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="53" t="s">
         <v>3709</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="53" t="s">
         <v>3710</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="53" t="s">
         <v>3715</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="54" t="s">
         <v>3836</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="53" t="s">
         <v>3721</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="54" t="s">
         <v>3839</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="44" t="s">
         <v>3679</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="53" t="s">
         <v>3711</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="53" t="s">
         <v>3712</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="53" t="s">
         <v>3717</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="55" t="s">
         <v>3716</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="53" t="s">
         <v>3720</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="55" t="s">
         <v>3719</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="45" t="s">
         <v>3675</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="46" t="s">
         <v>3676</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="99" t="s">
         <v>3706</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="99" t="s">
         <v>3389</v>
       </c>
-      <c r="D42" s="103" t="s">
+      <c r="D42" s="99" t="s">
         <v>3713</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="50" t="s">
         <v>3863</v>
       </c>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="99" t="s">
         <v>3718</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="50" t="s">
         <v>3389</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="46" t="s">
         <v>3691</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="99" t="s">
         <v>3696</v>
       </c>
-      <c r="C43" s="103" t="s">
+      <c r="C43" s="99" t="s">
         <v>3389</v>
       </c>
-      <c r="D43" s="103" t="s">
+      <c r="D43" s="99" t="s">
         <v>3700</v>
       </c>
-      <c r="E43" s="103" t="s">
+      <c r="E43" s="99" t="s">
         <v>3389</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="99" t="s">
         <v>3703</v>
       </c>
-      <c r="G43" s="103" t="s">
+      <c r="G43" s="99" t="s">
         <v>3389</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>3692</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="99" t="s">
         <v>3697</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="99" t="s">
         <v>3389</v>
       </c>
-      <c r="D44" s="103" t="s">
+      <c r="D44" s="99" t="s">
         <v>3701</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="99" t="s">
         <v>3389</v>
       </c>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="99" t="s">
         <v>3704</v>
       </c>
-      <c r="G44" s="103" t="s">
+      <c r="G44" s="99" t="s">
         <v>3389</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="46" t="s">
         <v>3693</v>
       </c>
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="99" t="s">
         <v>3698</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="99" t="s">
         <v>3389</v>
       </c>
-      <c r="D45" s="103" t="s">
+      <c r="D45" s="99" t="s">
         <v>3702</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="99" t="s">
         <v>3389</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="F45" s="99" t="s">
         <v>3705</v>
       </c>
-      <c r="G45" s="103" t="s">
+      <c r="G45" s="99" t="s">
         <v>3389</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="47" t="s">
         <v>3699</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="46" t="s">
         <v>3694</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="46" t="s">
         <v>3680</v>
       </c>
     </row>
@@ -50559,7 +50925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BD714-F6F6-44CE-A098-1B3ADD4DBD70}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -50567,9 +50933,9 @@
   <cols>
     <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="58" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="62" customWidth="1"/>
     <col min="6" max="6" width="4.3984375" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.73046875" style="27" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="27" bestFit="1" customWidth="1"/>
@@ -50578,55 +50944,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="104" t="s">
         <v>3681</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="G1" s="107" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="G1" s="104" t="s">
         <v>3682</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="39"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>3685</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>3684</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>3688</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>3689</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="58" t="s">
         <v>3684</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>3688</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="60" t="s">
         <v>3884</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>3683</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
@@ -50635,92 +51001,92 @@
       <c r="B4" s="27" t="s">
         <v>4237</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>3853</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="68" t="s">
         <v>3875</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="69" t="s">
         <v>4122</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="58" t="s">
         <v>3850</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="68" t="s">
         <v>3865</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="69" t="s">
         <v>4131</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>3885</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>4238</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="58" t="s">
         <v>3854</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="68" t="s">
         <v>3876</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="69" t="s">
         <v>4123</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="58" t="s">
         <v>3851</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="68" t="s">
         <v>3866</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="64" t="s">
         <v>4132</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>3886</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>4239</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="58" t="s">
         <v>3855</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="68" t="s">
         <v>3877</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="69" t="s">
         <v>4124</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="58" t="s">
         <v>3852</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="68" t="s">
         <v>3867</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="69" t="s">
         <v>3874</v>
       </c>
-      <c r="J6" s="60"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="105" t="s">
         <v>3859</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="59"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
@@ -50729,92 +51095,92 @@
       <c r="B8" s="27" t="s">
         <v>4240</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="58" t="s">
         <v>3860</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="68" t="s">
         <v>3878</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="69" t="s">
         <v>4125</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="58" t="s">
         <v>3856</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="68" t="s">
         <v>3868</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="69" t="s">
         <v>4133</v>
       </c>
-      <c r="J8" s="60"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>3885</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>4241</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="58" t="s">
         <v>3861</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="68" t="s">
         <v>3879</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="69" t="s">
         <v>4127</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="58" t="s">
         <v>3857</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="68" t="s">
         <v>3869</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="69" t="s">
         <v>4134</v>
       </c>
-      <c r="J9" s="60"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>3886</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="56" t="s">
         <v>4242</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>3862</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="70" t="s">
         <v>3880</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="69" t="s">
         <v>4126</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>3858</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="70" t="s">
         <v>3870</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="69" t="s">
         <v>4135</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="105" t="s">
         <v>3864</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="59"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="27" t="s">
@@ -50823,80 +51189,80 @@
       <c r="B12" s="27" t="s">
         <v>4243</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="58" t="s">
         <v>3893</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="68" t="s">
         <v>3881</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="64" t="s">
         <v>4128</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="58" t="s">
         <v>3888</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="68" t="s">
         <v>3871</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="64" t="s">
         <v>4136</v>
       </c>
-      <c r="J12" s="60"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>3885</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>4244</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="58" t="s">
         <v>3892</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="68" t="s">
         <v>3882</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="64" t="s">
         <v>4129</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="58" t="s">
         <v>3889</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="68" t="s">
         <v>3872</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="64" t="s">
         <v>4137</v>
       </c>
-      <c r="J13" s="60"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>3886</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>4245</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>3891</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="71" t="s">
         <v>3883</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="67" t="s">
         <v>4130</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="61" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="59" t="s">
         <v>3890</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="71" t="s">
         <v>3873</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="72" t="s">
         <v>4138</v>
       </c>
-      <c r="J14" s="59"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
@@ -50930,20 +51296,20 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" style="62" customWidth="1"/>
     <col min="6" max="6" width="4.3984375" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.73046875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.53125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.86328125" style="27" customWidth="1"/>
     <col min="10" max="16384" width="9.06640625" style="27"/>
   </cols>
   <sheetData>
@@ -50953,345 +51319,360 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108" t="s">
         <v>3681</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="G2" s="107" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="108" t="s">
         <v>3682</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B3" s="37" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="107"/>
+      <c r="B3" s="109" t="s">
         <v>3685</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="110" t="s">
         <v>3684</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>3688</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3884</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="D3" s="109" t="s">
+        <v>4654</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>4655</v>
+      </c>
+      <c r="F3" s="107"/>
+      <c r="G3" s="110" t="s">
         <v>3684</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>3688</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>3689</v>
-      </c>
-      <c r="J3" s="60"/>
+      <c r="H3" s="109" t="s">
+        <v>4654</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>4656</v>
+      </c>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="112" t="s">
         <v>3683</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="107" t="s">
         <v>3687</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="107" t="s">
         <v>4246</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="110" t="s">
         <v>4092</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="116" t="s">
         <v>4106</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="117" t="s">
         <v>4093</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="107"/>
+      <c r="G5" s="110" t="s">
         <v>4098</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="116" t="s">
         <v>4105</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="117" t="s">
         <v>4099</v>
       </c>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="118" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B6" s="107" t="s">
         <v>4247</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="110" t="s">
         <v>4094</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="116" t="s">
         <v>4107</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="117" t="s">
         <v>4095</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="110" t="s">
         <v>4100</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="116" t="s">
         <v>4104</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="119" t="s">
         <v>4101</v>
       </c>
-      <c r="J6" s="60"/>
-    </row>
-    <row r="7" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="1:10" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A7" s="120" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B7" s="113" t="s">
         <v>4248</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="114" t="s">
         <v>4096</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="121" t="s">
         <v>4108</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="122" t="s">
         <v>4097</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="78" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="114" t="s">
         <v>4102</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="121" t="s">
         <v>3883</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="122" t="s">
         <v>4103</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="112" t="s">
         <v>3859</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="79"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="107" t="s">
         <v>3687</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="107" t="s">
         <v>4214</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="110" t="s">
         <v>4224</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="116" t="s">
         <v>4220</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="117" t="s">
         <v>4219</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="107"/>
+      <c r="G9" s="110" t="s">
         <v>4201</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="116" t="s">
         <v>4197</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="117" t="s">
         <v>4196</v>
       </c>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="36" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="1:10" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A10" s="118" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B10" s="107" t="s">
         <v>4216</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="110" t="s">
         <v>4227</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="116" t="s">
         <v>4226</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="117" t="s">
         <v>4225</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="110" t="s">
         <v>4204</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="116" t="s">
         <v>4203</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="117" t="s">
         <v>4202</v>
       </c>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B11" s="58" t="s">
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A11" s="118" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B11" s="124" t="s">
         <v>4218</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="125" t="s">
         <v>4234</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="126" t="s">
         <v>4231</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="117" t="s">
         <v>4235</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="125" t="s">
         <v>4210</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="126" t="s">
         <v>4209</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="117" t="s">
         <v>4208</v>
       </c>
-      <c r="J11" s="80"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="80"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="112" t="s">
         <v>3864</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="79"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="107" t="s">
         <v>3687</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="107" t="s">
         <v>4215</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="110" t="s">
         <v>4223</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="116" t="s">
         <v>4222</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="119" t="s">
         <v>4221</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="F14" s="107"/>
+      <c r="G14" s="110" t="s">
         <v>4198</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="116" t="s">
         <v>4199</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="119" t="s">
         <v>4200</v>
       </c>
-      <c r="J14" s="60"/>
-    </row>
-    <row r="15" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A15" s="118" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B15" s="107" t="s">
         <v>4217</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="110" t="s">
         <v>4230</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="116" t="s">
         <v>4229</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="119" t="s">
         <v>4228</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="F15" s="107"/>
+      <c r="G15" s="110" t="s">
         <v>4206</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="116" t="s">
         <v>4207</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="110" t="s">
         <v>4205</v>
       </c>
-      <c r="J15" s="60"/>
-    </row>
-    <row r="16" spans="1:10" ht="43.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="40" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B16" s="40" t="s">
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A16" s="120" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B16" s="120" t="s">
         <v>3641</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="114" t="s">
         <v>4233</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="121" t="s">
         <v>4232</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="129" t="s">
         <v>4236</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="61" t="s">
+      <c r="F16" s="113"/>
+      <c r="G16" s="130" t="s">
         <v>4213</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="H16" s="121" t="s">
         <v>4212</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="129" t="s">
         <v>4211</v>
       </c>
-      <c r="J16" s="79"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="60"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
@@ -51309,10 +51690,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="39"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K31" s="60"/>
+      <c r="K31" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -51328,21 +51709,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE94E2D2-4740-4855-9F88-2CC5CEC95955}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.73046875" customWidth="1"/>
+    <col min="1" max="1" width="24.796875" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" customWidth="1"/>
     <col min="3" max="3" width="10.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.86328125" customWidth="1"/>
-    <col min="5" max="5" width="18.53125" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="4.06640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" customWidth="1"/>
-    <col min="9" max="9" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.06640625" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -51350,420 +51731,427 @@
         <v>4110</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="108" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="151" t="s">
         <v>3681</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="108" t="s">
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="151" t="s">
         <v>4113</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-    </row>
-    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="37" t="s">
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="39.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="131"/>
+      <c r="B3" s="133" t="s">
         <v>3685</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="132" t="s">
         <v>4111</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="134" t="s">
         <v>4183</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="134" t="s">
         <v>4112</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="134"/>
+      <c r="G3" s="134" t="s">
         <v>4111</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="134" t="s">
         <v>4183</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="132" t="s">
         <v>4112</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="135" t="s">
         <v>3683</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="35"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="131" t="s">
         <v>3687</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="131" t="s">
         <v>4237</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="138" t="s">
         <v>3853</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="139" t="s">
         <v>3875</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="140" t="s">
         <v>4119</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="138" t="s">
         <v>3850</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="139" t="s">
         <v>3865</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="139" t="s">
         <v>4117</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="60"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="141" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B6" s="131" t="s">
         <v>4238</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="138" t="s">
         <v>3854</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="139" t="s">
         <v>3876</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="140" t="s">
         <v>4120</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="140"/>
+      <c r="G6" s="138" t="s">
         <v>3851</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="139" t="s">
         <v>3866</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="138" t="s">
         <v>4118</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="60"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="36" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="141" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B7" s="131" t="s">
         <v>4239</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="138" t="s">
         <v>3855</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="139" t="s">
         <v>3877</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="140" t="s">
         <v>4121</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="60" t="s">
+      <c r="F7" s="140"/>
+      <c r="G7" s="138" t="s">
         <v>3852</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="139" t="s">
         <v>3867</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="139" t="s">
         <v>4116</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="60"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="60"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="135" t="s">
         <v>3859</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="79"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="131" t="s">
         <v>3687</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="131" t="s">
         <v>4240</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="138" t="s">
         <v>3860</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="139" t="s">
         <v>3878</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="140" t="s">
         <v>4187</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="131"/>
+      <c r="G10" s="138" t="s">
         <v>3856</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="139" t="s">
         <v>3868</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="140" t="s">
         <v>4184</v>
       </c>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:13" s="27" customFormat="1" ht="15.4" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:13" s="27" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="141" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B11" s="131" t="s">
         <v>4241</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="138" t="s">
         <v>3861</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="139" t="s">
         <v>3879</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="140" t="s">
         <v>4188</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="F11" s="131"/>
+      <c r="G11" s="138" t="s">
         <v>3857</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="139" t="s">
         <v>3869</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="140" t="s">
         <v>4185</v>
       </c>
-      <c r="J11" s="60"/>
-    </row>
-    <row r="12" spans="1:13" s="27" customFormat="1" ht="15.4" x14ac:dyDescent="0.4">
-      <c r="A12" s="36" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B12" s="58" t="s">
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="1:13" s="27" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="141" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B12" s="142" t="s">
         <v>4242</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="132" t="s">
         <v>3862</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="143" t="s">
         <v>3880</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="140" t="s">
         <v>4189</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="F12" s="131"/>
+      <c r="G12" s="132" t="s">
         <v>3858</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="143" t="s">
         <v>3870</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="140" t="s">
         <v>4186</v>
       </c>
-      <c r="J12" s="80"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A13" s="36"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="72"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="80"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="135" t="s">
         <v>3864</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:13" s="27" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="131" t="s">
         <v>3687</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="131" t="s">
         <v>4243</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="138" t="s">
         <v>3893</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="139" t="s">
         <v>3881</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="145" t="s">
         <v>4193</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="F15" s="131"/>
+      <c r="G15" s="138" t="s">
         <v>3888</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="139" t="s">
         <v>3871</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="145" t="s">
         <v>4190</v>
       </c>
-      <c r="J15" s="60"/>
-    </row>
-    <row r="16" spans="1:13" s="27" customFormat="1" ht="15.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="36" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:13" s="27" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="141" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B16" s="131" t="s">
         <v>4244</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="138" t="s">
         <v>3892</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="139" t="s">
         <v>3882</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="145" t="s">
         <v>4194</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="138" t="s">
         <v>3889</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="139" t="s">
         <v>3872</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="145" t="s">
         <v>4191</v>
       </c>
-      <c r="J16" s="60"/>
-    </row>
-    <row r="17" spans="1:13" s="27" customFormat="1" ht="15.4" x14ac:dyDescent="0.4">
-      <c r="A17" s="40" t="s">
-        <v>3886</v>
-      </c>
-      <c r="B17" s="40" t="s">
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="1:13" s="27" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="146" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B17" s="146" t="s">
         <v>4245</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="137" t="s">
         <v>3891</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="147" t="s">
         <v>3883</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="148" t="s">
         <v>4195</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="61" t="s">
+      <c r="F17" s="136"/>
+      <c r="G17" s="149" t="s">
         <v>3890</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="147" t="s">
         <v>3873</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="150" t="s">
         <v>4192</v>
       </c>
-      <c r="J17" s="79"/>
+      <c r="J17" s="75"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="60"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="63"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="60"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>4114</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -51775,12 +52163,12 @@
         <v>4115</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -51792,12 +52180,12 @@
         <v>3887</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -51807,12 +52195,12 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -51822,12 +52210,12 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -51837,11 +52225,11 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="76"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="65"/>
+      <c r="G24" s="62"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -51851,25 +52239,25 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="58"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="65"/>
-      <c r="I25" s="76"/>
+      <c r="G25" s="62"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E27" s="76"/>
+      <c r="E27" s="73"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E29" s="76"/>
+      <c r="E29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -51884,635 +52272,701 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F12E58-D868-435F-8FAE-9EEA35174D6A}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.53125" style="60" customWidth="1"/>
-    <col min="3" max="3" width="24.46484375" style="60" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="16.73046875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" style="60" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" style="60" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="22.53125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="25.73046875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="17.73046875" style="58" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>4249</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>4251</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>4250</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="58" t="s">
         <v>4252</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>4253</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>4254</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="34"/>
+      <c r="B2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="27" t="s">
         <v>3660</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B3" s="91" t="s">
         <v>4429</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>4451</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D3" s="92" t="s">
         <v>4473</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="95" t="s">
+      <c r="E3" s="27" t="s">
+        <v>3660</v>
+      </c>
+      <c r="F3" s="91" t="s">
         <v>4131</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G3" s="91" t="s">
         <v>4133</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H3" s="92" t="s">
         <v>4136</v>
       </c>
-      <c r="J2" s="89"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="87" t="s">
         <v>3672</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B4" s="92" t="s">
         <v>4430</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>4452</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D4" s="92" t="s">
         <v>4474</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="96" t="s">
+      <c r="E4" s="87" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F4" s="92" t="s">
         <v>4257</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G4" s="92" t="s">
         <v>4313</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H4" s="92" t="s">
         <v>4295</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="91" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="87" t="s">
         <v>4625</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B5" s="91" t="s">
         <v>4431</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C5" s="91" t="s">
         <v>4453</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D5" s="91" t="s">
         <v>4475</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="95" t="s">
+      <c r="E5" s="87" t="s">
+        <v>4625</v>
+      </c>
+      <c r="F5" s="91" t="s">
         <v>4258</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G5" s="91" t="s">
         <v>4314</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H5" s="92" t="s">
         <v>4296</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="91" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="87" t="s">
         <v>4256</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B6" s="91" t="s">
         <v>4432</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C6" s="91" t="s">
         <v>4454</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D6" s="91" t="s">
         <v>4476</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="95" t="s">
+      <c r="E6" s="87" t="s">
+        <v>4256</v>
+      </c>
+      <c r="F6" s="91" t="s">
         <v>4259</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G6" s="91" t="s">
         <v>4315</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H6" s="91" t="s">
         <v>4297</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="87" t="s">
         <v>4633</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B7" s="91" t="s">
         <v>4433</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C7" s="91" t="s">
         <v>4455</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D7" s="92" t="s">
         <v>4477</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="96" t="s">
+      <c r="E7" s="87" t="s">
+        <v>4633</v>
+      </c>
+      <c r="F7" s="92" t="s">
         <v>4262</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G7" s="92" t="s">
         <v>4316</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H7" s="92" t="s">
         <v>4298</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="91" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="87" t="s">
         <v>4634</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B8" s="91" t="s">
         <v>4434</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C8" s="91" t="s">
         <v>4456</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D8" s="91" t="s">
         <v>4478</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="95" t="s">
+      <c r="E8" s="87" t="s">
+        <v>4634</v>
+      </c>
+      <c r="F8" s="91" t="s">
         <v>4263</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G8" s="91" t="s">
         <v>4317</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H8" s="92" t="s">
         <v>4299</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="91" t="s">
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="87" t="s">
         <v>4635</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B9" s="91" t="s">
         <v>4435</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C9" s="91" t="s">
         <v>4457</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D9" s="92" t="s">
         <v>4479</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="95" t="s">
+      <c r="E9" s="87" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F9" s="91" t="s">
         <v>4275</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G9" s="91" t="s">
         <v>4318</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H9" s="92" t="s">
         <v>4300</v>
       </c>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="91" t="s">
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="87" t="s">
         <v>4636</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B10" s="91" t="s">
         <v>4436</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C10" s="91" t="s">
         <v>4458</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D10" s="91" t="s">
         <v>4480</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="95" t="s">
+      <c r="E10" s="87" t="s">
+        <v>4636</v>
+      </c>
+      <c r="F10" s="91" t="s">
         <v>4261</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G10" s="91" t="s">
         <v>4319</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H10" s="92" t="s">
         <v>4301</v>
       </c>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="91" t="s">
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="87" t="s">
         <v>4632</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B11" s="91" t="s">
         <v>4437</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C11" s="91" t="s">
         <v>4459</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D11" s="92" t="s">
         <v>4481</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="95" t="s">
+      <c r="E11" s="87" t="s">
+        <v>4632</v>
+      </c>
+      <c r="F11" s="91" t="s">
         <v>4260</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G11" s="91" t="s">
         <v>4320</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H11" s="92" t="s">
         <v>4302</v>
       </c>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="27" t="s">
         <v>4639</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B12" s="91" t="s">
         <v>4438</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C12" s="91" t="s">
         <v>4460</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D12" s="91" t="s">
         <v>4482</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="95" t="s">
+      <c r="E12" s="27" t="s">
+        <v>4639</v>
+      </c>
+      <c r="F12" s="91" t="s">
         <v>4272</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G12" s="91" t="s">
         <v>4321</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H12" s="91" t="s">
         <v>4303</v>
       </c>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="91" t="s">
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="87" t="s">
         <v>4626</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B13" s="91" t="s">
         <v>4439</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C13" s="91" t="s">
         <v>4461</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D13" s="91" t="s">
         <v>4483</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="95" t="s">
+      <c r="E13" s="87" t="s">
+        <v>4626</v>
+      </c>
+      <c r="F13" s="91" t="s">
         <v>4264</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="G13" s="91" t="s">
         <v>4322</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="H13" s="91" t="s">
         <v>4304</v>
       </c>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="91" t="s">
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="87" t="s">
         <v>4627</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B14" s="92" t="s">
         <v>4440</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C14" s="92" t="s">
         <v>4462</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D14" s="92" t="s">
         <v>4484</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="96" t="s">
+      <c r="E14" s="87" t="s">
+        <v>4627</v>
+      </c>
+      <c r="F14" s="92" t="s">
         <v>4265</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G14" s="92" t="s">
         <v>4323</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="H14" s="92" t="s">
         <v>4305</v>
       </c>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="91" t="s">
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="87" t="s">
         <v>3726</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B15" s="91" t="s">
         <v>4441</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C15" s="91" t="s">
         <v>4463</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D15" s="92" t="s">
         <v>4485</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="95" t="s">
+      <c r="E15" s="87" t="s">
+        <v>3726</v>
+      </c>
+      <c r="F15" s="91" t="s">
         <v>4266</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="G15" s="91" t="s">
         <v>4324</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="H15" s="92" t="s">
         <v>4306</v>
       </c>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="91" t="s">
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="87" t="s">
         <v>3727</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B16" s="91" t="s">
         <v>4442</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C16" s="91" t="s">
         <v>4464</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D16" s="92" t="s">
         <v>4486</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="96" t="s">
+      <c r="E16" s="87" t="s">
+        <v>3727</v>
+      </c>
+      <c r="F16" s="92" t="s">
         <v>4267</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G16" s="92" t="s">
         <v>4325</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>4307</v>
       </c>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="91" t="s">
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="87" t="s">
         <v>3671</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B17" s="92" t="s">
         <v>4443</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C17" s="92" t="s">
         <v>4465</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D17" s="92" t="s">
         <v>4487</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="95" t="s">
+      <c r="E17" s="87" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F17" s="91" t="s">
         <v>4268</v>
       </c>
-      <c r="G16" s="95" t="s">
+      <c r="G17" s="91" t="s">
         <v>4326</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H17" s="92" t="s">
         <v>4308</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="91" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="87" t="s">
         <v>3666</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B18" s="91" t="s">
         <v>4444</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C18" s="91" t="s">
         <v>4466</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D18" s="92" t="s">
         <v>4488</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="96" t="s">
+      <c r="E18" s="87" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F18" s="92" t="s">
         <v>4274</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G18" s="92" t="s">
         <v>4327</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H18" s="92" t="s">
         <v>4309</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="91" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="87" t="s">
         <v>4255</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B19" s="91" t="s">
         <v>4445</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C19" s="91" t="s">
         <v>4467</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D19" s="91" t="s">
         <v>4489</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="95" t="s">
+      <c r="E19" s="87" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F19" s="91" t="s">
         <v>4269</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G19" s="91" t="s">
         <v>4328</v>
       </c>
-      <c r="H18" s="96" t="s">
+      <c r="H19" s="92" t="s">
         <v>4310</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="91" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="87" t="s">
         <v>4628</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B20" s="92" t="s">
         <v>4446</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C20" s="92" t="s">
         <v>4468</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D20" s="92" t="s">
         <v>4490</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="96" t="s">
+      <c r="E20" s="87" t="s">
+        <v>4628</v>
+      </c>
+      <c r="F20" s="92" t="s">
         <v>4270</v>
       </c>
-      <c r="G19" s="96" t="s">
+      <c r="G20" s="92" t="s">
         <v>4329</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H20" s="92" t="s">
         <v>4311</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="91" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="87" t="s">
         <v>3669</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B21" s="91" t="s">
         <v>4447</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C21" s="91" t="s">
         <v>4469</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D21" s="91" t="s">
         <v>4491</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="95" t="s">
+      <c r="E21" s="87" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F21" s="91" t="s">
         <v>4273</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G21" s="91" t="s">
         <v>4330</v>
       </c>
-      <c r="H20" s="96" t="s">
+      <c r="H21" s="92" t="s">
         <v>4312</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="91" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="87" t="s">
         <v>3671</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B22" s="92" t="s">
         <v>4448</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C22" s="92" t="s">
         <v>4470</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D22" s="92" t="s">
         <v>4492</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="98" t="s">
+      <c r="E22" s="87" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F22" s="94" t="s">
         <v>4271</v>
       </c>
-      <c r="G21" s="98" t="s">
+      <c r="G22" s="94" t="s">
         <v>4331</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H22" s="94" t="s">
         <v>4630</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="91" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="87" t="s">
         <v>4629</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B23" s="91" t="s">
         <v>4449</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C23" s="91" t="s">
         <v>4471</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D23" s="91" t="s">
         <v>4493</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="99" t="s">
+      <c r="E23" s="87" t="s">
+        <v>4629</v>
+      </c>
+      <c r="F23" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="99" t="s">
+      <c r="G23" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H23" s="95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="91" t="s">
-        <v>374</v>
-      </c>
-      <c r="B23" s="97" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="87" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B24" s="93" t="s">
         <v>4450</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C24" s="93" t="s">
         <v>4472</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D24" s="94" t="s">
         <v>4494</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="99" t="s">
+      <c r="E24" s="87" t="s">
+        <v>3690</v>
+      </c>
+      <c r="F24" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="99" t="s">
+      <c r="G24" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="99" t="s">
+      <c r="H24" s="95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F24" s="99" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F25" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="G25" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H25" s="95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="99" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="99" t="s">
+      <c r="E26" s="86"/>
+      <c r="F26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="99" t="s">
+      <c r="H26" s="95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J26" s="76"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J27" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52522,631 +52976,724 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176C4FED-12C9-471E-9583-72A025488CD3}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="21.1328125" style="60" customWidth="1"/>
+    <col min="2" max="4" width="21.1328125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" style="58" customWidth="1"/>
+    <col min="6" max="8" width="21.1328125" style="58" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>4249</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>4251</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>4250</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="58" t="s">
         <v>4252</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>4253</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>4254</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="34"/>
+      <c r="B2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>4653</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="27" t="s">
         <v>3660</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B3" s="91" t="s">
         <v>4123</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>4517</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D3" s="92" t="s">
         <v>4129</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="E3" s="27" t="s">
+        <v>3660</v>
+      </c>
+      <c r="F3" s="92" t="s">
         <v>4132</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G3" s="91" t="s">
         <v>4351</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H3" s="92" t="s">
         <v>4137</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="89"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="K3" s="89"/>
+      <c r="L3" s="85"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="87" t="s">
         <v>3672</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B4" s="91" t="s">
         <v>4495</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>4518</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D4" s="92" t="s">
         <v>4540</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="E4" s="87" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F4" s="91" t="s">
         <v>4277</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G4" s="91" t="s">
         <v>4352</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H4" s="92" t="s">
         <v>4332</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="93"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="91" t="s">
+      <c r="K4" s="90"/>
+      <c r="L4" s="89"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="87" t="s">
         <v>4625</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B5" s="91" t="s">
         <v>4496</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C5" s="91" t="s">
         <v>4519</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D5" s="91" t="s">
         <v>4541</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="E5" s="87" t="s">
+        <v>4625</v>
+      </c>
+      <c r="F5" s="91" t="s">
         <v>4278</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G5" s="91" t="s">
         <v>4353</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H5" s="91" t="s">
         <v>4333</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="93"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="91" t="s">
+      <c r="K5" s="90"/>
+      <c r="L5" s="89"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="87" t="s">
         <v>4256</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B6" s="91" t="s">
         <v>4497</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C6" s="91" t="s">
         <v>4520</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D6" s="91" t="s">
         <v>4542</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="E6" s="87" t="s">
+        <v>4256</v>
+      </c>
+      <c r="F6" s="91" t="s">
         <v>4294</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G6" s="91" t="s">
         <v>4354</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H6" s="91" t="s">
         <v>4334</v>
       </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="93"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+      <c r="K6" s="90"/>
+      <c r="L6" s="89"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="87" t="s">
         <v>4633</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B7" s="91" t="s">
         <v>4498</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C7" s="91" t="s">
         <v>4521</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D7" s="92" t="s">
         <v>4543</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="E7" s="87" t="s">
+        <v>4633</v>
+      </c>
+      <c r="F7" s="91" t="s">
         <v>4276</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G7" s="91" t="s">
         <v>4355</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H7" s="92" t="s">
         <v>4335</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="93"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="91" t="s">
+      <c r="K7" s="90"/>
+      <c r="L7" s="89"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="87" t="s">
         <v>4634</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B8" s="91" t="s">
         <v>4499</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C8" s="91" t="s">
         <v>4522</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D8" s="92" t="s">
         <v>4544</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="E8" s="87" t="s">
+        <v>4634</v>
+      </c>
+      <c r="F8" s="91" t="s">
         <v>4279</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G8" s="91" t="s">
         <v>4356</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H8" s="92" t="s">
         <v>4336</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="93"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="91" t="s">
+      <c r="K8" s="90"/>
+      <c r="L8" s="89"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="87" t="s">
         <v>4635</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B9" s="91" t="s">
         <v>4500</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C9" s="91" t="s">
         <v>4523</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D9" s="91" t="s">
         <v>4545</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="E9" s="87" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F9" s="91" t="s">
         <v>4280</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G9" s="91" t="s">
         <v>4357</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H9" s="92" t="s">
         <v>4337</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="93"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="91" t="s">
+      <c r="K9" s="90"/>
+      <c r="L9" s="89"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="87" t="s">
         <v>4636</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B10" s="91" t="s">
         <v>4501</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C10" s="91" t="s">
         <v>4524</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D10" s="91" t="s">
         <v>4546</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="E10" s="87" t="s">
+        <v>4636</v>
+      </c>
+      <c r="F10" s="91" t="s">
         <v>4281</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G10" s="91" t="s">
         <v>4358</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H10" s="92" t="s">
         <v>4338</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="93"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="91" t="s">
+      <c r="K10" s="90"/>
+      <c r="L10" s="89"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="87" t="s">
         <v>4632</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B11" s="91" t="s">
         <v>4502</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C11" s="91" t="s">
         <v>4525</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D11" s="92" t="s">
         <v>4547</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="E11" s="87" t="s">
+        <v>4632</v>
+      </c>
+      <c r="F11" s="91" t="s">
         <v>4290</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G11" s="91" t="s">
         <v>4359</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H11" s="92" t="s">
         <v>4339</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="93"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
+      <c r="K11" s="90"/>
+      <c r="L11" s="89"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="27" t="s">
         <v>4639</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B12" s="91" t="s">
         <v>4503</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C12" s="91" t="s">
         <v>4526</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D12" s="91" t="s">
         <v>4548</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="E12" s="27" t="s">
+        <v>4639</v>
+      </c>
+      <c r="F12" s="91" t="s">
         <v>4293</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G12" s="91" t="s">
         <v>4360</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H12" s="91" t="s">
         <v>4340</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="93"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="91" t="s">
+      <c r="K12" s="90"/>
+      <c r="L12" s="89"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="87" t="s">
         <v>4626</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B13" s="91" t="s">
         <v>4504</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C13" s="91" t="s">
         <v>4527</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D13" s="91" t="s">
         <v>4549</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="E13" s="87" t="s">
+        <v>4626</v>
+      </c>
+      <c r="F13" s="92" t="s">
         <v>4282</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G13" s="92" t="s">
         <v>4361</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H13" s="92" t="s">
         <v>4341</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="93"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="91" t="s">
+      <c r="K13" s="90"/>
+      <c r="L13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="87" t="s">
         <v>4627</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B14" s="92" t="s">
         <v>4505</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C14" s="92" t="s">
         <v>4528</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D14" s="92" t="s">
         <v>4550</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="E14" s="87" t="s">
+        <v>4627</v>
+      </c>
+      <c r="F14" s="91" t="s">
         <v>4289</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G14" s="91" t="s">
         <v>4362</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="H14" s="92" t="s">
         <v>4342</v>
       </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="93"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="91" t="s">
+      <c r="K14" s="90"/>
+      <c r="L14" s="89"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="87" t="s">
         <v>3726</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>4506</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C15" s="92" t="s">
         <v>4529</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D15" s="92" t="s">
         <v>4551</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="E15" s="87" t="s">
+        <v>3726</v>
+      </c>
+      <c r="F15" s="92" t="s">
         <v>4291</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G15" s="92" t="s">
         <v>4363</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="H15" s="92" t="s">
         <v>4343</v>
       </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="93"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="91" t="s">
+      <c r="K15" s="90"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="87" t="s">
         <v>3727</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B16" s="92" t="s">
         <v>4507</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C16" s="92" t="s">
         <v>4530</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D16" s="92" t="s">
         <v>4552</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="E16" s="87" t="s">
+        <v>3727</v>
+      </c>
+      <c r="F16" s="92" t="s">
         <v>4283</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G16" s="92" t="s">
         <v>4364</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>4344</v>
       </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="93"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="91" t="s">
+      <c r="K16" s="90"/>
+      <c r="L16" s="89"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="87" t="s">
         <v>3671</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B17" s="92" t="s">
         <v>4508</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C17" s="92" t="s">
         <v>4531</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D17" s="92" t="s">
         <v>4553</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="E17" s="87" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F17" s="92" t="s">
         <v>4284</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G17" s="92" t="s">
         <v>4365</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H17" s="92" t="s">
         <v>4345</v>
       </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="93"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="91" t="s">
+      <c r="K17" s="90"/>
+      <c r="L17" s="89"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="87" t="s">
         <v>3666</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B18" s="92" t="s">
         <v>4509</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C18" s="92" t="s">
         <v>4532</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D18" s="92" t="s">
         <v>4554</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="E18" s="87" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F18" s="91" t="s">
         <v>4285</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G18" s="91" t="s">
         <v>4366</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H18" s="92" t="s">
         <v>4346</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="93"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="91" t="s">
+      <c r="K18" s="90"/>
+      <c r="L18" s="89"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="87" t="s">
         <v>4255</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B19" s="91" t="s">
         <v>4510</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C19" s="91" t="s">
         <v>4533</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D19" s="91" t="s">
         <v>4555</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="E19" s="87" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F19" s="91" t="s">
         <v>4286</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G19" s="91" t="s">
         <v>4367</v>
       </c>
-      <c r="H18" s="96" t="s">
+      <c r="H19" s="92" t="s">
         <v>4347</v>
       </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="93"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="91" t="s">
+      <c r="K19" s="90"/>
+      <c r="L19" s="89"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="87" t="s">
         <v>4628</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B20" s="92" t="s">
         <v>4511</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C20" s="92" t="s">
         <v>4534</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D20" s="92" t="s">
         <v>4556</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="E20" s="87" t="s">
+        <v>4628</v>
+      </c>
+      <c r="F20" s="92" t="s">
         <v>4287</v>
       </c>
-      <c r="G19" s="96" t="s">
+      <c r="G20" s="92" t="s">
         <v>4368</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H20" s="92" t="s">
         <v>4348</v>
       </c>
-      <c r="K19" s="94"/>
-      <c r="L19" s="93"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="91" t="s">
+      <c r="K20" s="90"/>
+      <c r="L20" s="89"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="87" t="s">
         <v>3669</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B21" s="91" t="s">
         <v>4512</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C21" s="91" t="s">
         <v>4535</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D21" s="91" t="s">
         <v>4557</v>
       </c>
-      <c r="F20" s="95" t="s">
+      <c r="E21" s="87" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F21" s="91" t="s">
         <v>4292</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G21" s="91" t="s">
         <v>4369</v>
       </c>
-      <c r="H20" s="96" t="s">
+      <c r="H21" s="92" t="s">
         <v>4349</v>
       </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="93"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="91" t="s">
+      <c r="K21" s="90"/>
+      <c r="L21" s="89"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="87" t="s">
         <v>3671</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B22" s="92" t="s">
         <v>4513</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C22" s="92" t="s">
         <v>4536</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D22" s="92" t="s">
         <v>4558</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="E22" s="87" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F22" s="94" t="s">
         <v>4288</v>
       </c>
-      <c r="G21" s="98" t="s">
+      <c r="G22" s="94" t="s">
         <v>4370</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H22" s="94" t="s">
         <v>4350</v>
       </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="93"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="91" t="s">
+      <c r="K22" s="90"/>
+      <c r="L22" s="89"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="87" t="s">
         <v>3659</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B23" s="91" t="s">
         <v>4514</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C23" s="91" t="s">
         <v>4537</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D23" s="91" t="s">
         <v>4559</v>
       </c>
-      <c r="F22" s="99" t="s">
+      <c r="E23" s="87" t="s">
+        <v>3659</v>
+      </c>
+      <c r="F23" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="99" t="s">
+      <c r="G23" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H23" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="93"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="91" t="s">
+      <c r="K23" s="90"/>
+      <c r="L23" s="89"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="87" t="s">
         <v>4629</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B24" s="91" t="s">
         <v>4515</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C24" s="91" t="s">
         <v>4538</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D24" s="91" t="s">
         <v>4560</v>
       </c>
-      <c r="F23" s="99" t="s">
+      <c r="E24" s="87" t="s">
+        <v>4629</v>
+      </c>
+      <c r="F24" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="99" t="s">
+      <c r="G24" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="99" t="s">
+      <c r="H24" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="93"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="91" t="s">
+      <c r="K24" s="90"/>
+      <c r="L24" s="89"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B25" s="93" t="s">
         <v>4516</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C25" s="93" t="s">
         <v>4539</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D25" s="93" t="s">
         <v>4561</v>
       </c>
-      <c r="F24" s="99" t="s">
+      <c r="E25" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="G25" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H25" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="94"/>
-      <c r="L24" s="93"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="99" t="s">
+      <c r="K25" s="90"/>
+      <c r="L25" s="89"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="99" t="s">
+      <c r="H26" s="95" t="s">
         <v>93</v>
       </c>
     </row>
@@ -53156,15 +53703,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000918DFE69D23CA498FE8574F69332F5A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c85c3d5046845ec940253ce92485889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1ec804960e8faf3526f8b911669b534" ns3:_="">
     <xsd:import namespace="10f9cd9a-7ad2-47ce-9abb-80d6fe5fd300"/>
@@ -53310,6 +53848,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -53317,14 +53864,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35180B2B-1E9F-4F31-82AD-E5A4A56A900A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53338,6 +53877,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77295791-F19B-40DD-BDD7-633F94102999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
